--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41855B03-8402-4759-9C59-41D74F90D300}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7779F000-FBF0-40EE-84D7-B33AF2E36436}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8112" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Default No</t>
   </si>
@@ -49,6 +50,27 @@
   </si>
   <si>
     <t>Base ?</t>
+  </si>
+  <si>
+    <t>defaultSetIndex</t>
+  </si>
+  <si>
+    <t>modelCount</t>
+  </si>
+  <si>
+    <t>symmBrokenCount</t>
+  </si>
+  <si>
+    <t>symmBrokenPct</t>
+  </si>
+  <si>
+    <t>stdDev</t>
+  </si>
+  <si>
+    <t>m+s</t>
+  </si>
+  <si>
+    <t>m-s</t>
   </si>
 </sst>
 </file>
@@ -104,6 +126,1118 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>symmBrokenPct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.40909090909090901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E894-47FD-B374-FCF6B8CA08AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>m-s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.33496945820391688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6536603331657174E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.984635215509109E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.667878888070657E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E894-47FD-B374-FCF6B8CA08AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>m+s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.48321235997790113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18346339666834283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12301536478449089</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23332121111929344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E894-47FD-B374-FCF6B8CA08AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="718498560"/>
+        <c:axId val="663223568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="718498560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663223568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="663223568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718498560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{33B97261-6C74-4521-AF12-100C49BAA05F}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8670192" cy="6291385"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{727EC900-854E-439D-9586-B58CF15A5A8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" activeCellId="3" sqref="E1:E6 I1:I6 K1:K6 L1:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -417,7 +1551,7 @@
     <col min="5" max="5" width="9.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,13 +1567,34 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -452,8 +1607,32 @@
       <c r="E3">
         <v>0.3</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>44</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>0.40909090909090901</v>
+      </c>
+      <c r="J3">
+        <f>SQRT(I3*(1-I3)/G3)</f>
+        <v>7.4121450886992138E-2</v>
+      </c>
+      <c r="K3">
+        <f>I3-J3</f>
+        <v>0.33496945820391688</v>
+      </c>
+      <c r="L3">
+        <f>I3+J3</f>
+        <v>0.48321235997790113</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -466,8 +1645,32 @@
       <c r="E4">
         <v>0.1</v>
       </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>0.125</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J6" si="0">SQRT(I4*(1-I4)/G4)</f>
+        <v>5.8463396668342833E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K6" si="1">I4-J4</f>
+        <v>6.6536603331657174E-2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L6" si="2">I4+J4</f>
+        <v>0.18346339666834283</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -480,8 +1683,32 @@
       <c r="E5">
         <v>0.7</v>
       </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>6.0515364784490891E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>1.984635215509109E-3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.12301536478449089</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -493,6 +1720,30 @@
       </c>
       <c r="E6">
         <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>0.16</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>7.3321211119293433E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>8.667878888070657E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>0.23332121111929344</v>
       </c>
     </row>
   </sheetData>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7779F000-FBF0-40EE-84D7-B33AF2E36436}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCCA9B0-2961-4B36-A374-EDD8389A654E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8112" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -488,7 +488,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -550,7 +550,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1211,7 +1211,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8670192" cy="6291385"/>
+    <xdr:ext cx="8665308" cy="6291385"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCCA9B0-2961-4B36-A374-EDD8389A654E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8DACC6-B3F4-45EC-B710-98409CB338E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8112" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Default No</t>
   </si>
@@ -106,11 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,10 +217,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="1">
                   <c:v>0.3</c:v>
                 </c:pt>
@@ -231,16 +232,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:f>Sheet1!$I$2:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="1">
                   <c:v>0.40909090909090901</c:v>
                 </c:pt>
@@ -251,7 +255,10 @@
                   <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16</c:v>
+                  <c:v>0.13888888888888901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -301,10 +308,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="1">
                   <c:v>0.3</c:v>
                 </c:pt>
@@ -316,16 +323,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$6</c:f>
+              <c:f>Sheet1!$K$2:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="1">
                   <c:v>0.33496945820391688</c:v>
                 </c:pt>
@@ -336,7 +346,10 @@
                   <c:v>1.984635215509109E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.667878888070657E-2</c:v>
+                  <c:v>8.1250464824126345E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12697032566597785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -386,10 +399,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:f>Sheet1!$E$2:$E$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="1">
                   <c:v>0.3</c:v>
                 </c:pt>
@@ -401,16 +414,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$6</c:f>
+              <c:f>Sheet1!$L$2:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="1">
                   <c:v>0.48321235997790113</c:v>
                 </c:pt>
@@ -421,7 +437,10 @@
                   <c:v>0.12301536478449089</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23332121111929344</c:v>
+                  <c:v>0.19652731295365167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27302967433402214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1200,7 +1219,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{33B97261-6C74-4521-AF12-100C49BAA05F}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1537,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" activeCellId="3" sqref="E1:E6 I1:I6 K1:K6 L1:L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1604,7 +1623,7 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.3</v>
       </c>
       <c r="F3">
@@ -1642,7 +1661,7 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.1</v>
       </c>
       <c r="F4">
@@ -1680,7 +1699,7 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0.7</v>
       </c>
       <c r="F5">
@@ -1718,32 +1737,140 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>0.5</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>0.16</v>
+        <v>0.13888888888888901</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>7.3321211119293433E-2</v>
+        <v>5.7638424064762668E-2</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>8.667878888070657E-2</v>
+        <v>8.1250464824126345E-2</v>
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
-        <v>0.23332121111929344</v>
+        <v>0.19652731295365167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7" si="3">SQRT(I7*(1-I7)/G7)</f>
+        <v>7.302967433402216E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7" si="4">I7-J7</f>
+        <v>0.12697032566597785</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7" si="5">I7+J7</f>
+        <v>0.27302967433402214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8DACC6-B3F4-45EC-B710-98409CB338E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20182EBC-006C-4D56-B549-78A199E52238}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8112" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8112" activeTab="1" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,10 +217,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="1">
                   <c:v>0.3</c:v>
                 </c:pt>
@@ -235,16 +235,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$7</c:f>
+              <c:f>Sheet1!$I$2:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="1">
                   <c:v>0.40909090909090901</c:v>
                 </c:pt>
@@ -258,7 +261,10 @@
                   <c:v>0.13888888888888901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>0.225806451612903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57142857142857095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -308,10 +314,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="1">
                   <c:v>0.3</c:v>
                 </c:pt>
@@ -326,16 +332,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$7</c:f>
+              <c:f>Sheet1!$K$2:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="1">
                   <c:v>0.33496945820391688</c:v>
                 </c:pt>
@@ -349,7 +358,10 @@
                   <c:v>8.1250464824126345E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12697032566597785</c:v>
+                  <c:v>0.15071126512937039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38438466551200601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -399,10 +411,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$7</c:f>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="1">
                   <c:v>0.3</c:v>
                 </c:pt>
@@ -417,16 +429,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$7</c:f>
+              <c:f>Sheet1!$L$2:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="1">
                   <c:v>0.48321235997790113</c:v>
                 </c:pt>
@@ -440,7 +455,10 @@
                   <c:v>0.19652731295365167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27302967433402214</c:v>
+                  <c:v>0.30090163809643561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7584724773451359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,7 +1237,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{33B97261-6C74-4521-AF12-100C49BAA05F}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1558,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1782,25 +1800,25 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7">
-        <v>0.2</v>
+        <v>0.225806451612903</v>
       </c>
       <c r="J7">
         <f t="shared" ref="J7" si="3">SQRT(I7*(1-I7)/G7)</f>
-        <v>7.302967433402216E-2</v>
+        <v>7.5095186483532611E-2</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7" si="4">I7-J7</f>
-        <v>0.12697032566597785</v>
+        <v>0.15071126512937039</v>
       </c>
       <c r="L7">
         <f t="shared" ref="L7" si="5">I7+J7</f>
-        <v>0.27302967433402214</v>
+        <v>0.30090163809643561</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1815,6 +1833,30 @@
       </c>
       <c r="E8" s="2">
         <v>0.25</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8" si="6">SQRT(I8*(1-I8)/G8)</f>
+        <v>0.18704390591656492</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8" si="7">I8-J8</f>
+        <v>0.38438466551200601</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8" si="8">I8+J8</f>
+        <v>0.7584724773451359</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20182EBC-006C-4D56-B549-78A199E52238}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EF296E-B68A-4A8C-9849-7669D8FE894F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8112" activeTab="1" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -264,7 +264,7 @@
                   <c:v>0.225806451612903</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57142857142857095</c:v>
+                  <c:v>0.35294117647058798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -361,7 +361,7 @@
                   <c:v>0.15071126512937039</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38438466551200601</c:v>
+                  <c:v>0.23703713339484941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -458,7 +458,7 @@
                   <c:v>0.30090163809643561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7584724773451359</c:v>
+                  <c:v>0.46884521954632652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1577,7 +1577,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:L8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1838,25 +1838,25 @@
         <v>6</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>0.57142857142857095</v>
+        <v>0.35294117647058798</v>
       </c>
       <c r="J8">
         <f t="shared" ref="J8" si="6">SQRT(I8*(1-I8)/G8)</f>
-        <v>0.18704390591656492</v>
+        <v>0.11590404307573857</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="7">I8-J8</f>
-        <v>0.38438466551200601</v>
+        <v>0.23703713339484941</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8" si="8">I8+J8</f>
-        <v>0.7584724773451359</v>
+        <v>0.46884521954632652</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EF296E-B68A-4A8C-9849-7669D8FE894F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A857F80D-71B7-4127-93C5-E72AD3F768F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8112" activeTab="1" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -264,7 +264,7 @@
                   <c:v>0.225806451612903</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35294117647058798</c:v>
+                  <c:v>0.27500000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -361,7 +361,7 @@
                   <c:v>0.15071126512937039</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23703713339484941</c:v>
+                  <c:v>0.20439989376778533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -458,7 +458,7 @@
                   <c:v>0.30090163809643561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46884521954632652</c:v>
+                  <c:v>0.34560010623221471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1577,7 +1577,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1838,25 +1838,25 @@
         <v>6</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I8">
-        <v>0.35294117647058798</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="J8">
         <f t="shared" ref="J8" si="6">SQRT(I8*(1-I8)/G8)</f>
-        <v>0.11590404307573857</v>
+        <v>7.0600106232214688E-2</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="7">I8-J8</f>
-        <v>0.23703713339484941</v>
+        <v>0.20439989376778533</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8" si="8">I8+J8</f>
-        <v>0.46884521954632652</v>
+        <v>0.34560010623221471</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A857F80D-71B7-4127-93C5-E72AD3F768F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0A292D-F755-46A9-9DCD-7AF9619D0CCB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8112" activeTab="1" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -217,10 +217,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:f>Sheet1!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="1">
                   <c:v>0.3</c:v>
                 </c:pt>
@@ -238,16 +238,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$8</c:f>
+              <c:f>Sheet1!$I$2:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="1">
                   <c:v>0.40909090909090901</c:v>
                 </c:pt>
@@ -264,7 +267,10 @@
                   <c:v>0.225806451612903</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.27500000000000002</c:v>
+                  <c:v>0.24444444444444399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18518518518518501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -314,10 +320,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:f>Sheet1!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="1">
                   <c:v>0.3</c:v>
                 </c:pt>
@@ -335,16 +341,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$8</c:f>
+              <c:f>Sheet1!$K$2:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="1">
                   <c:v>0.33496945820391688</c:v>
                 </c:pt>
@@ -361,7 +370,10 @@
                   <c:v>0.15071126512937039</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20439989376778533</c:v>
+                  <c:v>0.18038000500610432</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1104283863185803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -411,10 +423,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$8</c:f>
+              <c:f>Sheet1!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="1">
                   <c:v>0.3</c:v>
                 </c:pt>
@@ -432,16 +444,19 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$8</c:f>
+              <c:f>Sheet1!$L$2:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="1">
                   <c:v>0.48321235997790113</c:v>
                 </c:pt>
@@ -458,7 +473,10 @@
                   <c:v>0.30090163809643561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.34560010623221471</c:v>
+                  <c:v>0.30850888388278364</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2599419840517897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1577,7 +1595,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J9" sqref="J9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1838,25 +1856,25 @@
         <v>6</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H8">
         <v>11</v>
       </c>
       <c r="I8">
-        <v>0.27500000000000002</v>
+        <v>0.24444444444444399</v>
       </c>
       <c r="J8">
         <f t="shared" ref="J8" si="6">SQRT(I8*(1-I8)/G8)</f>
-        <v>7.0600106232214688E-2</v>
+        <v>6.4064439438339671E-2</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" si="7">I8-J8</f>
-        <v>0.20439989376778533</v>
+        <v>0.18038000500610432</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8" si="8">I8+J8</f>
-        <v>0.34560010623221471</v>
+        <v>0.30850888388278364</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1871,6 +1889,30 @@
       </c>
       <c r="E9" s="2">
         <v>0.2</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>0.18518518518518501</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9" si="9">SQRT(I9*(1-I9)/G9)</f>
+        <v>7.4756798866604704E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9" si="10">I9-J9</f>
+        <v>0.1104283863185803</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9" si="11">I9+J9</f>
+        <v>0.2599419840517897</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0A292D-F755-46A9-9DCD-7AF9619D0CCB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1B7E30-9709-41E0-99BC-C4B0FC2B23E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8112" activeTab="1" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -270,7 +270,7 @@
                   <c:v>0.24444444444444399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18518518518518501</c:v>
+                  <c:v>0.22500000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -373,7 +373,7 @@
                   <c:v>0.18038000500610432</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1104283863185803</c:v>
+                  <c:v>0.1589744367687787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -476,7 +476,7 @@
                   <c:v>0.30850888388278364</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2599419840517897</c:v>
+                  <c:v>0.29102556323122131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1595,7 +1595,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:L9"/>
+      <selection activeCell="F3" sqref="F3:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1894,25 +1894,25 @@
         <v>7</v>
       </c>
       <c r="G9">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I9">
-        <v>0.18518518518518501</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9" si="9">SQRT(I9*(1-I9)/G9)</f>
-        <v>7.4756798866604704E-2</v>
+        <v>6.6025563231221288E-2</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9" si="10">I9-J9</f>
-        <v>0.1104283863185803</v>
+        <v>0.1589744367687787</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9" si="11">I9+J9</f>
-        <v>0.2599419840517897</v>
+        <v>0.29102556323122131</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1B7E30-9709-41E0-99BC-C4B0FC2B23E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F83FFC-ACA9-44F5-BA12-C0D190CA1350}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8112" activeTab="1" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8112" activeTab="2" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Chart1" sheetId="2" r:id="rId2"/>
+    <sheet name="NumberOfSubstances" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Default No</t>
   </si>
@@ -71,6 +72,9 @@
   </si>
   <si>
     <t>m-s</t>
+  </si>
+  <si>
+    <t>NoOfAminoAcids</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1259,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{33B97261-6C74-4521-AF12-100C49BAA05F}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1961,4 +1965,227 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CCFDC-E723-428F-8C43-820106604DAB}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <f>1+A2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <f t="shared" ref="A4:A33" si="0">1+A3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>22767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>27933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>33827</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>219663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F83FFC-ACA9-44F5-BA12-C0D190CA1350}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D93DD1-4DAF-4DC9-8E87-A54371576874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8112" activeTab="2" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8112" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -274,7 +274,7 @@
                   <c:v>0.24444444444444399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22500000000000001</c:v>
+                  <c:v>0.214285714285714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,7 +377,7 @@
                   <c:v>0.18038000500610432</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1589744367687787</c:v>
+                  <c:v>0.150971052826577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,7 +480,7 @@
                   <c:v>0.30850888388278364</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29102556323122131</c:v>
+                  <c:v>0.27760037574485097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1598,7 +1598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:I9"/>
     </sheetView>
   </sheetViews>
@@ -1898,25 +1898,25 @@
         <v>7</v>
       </c>
       <c r="G9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>9</v>
       </c>
       <c r="I9">
-        <v>0.22500000000000001</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="J9">
         <f t="shared" ref="J9" si="9">SQRT(I9*(1-I9)/G9)</f>
-        <v>6.6025563231221288E-2</v>
+        <v>6.3314661459137E-2</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9" si="10">I9-J9</f>
-        <v>0.1589744367687787</v>
+        <v>0.150971052826577</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9" si="11">I9+J9</f>
-        <v>0.29102556323122131</v>
+        <v>0.27760037574485097</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -1971,7 +1971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CCFDC-E723-428F-8C43-820106604DAB}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D93DD1-4DAF-4DC9-8E87-A54371576874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6969963F-318B-4BBF-8BA1-6B3C9D2B22F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8112" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8112" activeTab="2" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Defaults" sheetId="1" r:id="rId1"/>
     <sheet name="Chart1" sheetId="2" r:id="rId2"/>
     <sheet name="NumberOfSubstances" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Default No</t>
   </si>
@@ -41,13 +41,7 @@
     <t>Base Default</t>
   </si>
   <si>
-    <t>Varied Parameter</t>
-  </si>
-  <si>
     <t>New Value</t>
-  </si>
-  <si>
-    <t>defaultCatDestrSimModel -&gt; simThreshold</t>
   </si>
   <si>
     <t>Base ?</t>
@@ -75,6 +69,27 @@
   </si>
   <si>
     <t>NoOfAminoAcids</t>
+  </si>
+  <si>
+    <t>NoOfSubst</t>
+  </si>
+  <si>
+    <t>NoOfCatPairs</t>
+  </si>
+  <si>
+    <t>catDestrRndParam</t>
+  </si>
+  <si>
+    <t>(Some 0.0001), 100_000.0</t>
+  </si>
+  <si>
+    <t>simThreshold</t>
+  </si>
+  <si>
+    <t>(Some 0.2)</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -110,12 +125,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -188,7 +204,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Defaults!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -221,29 +237,11 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:f>Defaults!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="0">
                   <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -251,7 +249,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$9</c:f>
+              <c:f>Defaults!$J$2:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -291,7 +289,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>Defaults!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -324,29 +322,11 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:f>Defaults!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="0">
                   <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -354,7 +334,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$9</c:f>
+              <c:f>Defaults!$M$2:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -394,7 +374,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>Defaults!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -427,29 +407,11 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$9</c:f>
+              <c:f>Defaults!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="0">
                   <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -457,7 +419,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$9</c:f>
+              <c:f>Defaults!$N$2:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -525,7 +487,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1596,370 +1558,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="8.83984375" style="1"/>
     <col min="3" max="3" width="13.89453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.26171875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.68359375" customWidth="1"/>
+    <col min="6" max="6" width="9.1015625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="F3" s="2"/>
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="H3">
         <v>44</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>18</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.40909090909090901</v>
       </c>
-      <c r="J3">
-        <f>SQRT(I3*(1-I3)/G3)</f>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <f>SQRT(J3*(1-J3)/H3)</f>
         <v>7.4121450886992138E-2</v>
       </c>
-      <c r="K3">
-        <f>I3-J3</f>
+      <c r="M3">
+        <f>J3-L3</f>
         <v>0.33496945820391688</v>
       </c>
-      <c r="L3">
-        <f>I3+J3</f>
+      <c r="N3">
+        <f>J3+L3</f>
         <v>0.48321235997790113</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.125</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J6" si="0">SQRT(I4*(1-I4)/G4)</f>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L6" si="0">SQRT(J4*(1-J4)/H4)</f>
         <v>5.8463396668342833E-2</v>
       </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K6" si="1">I4-J4</f>
+      <c r="M4">
+        <f t="shared" ref="M4:M6" si="1">J4-L4</f>
         <v>6.6536603331657174E-2</v>
       </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L6" si="2">I4+J4</f>
+      <c r="N4">
+        <f t="shared" ref="N4:N6" si="2">J4+L4</f>
         <v>0.18346339666834283</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="F5" s="2"/>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>16</v>
+      </c>
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="J5">
         <v>6.25E-2</v>
       </c>
-      <c r="J5">
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="0"/>
         <v>6.0515364784490891E-2</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <f t="shared" si="1"/>
         <v>1.984635215509109E-3</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <f t="shared" si="2"/>
         <v>0.12301536478449089</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
+      <c r="H6">
         <v>36</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.13888888888888901</v>
       </c>
-      <c r="J6">
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="0"/>
         <v>5.7638424064762668E-2</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <f t="shared" si="1"/>
         <v>8.1250464824126345E-2</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <f t="shared" si="2"/>
         <v>0.19652731295365167</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="F7">
+      <c r="F7" s="2"/>
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>31</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.225806451612903</v>
       </c>
-      <c r="J7">
-        <f t="shared" ref="J7" si="3">SQRT(I7*(1-I7)/G7)</f>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7" si="3">SQRT(J7*(1-J7)/H7)</f>
         <v>7.5095186483532611E-2</v>
       </c>
-      <c r="K7">
-        <f t="shared" ref="K7" si="4">I7-J7</f>
+      <c r="M7">
+        <f t="shared" ref="M7" si="4">J7-L7</f>
         <v>0.15071126512937039</v>
       </c>
-      <c r="L7">
-        <f t="shared" ref="L7" si="5">I7+J7</f>
+      <c r="N7">
+        <f t="shared" ref="N7" si="5">J7+L7</f>
         <v>0.30090163809643561</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="F8">
+      <c r="F8" s="2"/>
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>45</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>11</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.24444444444444399</v>
       </c>
-      <c r="J8">
-        <f t="shared" ref="J8" si="6">SQRT(I8*(1-I8)/G8)</f>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8" si="6">SQRT(J8*(1-J8)/H8)</f>
         <v>6.4064439438339671E-2</v>
       </c>
-      <c r="K8">
-        <f t="shared" ref="K8" si="7">I8-J8</f>
+      <c r="M8">
+        <f t="shared" ref="M8" si="7">J8-L8</f>
         <v>0.18038000500610432</v>
       </c>
-      <c r="L8">
-        <f t="shared" ref="L8" si="8">I8+J8</f>
+      <c r="N8">
+        <f t="shared" ref="N8" si="8">J8+L8</f>
         <v>0.30850888388278364</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F9">
+      <c r="F9" s="2"/>
+      <c r="G9">
         <v>7</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>42</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.214285714285714</v>
       </c>
-      <c r="J9">
-        <f t="shared" ref="J9" si="9">SQRT(I9*(1-I9)/G9)</f>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9" si="9">SQRT(J9*(1-J9)/H9)</f>
         <v>6.3314661459137E-2</v>
       </c>
-      <c r="K9">
-        <f t="shared" ref="K9" si="10">I9-J9</f>
+      <c r="M9">
+        <f t="shared" ref="M9" si="10">J9-L9</f>
         <v>0.150971052826577</v>
       </c>
-      <c r="L9">
-        <f t="shared" ref="L9" si="11">I9+J9</f>
+      <c r="N9">
+        <f t="shared" ref="N9" si="11">J9+L9</f>
         <v>0.27760037574485097</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.45</v>
-      </c>
+      <c r="F12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1969,220 +1898,489 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CCFDC-E723-428F-8C43-820106604DAB}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="8.89453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.62890625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83984375" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="3">
+        <f t="shared" ref="B2:B17" si="0">(2*A2)^3 + (2*A2)^2 + (2*A2) + 3</f>
+        <v>17</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C33" si="1">(2*A2)^4</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f>1+A2</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="3">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <f t="shared" ref="A4:A33" si="0">1+A3</f>
+        <f t="shared" ref="A4:A33" si="2">1+A3</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="3">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="1"/>
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>587</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="1"/>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>1113</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>1887</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>20736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>2957</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="1"/>
+        <v>38416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>4371</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>6177</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>104976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>8423</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>11157</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="1"/>
+        <v>234256</v>
+      </c>
+      <c r="D12">
+        <v>2E-3</v>
+      </c>
+      <c r="E12" s="3">
+        <f>C12*D12</f>
+        <v>468.512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>14427</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="1"/>
+        <v>331776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>18281</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="1"/>
+        <v>456976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15">
         <v>22767</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="3">
+        <f t="shared" si="1"/>
+        <v>614656</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16">
         <v>27933</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="3">
+        <f t="shared" si="1"/>
+        <v>810000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17">
         <v>33827</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="3">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="3">
+        <f>(2*A18)^3 + (2*A18)^2 + (2*A18) + 3</f>
+        <v>40497</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="1"/>
+        <v>1336336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="3">
+        <f t="shared" ref="B19:B33" si="3">(2*A19)^3 + (2*A19)^2 + (2*A19) + 3</f>
+        <v>47991</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="1"/>
+        <v>1679616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="3">
+        <f t="shared" si="3"/>
+        <v>56357</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="1"/>
+        <v>2085136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="3">
+        <f t="shared" si="3"/>
+        <v>65643</v>
+      </c>
+      <c r="C21" s="3">
+        <f>(2*A21)^4</f>
+        <v>2560000</v>
+      </c>
+      <c r="D21">
+        <v>1E-4</v>
+      </c>
+      <c r="E21" s="3">
+        <f>C21*D21</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="3">
+        <f t="shared" si="3"/>
+        <v>75897</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" ref="C22:C33" si="4">(2*A22)^4</f>
+        <v>3111696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="3">
+        <f t="shared" si="3"/>
+        <v>87167</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="4"/>
+        <v>3748096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="3">
+        <f t="shared" si="3"/>
+        <v>99501</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="4"/>
+        <v>4477456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="3">
+        <f t="shared" si="3"/>
+        <v>112947</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="4"/>
+        <v>5308416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="3">
+        <f t="shared" si="3"/>
+        <v>127553</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="4"/>
+        <v>6250000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="3">
+        <f t="shared" si="3"/>
+        <v>143367</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="4"/>
+        <v>7311616</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="3">
+        <f t="shared" si="3"/>
+        <v>160437</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="4"/>
+        <v>8503056</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="3">
+        <f t="shared" si="3"/>
+        <v>178811</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="4"/>
+        <v>9834496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="3">
+        <f t="shared" si="3"/>
+        <v>198537</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="4"/>
+        <v>11316496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
+        <f t="shared" si="3"/>
         <v>219663</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" s="3">
+        <f t="shared" si="4"/>
+        <v>12960000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="3">
+        <f t="shared" si="3"/>
+        <v>242237</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="4"/>
+        <v>14776336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <f t="shared" si="3"/>
+        <v>266307</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="4"/>
+        <v>16777216</v>
       </c>
     </row>
   </sheetData>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6969963F-318B-4BBF-8BA1-6B3C9D2B22F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB06DC37-DD09-479E-8713-39F9511C28DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8112" activeTab="2" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -1900,7 +1900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CCFDC-E723-428F-8C43-820106604DAB}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -1931,7 +1931,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" ref="C2:C33" si="1">(2*A2)^4</f>
+        <f t="shared" ref="C2:C20" si="1">(2*A2)^4</f>
         <v>16</v>
       </c>
     </row>
@@ -2208,11 +2208,11 @@
         <v>2560000</v>
       </c>
       <c r="D21">
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E21" s="3">
         <f>C21*D21</f>
-        <v>256</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB06DC37-DD09-479E-8713-39F9511C28DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C0E3DC-7E10-4C41-BC86-DA3548489C51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8112" activeTab="2" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Default No</t>
   </si>
   <si>
     <t>Base Default</t>
-  </si>
-  <si>
-    <t>New Value</t>
   </si>
   <si>
     <t>Base ?</t>
@@ -80,16 +77,28 @@
     <t>catDestrRndParam</t>
   </si>
   <si>
-    <t>(Some 0.0001), 100_000.0</t>
-  </si>
-  <si>
     <t>simThreshold</t>
   </si>
   <si>
-    <t>(Some 0.2)</t>
+    <t>*</t>
   </si>
   <si>
-    <t>*</t>
+    <t>(Some 0.000_007), 100_000.0)</t>
+  </si>
+  <si>
+    <t>(Some 0.000_015), 100_000.0)</t>
+  </si>
+  <si>
+    <t>(Some 0.15)</t>
+  </si>
+  <si>
+    <t>(Some 0.000_010), 100_000.0)</t>
+  </si>
+  <si>
+    <t>(Some 0.20)</t>
+  </si>
+  <si>
+    <t>(Some 0.30)</t>
   </si>
 </sst>
 </file>
@@ -241,9 +250,6 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -326,9 +332,6 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -411,9 +414,6 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1560,15 +1560,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="8.83984375" style="1"/>
     <col min="3" max="3" width="13.89453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83984375" customWidth="1"/>
     <col min="5" max="5" width="21.68359375" customWidth="1"/>
     <col min="6" max="6" width="9.1015625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="1.62890625" bestFit="1" customWidth="1"/>
@@ -1579,43 +1579,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1626,25 +1623,29 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.2</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3">
         <v>1</v>
@@ -1659,7 +1660,7 @@
         <v>0.40909090909090901</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L3">
         <f>SQRT(J3*(1-J3)/H3)</f>
@@ -1678,6 +1679,12 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4">
         <v>2</v>
@@ -1692,7 +1699,7 @@
         <v>0.125</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L6" si="0">SQRT(J4*(1-J4)/H4)</f>
@@ -1711,6 +1718,12 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5">
         <v>3</v>
@@ -1725,7 +1738,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
@@ -1744,6 +1757,12 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6">
         <v>4</v>
@@ -1758,7 +1777,7 @@
         <v>0.13888888888888901</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
@@ -1791,7 +1810,7 @@
         <v>0.225806451612903</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L7">
         <f t="shared" ref="L7" si="3">SQRT(J7*(1-J7)/H7)</f>
@@ -1824,7 +1843,7 @@
         <v>0.24444444444444399</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8" si="6">SQRT(J8*(1-J8)/H8)</f>
@@ -1857,7 +1876,7 @@
         <v>0.214285714285714</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9" si="9">SQRT(J9*(1-J9)/H9)</f>
@@ -1900,7 +1919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CCFDC-E723-428F-8C43-820106604DAB}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -1913,13 +1932,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C0E3DC-7E10-4C41-BC86-DA3548489C51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45B3B30-3785-4A50-8E6E-BBCE52B7AFE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Default No</t>
   </si>
@@ -100,11 +100,17 @@
   <si>
     <t>(Some 0.30)</t>
   </si>
+  <si>
+    <t>no of AA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,13 +140,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -248,8 +259,23 @@
             <c:numRef>
               <c:f>Defaults!$F$2:$F$9</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -257,28 +283,19 @@
             <c:numRef>
               <c:f>Defaults!$J$2:$J$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.46153846153846201</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40909090909090901</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.125</c:v>
+                  <c:v>0.42105263157894701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13888888888888901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.225806451612903</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.24444444444444399</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.214285714285714</c:v>
+                  <c:v>0.17647058823529399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -330,8 +347,23 @@
             <c:numRef>
               <c:f>Defaults!$F$2:$F$9</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -339,28 +371,19 @@
             <c:numRef>
               <c:f>Defaults!$M$2:$M$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.32327430241955168</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33496945820391688</c:v>
+                  <c:v>0.2904554884989668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6536603331657174E-2</c:v>
+                  <c:v>0.30778366592653222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.984635215509109E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.1250464824126345E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.15071126512937039</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.18038000500610432</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.150971052826577</c:v>
+                  <c:v>8.4011147294896865E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -412,8 +435,23 @@
             <c:numRef>
               <c:f>Defaults!$F$2:$F$9</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -421,28 +459,19 @@
             <c:numRef>
               <c:f>Defaults!$N$2:$N$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.59980262065737233</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48321235997790113</c:v>
+                  <c:v>0.5095445115010333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18346339666834283</c:v>
+                  <c:v>0.53432159723136174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12301536478449089</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.19652731295365167</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.30090163809643561</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.30850888388278364</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.27760037574485097</c:v>
+                  <c:v>0.26893002917569109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -487,7 +516,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -549,7 +578,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1561,7 +1590,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1571,7 +1600,9 @@
     <col min="4" max="4" width="26.83984375" customWidth="1"/>
     <col min="5" max="5" width="21.68359375" customWidth="1"/>
     <col min="6" max="6" width="9.1015625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83984375" style="4"/>
     <col min="11" max="11" width="1.62890625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="8.83984375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -1590,6 +1621,9 @@
       <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
@@ -1599,19 +1633,19 @@
       <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1628,12 +1662,35 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2">
+        <v>20</v>
+      </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.46153846153846201</v>
+      </c>
       <c r="K2" t="s">
         <v>15</v>
+      </c>
+      <c r="L2" s="4">
+        <f>SQRT(J2*(1-J2)/H2)</f>
+        <v>0.13826415911891035</v>
+      </c>
+      <c r="M2" s="4">
+        <f>J2-L2</f>
+        <v>0.32327430241955168</v>
+      </c>
+      <c r="N2" s="4">
+        <f>J2+L2</f>
+        <v>0.59980262065737233</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1646,33 +1703,35 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3">
+        <v>20</v>
+      </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>0.40909090909090901</v>
+        <v>8</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.4</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <f>SQRT(J3*(1-J3)/H3)</f>
-        <v>7.4121450886992138E-2</v>
-      </c>
-      <c r="M3">
+        <v>0.10954451150103323</v>
+      </c>
+      <c r="M3" s="4">
         <f>J3-L3</f>
-        <v>0.33496945820391688</v>
-      </c>
-      <c r="N3">
+        <v>0.2904554884989668</v>
+      </c>
+      <c r="N3" s="4">
         <f>J3+L3</f>
-        <v>0.48321235997790113</v>
+        <v>0.5095445115010333</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1685,33 +1744,35 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4">
+        <v>20</v>
+      </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>0.125</v>
+        <v>8</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.42105263157894701</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L6" si="0">SQRT(J4*(1-J4)/H4)</f>
-        <v>5.8463396668342833E-2</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M6" si="1">J4-L4</f>
-        <v>6.6536603331657174E-2</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N6" si="2">J4+L4</f>
-        <v>0.18346339666834283</v>
+      <c r="L4" s="4">
+        <f t="shared" ref="L4" si="0">SQRT(J4*(1-J4)/H4)</f>
+        <v>0.11326896565241479</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4" si="1">J4-L4</f>
+        <v>0.30778366592653222</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" ref="N4" si="2">J4+L4</f>
+        <v>0.53432159723136174</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1724,33 +1785,35 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5">
+        <v>20</v>
+      </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>6.25E-2</v>
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.17647058823529399</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>6.0515364784490891E-2</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="1"/>
-        <v>1.984635215509109E-3</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="2"/>
-        <v>0.12301536478449089</v>
+      <c r="L5" s="4">
+        <f t="shared" ref="L5" si="3">SQRT(J5*(1-J5)/H5)</f>
+        <v>9.2459440940397125E-2</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" ref="M5" si="4">J5-L5</f>
+        <v>8.4011147294896865E-2</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" ref="N5" si="5">J5+L5</f>
+        <v>0.26893002917569109</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1763,99 +1826,27 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>36</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6">
-        <v>0.13888888888888901</v>
+      <c r="F6">
+        <v>20</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>5.7638424064762668E-2</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
-        <v>8.1250464824126345E-2</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="2"/>
-        <v>0.19652731295365167</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>31</v>
-      </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
-      <c r="J7">
-        <v>0.225806451612903</v>
-      </c>
       <c r="K7" t="s">
         <v>15</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ref="L7" si="3">SQRT(J7*(1-J7)/H7)</f>
-        <v>7.5095186483532611E-2</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ref="M7" si="4">J7-L7</f>
-        <v>0.15071126512937039</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ref="N7" si="5">J7+L7</f>
-        <v>0.30090163809643561</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>45</v>
-      </c>
-      <c r="I8">
-        <v>11</v>
-      </c>
-      <c r="J8">
-        <v>0.24444444444444399</v>
-      </c>
       <c r="K8" t="s">
         <v>15</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ref="L8" si="6">SQRT(J8*(1-J8)/H8)</f>
-        <v>6.4064439438339671E-2</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ref="M8" si="7">J8-L8</f>
-        <v>0.18038000500610432</v>
-      </c>
-      <c r="N8">
-        <f t="shared" ref="N8" si="8">J8+L8</f>
-        <v>0.30850888388278364</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1863,32 +1854,8 @@
         <v>7</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>42</v>
-      </c>
-      <c r="I9">
-        <v>9</v>
-      </c>
-      <c r="J9">
-        <v>0.214285714285714</v>
-      </c>
       <c r="K9" t="s">
         <v>15</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ref="L9" si="9">SQRT(J9*(1-J9)/H9)</f>
-        <v>6.3314661459137E-2</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ref="M9" si="10">J9-L9</f>
-        <v>0.150971052826577</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ref="N9" si="11">J9+L9</f>
-        <v>0.27760037574485097</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -1911,7 +1878,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1919,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CCFDC-E723-428F-8C43-820106604DAB}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1950,8 +1917,8 @@
         <v>17</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" ref="C2:C20" si="1">(2*A2)^4</f>
-        <v>16</v>
+        <f t="shared" ref="C2:C33" si="1">(2*A2)^4 / 4</f>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1965,7 +1932,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" si="1"/>
-        <v>256</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1979,7 +1946,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" si="1"/>
-        <v>1296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1993,7 +1960,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" si="1"/>
-        <v>4096</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2007,7 +1974,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2021,7 +1988,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" si="1"/>
-        <v>20736</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2035,7 +2002,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" si="1"/>
-        <v>38416</v>
+        <v>9604</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2049,7 +2016,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" si="1"/>
-        <v>65536</v>
+        <v>16384</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2063,7 +2030,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" si="1"/>
-        <v>104976</v>
+        <v>26244</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2077,7 +2044,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" si="1"/>
-        <v>160000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2091,14 +2058,14 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" si="1"/>
-        <v>234256</v>
+        <v>58564</v>
       </c>
       <c r="D12">
         <v>2E-3</v>
       </c>
       <c r="E12" s="3">
         <f>C12*D12</f>
-        <v>468.512</v>
+        <v>117.128</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2112,7 +2079,7 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" si="1"/>
-        <v>331776</v>
+        <v>82944</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2126,7 +2093,7 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" si="1"/>
-        <v>456976</v>
+        <v>114244</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2140,7 +2107,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" si="1"/>
-        <v>614656</v>
+        <v>153664</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2154,7 +2121,7 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" si="1"/>
-        <v>810000</v>
+        <v>202500</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2168,7 +2135,7 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" si="1"/>
-        <v>1048576</v>
+        <v>262144</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2182,7 +2149,7 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" si="1"/>
-        <v>1336336</v>
+        <v>334084</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2196,7 +2163,7 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" si="1"/>
-        <v>1679616</v>
+        <v>419904</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2210,7 +2177,7 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" si="1"/>
-        <v>2085136</v>
+        <v>521284</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2223,15 +2190,15 @@
         <v>65643</v>
       </c>
       <c r="C21" s="3">
-        <f>(2*A21)^4</f>
-        <v>2560000</v>
+        <f>(2*A21)^4 / 4</f>
+        <v>640000</v>
       </c>
       <c r="D21">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="6">
         <f>C21*D21</f>
-        <v>25.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2244,8 +2211,8 @@
         <v>75897</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:C33" si="4">(2*A22)^4</f>
-        <v>3111696</v>
+        <f t="shared" ref="C22:C33" si="4">(2*A22)^4 / 4</f>
+        <v>777924</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2259,7 +2226,7 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" si="4"/>
-        <v>3748096</v>
+        <v>937024</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2273,7 +2240,7 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" si="4"/>
-        <v>4477456</v>
+        <v>1119364</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2287,7 +2254,7 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" si="4"/>
-        <v>5308416</v>
+        <v>1327104</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2301,7 +2268,14 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" si="4"/>
-        <v>6250000</v>
+        <v>1562500</v>
+      </c>
+      <c r="D26">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="E26" s="6">
+        <f>C26*D26</f>
+        <v>7.8125000000000009</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2315,7 +2289,7 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" si="4"/>
-        <v>7311616</v>
+        <v>1827904</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2329,7 +2303,7 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" si="4"/>
-        <v>8503056</v>
+        <v>2125764</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2343,7 +2317,7 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" si="4"/>
-        <v>9834496</v>
+        <v>2458624</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2357,7 +2331,7 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" si="4"/>
-        <v>11316496</v>
+        <v>2829124</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2371,7 +2345,7 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" si="4"/>
-        <v>12960000</v>
+        <v>3240000</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2385,7 +2359,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" si="4"/>
-        <v>14776336</v>
+        <v>3694084</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2399,7 +2373,7 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" si="4"/>
-        <v>16777216</v>
+        <v>4194304</v>
       </c>
     </row>
   </sheetData>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45B3B30-3785-4A50-8E6E-BBCE52B7AFE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987FEBC4-9B59-4057-9BE8-16072A9BB5E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Default No</t>
   </si>
@@ -103,13 +103,16 @@
   <si>
     <t>no of AA</t>
   </si>
+  <si>
+    <t>(Some 0.25)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -147,8 +150,8 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -276,6 +279,9 @@
                 <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -364,6 +370,9 @@
                 <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -450,6 +459,9 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -1590,7 +1602,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1836,6 +1848,15 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
@@ -1917,7 +1938,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" ref="C2:C33" si="1">(2*A2)^4 / 4</f>
+        <f t="shared" ref="C2:C20" si="1">(2*A2)^4 / 4</f>
         <v>4</v>
       </c>
     </row>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987FEBC4-9B59-4057-9BE8-16072A9BB5E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BE0679-0473-479D-8EFD-2AC67F8A2A3B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -33,13 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
-  <si>
-    <t>Default No</t>
-  </si>
-  <si>
-    <t>Base Default</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Base ?</t>
   </si>
@@ -105,6 +99,27 @@
   </si>
   <si>
     <t>(Some 0.25)</t>
+  </si>
+  <si>
+    <t>000_000</t>
+  </si>
+  <si>
+    <t>000_001</t>
+  </si>
+  <si>
+    <t>000_002</t>
+  </si>
+  <si>
+    <t>000_003</t>
+  </si>
+  <si>
+    <t>000_004</t>
+  </si>
+  <si>
+    <t>000_005</t>
+  </si>
+  <si>
+    <t>DefaultSetIndex</t>
   </si>
 </sst>
 </file>
@@ -227,7 +242,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Defaults!$J$1</c:f>
+              <c:f>Defaults!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -260,7 +275,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Defaults!$F$2:$F$9</c:f>
+              <c:f>Defaults!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -287,12 +302,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Defaults!$J$2:$J$9</c:f>
+              <c:f>Defaults!$I$2:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.46153846153846201</c:v>
+                  <c:v>0.30769230769230799</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.4</c:v>
@@ -301,7 +316,13 @@
                   <c:v>0.42105263157894701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17647058823529399</c:v>
+                  <c:v>0.157894736842105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28947368421052599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -318,7 +339,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Defaults!$M$1</c:f>
+              <c:f>Defaults!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -351,7 +372,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Defaults!$F$2:$F$9</c:f>
+              <c:f>Defaults!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -378,12 +399,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Defaults!$M$2:$M$9</c:f>
+              <c:f>Defaults!$L$2:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.32327430241955168</c:v>
+                  <c:v>0.24368843889708924</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2904554884989668</c:v>
@@ -392,7 +413,13 @@
                   <c:v>0.30778366592653222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4011147294896865E-2</c:v>
+                  <c:v>7.4240061659049658E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21590333292399233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1114561800016807E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -409,7 +436,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Defaults!$N$1</c:f>
+              <c:f>Defaults!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -442,7 +469,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Defaults!$F$2:$F$9</c:f>
+              <c:f>Defaults!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -469,12 +496,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Defaults!$N$2:$N$9</c:f>
+              <c:f>Defaults!$M$2:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.59980262065737233</c:v>
+                  <c:v>0.37169617648752673</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5095445115010333</c:v>
@@ -483,7 +510,13 @@
                   <c:v>0.53432159723136174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26893002917569109</c:v>
+                  <c:v>0.24154941202516034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36304403549705966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37888543819998322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1599,303 +1632,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="8.83984375" style="1"/>
-    <col min="3" max="3" width="13.89453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83984375" customWidth="1"/>
-    <col min="5" max="5" width="21.68359375" customWidth="1"/>
-    <col min="6" max="6" width="9.1015625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83984375" style="4"/>
-    <col min="11" max="11" width="1.62890625" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="8.83984375" style="4"/>
+    <col min="1" max="1" width="13.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" style="1"/>
+    <col min="3" max="3" width="26.83984375" customWidth="1"/>
+    <col min="4" max="4" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1015625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83984375" style="4"/>
+    <col min="10" max="10" width="1.62890625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.83984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1">
-        <v>0</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>52</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.30769230769230799</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="4">
+        <f>SQRT(I2*(1-I2)/G2)</f>
+        <v>6.4003868795218757E-2</v>
+      </c>
+      <c r="L2" s="4">
+        <f>I2-K2</f>
+        <v>0.24368843889708924</v>
+      </c>
+      <c r="M2" s="4">
+        <f>I2+K2</f>
+        <v>0.37169617648752673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="4">
+        <f>SQRT(I3*(1-I3)/G3)</f>
+        <v>0.10954451150103323</v>
+      </c>
+      <c r="L3" s="4">
+        <f>I3-K3</f>
+        <v>0.2904554884989668</v>
+      </c>
+      <c r="M3" s="4">
+        <f>I3+K3</f>
+        <v>0.5095445115010333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.42105263157894701</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4" si="0">SQRT(I4*(1-I4)/G4)</f>
+        <v>0.11326896565241479</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" ref="L4" si="1">I4-K4</f>
+        <v>0.30778366592653222</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4" si="2">I4+K4</f>
+        <v>0.53432159723136174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
         <v>20</v>
       </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.157894736842105</v>
+      </c>
+      <c r="J5" t="s">
         <v>13</v>
       </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0.46153846153846201</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="4">
-        <f>SQRT(J2*(1-J2)/H2)</f>
-        <v>0.13826415911891035</v>
-      </c>
-      <c r="M2" s="4">
-        <f>J2-L2</f>
-        <v>0.32327430241955168</v>
-      </c>
-      <c r="N2" s="4">
-        <f>J2+L2</f>
-        <v>0.59980262065737233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="4">
-        <f>SQRT(J3*(1-J3)/H3)</f>
-        <v>0.10954451150103323</v>
-      </c>
-      <c r="M3" s="4">
-        <f>J3-L3</f>
-        <v>0.2904554884989668</v>
-      </c>
-      <c r="N3" s="4">
-        <f>J3+L3</f>
-        <v>0.5095445115010333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="K5" s="4">
+        <f t="shared" ref="K5" si="3">SQRT(I5*(1-I5)/G5)</f>
+        <v>8.3654675183055346E-2</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" ref="L5" si="4">I5-K5</f>
+        <v>7.4240061659049658E-2</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" ref="M5" si="5">I5+K5</f>
+        <v>0.24154941202516034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>19</v>
-      </c>
-      <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.42105263157894701</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="4">
-        <f t="shared" ref="L4" si="0">SQRT(J4*(1-J4)/H4)</f>
-        <v>0.11326896565241479</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" ref="M4" si="1">J4-L4</f>
-        <v>0.30778366592653222</v>
-      </c>
-      <c r="N4" s="4">
-        <f t="shared" ref="N4" si="2">J4+L4</f>
-        <v>0.53432159723136174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.17647058823529399</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" ref="L5" si="3">SQRT(J5*(1-J5)/H5)</f>
-        <v>9.2459440940397125E-2</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" ref="M5" si="4">J5-L5</f>
-        <v>8.4011147294896865E-2</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" ref="N5" si="5">J5+L5</f>
-        <v>0.26893002917569109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1">
-        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.28947368421052599</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" ref="K6:K7" si="6">SQRT(I6*(1-I6)/G6)</f>
+        <v>7.3570351286533664E-2</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" ref="L6:L7" si="7">I6-K6</f>
+        <v>0.21590333292399233</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" ref="M6:M7" si="8">I6+K6</f>
+        <v>0.36304403549705966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="F6">
+      <c r="E7">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="K8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="K9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="6"/>
+        <v>0.1788854381999832</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="7"/>
+        <v>2.1114561800016807E-2</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="8"/>
+        <v>0.37888543819998322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="2"/>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1920,13 +1983,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BE0679-0473-479D-8EFD-2AC67F8A2A3B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BFF7FC-2E72-4364-BF4C-82D5BC245243}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
   <si>
     <t>Base ?</t>
   </si>
@@ -120,6 +120,39 @@
   </si>
   <si>
     <t>DefaultSetIndex</t>
+  </si>
+  <si>
+    <t>000_006</t>
+  </si>
+  <si>
+    <t>000_007</t>
+  </si>
+  <si>
+    <t>(Some 0.10)</t>
+  </si>
+  <si>
+    <t>(Some 0.05)</t>
+  </si>
+  <si>
+    <t>tEnd</t>
+  </si>
+  <si>
+    <t>y0</t>
+  </si>
+  <si>
+    <t>repetitions</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>001_000</t>
+  </si>
+  <si>
+    <t>(Some 0.000_005), 100_000.0)</t>
+  </si>
+  <si>
+    <t>(Some 0.000_003), 100_000.0)</t>
   </si>
 </sst>
 </file>
@@ -163,13 +196,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,7 +275,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Defaults!$I$1</c:f>
+              <c:f>Defaults!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -275,7 +308,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Defaults!$E$2:$E$9</c:f>
+              <c:f>Defaults!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -297,12 +330,15 @@
                 <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Defaults!$I$2:$I$9</c:f>
+              <c:f>Defaults!$Q$2:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -339,7 +375,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Defaults!$L$1</c:f>
+              <c:f>Defaults!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -372,7 +408,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Defaults!$E$2:$E$9</c:f>
+              <c:f>Defaults!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -394,12 +430,15 @@
                 <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Defaults!$L$2:$L$9</c:f>
+              <c:f>Defaults!$T$2:$T$9</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -436,7 +475,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Defaults!$M$1</c:f>
+              <c:f>Defaults!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -469,7 +508,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Defaults!$E$2:$E$9</c:f>
+              <c:f>Defaults!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -491,12 +530,15 @@
                 <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Defaults!$M$2:$M$9</c:f>
+              <c:f>Defaults!$U$2:$U$9</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1632,333 +1674,1611 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83984375" style="1"/>
-    <col min="3" max="3" width="26.83984375" customWidth="1"/>
-    <col min="4" max="4" width="11.20703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1015625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83984375" style="4"/>
-    <col min="10" max="10" width="1.62890625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.83984375" style="4"/>
+    <col min="3" max="3" width="9.1015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.1015625" customWidth="1"/>
+    <col min="7" max="7" width="13.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83984375" style="1"/>
+    <col min="9" max="9" width="26.83984375" customWidth="1"/>
+    <col min="10" max="10" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32" customWidth="1"/>
+    <col min="14" max="14" width="8.89453125" customWidth="1"/>
+    <col min="17" max="17" width="8.83984375" style="3"/>
+    <col min="18" max="18" width="1.62890625" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="8.83984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1"/>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <f>VALUE(SUBSTITUTE(G2, "_", ""))</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>52</v>
+      </c>
+      <c r="P2">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.30769230769230799</v>
+      </c>
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="3">
+        <f>SQRT(Q2*(1-Q2)/O2)</f>
+        <v>6.4003868795218757E-2</v>
+      </c>
+      <c r="T2" s="3">
+        <f>Q2-S2</f>
+        <v>0.24368843889708924</v>
+      </c>
+      <c r="U2" s="3">
+        <f>Q2+S2</f>
+        <v>0.37169617648752673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L23" si="0">VALUE(SUBSTITUTE(G3, "_", ""))</f>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="3">
+        <f>SQRT(Q3*(1-Q3)/O3)</f>
+        <v>0.10954451150103323</v>
+      </c>
+      <c r="T3" s="3">
+        <f>Q3-S3</f>
+        <v>0.2904554884989668</v>
+      </c>
+      <c r="U3" s="3">
+        <f>Q3+S3</f>
+        <v>0.5095445115010333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O4">
+        <v>19</v>
+      </c>
+      <c r="P4">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.42105263157894701</v>
+      </c>
+      <c r="R4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" ref="S4" si="1">SQRT(Q4*(1-Q4)/O4)</f>
+        <v>0.11326896565241479</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" ref="T4" si="2">Q4-S4</f>
+        <v>0.30778366592653222</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" ref="U4" si="3">Q4+S4</f>
+        <v>0.53432159723136174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="O5">
+        <v>19</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.157894736842105</v>
+      </c>
+      <c r="R5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" ref="S5" si="4">SQRT(Q5*(1-Q5)/O5)</f>
+        <v>8.3654675183055346E-2</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" ref="T5" si="5">Q5-S5</f>
+        <v>7.4240061659049658E-2</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" ref="U5" si="6">Q5+S5</f>
+        <v>0.24154941202516034</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O6">
+        <v>38</v>
+      </c>
+      <c r="P6">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.28947368421052599</v>
+      </c>
+      <c r="R6" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="S6" s="3">
+        <f t="shared" ref="S6:S7" si="7">SQRT(Q6*(1-Q6)/O6)</f>
+        <v>7.3570351286533664E-2</v>
+      </c>
+      <c r="T6" s="3">
+        <f t="shared" ref="T6:T7" si="8">Q6-S6</f>
+        <v>0.21590333292399233</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" ref="U6:U7" si="9">Q6+S6</f>
+        <v>0.36304403549705966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="7"/>
+        <v>0.1788854381999832</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="8"/>
+        <v>2.1114561800016807E-2</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="9"/>
+        <v>0.37888543819998322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="R8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>250000</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="str">
+        <f>"Defaults_" &amp; G9 &amp; ".defaultValue"</f>
+        <v>Defaults_000_006.defaultValue</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M9" t="str">
+        <f>"ContGen.exe add -i " &amp; L9 &amp; " -n " &amp; C9 &amp; " -m 3 -y " &amp; E9 &amp; " -t " &amp; D9 &amp; " -r " &amp; F9</f>
+        <v>ContGen.exe add -i 6 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+      <c r="R9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>250000</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" ref="K10:K23" si="10">"Defaults_" &amp; G10 &amp; ".defaultValue"</f>
+        <v>Defaults_000_007.defaultValue</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M10" t="str">
+        <f t="shared" ref="M10:M23" si="11">"ContGen.exe add -i " &amp; L10 &amp; " -n " &amp; C10 &amp; " -m 3 -y " &amp; E10 &amp; " -t " &amp; D10 &amp; " -r " &amp; F10</f>
+        <v>ContGen.exe add -i 7 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>250000</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>"000_0" &amp; RIGHT("0" &amp; A11, 2)</f>
+        <v>000_008</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="6" t="str">
+        <f>"(Some 0." &amp; B11 &amp; ")"</f>
+        <v>(Some 0.35)</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="10"/>
+        <v>Defaults_000_008.defaultValue</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="11"/>
+        <v>ContGen.exe add -i 8 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <f>1+A11</f>
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <f>+B11+5</f>
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>250000</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" ref="G12:G22" si="12">"000_0" &amp; RIGHT("0" &amp; A12, 2)</f>
+        <v>000_009</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="6" t="str">
+        <f t="shared" ref="J12:J22" si="13">"(Some 0." &amp; B12 &amp; ")"</f>
+        <v>(Some 0.40)</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="10"/>
+        <v>Defaults_000_009.defaultValue</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="11"/>
+        <v>ContGen.exe add -i 9 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <f t="shared" ref="A13:A22" si="14">1+A12</f>
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:B22" si="15">+B12+5</f>
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>250000</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>000_010</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>(Some 0.45)</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="10"/>
+        <v>Defaults_000_010.defaultValue</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="11"/>
+        <v>ContGen.exe add -i 10 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>250000</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>000_011</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>(Some 0.50)</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="10"/>
+        <v>Defaults_000_011.defaultValue</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="11"/>
+        <v>ContGen.exe add -i 11 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="15"/>
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>250000</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>000_012</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>(Some 0.55)</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="10"/>
+        <v>Defaults_000_012.defaultValue</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="11"/>
+        <v>ContGen.exe add -i 12 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>250000</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>000_013</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>(Some 0.60)</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="10"/>
+        <v>Defaults_000_013.defaultValue</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="11"/>
+        <v>ContGen.exe add -i 13 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>250000</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>000_014</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>(Some 0.65)</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="10"/>
+        <v>Defaults_000_014.defaultValue</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="11"/>
+        <v>ContGen.exe add -i 14 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>250000</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>000_015</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>(Some 0.70)</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="10"/>
+        <v>Defaults_000_015.defaultValue</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="11"/>
+        <v>ContGen.exe add -i 15 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="15"/>
+        <v>75</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>250000</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>000_016</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>(Some 0.75)</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="10"/>
+        <v>Defaults_000_016.defaultValue</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="11"/>
+        <v>ContGen.exe add -i 16 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="15"/>
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>250000</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>25</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>000_017</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>(Some 0.80)</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="10"/>
+        <v>Defaults_000_017.defaultValue</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="11"/>
+        <v>ContGen.exe add -i 17 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="15"/>
+        <v>85</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>250000</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>25</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>000_018</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>(Some 0.85)</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="10"/>
+        <v>Defaults_000_018.defaultValue</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="11"/>
+        <v>ContGen.exe add -i 18 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>250000</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>25</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>000_019</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>(Some 0.90)</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="10"/>
+        <v>Defaults_000_019.defaultValue</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="11"/>
+        <v>ContGen.exe add -i 19 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <f t="shared" ref="A23" si="16">1+A22</f>
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23" si="17">+B22+5</f>
+        <v>95</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>250000</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" ref="G23" si="18">"000_0" &amp; RIGHT("0" &amp; A23, 2)</f>
+        <v>000_020</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="6" t="str">
+        <f t="shared" ref="J23" si="19">"(Some 0." &amp; B23 &amp; ")"</f>
+        <v>(Some 0.95)</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="10"/>
+        <v>Defaults_000_020.defaultValue</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="11"/>
+        <v>ContGen.exe add -i 20 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="G28" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>250000</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>25</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f>"002_0" &amp; RIGHT("0" &amp; A31, 2)</f>
+        <v>002_000</v>
+      </c>
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" ref="K31:K42" si="20">"Defaults_" &amp; G31 &amp; ".defaultValue"</f>
+        <v>Defaults_002_000.defaultValue</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L31:L42" si="21">VALUE(SUBSTITUTE(G31, "_", ""))</f>
+        <v>2000</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" ref="M31:M42" si="22">"ContGen.exe add -i " &amp; L31 &amp; " -n " &amp; C31 &amp; " -m 3 -y " &amp; E31 &amp; " -t " &amp; D31 &amp; " -r " &amp; F31</f>
+        <v>ContGen.exe add -i 2000 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <f>1+A31</f>
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>250000</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>25</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" ref="G32:G35" si="23">"002_0" &amp; RIGHT("0" &amp; A32, 2)</f>
+        <v>002_001</v>
+      </c>
+      <c r="I32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_001.defaultValue</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="21"/>
+        <v>2001</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGen.exe add -i 2001 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <f t="shared" ref="A33:A35" si="24">1+A32</f>
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>250000</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>25</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>002_002</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_002.defaultValue</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="21"/>
+        <v>2002</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGen.exe add -i 2002 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>250000</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>25</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>002_003</v>
+      </c>
+      <c r="I34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_003.defaultValue</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="21"/>
+        <v>2003</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGen.exe add -i 2003 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <v>250000</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>25</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>002_004</v>
+      </c>
+      <c r="I35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_004.defaultValue</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="21"/>
+        <v>2004</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGen.exe add -i 2004 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <f t="shared" ref="A36:A39" si="25">1+A35</f>
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>250000</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>25</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" ref="G36:G39" si="26">"002_0" &amp; RIGHT("0" &amp; A36, 2)</f>
+        <v>002_005</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_005.defaultValue</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="21"/>
+        <v>2005</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGen.exe add -i 2005 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>52</v>
-      </c>
-      <c r="H2">
+      <c r="C37">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>250000</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>25</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="26"/>
+        <v>002_006</v>
+      </c>
+      <c r="I37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4">
-        <v>0.30769230769230799</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K37" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_006.defaultValue</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="21"/>
+        <v>2006</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGen.exe add -i 2006 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>250000</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>25</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="26"/>
+        <v>002_007</v>
+      </c>
+      <c r="I38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_007.defaultValue</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="21"/>
+        <v>2007</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGen.exe add -i 2007 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>25</v>
+      </c>
+      <c r="D39">
+        <v>250000</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>25</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="26"/>
+        <v>002_008</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_008.defaultValue</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="21"/>
+        <v>2008</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGen.exe add -i 2008 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <f t="shared" ref="A40:A42" si="27">1+A39</f>
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+      <c r="D40">
+        <v>250000</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>25</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" ref="G40:G42" si="28">"002_0" &amp; RIGHT("0" &amp; A40, 2)</f>
+        <v>002_009</v>
+      </c>
+      <c r="I40" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_009.defaultValue</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="21"/>
+        <v>2009</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGen.exe add -i 2009 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>25</v>
+      </c>
+      <c r="D41">
+        <v>250000</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>25</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>002_010</v>
+      </c>
+      <c r="I41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_010.defaultValue</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="21"/>
+        <v>2010</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGen.exe add -i 2010 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>25</v>
+      </c>
+      <c r="D42">
+        <v>250000</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>25</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>002_011</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_011.defaultValue</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="21"/>
+        <v>2011</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGen.exe add -i 2011 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <f t="shared" ref="A43:A45" si="29">1+A42</f>
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>25</v>
+      </c>
+      <c r="D43">
+        <v>250000</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>25</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f t="shared" ref="G43:G45" si="30">"002_0" &amp; RIGHT("0" &amp; A43, 2)</f>
+        <v>002_012</v>
+      </c>
+      <c r="I43" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" ref="K43:K45" si="31">"Defaults_" &amp; G43 &amp; ".defaultValue"</f>
+        <v>Defaults_002_012.defaultValue</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ref="L43:L45" si="32">VALUE(SUBSTITUTE(G43, "_", ""))</f>
+        <v>2012</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" ref="M43:M45" si="33">"ContGen.exe add -i " &amp; L43 &amp; " -n " &amp; C43 &amp; " -m 3 -y " &amp; E43 &amp; " -t " &amp; D43 &amp; " -r " &amp; F43</f>
+        <v>ContGen.exe add -i 2012 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <f t="shared" si="29"/>
         <v>13</v>
       </c>
-      <c r="K2" s="4">
-        <f>SQRT(I2*(1-I2)/G2)</f>
-        <v>6.4003868795218757E-2</v>
-      </c>
-      <c r="L2" s="4">
-        <f>I2-K2</f>
-        <v>0.24368843889708924</v>
-      </c>
-      <c r="M2" s="4">
-        <f>I2+K2</f>
-        <v>0.37169617648752673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C44">
+        <v>25</v>
+      </c>
+      <c r="D44">
+        <v>250000</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <v>25</v>
+      </c>
+      <c r="G44" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>002_013</v>
+      </c>
+      <c r="I44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="31"/>
+        <v>Defaults_002_013.defaultValue</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="32"/>
+        <v>2013</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="33"/>
+        <v>ContGen.exe add -i 2013 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <f t="shared" si="29"/>
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="4">
-        <f>SQRT(I3*(1-I3)/G3)</f>
-        <v>0.10954451150103323</v>
-      </c>
-      <c r="L3" s="4">
-        <f>I3-K3</f>
-        <v>0.2904554884989668</v>
-      </c>
-      <c r="M3" s="4">
-        <f>I3+K3</f>
-        <v>0.5095445115010333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>250000</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>25</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>002_014</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.42105263157894701</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" ref="K4" si="0">SQRT(I4*(1-I4)/G4)</f>
-        <v>0.11326896565241479</v>
-      </c>
-      <c r="L4" s="4">
-        <f t="shared" ref="L4" si="1">I4-K4</f>
-        <v>0.30778366592653222</v>
-      </c>
-      <c r="M4" s="4">
-        <f t="shared" ref="M4" si="2">I4+K4</f>
-        <v>0.53432159723136174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>19</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.157894736842105</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" ref="K5" si="3">SQRT(I5*(1-I5)/G5)</f>
-        <v>8.3654675183055346E-2</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" ref="L5" si="4">I5-K5</f>
-        <v>7.4240061659049658E-2</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" ref="M5" si="5">I5+K5</f>
-        <v>0.24154941202516034</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>38</v>
-      </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.28947368421052599</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" ref="K6:K7" si="6">SQRT(I6*(1-I6)/G6)</f>
-        <v>7.3570351286533664E-2</v>
-      </c>
-      <c r="L6" s="4">
-        <f t="shared" ref="L6:L7" si="7">I6-K6</f>
-        <v>0.21590333292399233</v>
-      </c>
-      <c r="M6" s="4">
-        <f t="shared" ref="M6:M7" si="8">I6+K6</f>
-        <v>0.36304403549705966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="6"/>
-        <v>0.1788854381999832</v>
-      </c>
-      <c r="L7" s="4">
-        <f t="shared" si="7"/>
-        <v>2.1114561800016807E-2</v>
-      </c>
-      <c r="M7" s="4">
-        <f t="shared" si="8"/>
-        <v>0.37888543819998322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="E9" s="2"/>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="E12" s="2"/>
+      <c r="K45" t="str">
+        <f t="shared" si="31"/>
+        <v>Defaults_002_014.defaultValue</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="32"/>
+        <v>2014</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="33"/>
+        <v>ContGen.exe add -i 2014 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1970,25 +3290,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CCFDC-E723-428F-8C43-820106604DAB}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="8.89453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.62890625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83984375" style="3"/>
+    <col min="2" max="2" width="8.89453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.62890625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83984375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1996,11 +3316,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <f t="shared" ref="B2:B17" si="0">(2*A2)^3 + (2*A2)^2 + (2*A2) + 3</f>
         <v>17</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <f t="shared" ref="C2:C20" si="1">(2*A2)^4 / 4</f>
         <v>4</v>
       </c>
@@ -2010,11 +3330,11 @@
         <f>1+A2</f>
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
@@ -2024,11 +3344,11 @@
         <f t="shared" ref="A4:A33" si="2">1+A3</f>
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f t="shared" si="0"/>
         <v>261</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f t="shared" si="1"/>
         <v>324</v>
       </c>
@@ -2038,11 +3358,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>587</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f t="shared" si="1"/>
         <v>1024</v>
       </c>
@@ -2052,11 +3372,11 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>1113</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
@@ -2066,11 +3386,11 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>1887</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f t="shared" si="1"/>
         <v>5184</v>
       </c>
@@ -2080,11 +3400,11 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>2957</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f t="shared" si="1"/>
         <v>9604</v>
       </c>
@@ -2094,11 +3414,11 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>4371</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f t="shared" si="1"/>
         <v>16384</v>
       </c>
@@ -2108,11 +3428,11 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>6177</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f t="shared" si="1"/>
         <v>26244</v>
       </c>
@@ -2122,11 +3442,11 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>8423</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
@@ -2136,18 +3456,18 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>11157</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" si="1"/>
         <v>58564</v>
       </c>
       <c r="D12">
         <v>2E-3</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f>C12*D12</f>
         <v>117.128</v>
       </c>
@@ -2157,11 +3477,11 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>14427</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f t="shared" si="1"/>
         <v>82944</v>
       </c>
@@ -2171,11 +3491,11 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>18281</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f t="shared" si="1"/>
         <v>114244</v>
       </c>
@@ -2185,11 +3505,11 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>22767</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f t="shared" si="1"/>
         <v>153664</v>
       </c>
@@ -2199,11 +3519,11 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>27933</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f t="shared" si="1"/>
         <v>202500</v>
       </c>
@@ -2213,11 +3533,11 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>33827</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f t="shared" si="1"/>
         <v>262144</v>
       </c>
@@ -2227,11 +3547,11 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f>(2*A18)^3 + (2*A18)^2 + (2*A18) + 3</f>
         <v>40497</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f t="shared" si="1"/>
         <v>334084</v>
       </c>
@@ -2241,11 +3561,11 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f t="shared" ref="B19:B33" si="3">(2*A19)^3 + (2*A19)^2 + (2*A19) + 3</f>
         <v>47991</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f t="shared" si="1"/>
         <v>419904</v>
       </c>
@@ -2255,11 +3575,11 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <f t="shared" si="3"/>
         <v>56357</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f t="shared" si="1"/>
         <v>521284</v>
       </c>
@@ -2269,18 +3589,18 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <f t="shared" si="3"/>
         <v>65643</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <f>(2*A21)^4 / 4</f>
         <v>640000</v>
       </c>
       <c r="D21">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <f>C21*D21</f>
         <v>6.4</v>
       </c>
@@ -2290,11 +3610,11 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <f t="shared" si="3"/>
         <v>75897</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <f t="shared" ref="C22:C33" si="4">(2*A22)^4 / 4</f>
         <v>777924</v>
       </c>
@@ -2304,11 +3624,11 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <f t="shared" si="3"/>
         <v>87167</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f t="shared" si="4"/>
         <v>937024</v>
       </c>
@@ -2318,11 +3638,11 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <f t="shared" si="3"/>
         <v>99501</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f t="shared" si="4"/>
         <v>1119364</v>
       </c>
@@ -2332,11 +3652,11 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f t="shared" si="3"/>
         <v>112947</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <f t="shared" si="4"/>
         <v>1327104</v>
       </c>
@@ -2346,18 +3666,18 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <f t="shared" si="3"/>
         <v>127553</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <f t="shared" si="4"/>
         <v>1562500</v>
       </c>
       <c r="D26">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <f>C26*D26</f>
         <v>7.8125000000000009</v>
       </c>
@@ -2367,11 +3687,11 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <f t="shared" si="3"/>
         <v>143367</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <f t="shared" si="4"/>
         <v>1827904</v>
       </c>
@@ -2381,11 +3701,11 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <f t="shared" si="3"/>
         <v>160437</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <f t="shared" si="4"/>
         <v>2125764</v>
       </c>
@@ -2395,11 +3715,11 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <f t="shared" si="3"/>
         <v>178811</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <f t="shared" si="4"/>
         <v>2458624</v>
       </c>
@@ -2409,11 +3729,11 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <f t="shared" si="3"/>
         <v>198537</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <f t="shared" si="4"/>
         <v>2829124</v>
       </c>
@@ -2423,11 +3743,11 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <f t="shared" si="3"/>
         <v>219663</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <f t="shared" si="4"/>
         <v>3240000</v>
       </c>
@@ -2437,11 +3757,11 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <f t="shared" si="3"/>
         <v>242237</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <f t="shared" si="4"/>
         <v>3694084</v>
       </c>
@@ -2451,11 +3771,11 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <f t="shared" si="3"/>
         <v>266307</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <f t="shared" si="4"/>
         <v>4194304</v>
       </c>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BFF7FC-2E72-4364-BF4C-82D5BC245243}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2382905-46B9-4F09-A820-4B9EBEA3FEB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -171,12 +171,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -191,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -203,6 +209,7 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3288,10 +3295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CCFDC-E723-428F-8C43-820106604DAB}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3299,9 +3306,11 @@
     <col min="2" max="2" width="8.89453125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.62890625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83984375" style="2"/>
+    <col min="6" max="6" width="12.1015625" customWidth="1"/>
+    <col min="7" max="7" width="13.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3312,7 +3321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3324,8 +3333,16 @@
         <f t="shared" ref="C2:C20" si="1">(2*A2)^4 / 4</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="7">
+        <f>(2*A2)^4 + (2*A2)^3 + (2*A2)^2 + (2*A2) + 3</f>
+        <v>33</v>
+      </c>
+      <c r="G2" s="7">
+        <f>(2*A2)^5 + (2*A2)^4 + (2*A2)^3 + (2*A2)^2 + (2*A2) + 3</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f>1+A2</f>
         <v>2</v>
@@ -3338,10 +3355,18 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F51" si="2">(2*A3)^4 + (2*A3)^3 + (2*A3)^2 + (2*A3) + 3</f>
+        <v>343</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G51" si="3">(2*A3)^5 + (2*A3)^4 + (2*A3)^3 + (2*A3)^2 + (2*A3) + 3</f>
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <f t="shared" ref="A4:A33" si="2">1+A3</f>
+        <f t="shared" ref="A4:A51" si="4">1+A3</f>
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -3352,10 +3377,18 @@
         <f t="shared" si="1"/>
         <v>324</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4" s="7">
+        <f t="shared" si="2"/>
+        <v>1557</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="3"/>
+        <v>9333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -3366,10 +3399,18 @@
         <f t="shared" si="1"/>
         <v>1024</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="7">
+        <f t="shared" si="2"/>
+        <v>4683</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="3"/>
+        <v>37451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B6" s="2">
@@ -3380,10 +3421,18 @@
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" s="7">
+        <f t="shared" si="2"/>
+        <v>11113</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="3"/>
+        <v>111113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B7" s="2">
@@ -3394,10 +3443,18 @@
         <f t="shared" si="1"/>
         <v>5184</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="7">
+        <f t="shared" si="2"/>
+        <v>22623</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="3"/>
+        <v>271455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B8" s="2">
@@ -3408,10 +3465,18 @@
         <f t="shared" si="1"/>
         <v>9604</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="7">
+        <f t="shared" si="2"/>
+        <v>41373</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="3"/>
+        <v>579197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B9" s="2">
@@ -3422,10 +3487,18 @@
         <f t="shared" si="1"/>
         <v>16384</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="7">
+        <f t="shared" si="2"/>
+        <v>69907</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="3"/>
+        <v>1118483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B10" s="2">
@@ -3436,10 +3509,18 @@
         <f t="shared" si="1"/>
         <v>26244</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="7">
+        <f t="shared" si="2"/>
+        <v>111153</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
+        <v>2000721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B11" s="2">
@@ -3450,10 +3531,18 @@
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="7">
+        <f t="shared" si="2"/>
+        <v>168423</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="3"/>
+        <v>3368423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B12" s="2">
@@ -3471,10 +3560,18 @@
         <f>C12*D12</f>
         <v>117.128</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="7">
+        <f t="shared" si="2"/>
+        <v>245413</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="3"/>
+        <v>5399045</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B13" s="2">
@@ -3485,10 +3582,18 @@
         <f t="shared" si="1"/>
         <v>82944</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="7">
+        <f t="shared" si="2"/>
+        <v>346203</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="3"/>
+        <v>8308827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B14" s="2">
@@ -3499,10 +3604,18 @@
         <f t="shared" si="1"/>
         <v>114244</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="7">
+        <f t="shared" si="2"/>
+        <v>475257</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="3"/>
+        <v>12356633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B15" s="2">
@@ -3513,10 +3626,18 @@
         <f t="shared" si="1"/>
         <v>153664</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="7">
+        <f t="shared" si="2"/>
+        <v>637423</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="3"/>
+        <v>17847791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B16" s="2">
@@ -3527,10 +3648,18 @@
         <f t="shared" si="1"/>
         <v>202500</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="7">
+        <f t="shared" si="2"/>
+        <v>837933</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="3"/>
+        <v>25137933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B17" s="2">
@@ -3541,10 +3670,18 @@
         <f t="shared" si="1"/>
         <v>262144</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="7">
+        <f t="shared" si="2"/>
+        <v>1082403</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="3"/>
+        <v>34636835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B18" s="2">
@@ -3555,42 +3692,66 @@
         <f t="shared" si="1"/>
         <v>334084</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>1376833</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="3"/>
+        <v>46812257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" ref="B19:B33" si="3">(2*A19)^3 + (2*A19)^2 + (2*A19) + 3</f>
+        <f t="shared" ref="B19:B33" si="5">(2*A19)^3 + (2*A19)^2 + (2*A19) + 3</f>
         <v>47991</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
         <v>419904</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>1727607</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="3"/>
+        <v>62193783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56357</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="1"/>
         <v>521284</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>2141493</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="3"/>
+        <v>81376661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>65643</v>
       </c>
       <c r="C21" s="2">
@@ -3604,74 +3765,114 @@
         <f>C21*D21</f>
         <v>6.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>2625643</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="3"/>
+        <v>105025643</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>75897</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ref="C22:C33" si="4">(2*A22)^4 / 4</f>
+        <f t="shared" ref="C22:C33" si="6">(2*A22)^4 / 4</f>
         <v>777924</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>3187593</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="3"/>
+        <v>133878825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>87167</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>937024</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>3835263</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="3"/>
+        <v>168751487</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>99501</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1119364</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>4576957</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="3"/>
+        <v>210539933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>112947</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1327104</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>5421363</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>260225331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>127553</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1562500</v>
       </c>
       <c r="D26">
@@ -3681,103 +3882,563 @@
         <f>C26*D26</f>
         <v>7.8125000000000009</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F26" s="2">
+        <f t="shared" si="2"/>
+        <v>6377553</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="3"/>
+        <v>318877553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>143367</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1827904</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27" s="2">
+        <f t="shared" si="2"/>
+        <v>7454983</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="3"/>
+        <v>387659015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>160437</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2125764</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28" s="2">
+        <f t="shared" si="2"/>
+        <v>8663493</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="3"/>
+        <v>467828517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>178811</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2458624</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F29" s="2">
+        <f t="shared" si="2"/>
+        <v>10013307</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="3"/>
+        <v>560745083</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>198537</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2829124</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F30" s="2">
+        <f t="shared" si="2"/>
+        <v>11515033</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="3"/>
+        <v>667871801</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>219663</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3240000</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F31" s="2">
+        <f t="shared" si="2"/>
+        <v>13179663</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="3"/>
+        <v>790779663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>242237</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3694084</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="F32" s="2">
+        <f t="shared" si="2"/>
+        <v>15018573</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="3"/>
+        <v>931151405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>266307</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4194304</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="2"/>
+        <v>17043523</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="3"/>
+        <v>1090785347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" ref="B34:B41" si="7">(2*A34)^3 + (2*A34)^2 + (2*A34) + 3</f>
+        <v>291921</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" ref="C34:C41" si="8">(2*A34)^4 / 4</f>
+        <v>4743684</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="2"/>
+        <v>19266657</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="3"/>
+        <v>1271599233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="7"/>
+        <v>319127</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="8"/>
+        <v>5345344</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="2"/>
+        <v>21700503</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="3"/>
+        <v>1475634071</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="7"/>
+        <v>347973</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="8"/>
+        <v>6002500</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="2"/>
+        <v>24357973</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="3"/>
+        <v>1705057973</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="7"/>
+        <v>378507</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="8"/>
+        <v>6718464</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>27252363</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="3"/>
+        <v>1962169995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="7"/>
+        <v>410777</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="8"/>
+        <v>7496644</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="2"/>
+        <v>30397353</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="3"/>
+        <v>2249403977</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="7"/>
+        <v>444831</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="8"/>
+        <v>8340544</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="2"/>
+        <v>33807007</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="3"/>
+        <v>2569332383</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="7"/>
+        <v>480717</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="8"/>
+        <v>9253764</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="2"/>
+        <v>37495773</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="3"/>
+        <v>2924670141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="7"/>
+        <v>518483</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="8"/>
+        <v>10240000</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="2"/>
+        <v>41478483</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="3"/>
+        <v>3318278483</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" ref="B42:B51" si="9">(2*A42)^3 + (2*A42)^2 + (2*A42) + 3</f>
+        <v>558177</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" ref="C42:C51" si="10">(2*A42)^4 / 4</f>
+        <v>11303044</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="2"/>
+        <v>45770353</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="3"/>
+        <v>3753168785</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="9"/>
+        <v>599847</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="10"/>
+        <v>12446784</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="2"/>
+        <v>50386983</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="3"/>
+        <v>4232506407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="9"/>
+        <v>643541</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="10"/>
+        <v>13675204</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="2"/>
+        <v>55344357</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="3"/>
+        <v>4759614533</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" si="9"/>
+        <v>689307</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="10"/>
+        <v>14992384</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="2"/>
+        <v>60658843</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="3"/>
+        <v>5337978011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" si="9"/>
+        <v>737193</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="10"/>
+        <v>16402500</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="2"/>
+        <v>66347193</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="3"/>
+        <v>5971247193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" si="9"/>
+        <v>787247</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="10"/>
+        <v>17909824</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="2"/>
+        <v>72426543</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="3"/>
+        <v>6663241775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="9"/>
+        <v>839517</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="10"/>
+        <v>19518724</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="2"/>
+        <v>78914413</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="3"/>
+        <v>7417954637</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="9"/>
+        <v>894051</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="10"/>
+        <v>21233664</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="2"/>
+        <v>85828707</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="3"/>
+        <v>8239555683</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <f t="shared" si="9"/>
+        <v>950897</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="10"/>
+        <v>23059204</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="2"/>
+        <v>93187713</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="3"/>
+        <v>9132395681</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" si="9"/>
+        <v>1010103</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="10"/>
+        <v>25000000</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="2"/>
+        <v>101010103</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="3"/>
+        <v>10101010103</v>
       </c>
     </row>
   </sheetData>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2382905-46B9-4F09-A820-4B9EBEA3FEB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDC9BEF-2E0F-49A2-95DE-064D2E9FF92C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
   <si>
     <t>Base ?</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>(Some 0.000_003), 100_000.0)</t>
+  </si>
+  <si>
+    <t>catSynthRndParam</t>
+  </si>
+  <si>
+    <t>(Some 0.000_010), 100_000.0</t>
   </si>
 </sst>
 </file>
@@ -282,7 +288,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Defaults!$Q$1</c:f>
+              <c:f>Defaults!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -345,7 +351,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Defaults!$Q$2:$Q$9</c:f>
+              <c:f>Defaults!$S$2:$S$9</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -382,7 +388,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Defaults!$T$1</c:f>
+              <c:f>Defaults!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -445,7 +451,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Defaults!$T$2:$T$9</c:f>
+              <c:f>Defaults!$V$2:$V$9</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -482,7 +488,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Defaults!$U$1</c:f>
+              <c:f>Defaults!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -545,7 +551,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Defaults!$U$2:$U$9</c:f>
+              <c:f>Defaults!$W$2:$W$9</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1681,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1693,17 +1699,19 @@
     <col min="4" max="6" width="9.1015625" customWidth="1"/>
     <col min="7" max="7" width="13.20703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.83984375" style="1"/>
-    <col min="9" max="9" width="26.83984375" customWidth="1"/>
-    <col min="10" max="10" width="11.20703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.68359375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32" customWidth="1"/>
-    <col min="14" max="14" width="8.89453125" customWidth="1"/>
-    <col min="17" max="17" width="8.83984375" style="3"/>
-    <col min="18" max="18" width="1.62890625" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="8.83984375" style="3"/>
+    <col min="9" max="9" width="24.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.83984375" customWidth="1"/>
+    <col min="12" max="12" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32" customWidth="1"/>
+    <col min="16" max="16" width="8.89453125" customWidth="1"/>
+    <col min="19" max="19" width="8.83984375" style="3"/>
+    <col min="20" max="20" width="1.62890625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="8.83984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1723,41 +1731,47 @@
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N1"/>
-      <c r="O1" t="s">
+      <c r="P1"/>
+      <c r="Q1" t="s">
         <v>2</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C2">
         <v>20</v>
       </c>
@@ -1767,257 +1781,257 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <f>VALUE(SUBSTITUTE(G2, "_", ""))</f>
         <v>0</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>52</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>16</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="S2" s="3">
         <v>0.30769230769230799</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="3">
-        <f>SQRT(Q2*(1-Q2)/O2)</f>
+      <c r="U2" s="3">
+        <f>SQRT(S2*(1-S2)/Q2)</f>
         <v>6.4003868795218757E-2</v>
       </c>
-      <c r="T2" s="3">
-        <f>Q2-S2</f>
+      <c r="V2" s="3">
+        <f>S2-U2</f>
         <v>0.24368843889708924</v>
       </c>
-      <c r="U2" s="3">
-        <f>Q2+S2</f>
+      <c r="W2" s="3">
+        <f>S2+U2</f>
         <v>0.37169617648752673</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C3">
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>18</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L23" si="0">VALUE(SUBSTITUTE(G3, "_", ""))</f>
+      <c r="N3">
+        <f t="shared" ref="N3:N23" si="0">VALUE(SUBSTITUTE(G3, "_", ""))</f>
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>20</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>8</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="S3" s="3">
         <v>0.4</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="3">
-        <f>SQRT(Q3*(1-Q3)/O3)</f>
+      <c r="U3" s="3">
+        <f>SQRT(S3*(1-S3)/Q3)</f>
         <v>0.10954451150103323</v>
       </c>
-      <c r="T3" s="3">
-        <f>Q3-S3</f>
+      <c r="V3" s="3">
+        <f>S3-U3</f>
         <v>0.2904554884989668</v>
       </c>
-      <c r="U3" s="3">
-        <f>Q3+S3</f>
+      <c r="W3" s="3">
+        <f>S3+U3</f>
         <v>0.5095445115010333</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C4">
         <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>19</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>8</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="S4" s="3">
         <v>0.42105263157894701</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="3">
-        <f t="shared" ref="S4" si="1">SQRT(Q4*(1-Q4)/O4)</f>
+      <c r="U4" s="3">
+        <f t="shared" ref="U4" si="1">SQRT(S4*(1-S4)/Q4)</f>
         <v>0.11326896565241479</v>
       </c>
-      <c r="T4" s="3">
-        <f t="shared" ref="T4" si="2">Q4-S4</f>
+      <c r="V4" s="3">
+        <f t="shared" ref="V4" si="2">S4-U4</f>
         <v>0.30778366592653222</v>
       </c>
-      <c r="U4" s="3">
-        <f t="shared" ref="U4" si="3">Q4+S4</f>
+      <c r="W4" s="3">
+        <f t="shared" ref="W4" si="3">S4+U4</f>
         <v>0.53432159723136174</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C5">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>16</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>19</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>3</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="S5" s="3">
         <v>0.157894736842105</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="3">
-        <f t="shared" ref="S5" si="4">SQRT(Q5*(1-Q5)/O5)</f>
+      <c r="U5" s="3">
+        <f t="shared" ref="U5" si="4">SQRT(S5*(1-S5)/Q5)</f>
         <v>8.3654675183055346E-2</v>
       </c>
-      <c r="T5" s="3">
-        <f t="shared" ref="T5" si="5">Q5-S5</f>
+      <c r="V5" s="3">
+        <f t="shared" ref="V5" si="5">S5-U5</f>
         <v>7.4240061659049658E-2</v>
       </c>
-      <c r="U5" s="3">
-        <f t="shared" ref="U5" si="6">Q5+S5</f>
+      <c r="W5" s="3">
+        <f t="shared" ref="W5" si="6">S5+U5</f>
         <v>0.24154941202516034</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C6">
         <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>19</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>38</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>11</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="S6" s="3">
         <v>0.28947368421052599</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="3">
-        <f t="shared" ref="S6:S7" si="7">SQRT(Q6*(1-Q6)/O6)</f>
+      <c r="U6" s="3">
+        <f t="shared" ref="U6:U7" si="7">SQRT(S6*(1-S6)/Q6)</f>
         <v>7.3570351286533664E-2</v>
       </c>
-      <c r="T6" s="3">
-        <f t="shared" ref="T6:T7" si="8">Q6-S6</f>
+      <c r="V6" s="3">
+        <f t="shared" ref="V6:V7" si="8">S6-U6</f>
         <v>0.21590333292399233</v>
       </c>
-      <c r="U6" s="3">
-        <f t="shared" ref="U6:U7" si="9">Q6+S6</f>
+      <c r="W6" s="3">
+        <f t="shared" ref="W6:W7" si="9">S6+U6</f>
         <v>0.36304403549705966</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C7">
         <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>17</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>21</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>5</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>1</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="S7" s="3">
         <v>0.2</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="3">
+      <c r="U7" s="3">
         <f t="shared" si="7"/>
         <v>0.1788854381999832</v>
       </c>
-      <c r="T7" s="3">
+      <c r="V7" s="3">
         <f t="shared" si="8"/>
         <v>2.1114561800016807E-2</v>
       </c>
-      <c r="U7" s="3">
+      <c r="W7" s="3">
         <f t="shared" si="9"/>
         <v>0.37888543819998322</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="R8" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="T8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C9">
         <v>20</v>
       </c>
@@ -2033,29 +2047,29 @@
       <c r="G9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>17</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>32</v>
       </c>
-      <c r="K9" t="str">
+      <c r="M9" t="str">
         <f>"Defaults_" &amp; G9 &amp; ".defaultValue"</f>
         <v>Defaults_000_006.defaultValue</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M9" t="str">
-        <f>"ContGen.exe add -i " &amp; L9 &amp; " -n " &amp; C9 &amp; " -m 3 -y " &amp; E9 &amp; " -t " &amp; D9 &amp; " -r " &amp; F9</f>
+      <c r="O9" t="str">
+        <f>"ContGen.exe add -i " &amp; N9 &amp; " -n " &amp; C9 &amp; " -m 3 -y " &amp; E9 &amp; " -t " &amp; D9 &amp; " -r " &amp; F9</f>
         <v>ContGen.exe add -i 6 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C10">
         <v>20</v>
       </c>
@@ -2071,26 +2085,26 @@
       <c r="G10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>17</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>31</v>
       </c>
-      <c r="K10" t="str">
-        <f t="shared" ref="K10:K23" si="10">"Defaults_" &amp; G10 &amp; ".defaultValue"</f>
+      <c r="M10" t="str">
+        <f t="shared" ref="M10:M23" si="10">"Defaults_" &amp; G10 &amp; ".defaultValue"</f>
         <v>Defaults_000_007.defaultValue</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="M10" t="str">
-        <f t="shared" ref="M10:M23" si="11">"ContGen.exe add -i " &amp; L10 &amp; " -n " &amp; C10 &amp; " -m 3 -y " &amp; E10 &amp; " -t " &amp; D10 &amp; " -r " &amp; F10</f>
+      <c r="O10" t="str">
+        <f t="shared" ref="O10:O23" si="11">"ContGen.exe add -i " &amp; N10 &amp; " -n " &amp; C10 &amp; " -m 3 -y " &amp; E10 &amp; " -t " &amp; D10 &amp; " -r " &amp; F10</f>
         <v>ContGen.exe add -i 7 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2113,27 +2127,27 @@
         <f>"000_0" &amp; RIGHT("0" &amp; A11, 2)</f>
         <v>000_008</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="6" t="str">
+      <c r="L11" s="6" t="str">
         <f>"(Some 0." &amp; B11 &amp; ")"</f>
         <v>(Some 0.35)</v>
       </c>
-      <c r="K11" t="str">
+      <c r="M11" t="str">
         <f t="shared" si="10"/>
         <v>Defaults_000_008.defaultValue</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M11" t="str">
+      <c r="O11" t="str">
         <f t="shared" si="11"/>
         <v>ContGen.exe add -i 8 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f>1+A11</f>
         <v>9</v>
@@ -2158,27 +2172,27 @@
         <f t="shared" ref="G12:G22" si="12">"000_0" &amp; RIGHT("0" &amp; A12, 2)</f>
         <v>000_009</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="6" t="str">
-        <f t="shared" ref="J12:J22" si="13">"(Some 0." &amp; B12 &amp; ")"</f>
+      <c r="L12" s="6" t="str">
+        <f t="shared" ref="L12:L22" si="13">"(Some 0." &amp; B12 &amp; ")"</f>
         <v>(Some 0.40)</v>
       </c>
-      <c r="K12" t="str">
+      <c r="M12" t="str">
         <f t="shared" si="10"/>
         <v>Defaults_000_009.defaultValue</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M12" t="str">
+      <c r="O12" t="str">
         <f t="shared" si="11"/>
         <v>ContGen.exe add -i 9 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <f t="shared" ref="A13:A22" si="14">1+A12</f>
         <v>10</v>
@@ -2203,27 +2217,27 @@
         <f t="shared" si="12"/>
         <v>000_010</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="6" t="str">
+      <c r="L13" s="6" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.45)</v>
       </c>
-      <c r="K13" t="str">
+      <c r="M13" t="str">
         <f t="shared" si="10"/>
         <v>Defaults_000_010.defaultValue</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M13" t="str">
+      <c r="O13" t="str">
         <f t="shared" si="11"/>
         <v>ContGen.exe add -i 10 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <f t="shared" si="14"/>
         <v>11</v>
@@ -2248,27 +2262,27 @@
         <f t="shared" si="12"/>
         <v>000_011</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="6" t="str">
+      <c r="L14" s="6" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.50)</v>
       </c>
-      <c r="K14" t="str">
+      <c r="M14" t="str">
         <f t="shared" si="10"/>
         <v>Defaults_000_011.defaultValue</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="M14" t="str">
+      <c r="O14" t="str">
         <f t="shared" si="11"/>
         <v>ContGen.exe add -i 11 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <f t="shared" si="14"/>
         <v>12</v>
@@ -2293,27 +2307,27 @@
         <f t="shared" si="12"/>
         <v>000_012</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="6" t="str">
+      <c r="L15" s="6" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.55)</v>
       </c>
-      <c r="K15" t="str">
+      <c r="M15" t="str">
         <f t="shared" si="10"/>
         <v>Defaults_000_012.defaultValue</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M15" t="str">
+      <c r="O15" t="str">
         <f t="shared" si="11"/>
         <v>ContGen.exe add -i 12 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <f t="shared" si="14"/>
         <v>13</v>
@@ -2338,27 +2352,27 @@
         <f t="shared" si="12"/>
         <v>000_013</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="6" t="str">
+      <c r="L16" s="6" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.60)</v>
       </c>
-      <c r="K16" t="str">
+      <c r="M16" t="str">
         <f t="shared" si="10"/>
         <v>Defaults_000_013.defaultValue</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="M16" t="str">
+      <c r="O16" t="str">
         <f t="shared" si="11"/>
         <v>ContGen.exe add -i 13 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <f t="shared" si="14"/>
         <v>14</v>
@@ -2383,27 +2397,27 @@
         <f t="shared" si="12"/>
         <v>000_014</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="6" t="str">
+      <c r="L17" s="6" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.65)</v>
       </c>
-      <c r="K17" t="str">
+      <c r="M17" t="str">
         <f t="shared" si="10"/>
         <v>Defaults_000_014.defaultValue</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M17" t="str">
+      <c r="O17" t="str">
         <f t="shared" si="11"/>
         <v>ContGen.exe add -i 14 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <f t="shared" si="14"/>
         <v>15</v>
@@ -2428,27 +2442,27 @@
         <f t="shared" si="12"/>
         <v>000_015</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="6" t="str">
+      <c r="L18" s="6" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.70)</v>
       </c>
-      <c r="K18" t="str">
+      <c r="M18" t="str">
         <f t="shared" si="10"/>
         <v>Defaults_000_015.defaultValue</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="M18" t="str">
+      <c r="O18" t="str">
         <f t="shared" si="11"/>
         <v>ContGen.exe add -i 15 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f t="shared" si="14"/>
         <v>16</v>
@@ -2473,27 +2487,27 @@
         <f t="shared" si="12"/>
         <v>000_016</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="6" t="str">
+      <c r="L19" s="6" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.75)</v>
       </c>
-      <c r="K19" t="str">
+      <c r="M19" t="str">
         <f t="shared" si="10"/>
         <v>Defaults_000_016.defaultValue</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M19" t="str">
+      <c r="O19" t="str">
         <f t="shared" si="11"/>
         <v>ContGen.exe add -i 16 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <f t="shared" si="14"/>
         <v>17</v>
@@ -2518,27 +2532,27 @@
         <f t="shared" si="12"/>
         <v>000_017</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="6" t="str">
+      <c r="L20" s="6" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.80)</v>
       </c>
-      <c r="K20" t="str">
+      <c r="M20" t="str">
         <f t="shared" si="10"/>
         <v>Defaults_000_017.defaultValue</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="M20" t="str">
+      <c r="O20" t="str">
         <f t="shared" si="11"/>
         <v>ContGen.exe add -i 17 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <f t="shared" si="14"/>
         <v>18</v>
@@ -2563,27 +2577,27 @@
         <f t="shared" si="12"/>
         <v>000_018</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="6" t="str">
+      <c r="L21" s="6" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.85)</v>
       </c>
-      <c r="K21" t="str">
+      <c r="M21" t="str">
         <f t="shared" si="10"/>
         <v>Defaults_000_018.defaultValue</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="M21" t="str">
+      <c r="O21" t="str">
         <f t="shared" si="11"/>
         <v>ContGen.exe add -i 18 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <f t="shared" si="14"/>
         <v>19</v>
@@ -2608,27 +2622,27 @@
         <f t="shared" si="12"/>
         <v>000_019</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="6" t="str">
+      <c r="L22" s="6" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.90)</v>
       </c>
-      <c r="K22" t="str">
+      <c r="M22" t="str">
         <f t="shared" si="10"/>
         <v>Defaults_000_019.defaultValue</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="M22" t="str">
+      <c r="O22" t="str">
         <f t="shared" si="11"/>
         <v>ContGen.exe add -i 19 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <f t="shared" ref="A23" si="16">1+A22</f>
         <v>20</v>
@@ -2653,42 +2667,42 @@
         <f t="shared" ref="G23" si="18">"000_0" &amp; RIGHT("0" &amp; A23, 2)</f>
         <v>000_020</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="6" t="str">
-        <f t="shared" ref="J23" si="19">"(Some 0." &amp; B23 &amp; ")"</f>
+      <c r="L23" s="6" t="str">
+        <f t="shared" ref="L23" si="19">"(Some 0." &amp; B23 &amp; ")"</f>
         <v>(Some 0.95)</v>
       </c>
-      <c r="K23" t="str">
+      <c r="M23" t="str">
         <f t="shared" si="10"/>
         <v>Defaults_000_020.defaultValue</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M23" t="str">
+      <c r="O23" t="str">
         <f t="shared" si="11"/>
         <v>ContGen.exe add -i 20 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="G26" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="G27" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="G28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2708,26 +2722,26 @@
         <f>"002_0" &amp; RIGHT("0" &amp; A31, 2)</f>
         <v>002_000</v>
       </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>38</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>18</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" ref="K31:K42" si="20">"Defaults_" &amp; G31 &amp; ".defaultValue"</f>
+      <c r="M31" t="str">
+        <f t="shared" ref="M31:M42" si="20">"Defaults_" &amp; G31 &amp; ".defaultValue"</f>
         <v>Defaults_002_000.defaultValue</v>
       </c>
-      <c r="L31">
-        <f t="shared" ref="L31:L42" si="21">VALUE(SUBSTITUTE(G31, "_", ""))</f>
+      <c r="N31">
+        <f t="shared" ref="N31:N42" si="21">VALUE(SUBSTITUTE(G31, "_", ""))</f>
         <v>2000</v>
       </c>
-      <c r="M31" t="str">
-        <f t="shared" ref="M31:M42" si="22">"ContGen.exe add -i " &amp; L31 &amp; " -n " &amp; C31 &amp; " -m 3 -y " &amp; E31 &amp; " -t " &amp; D31 &amp; " -r " &amp; F31</f>
+      <c r="O31" t="str">
+        <f t="shared" ref="O31:O42" si="22">"ContGen.exe add -i " &amp; N31 &amp; " -n " &amp; C31 &amp; " -m 3 -y " &amp; E31 &amp; " -t " &amp; D31 &amp; " -r " &amp; F31</f>
         <v>ContGen.exe add -i 2000 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <f>1+A31</f>
         <v>1</v>
@@ -2748,26 +2762,26 @@
         <f t="shared" ref="G32:G35" si="23">"002_0" &amp; RIGHT("0" &amp; A32, 2)</f>
         <v>002_001</v>
       </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>39</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>18</v>
       </c>
-      <c r="K32" t="str">
+      <c r="M32" t="str">
         <f t="shared" si="20"/>
         <v>Defaults_002_001.defaultValue</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <f t="shared" si="21"/>
         <v>2001</v>
       </c>
-      <c r="M32" t="str">
+      <c r="O32" t="str">
         <f t="shared" si="22"/>
         <v>ContGen.exe add -i 2001 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <f t="shared" ref="A33:A35" si="24">1+A32</f>
         <v>2</v>
@@ -2788,26 +2802,26 @@
         <f t="shared" si="23"/>
         <v>002_002</v>
       </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
         <v>14</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>18</v>
       </c>
-      <c r="K33" t="str">
+      <c r="M33" t="str">
         <f t="shared" si="20"/>
         <v>Defaults_002_002.defaultValue</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <f t="shared" si="21"/>
         <v>2002</v>
       </c>
-      <c r="M33" t="str">
+      <c r="O33" t="str">
         <f t="shared" si="22"/>
         <v>ContGen.exe add -i 2002 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <f t="shared" si="24"/>
         <v>3</v>
@@ -2828,26 +2842,26 @@
         <f t="shared" si="23"/>
         <v>002_003</v>
       </c>
-      <c r="I34" t="s">
+      <c r="K34" t="s">
         <v>38</v>
       </c>
-      <c r="J34" t="s">
+      <c r="L34" t="s">
         <v>31</v>
       </c>
-      <c r="K34" t="str">
+      <c r="M34" t="str">
         <f t="shared" si="20"/>
         <v>Defaults_002_003.defaultValue</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <f t="shared" si="21"/>
         <v>2003</v>
       </c>
-      <c r="M34" t="str">
+      <c r="O34" t="str">
         <f t="shared" si="22"/>
         <v>ContGen.exe add -i 2003 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <f t="shared" si="24"/>
         <v>4</v>
@@ -2868,26 +2882,26 @@
         <f t="shared" si="23"/>
         <v>002_004</v>
       </c>
-      <c r="I35" t="s">
+      <c r="K35" t="s">
         <v>39</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" t="s">
         <v>31</v>
       </c>
-      <c r="K35" t="str">
+      <c r="M35" t="str">
         <f t="shared" si="20"/>
         <v>Defaults_002_004.defaultValue</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <f t="shared" si="21"/>
         <v>2004</v>
       </c>
-      <c r="M35" t="str">
+      <c r="O35" t="str">
         <f t="shared" si="22"/>
         <v>ContGen.exe add -i 2004 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <f t="shared" ref="A36:A39" si="25">1+A35</f>
         <v>5</v>
@@ -2908,26 +2922,26 @@
         <f t="shared" ref="G36:G39" si="26">"002_0" &amp; RIGHT("0" &amp; A36, 2)</f>
         <v>002_005</v>
       </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>14</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>31</v>
       </c>
-      <c r="K36" t="str">
+      <c r="M36" t="str">
         <f t="shared" si="20"/>
         <v>Defaults_002_005.defaultValue</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <f t="shared" si="21"/>
         <v>2005</v>
       </c>
-      <c r="M36" t="str">
+      <c r="O36" t="str">
         <f t="shared" si="22"/>
         <v>ContGen.exe add -i 2005 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <f t="shared" si="25"/>
         <v>6</v>
@@ -2948,26 +2962,26 @@
         <f t="shared" si="26"/>
         <v>002_006</v>
       </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>38</v>
       </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
         <v>16</v>
       </c>
-      <c r="K37" t="str">
+      <c r="M37" t="str">
         <f t="shared" si="20"/>
         <v>Defaults_002_006.defaultValue</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <f t="shared" si="21"/>
         <v>2006</v>
       </c>
-      <c r="M37" t="str">
+      <c r="O37" t="str">
         <f t="shared" si="22"/>
         <v>ContGen.exe add -i 2006 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <f t="shared" si="25"/>
         <v>7</v>
@@ -2988,26 +3002,26 @@
         <f t="shared" si="26"/>
         <v>002_007</v>
       </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>39</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>16</v>
       </c>
-      <c r="K38" t="str">
+      <c r="M38" t="str">
         <f t="shared" si="20"/>
         <v>Defaults_002_007.defaultValue</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <f t="shared" si="21"/>
         <v>2007</v>
       </c>
-      <c r="M38" t="str">
+      <c r="O38" t="str">
         <f t="shared" si="22"/>
         <v>ContGen.exe add -i 2007 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <f t="shared" si="25"/>
         <v>8</v>
@@ -3028,26 +3042,26 @@
         <f t="shared" si="26"/>
         <v>002_008</v>
       </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>14</v>
       </c>
-      <c r="J39" t="s">
+      <c r="L39" t="s">
         <v>16</v>
       </c>
-      <c r="K39" t="str">
+      <c r="M39" t="str">
         <f t="shared" si="20"/>
         <v>Defaults_002_008.defaultValue</v>
       </c>
-      <c r="L39">
+      <c r="N39">
         <f t="shared" si="21"/>
         <v>2008</v>
       </c>
-      <c r="M39" t="str">
+      <c r="O39" t="str">
         <f t="shared" si="22"/>
         <v>ContGen.exe add -i 2008 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <f t="shared" ref="A40:A42" si="27">1+A39</f>
         <v>9</v>
@@ -3068,26 +3082,26 @@
         <f t="shared" ref="G40:G42" si="28">"002_0" &amp; RIGHT("0" &amp; A40, 2)</f>
         <v>002_009</v>
       </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>38</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>21</v>
       </c>
-      <c r="K40" t="str">
+      <c r="M40" t="str">
         <f t="shared" si="20"/>
         <v>Defaults_002_009.defaultValue</v>
       </c>
-      <c r="L40">
+      <c r="N40">
         <f t="shared" si="21"/>
         <v>2009</v>
       </c>
-      <c r="M40" t="str">
+      <c r="O40" t="str">
         <f t="shared" si="22"/>
         <v>ContGen.exe add -i 2009 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <f t="shared" si="27"/>
         <v>10</v>
@@ -3108,26 +3122,26 @@
         <f t="shared" si="28"/>
         <v>002_010</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>39</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>21</v>
       </c>
-      <c r="K41" t="str">
+      <c r="M41" t="str">
         <f t="shared" si="20"/>
         <v>Defaults_002_010.defaultValue</v>
       </c>
-      <c r="L41">
+      <c r="N41">
         <f t="shared" si="21"/>
         <v>2010</v>
       </c>
-      <c r="M41" t="str">
+      <c r="O41" t="str">
         <f t="shared" si="22"/>
         <v>ContGen.exe add -i 2010 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <f t="shared" si="27"/>
         <v>11</v>
@@ -3148,26 +3162,26 @@
         <f t="shared" si="28"/>
         <v>002_011</v>
       </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>14</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>21</v>
       </c>
-      <c r="K42" t="str">
+      <c r="M42" t="str">
         <f t="shared" si="20"/>
         <v>Defaults_002_011.defaultValue</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <f t="shared" si="21"/>
         <v>2011</v>
       </c>
-      <c r="M42" t="str">
+      <c r="O42" t="str">
         <f t="shared" si="22"/>
         <v>ContGen.exe add -i 2011 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <f t="shared" ref="A43:A45" si="29">1+A42</f>
         <v>12</v>
@@ -3188,26 +3202,26 @@
         <f t="shared" ref="G43:G45" si="30">"002_0" &amp; RIGHT("0" &amp; A43, 2)</f>
         <v>002_012</v>
       </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>38</v>
       </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>19</v>
       </c>
-      <c r="K43" t="str">
-        <f t="shared" ref="K43:K45" si="31">"Defaults_" &amp; G43 &amp; ".defaultValue"</f>
+      <c r="M43" t="str">
+        <f t="shared" ref="M43:M45" si="31">"Defaults_" &amp; G43 &amp; ".defaultValue"</f>
         <v>Defaults_002_012.defaultValue</v>
       </c>
-      <c r="L43">
-        <f t="shared" ref="L43:L45" si="32">VALUE(SUBSTITUTE(G43, "_", ""))</f>
+      <c r="N43">
+        <f t="shared" ref="N43:N45" si="32">VALUE(SUBSTITUTE(G43, "_", ""))</f>
         <v>2012</v>
       </c>
-      <c r="M43" t="str">
-        <f t="shared" ref="M43:M45" si="33">"ContGen.exe add -i " &amp; L43 &amp; " -n " &amp; C43 &amp; " -m 3 -y " &amp; E43 &amp; " -t " &amp; D43 &amp; " -r " &amp; F43</f>
+      <c r="O43" t="str">
+        <f t="shared" ref="O43:O45" si="33">"ContGen.exe add -i " &amp; N43 &amp; " -n " &amp; C43 &amp; " -m 3 -y " &amp; E43 &amp; " -t " &amp; D43 &amp; " -r " &amp; F43</f>
         <v>ContGen.exe add -i 2012 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <f t="shared" si="29"/>
         <v>13</v>
@@ -3228,26 +3242,26 @@
         <f t="shared" si="30"/>
         <v>002_013</v>
       </c>
-      <c r="I44" t="s">
+      <c r="K44" t="s">
         <v>39</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>19</v>
       </c>
-      <c r="K44" t="str">
+      <c r="M44" t="str">
         <f t="shared" si="31"/>
         <v>Defaults_002_013.defaultValue</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <f t="shared" si="32"/>
         <v>2013</v>
       </c>
-      <c r="M44" t="str">
+      <c r="O44" t="str">
         <f t="shared" si="33"/>
         <v>ContGen.exe add -i 2013 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <f t="shared" si="29"/>
         <v>14</v>
@@ -3268,23 +3282,68 @@
         <f t="shared" si="30"/>
         <v>002_014</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>14</v>
       </c>
-      <c r="J45" t="s">
+      <c r="L45" t="s">
         <v>19</v>
       </c>
-      <c r="K45" t="str">
+      <c r="M45" t="str">
         <f t="shared" si="31"/>
         <v>Defaults_002_014.defaultValue</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <f t="shared" si="32"/>
         <v>2014</v>
       </c>
-      <c r="M45" t="str">
+      <c r="O45" t="str">
         <f t="shared" si="33"/>
         <v>ContGen.exe add -i 2014 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>250000</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>25</v>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f>"003_" &amp; RIGHT("00" &amp; A48, 3)</f>
+        <v>003_000</v>
+      </c>
+      <c r="I48" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" t="s">
+        <v>41</v>
+      </c>
+      <c r="L48" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" ref="M48" si="34">"Defaults_" &amp; G48 &amp; ".defaultValue"</f>
+        <v>Defaults_003_000.defaultValue</v>
+      </c>
+      <c r="N48">
+        <f>VALUE(SUBSTITUTE(G48, "_", ""))</f>
+        <v>3000</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" ref="O48" si="35">"ContGen.exe add -i " &amp; N48 &amp; " -n " &amp; C48 &amp; " -m 3 -y " &amp; E48 &amp; " -t " &amp; D48 &amp; " -r " &amp; F48</f>
+        <v>ContGen.exe add -i 3000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
   </sheetData>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDC9BEF-2E0F-49A2-95DE-064D2E9FF92C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4D2D88-8785-4EE9-BDC3-08C899BADCCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
   <si>
     <t>Base ?</t>
   </si>
@@ -1687,10 +1687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3346,6 +3346,45 @@
         <v>ContGen.exe add -i 3000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>250000</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>25</v>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f>"004_" &amp; RIGHT("00" &amp; A51, 3)</f>
+        <v>004_000</v>
+      </c>
+      <c r="I51" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" ref="M51" si="36">"Defaults_" &amp; G51 &amp; ".defaultValue"</f>
+        <v>Defaults_004_000.defaultValue</v>
+      </c>
+      <c r="N51">
+        <f>VALUE(SUBSTITUTE(G51, "_", ""))</f>
+        <v>4000</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" ref="O51" si="37">"ContGen.exe add -i " &amp; N51 &amp; " -n " &amp; C51 &amp; " -m 3 -y " &amp; E51 &amp; " -t " &amp; D51 &amp; " -r " &amp; F51</f>
+        <v>ContGen.exe add -i 4000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -3356,8 +3395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CCFDC-E723-428F-8C43-820106604DAB}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4D2D88-8785-4EE9-BDC3-08C899BADCCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B015413-856C-43B7-A515-A92C87051264}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
   <si>
     <t>Base ?</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>command</t>
-  </si>
-  <si>
-    <t>001_000</t>
   </si>
   <si>
     <t>(Some 0.000_005), 100_000.0)</t>
@@ -321,10 +318,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Defaults!$C$2:$C$9</c:f>
+              <c:f>Defaults!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -343,7 +340,7 @@
                 <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -351,10 +348,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Defaults!$S$2:$S$9</c:f>
+              <c:f>Defaults!$S$2:$S$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.30769230769230799</c:v>
                 </c:pt>
@@ -421,10 +418,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Defaults!$C$2:$C$9</c:f>
+              <c:f>Defaults!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -443,7 +440,7 @@
                 <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -451,10 +448,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Defaults!$V$2:$V$9</c:f>
+              <c:f>Defaults!$V$2:$V$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.24368843889708924</c:v>
                 </c:pt>
@@ -521,10 +518,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Defaults!$C$2:$C$9</c:f>
+              <c:f>Defaults!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
@@ -543,7 +540,7 @@
                 <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -551,10 +548,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Defaults!$W$2:$W$9</c:f>
+              <c:f>Defaults!$W$2:$W$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.37169617648752673</c:v>
                 </c:pt>
@@ -1687,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:W85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F37" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1731,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
@@ -1830,7 +1827,7 @@
         <v>18</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N23" si="0">VALUE(SUBSTITUTE(G3, "_", ""))</f>
+        <f t="shared" ref="N3:N22" si="0">VALUE(SUBSTITUTE(G3, "_", ""))</f>
         <v>1</v>
       </c>
       <c r="Q3">
@@ -2027,6 +2024,39 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>250000</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="str">
+        <f>"Defaults_" &amp; G8 &amp; ".defaultValue"</f>
+        <v>Defaults_000_006.defaultValue</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O8" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; N8 &amp; " -n " &amp; C8 &amp; " -m 3 -y " &amp; E8 &amp; " -t " &amp; D8 &amp; " -r " &amp; F8</f>
+        <v>ContGenAdm.exe add -i 6 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
       <c r="T8" t="s">
         <v>13</v>
       </c>
@@ -2045,31 +2075,34 @@
         <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
         <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" t="str">
-        <f>"Defaults_" &amp; G9 &amp; ".defaultValue"</f>
-        <v>Defaults_000_006.defaultValue</v>
+        <f t="shared" ref="M9:M22" si="10">"Defaults_" &amp; G9 &amp; ".defaultValue"</f>
+        <v>Defaults_000_007.defaultValue</v>
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O9" t="str">
-        <f>"ContGen.exe add -i " &amp; N9 &amp; " -n " &amp; C9 &amp; " -m 3 -y " &amp; E9 &amp; " -t " &amp; D9 &amp; " -r " &amp; F9</f>
-        <v>ContGen.exe add -i 6 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-      <c r="T9" t="s">
-        <v>13</v>
+        <f t="shared" ref="O9:O22" si="11">"ContGenAdm.exe add -i " &amp; N9 &amp; " -n " &amp; C9 &amp; " -m 3 -y " &amp; E9 &amp; " -t " &amp; D9 &amp; " -r " &amp; F9</f>
+        <v>ContGenAdm.exe add -i 7 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
       <c r="C10">
         <v>20</v>
       </c>
@@ -2082,34 +2115,38 @@
       <c r="F10">
         <v>25</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>30</v>
+      <c r="G10" s="1" t="str">
+        <f>"000_0" &amp; RIGHT("0" &amp; A10, 2)</f>
+        <v>000_008</v>
       </c>
       <c r="K10" t="s">
         <v>17</v>
       </c>
-      <c r="L10" t="s">
-        <v>31</v>
+      <c r="L10" s="6" t="str">
+        <f>"(Some 0." &amp; B10 &amp; ")"</f>
+        <v>(Some 0.35)</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" ref="M10:M23" si="10">"Defaults_" &amp; G10 &amp; ".defaultValue"</f>
-        <v>Defaults_000_007.defaultValue</v>
+        <f t="shared" si="10"/>
+        <v>Defaults_000_008.defaultValue</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" ref="O10:O23" si="11">"ContGen.exe add -i " &amp; N10 &amp; " -n " &amp; C10 &amp; " -m 3 -y " &amp; E10 &amp; " -t " &amp; D10 &amp; " -r " &amp; F10</f>
-        <v>ContGen.exe add -i 7 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+        <f t="shared" si="11"/>
+        <v>ContGenAdm.exe add -i 8 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>8</v>
+        <f>1+A10</f>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>35</v>
+        <f>+B10+5</f>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -2124,37 +2161,37 @@
         <v>25</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>"000_0" &amp; RIGHT("0" &amp; A11, 2)</f>
-        <v>000_008</v>
+        <f t="shared" ref="G11:G21" si="12">"000_0" &amp; RIGHT("0" &amp; A11, 2)</f>
+        <v>000_009</v>
       </c>
       <c r="K11" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="6" t="str">
-        <f>"(Some 0." &amp; B11 &amp; ")"</f>
-        <v>(Some 0.35)</v>
+        <f t="shared" ref="L11:L21" si="13">"(Some 0." &amp; B11 &amp; ")"</f>
+        <v>(Some 0.40)</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="10"/>
-        <v>Defaults_000_008.defaultValue</v>
+        <v>Defaults_000_009.defaultValue</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="11"/>
-        <v>ContGen.exe add -i 8 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 9 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <f>1+A11</f>
-        <v>9</v>
+        <f t="shared" ref="A12:A21" si="14">1+A11</f>
+        <v>10</v>
       </c>
       <c r="B12">
-        <f>+B11+5</f>
-        <v>40</v>
+        <f t="shared" ref="B12:B21" si="15">+B11+5</f>
+        <v>45</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -2169,37 +2206,37 @@
         <v>25</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f t="shared" ref="G12:G22" si="12">"000_0" &amp; RIGHT("0" &amp; A12, 2)</f>
-        <v>000_009</v>
+        <f t="shared" si="12"/>
+        <v>000_010</v>
       </c>
       <c r="K12" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="6" t="str">
-        <f t="shared" ref="L12:L22" si="13">"(Some 0." &amp; B12 &amp; ")"</f>
-        <v>(Some 0.40)</v>
+        <f t="shared" si="13"/>
+        <v>(Some 0.45)</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="10"/>
-        <v>Defaults_000_009.defaultValue</v>
+        <v>Defaults_000_010.defaultValue</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="11"/>
-        <v>ContGen.exe add -i 9 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 10 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <f t="shared" ref="A13:A22" si="14">1+A12</f>
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B22" si="15">+B12+5</f>
-        <v>45</v>
+        <f t="shared" si="15"/>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -2215,36 +2252,36 @@
       </c>
       <c r="G13" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>000_010</v>
+        <v>000_011</v>
       </c>
       <c r="K13" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>(Some 0.45)</v>
+        <v>(Some 0.50)</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="10"/>
-        <v>Defaults_000_010.defaultValue</v>
+        <v>Defaults_000_011.defaultValue</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="11"/>
-        <v>ContGen.exe add -i 10 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 11 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <f t="shared" si="15"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -2260,36 +2297,36 @@
       </c>
       <c r="G14" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>000_011</v>
+        <v>000_012</v>
       </c>
       <c r="K14" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>(Some 0.50)</v>
+        <v>(Some 0.55)</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="10"/>
-        <v>Defaults_000_011.defaultValue</v>
+        <v>Defaults_000_012.defaultValue</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="11"/>
-        <v>ContGen.exe add -i 11 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 12 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <f t="shared" si="14"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <f t="shared" si="15"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <v>20</v>
@@ -2305,36 +2342,36 @@
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>000_012</v>
+        <v>000_013</v>
       </c>
       <c r="K15" t="s">
         <v>17</v>
       </c>
       <c r="L15" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>(Some 0.55)</v>
+        <v>(Some 0.60)</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="10"/>
-        <v>Defaults_000_012.defaultValue</v>
+        <v>Defaults_000_013.defaultValue</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="11"/>
-        <v>ContGen.exe add -i 12 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 13 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <f t="shared" si="14"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <f t="shared" si="15"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C16">
         <v>20</v>
@@ -2350,36 +2387,36 @@
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>000_013</v>
+        <v>000_014</v>
       </c>
       <c r="K16" t="s">
         <v>17</v>
       </c>
       <c r="L16" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>(Some 0.60)</v>
+        <v>(Some 0.65)</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="10"/>
-        <v>Defaults_000_013.defaultValue</v>
+        <v>Defaults_000_014.defaultValue</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="11"/>
-        <v>ContGen.exe add -i 13 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 14 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <f t="shared" si="14"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <f t="shared" si="15"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C17">
         <v>20</v>
@@ -2395,36 +2432,36 @@
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>000_014</v>
+        <v>000_015</v>
       </c>
       <c r="K17" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>(Some 0.65)</v>
+        <v>(Some 0.70)</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="10"/>
-        <v>Defaults_000_014.defaultValue</v>
+        <v>Defaults_000_015.defaultValue</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O17" t="str">
         <f t="shared" si="11"/>
-        <v>ContGen.exe add -i 14 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 15 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <f t="shared" si="15"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -2440,36 +2477,36 @@
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>000_015</v>
+        <v>000_016</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>(Some 0.70)</v>
+        <v>(Some 0.75)</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="10"/>
-        <v>Defaults_000_015.defaultValue</v>
+        <v>Defaults_000_016.defaultValue</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O18" t="str">
         <f t="shared" si="11"/>
-        <v>ContGen.exe add -i 15 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 16 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <f t="shared" si="15"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C19">
         <v>20</v>
@@ -2485,36 +2522,36 @@
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>000_016</v>
+        <v>000_017</v>
       </c>
       <c r="K19" t="s">
         <v>17</v>
       </c>
       <c r="L19" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>(Some 0.75)</v>
+        <v>(Some 0.80)</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="10"/>
-        <v>Defaults_000_016.defaultValue</v>
+        <v>Defaults_000_017.defaultValue</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O19" t="str">
         <f t="shared" si="11"/>
-        <v>ContGen.exe add -i 16 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 17 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <f t="shared" si="15"/>
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -2530,36 +2567,36 @@
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>000_017</v>
+        <v>000_018</v>
       </c>
       <c r="K20" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>(Some 0.80)</v>
+        <v>(Some 0.85)</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="10"/>
-        <v>Defaults_000_017.defaultValue</v>
+        <v>Defaults_000_018.defaultValue</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O20" t="str">
         <f t="shared" si="11"/>
-        <v>ContGen.exe add -i 17 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 18 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <f t="shared" si="15"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -2575,36 +2612,36 @@
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>000_018</v>
+        <v>000_019</v>
       </c>
       <c r="K21" t="s">
         <v>17</v>
       </c>
       <c r="L21" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>(Some 0.85)</v>
+        <v>(Some 0.90)</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="10"/>
-        <v>Defaults_000_018.defaultValue</v>
+        <v>Defaults_000_019.defaultValue</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="11"/>
-        <v>ContGen.exe add -i 18 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 19 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <f t="shared" si="14"/>
-        <v>19</v>
+        <f t="shared" ref="A22" si="16">1+A21</f>
+        <v>20</v>
       </c>
       <c r="B22">
-        <f t="shared" si="15"/>
-        <v>90</v>
+        <f t="shared" ref="B22" si="17">+B21+5</f>
+        <v>95</v>
       </c>
       <c r="C22">
         <v>20</v>
@@ -2619,92 +2656,272 @@
         <v>25</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>000_019</v>
+        <f t="shared" ref="G22" si="18">"000_0" &amp; RIGHT("0" &amp; A22, 2)</f>
+        <v>000_020</v>
       </c>
       <c r="K22" t="s">
         <v>17</v>
       </c>
       <c r="L22" s="6" t="str">
-        <f t="shared" si="13"/>
-        <v>(Some 0.90)</v>
+        <f t="shared" ref="L22" si="19">"(Some 0." &amp; B22 &amp; ")"</f>
+        <v>(Some 0.95)</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="10"/>
-        <v>Defaults_000_019.defaultValue</v>
+        <v>Defaults_000_020.defaultValue</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O22" t="str">
         <f t="shared" si="11"/>
-        <v>ContGen.exe add -i 19 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <f t="shared" ref="A23" si="16">1+A22</f>
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <f t="shared" ref="B23" si="17">+B22+5</f>
-        <v>95</v>
-      </c>
-      <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="D23">
+        <v>ContGenAdm.exe add -i 20 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25">
         <v>250000</v>
       </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>25</v>
-      </c>
-      <c r="G23" s="1" t="str">
-        <f t="shared" ref="G23" si="18">"000_0" &amp; RIGHT("0" &amp; A23, 2)</f>
-        <v>000_020</v>
-      </c>
-      <c r="K23" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="6" t="str">
-        <f t="shared" ref="L23" si="19">"(Some 0." &amp; B23 &amp; ")"</f>
-        <v>(Some 0.95)</v>
-      </c>
-      <c r="M23" t="str">
-        <f t="shared" si="10"/>
-        <v>Defaults_000_020.defaultValue</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="O23" t="str">
-        <f t="shared" si="11"/>
-        <v>ContGen.exe add -i 20 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>25</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f>"002_0" &amp; RIGHT("0" &amp; A25, 2)</f>
+        <v>002_000</v>
+      </c>
+      <c r="K25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" ref="M25:M36" si="20">"Defaults_" &amp; G25 &amp; ".defaultValue"</f>
+        <v>Defaults_002_000.defaultValue</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:N36" si="21">VALUE(SUBSTITUTE(G25, "_", ""))</f>
+        <v>2000</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" ref="O25:O39" si="22">"ContGenAdm.exe add -i " &amp; N25 &amp; " -n " &amp; C25 &amp; " -m 3 -y " &amp; E25 &amp; " -t " &amp; D25 &amp; " -r " &amp; F25</f>
+        <v>ContGenAdm.exe add -i 2000 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="G26" s="1" t="s">
+      <c r="A26">
+        <f>1+A25</f>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>250000</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" ref="G26:G29" si="23">"002_0" &amp; RIGHT("0" &amp; A26, 2)</f>
+        <v>002_001</v>
+      </c>
+      <c r="K26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_001.defaultValue</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="21"/>
+        <v>2001</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGenAdm.exe add -i 2001 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <f t="shared" ref="A27:A29" si="24">1+A26</f>
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>250000</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>002_002</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_002.defaultValue</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="21"/>
+        <v>2002</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGenAdm.exe add -i 2002 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>250000</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>002_003</v>
+      </c>
+      <c r="K28" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="G27" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="G28" s="1" t="s">
-        <v>37</v>
+      <c r="L28" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_003.defaultValue</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="21"/>
+        <v>2003</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGenAdm.exe add -i 2003 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>250000</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>002_004</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_004.defaultValue</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="21"/>
+        <v>2004</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGenAdm.exe add -i 2004 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <f t="shared" ref="A30:A33" si="25">1+A29</f>
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>250000</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>25</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" ref="G30:G33" si="26">"002_0" &amp; RIGHT("0" &amp; A30, 2)</f>
+        <v>002_005</v>
+      </c>
+      <c r="K30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_005.defaultValue</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="21"/>
+        <v>2005</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGenAdm.exe add -i 2005 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>6</v>
       </c>
       <c r="C31">
         <v>25</v>
@@ -2719,32 +2936,32 @@
         <v>25</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f>"002_0" &amp; RIGHT("0" &amp; A31, 2)</f>
-        <v>002_000</v>
+        <f t="shared" si="26"/>
+        <v>002_006</v>
       </c>
       <c r="K31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" ref="M31:M42" si="20">"Defaults_" &amp; G31 &amp; ".defaultValue"</f>
-        <v>Defaults_002_000.defaultValue</v>
+        <f t="shared" si="20"/>
+        <v>Defaults_002_006.defaultValue</v>
       </c>
       <c r="N31">
-        <f t="shared" ref="N31:N42" si="21">VALUE(SUBSTITUTE(G31, "_", ""))</f>
-        <v>2000</v>
+        <f t="shared" si="21"/>
+        <v>2006</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" ref="O31:O42" si="22">"ContGen.exe add -i " &amp; N31 &amp; " -n " &amp; C31 &amp; " -m 3 -y " &amp; E31 &amp; " -t " &amp; D31 &amp; " -r " &amp; F31</f>
-        <v>ContGen.exe add -i 2000 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+        <f t="shared" si="22"/>
+        <v>ContGenAdm.exe add -i 2006 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <f>1+A31</f>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>25</v>
@@ -2759,32 +2976,32 @@
         <v>25</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f t="shared" ref="G32:G35" si="23">"002_0" &amp; RIGHT("0" &amp; A32, 2)</f>
-        <v>002_001</v>
+        <f t="shared" si="26"/>
+        <v>002_007</v>
       </c>
       <c r="K32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M32" t="str">
         <f t="shared" si="20"/>
-        <v>Defaults_002_001.defaultValue</v>
+        <v>Defaults_002_007.defaultValue</v>
       </c>
       <c r="N32">
         <f t="shared" si="21"/>
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="O32" t="str">
         <f t="shared" si="22"/>
-        <v>ContGen.exe add -i 2001 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 2007 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <f t="shared" ref="A33:A35" si="24">1+A32</f>
-        <v>2</v>
+        <f t="shared" si="25"/>
+        <v>8</v>
       </c>
       <c r="C33">
         <v>25</v>
@@ -2799,32 +3016,32 @@
         <v>25</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>002_002</v>
+        <f t="shared" si="26"/>
+        <v>002_008</v>
       </c>
       <c r="K33" t="s">
         <v>14</v>
       </c>
       <c r="L33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="20"/>
-        <v>Defaults_002_002.defaultValue</v>
+        <v>Defaults_002_008.defaultValue</v>
       </c>
       <c r="N33">
         <f t="shared" si="21"/>
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="O33" t="str">
         <f t="shared" si="22"/>
-        <v>ContGen.exe add -i 2002 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 2008 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <f t="shared" si="24"/>
-        <v>3</v>
+        <f t="shared" ref="A34:A36" si="27">1+A33</f>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>25</v>
@@ -2839,32 +3056,32 @@
         <v>25</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>002_003</v>
+        <f t="shared" ref="G34:G36" si="28">"002_0" &amp; RIGHT("0" &amp; A34, 2)</f>
+        <v>002_009</v>
       </c>
       <c r="K34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L34" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="20"/>
-        <v>Defaults_002_003.defaultValue</v>
+        <v>Defaults_002_009.defaultValue</v>
       </c>
       <c r="N34">
         <f t="shared" si="21"/>
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="O34" t="str">
         <f t="shared" si="22"/>
-        <v>ContGen.exe add -i 2003 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 2009 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <f t="shared" si="24"/>
-        <v>4</v>
+        <f t="shared" si="27"/>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>25</v>
@@ -2879,32 +3096,32 @@
         <v>25</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>002_004</v>
+        <f t="shared" si="28"/>
+        <v>002_010</v>
       </c>
       <c r="K35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L35" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="20"/>
-        <v>Defaults_002_004.defaultValue</v>
+        <v>Defaults_002_010.defaultValue</v>
       </c>
       <c r="N35">
         <f t="shared" si="21"/>
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="O35" t="str">
         <f t="shared" si="22"/>
-        <v>ContGen.exe add -i 2004 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 2010 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <f t="shared" ref="A36:A39" si="25">1+A35</f>
-        <v>5</v>
+        <f t="shared" si="27"/>
+        <v>11</v>
       </c>
       <c r="C36">
         <v>25</v>
@@ -2919,32 +3136,32 @@
         <v>25</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f t="shared" ref="G36:G39" si="26">"002_0" &amp; RIGHT("0" &amp; A36, 2)</f>
-        <v>002_005</v>
+        <f t="shared" si="28"/>
+        <v>002_011</v>
       </c>
       <c r="K36" t="s">
         <v>14</v>
       </c>
       <c r="L36" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M36" t="str">
         <f t="shared" si="20"/>
-        <v>Defaults_002_005.defaultValue</v>
+        <v>Defaults_002_011.defaultValue</v>
       </c>
       <c r="N36">
         <f t="shared" si="21"/>
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="O36" t="str">
         <f t="shared" si="22"/>
-        <v>ContGen.exe add -i 2005 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 2011 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <f t="shared" si="25"/>
-        <v>6</v>
+        <f t="shared" ref="A37:A39" si="29">1+A36</f>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>25</v>
@@ -2959,32 +3176,32 @@
         <v>25</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>002_006</v>
+        <f t="shared" ref="G37:G39" si="30">"002_0" &amp; RIGHT("0" &amp; A37, 2)</f>
+        <v>002_012</v>
       </c>
       <c r="K37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L37" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="20"/>
-        <v>Defaults_002_006.defaultValue</v>
+        <f t="shared" ref="M37:M39" si="31">"Defaults_" &amp; G37 &amp; ".defaultValue"</f>
+        <v>Defaults_002_012.defaultValue</v>
       </c>
       <c r="N37">
-        <f t="shared" si="21"/>
-        <v>2006</v>
+        <f t="shared" ref="N37:N39" si="32">VALUE(SUBSTITUTE(G37, "_", ""))</f>
+        <v>2012</v>
       </c>
       <c r="O37" t="str">
         <f t="shared" si="22"/>
-        <v>ContGen.exe add -i 2006 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 2012 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <f t="shared" si="25"/>
-        <v>7</v>
+        <f t="shared" si="29"/>
+        <v>13</v>
       </c>
       <c r="C38">
         <v>25</v>
@@ -2999,32 +3216,32 @@
         <v>25</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>002_007</v>
+        <f t="shared" si="30"/>
+        <v>002_013</v>
       </c>
       <c r="K38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L38" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="20"/>
-        <v>Defaults_002_007.defaultValue</v>
+        <f t="shared" si="31"/>
+        <v>Defaults_002_013.defaultValue</v>
       </c>
       <c r="N38">
-        <f t="shared" si="21"/>
-        <v>2007</v>
+        <f t="shared" si="32"/>
+        <v>2013</v>
       </c>
       <c r="O38" t="str">
         <f t="shared" si="22"/>
-        <v>ContGen.exe add -i 2007 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 2013 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <f t="shared" si="25"/>
-        <v>8</v>
+        <f t="shared" si="29"/>
+        <v>14</v>
       </c>
       <c r="C39">
         <v>25</v>
@@ -3039,115 +3256,34 @@
         <v>25</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>002_008</v>
+        <f t="shared" si="30"/>
+        <v>002_014</v>
       </c>
       <c r="K39" t="s">
         <v>14</v>
       </c>
       <c r="L39" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="20"/>
-        <v>Defaults_002_008.defaultValue</v>
+        <f t="shared" si="31"/>
+        <v>Defaults_002_014.defaultValue</v>
       </c>
       <c r="N39">
-        <f t="shared" si="21"/>
-        <v>2008</v>
+        <f t="shared" si="32"/>
+        <v>2014</v>
       </c>
       <c r="O39" t="str">
         <f t="shared" si="22"/>
-        <v>ContGen.exe add -i 2008 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
-        <f t="shared" ref="A40:A42" si="27">1+A39</f>
-        <v>9</v>
-      </c>
-      <c r="C40">
-        <v>25</v>
-      </c>
-      <c r="D40">
-        <v>250000</v>
-      </c>
-      <c r="E40">
-        <v>10</v>
-      </c>
-      <c r="F40">
-        <v>25</v>
-      </c>
-      <c r="G40" s="1" t="str">
-        <f t="shared" ref="G40:G42" si="28">"002_0" &amp; RIGHT("0" &amp; A40, 2)</f>
-        <v>002_009</v>
-      </c>
-      <c r="K40" t="s">
-        <v>38</v>
-      </c>
-      <c r="L40" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40" t="str">
-        <f t="shared" si="20"/>
-        <v>Defaults_002_009.defaultValue</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="21"/>
-        <v>2009</v>
-      </c>
-      <c r="O40" t="str">
-        <f t="shared" si="22"/>
-        <v>ContGen.exe add -i 2009 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
-        <f t="shared" si="27"/>
-        <v>10</v>
-      </c>
-      <c r="C41">
-        <v>25</v>
-      </c>
-      <c r="D41">
-        <v>250000</v>
-      </c>
-      <c r="E41">
-        <v>10</v>
-      </c>
-      <c r="F41">
-        <v>25</v>
-      </c>
-      <c r="G41" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>002_010</v>
-      </c>
-      <c r="K41" t="s">
-        <v>39</v>
-      </c>
-      <c r="L41" t="s">
-        <v>21</v>
-      </c>
-      <c r="M41" t="str">
-        <f t="shared" si="20"/>
-        <v>Defaults_002_010.defaultValue</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="21"/>
-        <v>2010</v>
-      </c>
-      <c r="O41" t="str">
-        <f t="shared" si="22"/>
-        <v>ContGen.exe add -i 2010 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+        <v>ContGenAdm.exe add -i 2014 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
-        <f t="shared" si="27"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D42">
         <v>250000</v>
@@ -3159,230 +3295,1060 @@
         <v>25</v>
       </c>
       <c r="G42" s="1" t="str">
-        <f t="shared" si="28"/>
-        <v>002_011</v>
+        <f>"003_" &amp; RIGHT("00" &amp; A42, 3)</f>
+        <v>003_000</v>
+      </c>
+      <c r="I42" t="s">
+        <v>40</v>
+      </c>
+      <c r="J42" t="s">
+        <v>18</v>
       </c>
       <c r="K42" t="s">
+        <v>40</v>
+      </c>
+      <c r="L42" t="s">
+        <v>18</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" ref="M42" si="33">"Defaults_" &amp; G42 &amp; ".defaultValue"</f>
+        <v>Defaults_003_000.defaultValue</v>
+      </c>
+      <c r="N42">
+        <f>VALUE(SUBSTITUTE(G42, "_", ""))</f>
+        <v>3000</v>
+      </c>
+      <c r="O42" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; N42 &amp; " -n " &amp; C42 &amp; " -m 3 -y " &amp; E42 &amp; " -t " &amp; D42 &amp; " -r " &amp; F42</f>
+        <v>ContGenAdm.exe add -i 3000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I43"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I44"/>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I45"/>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I46"/>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I47"/>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="I48"/>
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I49"/>
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I50"/>
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I51"/>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I52"/>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I53"/>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I54"/>
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="9:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I55"/>
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="9:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I56"/>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="9:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I57"/>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="9:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I58"/>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="9:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I59"/>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="9:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I60"/>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="9:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I61"/>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="9:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I62"/>
+      <c r="J62"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>20</v>
+      </c>
+      <c r="C65">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>250000</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>25</v>
+      </c>
+      <c r="G65" s="1" t="str">
+        <f>"004_" &amp; RIGHT("00" &amp; A65, 3)</f>
+        <v>004_000</v>
+      </c>
+      <c r="I65" t="s">
+        <v>40</v>
+      </c>
+      <c r="J65" s="6" t="str">
+        <f t="shared" ref="J65:J85" si="34">"(Some 0." &amp; RIGHT("00" &amp; B65, 2) &amp; ")"</f>
+        <v>(Some 0.20)</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" ref="M65" si="35">"Defaults_" &amp; G65 &amp; ".defaultValue"</f>
+        <v>Defaults_004_000.defaultValue</v>
+      </c>
+      <c r="N65">
+        <f>VALUE(SUBSTITUTE(G65, "_", ""))</f>
+        <v>4000</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" ref="O65:O85" si="36">"ContGenAdm.exe add -i " &amp; N65 &amp; " -n " &amp; C65 &amp; " -m 3 -y " &amp; E65 &amp; " -t " &amp; D65 &amp; " -r " &amp; F65</f>
+        <v>ContGenAdm.exe add -i 4000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66">
+        <f t="shared" ref="A66:A85" si="37">1+A65</f>
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>20</v>
+      </c>
+      <c r="D66">
+        <v>250000</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>25</v>
+      </c>
+      <c r="G66" s="1" t="str">
+        <f t="shared" ref="G66:G85" si="38">"004_" &amp; RIGHT("00" &amp; A66, 3)</f>
+        <v>004_001</v>
+      </c>
+      <c r="I66" t="s">
         <v>14</v>
       </c>
-      <c r="L42" t="s">
-        <v>21</v>
-      </c>
-      <c r="M42" t="str">
-        <f t="shared" si="20"/>
-        <v>Defaults_002_011.defaultValue</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="21"/>
-        <v>2011</v>
-      </c>
-      <c r="O42" t="str">
-        <f t="shared" si="22"/>
-        <v>ContGen.exe add -i 2011 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
-        <f t="shared" ref="A43:A45" si="29">1+A42</f>
+      <c r="J66" s="6" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.20)</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" ref="M66:M85" si="39">"Defaults_" &amp; G66 &amp; ".defaultValue"</f>
+        <v>Defaults_004_001.defaultValue</v>
+      </c>
+      <c r="N66">
+        <f t="shared" ref="N66:N85" si="40">VALUE(SUBSTITUTE(G66, "_", ""))</f>
+        <v>4001</v>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>20</v>
+      </c>
+      <c r="D67">
+        <v>250000</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>25</v>
+      </c>
+      <c r="G67" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_002</v>
+      </c>
+      <c r="I67" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" s="6" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.20)</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_002.defaultValue</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="40"/>
+        <v>4002</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <f t="shared" si="37"/>
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>15</v>
+      </c>
+      <c r="C68">
+        <v>20</v>
+      </c>
+      <c r="D68">
+        <v>250000</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>25</v>
+      </c>
+      <c r="G68" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_003</v>
+      </c>
+      <c r="I68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="6" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.15)</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_003.defaultValue</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="40"/>
+        <v>4003</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4003 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>30</v>
+      </c>
+      <c r="C69">
+        <v>20</v>
+      </c>
+      <c r="D69">
+        <v>250000</v>
+      </c>
+      <c r="E69">
+        <v>10</v>
+      </c>
+      <c r="F69">
+        <v>25</v>
+      </c>
+      <c r="G69" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_004</v>
+      </c>
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="6" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_004.defaultValue</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="40"/>
+        <v>4004</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4004 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <f t="shared" si="37"/>
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>25</v>
+      </c>
+      <c r="C70">
+        <v>20</v>
+      </c>
+      <c r="D70">
+        <v>250000</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70">
+        <v>25</v>
+      </c>
+      <c r="G70" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_005</v>
+      </c>
+      <c r="I70" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="6" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.25)</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_005.defaultValue</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="40"/>
+        <v>4005</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4005 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <f t="shared" si="37"/>
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>250000</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <v>25</v>
+      </c>
+      <c r="G71" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_006</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="6" t="str">
+        <f>"(Some 0." &amp; RIGHT("00" &amp; B71, 2) &amp; ")"</f>
+        <v>(Some 0.05)</v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_006.defaultValue</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="40"/>
+        <v>4006</v>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4006 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <f t="shared" si="37"/>
+        <v>7</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>20</v>
+      </c>
+      <c r="D72">
+        <v>250000</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>25</v>
+      </c>
+      <c r="G72" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_007</v>
+      </c>
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="6" t="str">
+        <f t="shared" ref="J72:J85" si="41">"(Some 0." &amp; RIGHT("00" &amp; B72, 2) &amp; ")"</f>
+        <v>(Some 0.10)</v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_007.defaultValue</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="40"/>
+        <v>4007</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4007 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <f t="shared" si="37"/>
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>35</v>
+      </c>
+      <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="D73">
+        <v>250000</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>25</v>
+      </c>
+      <c r="G73" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_008</v>
+      </c>
+      <c r="I73" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="6" t="str">
+        <f t="shared" si="41"/>
+        <v>(Some 0.35)</v>
+      </c>
+      <c r="L73" s="6"/>
+      <c r="M73" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_008.defaultValue</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="40"/>
+        <v>4008</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4008 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <f t="shared" si="37"/>
+        <v>9</v>
+      </c>
+      <c r="B74">
+        <f>+B73+5</f>
+        <v>40</v>
+      </c>
+      <c r="C74">
+        <v>20</v>
+      </c>
+      <c r="D74">
+        <v>250000</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>25</v>
+      </c>
+      <c r="G74" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_009</v>
+      </c>
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="6" t="str">
+        <f t="shared" si="41"/>
+        <v>(Some 0.40)</v>
+      </c>
+      <c r="L74" s="6"/>
+      <c r="M74" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_009.defaultValue</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="40"/>
+        <v>4009</v>
+      </c>
+      <c r="O74" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4009 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <f t="shared" si="37"/>
+        <v>10</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ref="B75:B85" si="42">+B74+5</f>
+        <v>45</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+      <c r="D75">
+        <v>250000</v>
+      </c>
+      <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="F75">
+        <v>25</v>
+      </c>
+      <c r="G75" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_010</v>
+      </c>
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="6" t="str">
+        <f t="shared" si="41"/>
+        <v>(Some 0.45)</v>
+      </c>
+      <c r="L75" s="6"/>
+      <c r="M75" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_010.defaultValue</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="40"/>
+        <v>4010</v>
+      </c>
+      <c r="O75" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4010 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <f t="shared" si="37"/>
+        <v>11</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="42"/>
+        <v>50</v>
+      </c>
+      <c r="C76">
+        <v>20</v>
+      </c>
+      <c r="D76">
+        <v>250000</v>
+      </c>
+      <c r="E76">
+        <v>10</v>
+      </c>
+      <c r="F76">
+        <v>25</v>
+      </c>
+      <c r="G76" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_011</v>
+      </c>
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="6" t="str">
+        <f t="shared" si="41"/>
+        <v>(Some 0.50)</v>
+      </c>
+      <c r="L76" s="6"/>
+      <c r="M76" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_011.defaultValue</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="40"/>
+        <v>4011</v>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4011 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <f t="shared" si="37"/>
         <v>12</v>
       </c>
-      <c r="C43">
-        <v>25</v>
-      </c>
-      <c r="D43">
+      <c r="B77">
+        <f t="shared" si="42"/>
+        <v>55</v>
+      </c>
+      <c r="C77">
+        <v>20</v>
+      </c>
+      <c r="D77">
         <v>250000</v>
       </c>
-      <c r="E43">
-        <v>10</v>
-      </c>
-      <c r="F43">
-        <v>25</v>
-      </c>
-      <c r="G43" s="1" t="str">
-        <f t="shared" ref="G43:G45" si="30">"002_0" &amp; RIGHT("0" &amp; A43, 2)</f>
-        <v>002_012</v>
-      </c>
-      <c r="K43" t="s">
-        <v>38</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>25</v>
+      </c>
+      <c r="G77" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_012</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="6" t="str">
+        <f t="shared" si="41"/>
+        <v>(Some 0.55)</v>
+      </c>
+      <c r="L77" s="6"/>
+      <c r="M77" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_012.defaultValue</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="40"/>
+        <v>4012</v>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4012 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <f t="shared" si="37"/>
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="42"/>
+        <v>60</v>
+      </c>
+      <c r="C78">
+        <v>20</v>
+      </c>
+      <c r="D78">
+        <v>250000</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78">
+        <v>25</v>
+      </c>
+      <c r="G78" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_013</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="6" t="str">
+        <f t="shared" si="41"/>
+        <v>(Some 0.60)</v>
+      </c>
+      <c r="L78" s="6"/>
+      <c r="M78" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_013.defaultValue</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="40"/>
+        <v>4013</v>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4013 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
+        <f t="shared" si="37"/>
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="42"/>
+        <v>65</v>
+      </c>
+      <c r="C79">
+        <v>20</v>
+      </c>
+      <c r="D79">
+        <v>250000</v>
+      </c>
+      <c r="E79">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>25</v>
+      </c>
+      <c r="G79" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_014</v>
+      </c>
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="6" t="str">
+        <f t="shared" si="41"/>
+        <v>(Some 0.65)</v>
+      </c>
+      <c r="L79" s="6"/>
+      <c r="M79" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_014.defaultValue</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="40"/>
+        <v>4014</v>
+      </c>
+      <c r="O79" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4014 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <f t="shared" si="37"/>
+        <v>15</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="42"/>
+        <v>70</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>250000</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>25</v>
+      </c>
+      <c r="G80" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_015</v>
+      </c>
+      <c r="I80" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="6" t="str">
+        <f t="shared" si="41"/>
+        <v>(Some 0.70)</v>
+      </c>
+      <c r="L80" s="6"/>
+      <c r="M80" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_015.defaultValue</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="40"/>
+        <v>4015</v>
+      </c>
+      <c r="O80" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4015 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <f t="shared" si="37"/>
+        <v>16</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="42"/>
+        <v>75</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <v>250000</v>
+      </c>
+      <c r="E81">
+        <v>10</v>
+      </c>
+      <c r="F81">
+        <v>25</v>
+      </c>
+      <c r="G81" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_016</v>
+      </c>
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="6" t="str">
+        <f t="shared" si="41"/>
+        <v>(Some 0.75)</v>
+      </c>
+      <c r="L81" s="6"/>
+      <c r="M81" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_016.defaultValue</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="40"/>
+        <v>4016</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4016 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <f t="shared" si="37"/>
+        <v>17</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="42"/>
+        <v>80</v>
+      </c>
+      <c r="C82">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>250000</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>25</v>
+      </c>
+      <c r="G82" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_017</v>
+      </c>
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="6" t="str">
+        <f t="shared" si="41"/>
+        <v>(Some 0.80)</v>
+      </c>
+      <c r="L82" s="6"/>
+      <c r="M82" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_017.defaultValue</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="40"/>
+        <v>4017</v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4017 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <f t="shared" si="37"/>
+        <v>18</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="42"/>
+        <v>85</v>
+      </c>
+      <c r="C83">
+        <v>20</v>
+      </c>
+      <c r="D83">
+        <v>250000</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <v>25</v>
+      </c>
+      <c r="G83" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_018</v>
+      </c>
+      <c r="I83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="6" t="str">
+        <f t="shared" si="41"/>
+        <v>(Some 0.85)</v>
+      </c>
+      <c r="L83" s="6"/>
+      <c r="M83" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_018.defaultValue</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="40"/>
+        <v>4018</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4018 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
+        <f t="shared" si="37"/>
         <v>19</v>
       </c>
-      <c r="M43" t="str">
-        <f t="shared" ref="M43:M45" si="31">"Defaults_" &amp; G43 &amp; ".defaultValue"</f>
-        <v>Defaults_002_012.defaultValue</v>
-      </c>
-      <c r="N43">
-        <f t="shared" ref="N43:N45" si="32">VALUE(SUBSTITUTE(G43, "_", ""))</f>
-        <v>2012</v>
-      </c>
-      <c r="O43" t="str">
-        <f t="shared" ref="O43:O45" si="33">"ContGen.exe add -i " &amp; N43 &amp; " -n " &amp; C43 &amp; " -m 3 -y " &amp; E43 &amp; " -t " &amp; D43 &amp; " -r " &amp; F43</f>
-        <v>ContGen.exe add -i 2012 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
-        <f t="shared" si="29"/>
-        <v>13</v>
-      </c>
-      <c r="C44">
-        <v>25</v>
-      </c>
-      <c r="D44">
+      <c r="B84">
+        <f t="shared" si="42"/>
+        <v>90</v>
+      </c>
+      <c r="C84">
+        <v>20</v>
+      </c>
+      <c r="D84">
         <v>250000</v>
       </c>
-      <c r="E44">
-        <v>10</v>
-      </c>
-      <c r="F44">
-        <v>25</v>
-      </c>
-      <c r="G44" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>002_013</v>
-      </c>
-      <c r="K44" t="s">
-        <v>39</v>
-      </c>
-      <c r="L44" t="s">
-        <v>19</v>
-      </c>
-      <c r="M44" t="str">
-        <f t="shared" si="31"/>
-        <v>Defaults_002_013.defaultValue</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="32"/>
-        <v>2013</v>
-      </c>
-      <c r="O44" t="str">
-        <f t="shared" si="33"/>
-        <v>ContGen.exe add -i 2013 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
-        <f t="shared" si="29"/>
-        <v>14</v>
-      </c>
-      <c r="C45">
-        <v>25</v>
-      </c>
-      <c r="D45">
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>25</v>
+      </c>
+      <c r="G84" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_019</v>
+      </c>
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="6" t="str">
+        <f t="shared" si="41"/>
+        <v>(Some 0.90)</v>
+      </c>
+      <c r="L84" s="6"/>
+      <c r="M84" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_019.defaultValue</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="40"/>
+        <v>4019</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4019 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
+        <f t="shared" si="37"/>
+        <v>20</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="42"/>
+        <v>95</v>
+      </c>
+      <c r="C85">
+        <v>20</v>
+      </c>
+      <c r="D85">
         <v>250000</v>
       </c>
-      <c r="E45">
-        <v>10</v>
-      </c>
-      <c r="F45">
-        <v>25</v>
-      </c>
-      <c r="G45" s="1" t="str">
-        <f t="shared" si="30"/>
-        <v>002_014</v>
-      </c>
-      <c r="K45" t="s">
-        <v>14</v>
-      </c>
-      <c r="L45" t="s">
-        <v>19</v>
-      </c>
-      <c r="M45" t="str">
-        <f t="shared" si="31"/>
-        <v>Defaults_002_014.defaultValue</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="32"/>
-        <v>2014</v>
-      </c>
-      <c r="O45" t="str">
-        <f t="shared" si="33"/>
-        <v>ContGen.exe add -i 2014 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>20</v>
-      </c>
-      <c r="D48">
-        <v>250000</v>
-      </c>
-      <c r="E48">
-        <v>10</v>
-      </c>
-      <c r="F48">
-        <v>25</v>
-      </c>
-      <c r="G48" s="1" t="str">
-        <f>"003_" &amp; RIGHT("00" &amp; A48, 3)</f>
-        <v>003_000</v>
-      </c>
-      <c r="I48" t="s">
-        <v>41</v>
-      </c>
-      <c r="J48" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" t="s">
-        <v>41</v>
-      </c>
-      <c r="L48" t="s">
-        <v>18</v>
-      </c>
-      <c r="M48" t="str">
-        <f t="shared" ref="M48" si="34">"Defaults_" &amp; G48 &amp; ".defaultValue"</f>
-        <v>Defaults_003_000.defaultValue</v>
-      </c>
-      <c r="N48">
-        <f>VALUE(SUBSTITUTE(G48, "_", ""))</f>
-        <v>3000</v>
-      </c>
-      <c r="O48" t="str">
-        <f t="shared" ref="O48" si="35">"ContGen.exe add -i " &amp; N48 &amp; " -n " &amp; C48 &amp; " -m 3 -y " &amp; E48 &amp; " -t " &amp; D48 &amp; " -r " &amp; F48</f>
-        <v>ContGen.exe add -i 3000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>20</v>
-      </c>
-      <c r="D51">
-        <v>250000</v>
-      </c>
-      <c r="E51">
-        <v>10</v>
-      </c>
-      <c r="F51">
-        <v>25</v>
-      </c>
-      <c r="G51" s="1" t="str">
-        <f>"004_" &amp; RIGHT("00" &amp; A51, 3)</f>
-        <v>004_000</v>
-      </c>
-      <c r="I51" t="s">
-        <v>41</v>
-      </c>
-      <c r="J51" t="s">
-        <v>18</v>
-      </c>
-      <c r="M51" t="str">
-        <f t="shared" ref="M51" si="36">"Defaults_" &amp; G51 &amp; ".defaultValue"</f>
-        <v>Defaults_004_000.defaultValue</v>
-      </c>
-      <c r="N51">
-        <f>VALUE(SUBSTITUTE(G51, "_", ""))</f>
-        <v>4000</v>
-      </c>
-      <c r="O51" t="str">
-        <f t="shared" ref="O51" si="37">"ContGen.exe add -i " &amp; N51 &amp; " -n " &amp; C51 &amp; " -m 3 -y " &amp; E51 &amp; " -t " &amp; D51 &amp; " -r " &amp; F51</f>
-        <v>ContGen.exe add -i 4000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="F85">
+        <v>25</v>
+      </c>
+      <c r="G85" s="1" t="str">
+        <f t="shared" si="38"/>
+        <v>004_020</v>
+      </c>
+      <c r="I85" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="6" t="str">
+        <f t="shared" si="41"/>
+        <v>(Some 0.95)</v>
+      </c>
+      <c r="L85" s="6"/>
+      <c r="M85" t="str">
+        <f t="shared" si="39"/>
+        <v>Defaults_004_020.defaultValue</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="40"/>
+        <v>4020</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="36"/>
+        <v>ContGenAdm.exe add -i 4020 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
   </sheetData>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B015413-856C-43B7-A515-A92C87051264}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E3C5E1-031F-4105-8308-DCF43BB4C0E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="41">
   <si>
     <t>Base ?</t>
   </si>
@@ -165,8 +165,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -200,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,9 +218,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1684,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
-  <dimension ref="A1:W85"/>
+  <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="J96" sqref="J96"/>
+    <sheetView tabSelected="1" topLeftCell="F67" workbookViewId="0">
+      <selection activeCell="O88" sqref="O88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2122,7 +2132,7 @@
       <c r="K10" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="6" t="str">
+      <c r="L10" s="5" t="str">
         <f>"(Some 0." &amp; B10 &amp; ")"</f>
         <v>(Some 0.35)</v>
       </c>
@@ -2167,7 +2177,7 @@
       <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="6" t="str">
+      <c r="L11" s="5" t="str">
         <f t="shared" ref="L11:L21" si="13">"(Some 0." &amp; B11 &amp; ")"</f>
         <v>(Some 0.40)</v>
       </c>
@@ -2212,7 +2222,7 @@
       <c r="K12" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="6" t="str">
+      <c r="L12" s="5" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.45)</v>
       </c>
@@ -2257,7 +2267,7 @@
       <c r="K13" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="6" t="str">
+      <c r="L13" s="5" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.50)</v>
       </c>
@@ -2302,7 +2312,7 @@
       <c r="K14" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="6" t="str">
+      <c r="L14" s="5" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.55)</v>
       </c>
@@ -2347,7 +2357,7 @@
       <c r="K15" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="6" t="str">
+      <c r="L15" s="5" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.60)</v>
       </c>
@@ -2392,7 +2402,7 @@
       <c r="K16" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="6" t="str">
+      <c r="L16" s="5" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.65)</v>
       </c>
@@ -2437,7 +2447,7 @@
       <c r="K17" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="6" t="str">
+      <c r="L17" s="5" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.70)</v>
       </c>
@@ -2482,7 +2492,7 @@
       <c r="K18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="6" t="str">
+      <c r="L18" s="5" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.75)</v>
       </c>
@@ -2527,7 +2537,7 @@
       <c r="K19" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="6" t="str">
+      <c r="L19" s="5" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.80)</v>
       </c>
@@ -2572,7 +2582,7 @@
       <c r="K20" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="6" t="str">
+      <c r="L20" s="5" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.85)</v>
       </c>
@@ -2617,7 +2627,7 @@
       <c r="K21" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="6" t="str">
+      <c r="L21" s="5" t="str">
         <f t="shared" si="13"/>
         <v>(Some 0.90)</v>
       </c>
@@ -2662,7 +2672,7 @@
       <c r="K22" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="6" t="str">
+      <c r="L22" s="5" t="str">
         <f t="shared" ref="L22" si="19">"(Some 0." &amp; B22 &amp; ")"</f>
         <v>(Some 0.95)</v>
       </c>
@@ -3429,8 +3439,8 @@
       <c r="I65" t="s">
         <v>40</v>
       </c>
-      <c r="J65" s="6" t="str">
-        <f t="shared" ref="J65:J85" si="34">"(Some 0." &amp; RIGHT("00" &amp; B65, 2) &amp; ")"</f>
+      <c r="J65" s="5" t="str">
+        <f t="shared" ref="J65:J70" si="34">"(Some 0." &amp; RIGHT("00" &amp; B65, 2) &amp; ")"</f>
         <v>(Some 0.20)</v>
       </c>
       <c r="M65" t="str">
@@ -3473,7 +3483,7 @@
       <c r="I66" t="s">
         <v>14</v>
       </c>
-      <c r="J66" s="6" t="str">
+      <c r="J66" s="5" t="str">
         <f t="shared" si="34"/>
         <v>(Some 0.20)</v>
       </c>
@@ -3517,7 +3527,7 @@
       <c r="I67" t="s">
         <v>15</v>
       </c>
-      <c r="J67" s="6" t="str">
+      <c r="J67" s="5" t="str">
         <f t="shared" si="34"/>
         <v>(Some 0.20)</v>
       </c>
@@ -3561,7 +3571,7 @@
       <c r="I68" t="s">
         <v>17</v>
       </c>
-      <c r="J68" s="6" t="str">
+      <c r="J68" s="5" t="str">
         <f t="shared" si="34"/>
         <v>(Some 0.15)</v>
       </c>
@@ -3605,7 +3615,7 @@
       <c r="I69" t="s">
         <v>17</v>
       </c>
-      <c r="J69" s="6" t="str">
+      <c r="J69" s="5" t="str">
         <f t="shared" si="34"/>
         <v>(Some 0.30)</v>
       </c>
@@ -3649,7 +3659,7 @@
       <c r="I70" t="s">
         <v>17</v>
       </c>
-      <c r="J70" s="6" t="str">
+      <c r="J70" s="5" t="str">
         <f t="shared" si="34"/>
         <v>(Some 0.25)</v>
       </c>
@@ -3693,7 +3703,7 @@
       <c r="I71" t="s">
         <v>17</v>
       </c>
-      <c r="J71" s="6" t="str">
+      <c r="J71" s="5" t="str">
         <f>"(Some 0." &amp; RIGHT("00" &amp; B71, 2) &amp; ")"</f>
         <v>(Some 0.05)</v>
       </c>
@@ -3737,7 +3747,7 @@
       <c r="I72" t="s">
         <v>17</v>
       </c>
-      <c r="J72" s="6" t="str">
+      <c r="J72" s="5" t="str">
         <f t="shared" ref="J72:J85" si="41">"(Some 0." &amp; RIGHT("00" &amp; B72, 2) &amp; ")"</f>
         <v>(Some 0.10)</v>
       </c>
@@ -3781,11 +3791,11 @@
       <c r="I73" t="s">
         <v>17</v>
       </c>
-      <c r="J73" s="6" t="str">
+      <c r="J73" s="5" t="str">
         <f t="shared" si="41"/>
         <v>(Some 0.35)</v>
       </c>
-      <c r="L73" s="6"/>
+      <c r="L73" s="5"/>
       <c r="M73" t="str">
         <f t="shared" si="39"/>
         <v>Defaults_004_008.defaultValue</v>
@@ -3827,11 +3837,11 @@
       <c r="I74" t="s">
         <v>17</v>
       </c>
-      <c r="J74" s="6" t="str">
+      <c r="J74" s="5" t="str">
         <f t="shared" si="41"/>
         <v>(Some 0.40)</v>
       </c>
-      <c r="L74" s="6"/>
+      <c r="L74" s="5"/>
       <c r="M74" t="str">
         <f t="shared" si="39"/>
         <v>Defaults_004_009.defaultValue</v>
@@ -3873,11 +3883,11 @@
       <c r="I75" t="s">
         <v>17</v>
       </c>
-      <c r="J75" s="6" t="str">
+      <c r="J75" s="5" t="str">
         <f t="shared" si="41"/>
         <v>(Some 0.45)</v>
       </c>
-      <c r="L75" s="6"/>
+      <c r="L75" s="5"/>
       <c r="M75" t="str">
         <f t="shared" si="39"/>
         <v>Defaults_004_010.defaultValue</v>
@@ -3919,11 +3929,11 @@
       <c r="I76" t="s">
         <v>17</v>
       </c>
-      <c r="J76" s="6" t="str">
+      <c r="J76" s="5" t="str">
         <f t="shared" si="41"/>
         <v>(Some 0.50)</v>
       </c>
-      <c r="L76" s="6"/>
+      <c r="L76" s="5"/>
       <c r="M76" t="str">
         <f t="shared" si="39"/>
         <v>Defaults_004_011.defaultValue</v>
@@ -3965,11 +3975,11 @@
       <c r="I77" t="s">
         <v>17</v>
       </c>
-      <c r="J77" s="6" t="str">
+      <c r="J77" s="5" t="str">
         <f t="shared" si="41"/>
         <v>(Some 0.55)</v>
       </c>
-      <c r="L77" s="6"/>
+      <c r="L77" s="5"/>
       <c r="M77" t="str">
         <f t="shared" si="39"/>
         <v>Defaults_004_012.defaultValue</v>
@@ -4011,11 +4021,11 @@
       <c r="I78" t="s">
         <v>17</v>
       </c>
-      <c r="J78" s="6" t="str">
+      <c r="J78" s="5" t="str">
         <f t="shared" si="41"/>
         <v>(Some 0.60)</v>
       </c>
-      <c r="L78" s="6"/>
+      <c r="L78" s="5"/>
       <c r="M78" t="str">
         <f t="shared" si="39"/>
         <v>Defaults_004_013.defaultValue</v>
@@ -4057,11 +4067,11 @@
       <c r="I79" t="s">
         <v>17</v>
       </c>
-      <c r="J79" s="6" t="str">
+      <c r="J79" s="5" t="str">
         <f t="shared" si="41"/>
         <v>(Some 0.65)</v>
       </c>
-      <c r="L79" s="6"/>
+      <c r="L79" s="5"/>
       <c r="M79" t="str">
         <f t="shared" si="39"/>
         <v>Defaults_004_014.defaultValue</v>
@@ -4103,11 +4113,11 @@
       <c r="I80" t="s">
         <v>17</v>
       </c>
-      <c r="J80" s="6" t="str">
+      <c r="J80" s="5" t="str">
         <f t="shared" si="41"/>
         <v>(Some 0.70)</v>
       </c>
-      <c r="L80" s="6"/>
+      <c r="L80" s="5"/>
       <c r="M80" t="str">
         <f t="shared" si="39"/>
         <v>Defaults_004_015.defaultValue</v>
@@ -4149,11 +4159,11 @@
       <c r="I81" t="s">
         <v>17</v>
       </c>
-      <c r="J81" s="6" t="str">
+      <c r="J81" s="5" t="str">
         <f t="shared" si="41"/>
         <v>(Some 0.75)</v>
       </c>
-      <c r="L81" s="6"/>
+      <c r="L81" s="5"/>
       <c r="M81" t="str">
         <f t="shared" si="39"/>
         <v>Defaults_004_016.defaultValue</v>
@@ -4195,11 +4205,11 @@
       <c r="I82" t="s">
         <v>17</v>
       </c>
-      <c r="J82" s="6" t="str">
+      <c r="J82" s="5" t="str">
         <f t="shared" si="41"/>
         <v>(Some 0.80)</v>
       </c>
-      <c r="L82" s="6"/>
+      <c r="L82" s="5"/>
       <c r="M82" t="str">
         <f t="shared" si="39"/>
         <v>Defaults_004_017.defaultValue</v>
@@ -4241,11 +4251,11 @@
       <c r="I83" t="s">
         <v>17</v>
       </c>
-      <c r="J83" s="6" t="str">
+      <c r="J83" s="5" t="str">
         <f t="shared" si="41"/>
         <v>(Some 0.85)</v>
       </c>
-      <c r="L83" s="6"/>
+      <c r="L83" s="5"/>
       <c r="M83" t="str">
         <f t="shared" si="39"/>
         <v>Defaults_004_018.defaultValue</v>
@@ -4287,11 +4297,11 @@
       <c r="I84" t="s">
         <v>17</v>
       </c>
-      <c r="J84" s="6" t="str">
+      <c r="J84" s="5" t="str">
         <f t="shared" si="41"/>
         <v>(Some 0.90)</v>
       </c>
-      <c r="L84" s="6"/>
+      <c r="L84" s="5"/>
       <c r="M84" t="str">
         <f t="shared" si="39"/>
         <v>Defaults_004_019.defaultValue</v>
@@ -4333,11 +4343,11 @@
       <c r="I85" t="s">
         <v>17</v>
       </c>
-      <c r="J85" s="6" t="str">
+      <c r="J85" s="5" t="str">
         <f t="shared" si="41"/>
         <v>(Some 0.95)</v>
       </c>
-      <c r="L85" s="6"/>
+      <c r="L85" s="5"/>
       <c r="M85" t="str">
         <f t="shared" si="39"/>
         <v>Defaults_004_020.defaultValue</v>
@@ -4349,6 +4359,49 @@
       <c r="O85" t="str">
         <f t="shared" si="36"/>
         <v>ContGenAdm.exe add -i 4020 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>20</v>
+      </c>
+      <c r="C88">
+        <v>20</v>
+      </c>
+      <c r="D88">
+        <v>250000</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88">
+        <v>25</v>
+      </c>
+      <c r="G88" s="1" t="str">
+        <f>"005_" &amp; RIGHT("00" &amp; A88, 3)</f>
+        <v>005_000</v>
+      </c>
+      <c r="I88" t="s">
+        <v>40</v>
+      </c>
+      <c r="J88" s="5" t="str">
+        <f t="shared" ref="J88" si="43">"(Some 0." &amp; RIGHT("00" &amp; B88, 2) &amp; ")"</f>
+        <v>(Some 0.20)</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" ref="M88" si="44">"Defaults_" &amp; G88 &amp; ".defaultValue"</f>
+        <v>Defaults_005_000.defaultValue</v>
+      </c>
+      <c r="N88">
+        <f>VALUE(SUBSTITUTE(G88, "_", ""))</f>
+        <v>5000</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" ref="O88" si="45">"ContGenAdm.exe add -i " &amp; N88 &amp; " -n " &amp; C88 &amp; " -m 3 -y " &amp; E88 &amp; " -t " &amp; D88 &amp; " -r " &amp; F88</f>
+        <v>ContGenAdm.exe add -i 5000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
   </sheetData>
@@ -4361,8 +4414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CCFDC-E723-428F-8C43-820106604DAB}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4397,11 +4450,11 @@
         <f t="shared" ref="C2:C20" si="1">(2*A2)^4 / 4</f>
         <v>4</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f>(2*A2)^4 + (2*A2)^3 + (2*A2)^2 + (2*A2) + 3</f>
         <v>33</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f>(2*A2)^5 + (2*A2)^4 + (2*A2)^3 + (2*A2)^2 + (2*A2) + 3</f>
         <v>65</v>
       </c>
@@ -4419,11 +4472,11 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F51" si="2">(2*A3)^4 + (2*A3)^3 + (2*A3)^2 + (2*A3) + 3</f>
         <v>343</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G51" si="3">(2*A3)^5 + (2*A3)^4 + (2*A3)^3 + (2*A3)^2 + (2*A3) + 3</f>
         <v>1367</v>
       </c>
@@ -4441,11 +4494,11 @@
         <f t="shared" si="1"/>
         <v>324</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f t="shared" si="2"/>
         <v>1557</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <f t="shared" si="3"/>
         <v>9333</v>
       </c>
@@ -4463,11 +4516,11 @@
         <f t="shared" si="1"/>
         <v>1024</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" si="2"/>
         <v>4683</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" si="3"/>
         <v>37451</v>
       </c>
@@ -4485,11 +4538,11 @@
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="2"/>
         <v>11113</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <f t="shared" si="3"/>
         <v>111113</v>
       </c>
@@ -4507,11 +4560,11 @@
         <f t="shared" si="1"/>
         <v>5184</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" si="2"/>
         <v>22623</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f t="shared" si="3"/>
         <v>271455</v>
       </c>
@@ -4529,11 +4582,11 @@
         <f t="shared" si="1"/>
         <v>9604</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f t="shared" si="2"/>
         <v>41373</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <f t="shared" si="3"/>
         <v>579197</v>
       </c>
@@ -4551,11 +4604,11 @@
         <f t="shared" si="1"/>
         <v>16384</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" si="2"/>
         <v>69907</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f t="shared" si="3"/>
         <v>1118483</v>
       </c>
@@ -4573,7 +4626,7 @@
         <f t="shared" si="1"/>
         <v>26244</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f t="shared" si="2"/>
         <v>111153</v>
       </c>
@@ -4595,7 +4648,7 @@
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f t="shared" si="2"/>
         <v>168423</v>
       </c>
@@ -4624,7 +4677,7 @@
         <f>C12*D12</f>
         <v>117.128</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f t="shared" si="2"/>
         <v>245413</v>
       </c>
@@ -4646,7 +4699,7 @@
         <f t="shared" si="1"/>
         <v>82944</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f t="shared" si="2"/>
         <v>346203</v>
       </c>
@@ -4668,7 +4721,7 @@
         <f t="shared" si="1"/>
         <v>114244</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f t="shared" si="2"/>
         <v>475257</v>
       </c>
@@ -4690,7 +4743,7 @@
         <f t="shared" si="1"/>
         <v>153664</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f t="shared" si="2"/>
         <v>637423</v>
       </c>
@@ -4712,7 +4765,7 @@
         <f t="shared" si="1"/>
         <v>202500</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <f t="shared" si="2"/>
         <v>837933</v>
       </c>
@@ -4734,7 +4787,7 @@
         <f t="shared" si="1"/>
         <v>262144</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <f t="shared" si="2"/>
         <v>1082403</v>
       </c>
@@ -4810,30 +4863,30 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
+      <c r="A21" s="7">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="8">
         <f t="shared" si="5"/>
         <v>65643</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="8">
         <f>(2*A21)^4 / 4</f>
         <v>640000</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="9">
         <f>C21*D21</f>
         <v>6.4</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="8">
         <f t="shared" si="2"/>
         <v>2625643</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="8">
         <f t="shared" si="3"/>
         <v>105025643</v>
       </c>
@@ -4927,30 +4980,30 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
+      <c r="A26" s="7">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="8">
         <f t="shared" si="5"/>
         <v>127553</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="8">
         <f t="shared" si="6"/>
         <v>1562500</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="7">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="9">
         <f>C26*D26</f>
         <v>7.8125000000000009</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="8">
         <f t="shared" si="2"/>
         <v>6377553</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="8">
         <f t="shared" si="3"/>
         <v>318877553</v>
       </c>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E3C5E1-031F-4105-8308-DCF43BB4C0E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3631758-1110-4099-960B-F670BAE9EFCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="2" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults" sheetId="1" r:id="rId1"/>
@@ -1696,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
   <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F67" workbookViewId="0">
-      <selection activeCell="O88" sqref="O88"/>
+    <sheetView topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4414,8 +4414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CCFDC-E723-428F-8C43-820106604DAB}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4437,6 +4437,12 @@
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3631758-1110-4099-960B-F670BAE9EFCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A4AE76-4AAD-49D6-9F00-03D48192C516}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="2" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults" sheetId="1" r:id="rId1"/>
@@ -1696,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
   <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="J14" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25:O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>250000</v>
@@ -2724,8 +2724,8 @@
         <v>2000</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" ref="O25:O39" si="22">"ContGenAdm.exe add -i " &amp; N25 &amp; " -n " &amp; C25 &amp; " -m 3 -y " &amp; E25 &amp; " -t " &amp; D25 &amp; " -r " &amp; F25</f>
-        <v>ContGenAdm.exe add -i 2000 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+        <f>"ContGenAdm.exe add -i " &amp; N25 &amp; " -n " &amp; C25 &amp; " -m 5 -y " &amp; E25 &amp; " -t " &amp; D25 &amp; " -r " &amp; F25</f>
+        <v>ContGenAdm.exe add -i 2000 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -2734,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>250000</v>
@@ -2746,7 +2746,7 @@
         <v>25</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f t="shared" ref="G26:G29" si="23">"002_0" &amp; RIGHT("0" &amp; A26, 2)</f>
+        <f t="shared" ref="G26:G29" si="22">"002_0" &amp; RIGHT("0" &amp; A26, 2)</f>
         <v>002_001</v>
       </c>
       <c r="K26" t="s">
@@ -2764,8 +2764,8 @@
         <v>2001</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="22"/>
-        <v>ContGenAdm.exe add -i 2001 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+        <f t="shared" ref="O26:O33" si="23">"ContGenAdm.exe add -i " &amp; N26 &amp; " -n " &amp; C26 &amp; " -m 5 -y " &amp; E26 &amp; " -t " &amp; D26 &amp; " -r " &amp; F26</f>
+        <v>ContGenAdm.exe add -i 2001 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -2774,7 +2774,7 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>250000</v>
@@ -2786,7 +2786,7 @@
         <v>25</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>002_002</v>
       </c>
       <c r="K27" t="s">
@@ -2804,8 +2804,8 @@
         <v>2002</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="22"/>
-        <v>ContGenAdm.exe add -i 2002 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+        <f t="shared" si="23"/>
+        <v>ContGenAdm.exe add -i 2002 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -2814,7 +2814,7 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>250000</v>
@@ -2826,7 +2826,7 @@
         <v>25</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>002_003</v>
       </c>
       <c r="K28" t="s">
@@ -2844,8 +2844,8 @@
         <v>2003</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="22"/>
-        <v>ContGenAdm.exe add -i 2003 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+        <f t="shared" si="23"/>
+        <v>ContGenAdm.exe add -i 2003 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -2854,7 +2854,7 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>250000</v>
@@ -2866,7 +2866,7 @@
         <v>25</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>002_004</v>
       </c>
       <c r="K29" t="s">
@@ -2884,8 +2884,8 @@
         <v>2004</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="22"/>
-        <v>ContGenAdm.exe add -i 2004 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+        <f t="shared" si="23"/>
+        <v>ContGenAdm.exe add -i 2004 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -2894,7 +2894,7 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>250000</v>
@@ -2924,8 +2924,8 @@
         <v>2005</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="22"/>
-        <v>ContGenAdm.exe add -i 2005 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+        <f t="shared" si="23"/>
+        <v>ContGenAdm.exe add -i 2005 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -2934,7 +2934,7 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>250000</v>
@@ -2964,8 +2964,8 @@
         <v>2006</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="22"/>
-        <v>ContGenAdm.exe add -i 2006 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+        <f t="shared" si="23"/>
+        <v>ContGenAdm.exe add -i 2006 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -2974,7 +2974,7 @@
         <v>7</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>250000</v>
@@ -3004,8 +3004,8 @@
         <v>2007</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="22"/>
-        <v>ContGenAdm.exe add -i 2007 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+        <f t="shared" si="23"/>
+        <v>ContGenAdm.exe add -i 2007 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -3014,7 +3014,7 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>250000</v>
@@ -3044,8 +3044,8 @@
         <v>2008</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="22"/>
-        <v>ContGenAdm.exe add -i 2008 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+        <f t="shared" si="23"/>
+        <v>ContGenAdm.exe add -i 2008 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -3084,7 +3084,7 @@
         <v>2009</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="O25:O39" si="29">"ContGenAdm.exe add -i " &amp; N34 &amp; " -n " &amp; C34 &amp; " -m 3 -y " &amp; E34 &amp; " -t " &amp; D34 &amp; " -r " &amp; F34</f>
         <v>ContGenAdm.exe add -i 2009 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
         <v>2010</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>ContGenAdm.exe add -i 2010 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
@@ -3164,13 +3164,13 @@
         <v>2011</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>ContGenAdm.exe add -i 2011 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <f t="shared" ref="A37:A39" si="29">1+A36</f>
+        <f t="shared" ref="A37:A39" si="30">1+A36</f>
         <v>12</v>
       </c>
       <c r="C37">
@@ -3186,7 +3186,7 @@
         <v>25</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f t="shared" ref="G37:G39" si="30">"002_0" &amp; RIGHT("0" &amp; A37, 2)</f>
+        <f t="shared" ref="G37:G39" si="31">"002_0" &amp; RIGHT("0" &amp; A37, 2)</f>
         <v>002_012</v>
       </c>
       <c r="K37" t="s">
@@ -3196,21 +3196,21 @@
         <v>19</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" ref="M37:M39" si="31">"Defaults_" &amp; G37 &amp; ".defaultValue"</f>
+        <f t="shared" ref="M37:M39" si="32">"Defaults_" &amp; G37 &amp; ".defaultValue"</f>
         <v>Defaults_002_012.defaultValue</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:N39" si="32">VALUE(SUBSTITUTE(G37, "_", ""))</f>
+        <f t="shared" ref="N37:N39" si="33">VALUE(SUBSTITUTE(G37, "_", ""))</f>
         <v>2012</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>ContGenAdm.exe add -i 2012 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>13</v>
       </c>
       <c r="C38">
@@ -3226,7 +3226,7 @@
         <v>25</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>002_013</v>
       </c>
       <c r="K38" t="s">
@@ -3236,21 +3236,21 @@
         <v>19</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Defaults_002_013.defaultValue</v>
       </c>
       <c r="N38">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2013</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>ContGenAdm.exe add -i 2013 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>14</v>
       </c>
       <c r="C39">
@@ -3266,7 +3266,7 @@
         <v>25</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>002_014</v>
       </c>
       <c r="K39" t="s">
@@ -3276,15 +3276,15 @@
         <v>19</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>Defaults_002_014.defaultValue</v>
       </c>
       <c r="N39">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2014</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>ContGenAdm.exe add -i 2014 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
         <v>18</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" ref="M42" si="33">"Defaults_" &amp; G42 &amp; ".defaultValue"</f>
+        <f t="shared" ref="M42" si="34">"Defaults_" &amp; G42 &amp; ".defaultValue"</f>
         <v>Defaults_003_000.defaultValue</v>
       </c>
       <c r="N42">
@@ -3440,11 +3440,11 @@
         <v>40</v>
       </c>
       <c r="J65" s="5" t="str">
-        <f t="shared" ref="J65:J70" si="34">"(Some 0." &amp; RIGHT("00" &amp; B65, 2) &amp; ")"</f>
+        <f t="shared" ref="J65:J70" si="35">"(Some 0." &amp; RIGHT("00" &amp; B65, 2) &amp; ")"</f>
         <v>(Some 0.20)</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" ref="M65" si="35">"Defaults_" &amp; G65 &amp; ".defaultValue"</f>
+        <f t="shared" ref="M65" si="36">"Defaults_" &amp; G65 &amp; ".defaultValue"</f>
         <v>Defaults_004_000.defaultValue</v>
       </c>
       <c r="N65">
@@ -3452,13 +3452,13 @@
         <v>4000</v>
       </c>
       <c r="O65" t="str">
-        <f t="shared" ref="O65:O85" si="36">"ContGenAdm.exe add -i " &amp; N65 &amp; " -n " &amp; C65 &amp; " -m 3 -y " &amp; E65 &amp; " -t " &amp; D65 &amp; " -r " &amp; F65</f>
+        <f t="shared" ref="O65:O85" si="37">"ContGenAdm.exe add -i " &amp; N65 &amp; " -n " &amp; C65 &amp; " -m 3 -y " &amp; E65 &amp; " -t " &amp; D65 &amp; " -r " &amp; F65</f>
         <v>ContGenAdm.exe add -i 4000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <f t="shared" ref="A66:A85" si="37">1+A65</f>
+        <f t="shared" ref="A66:A85" si="38">1+A65</f>
         <v>1</v>
       </c>
       <c r="B66">
@@ -3477,32 +3477,32 @@
         <v>25</v>
       </c>
       <c r="G66" s="1" t="str">
-        <f t="shared" ref="G66:G85" si="38">"004_" &amp; RIGHT("00" &amp; A66, 3)</f>
+        <f t="shared" ref="G66:G85" si="39">"004_" &amp; RIGHT("00" &amp; A66, 3)</f>
         <v>004_001</v>
       </c>
       <c r="I66" t="s">
         <v>14</v>
       </c>
       <c r="J66" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>(Some 0.20)</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" ref="M66:M85" si="39">"Defaults_" &amp; G66 &amp; ".defaultValue"</f>
+        <f t="shared" ref="M66:M85" si="40">"Defaults_" &amp; G66 &amp; ".defaultValue"</f>
         <v>Defaults_004_001.defaultValue</v>
       </c>
       <c r="N66">
-        <f t="shared" ref="N66:N85" si="40">VALUE(SUBSTITUTE(G66, "_", ""))</f>
+        <f t="shared" ref="N66:N85" si="41">VALUE(SUBSTITUTE(G66, "_", ""))</f>
         <v>4001</v>
       </c>
       <c r="O66" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>2</v>
       </c>
       <c r="B67">
@@ -3521,32 +3521,32 @@
         <v>25</v>
       </c>
       <c r="G67" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_002</v>
       </c>
       <c r="I67" t="s">
         <v>15</v>
       </c>
       <c r="J67" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>(Some 0.20)</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_002.defaultValue</v>
       </c>
       <c r="N67">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4002</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3</v>
       </c>
       <c r="B68">
@@ -3565,32 +3565,32 @@
         <v>25</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_003</v>
       </c>
       <c r="I68" t="s">
         <v>17</v>
       </c>
       <c r="J68" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>(Some 0.15)</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_003.defaultValue</v>
       </c>
       <c r="N68">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4003</v>
       </c>
       <c r="O68" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4003 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>4</v>
       </c>
       <c r="B69">
@@ -3609,32 +3609,32 @@
         <v>25</v>
       </c>
       <c r="G69" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_004</v>
       </c>
       <c r="I69" t="s">
         <v>17</v>
       </c>
       <c r="J69" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>(Some 0.30)</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_004.defaultValue</v>
       </c>
       <c r="N69">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4004</v>
       </c>
       <c r="O69" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4004 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
       <c r="B70">
@@ -3653,32 +3653,32 @@
         <v>25</v>
       </c>
       <c r="G70" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_005</v>
       </c>
       <c r="I70" t="s">
         <v>17</v>
       </c>
       <c r="J70" s="5" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>(Some 0.25)</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_005.defaultValue</v>
       </c>
       <c r="N70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4005</v>
       </c>
       <c r="O70" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4005 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>6</v>
       </c>
       <c r="B71">
@@ -3697,7 +3697,7 @@
         <v>25</v>
       </c>
       <c r="G71" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_006</v>
       </c>
       <c r="I71" t="s">
@@ -3708,21 +3708,21 @@
         <v>(Some 0.05)</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_006.defaultValue</v>
       </c>
       <c r="N71">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4006</v>
       </c>
       <c r="O71" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4006 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>7</v>
       </c>
       <c r="B72">
@@ -3741,32 +3741,32 @@
         <v>25</v>
       </c>
       <c r="G72" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_007</v>
       </c>
       <c r="I72" t="s">
         <v>17</v>
       </c>
       <c r="J72" s="5" t="str">
-        <f t="shared" ref="J72:J85" si="41">"(Some 0." &amp; RIGHT("00" &amp; B72, 2) &amp; ")"</f>
+        <f t="shared" ref="J72:J85" si="42">"(Some 0." &amp; RIGHT("00" &amp; B72, 2) &amp; ")"</f>
         <v>(Some 0.10)</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_007.defaultValue</v>
       </c>
       <c r="N72">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4007</v>
       </c>
       <c r="O72" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4007 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>8</v>
       </c>
       <c r="B73">
@@ -3785,33 +3785,33 @@
         <v>25</v>
       </c>
       <c r="G73" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_008</v>
       </c>
       <c r="I73" t="s">
         <v>17</v>
       </c>
       <c r="J73" s="5" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>(Some 0.35)</v>
       </c>
       <c r="L73" s="5"/>
       <c r="M73" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_008.defaultValue</v>
       </c>
       <c r="N73">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4008</v>
       </c>
       <c r="O73" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4008 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>9</v>
       </c>
       <c r="B74">
@@ -3831,37 +3831,37 @@
         <v>25</v>
       </c>
       <c r="G74" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_009</v>
       </c>
       <c r="I74" t="s">
         <v>17</v>
       </c>
       <c r="J74" s="5" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>(Some 0.40)</v>
       </c>
       <c r="L74" s="5"/>
       <c r="M74" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_009.defaultValue</v>
       </c>
       <c r="N74">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4009</v>
       </c>
       <c r="O74" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4009 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>10</v>
       </c>
       <c r="B75">
-        <f t="shared" ref="B75:B85" si="42">+B74+5</f>
+        <f t="shared" ref="B75:B85" si="43">+B74+5</f>
         <v>45</v>
       </c>
       <c r="C75">
@@ -3877,37 +3877,37 @@
         <v>25</v>
       </c>
       <c r="G75" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_010</v>
       </c>
       <c r="I75" t="s">
         <v>17</v>
       </c>
       <c r="J75" s="5" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>(Some 0.45)</v>
       </c>
       <c r="L75" s="5"/>
       <c r="M75" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_010.defaultValue</v>
       </c>
       <c r="N75">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4010</v>
       </c>
       <c r="O75" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4010 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="B76">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>50</v>
       </c>
       <c r="C76">
@@ -3923,37 +3923,37 @@
         <v>25</v>
       </c>
       <c r="G76" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_011</v>
       </c>
       <c r="I76" t="s">
         <v>17</v>
       </c>
       <c r="J76" s="5" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>(Some 0.50)</v>
       </c>
       <c r="L76" s="5"/>
       <c r="M76" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_011.defaultValue</v>
       </c>
       <c r="N76">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4011</v>
       </c>
       <c r="O76" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4011 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="B77">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>55</v>
       </c>
       <c r="C77">
@@ -3969,37 +3969,37 @@
         <v>25</v>
       </c>
       <c r="G77" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_012</v>
       </c>
       <c r="I77" t="s">
         <v>17</v>
       </c>
       <c r="J77" s="5" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>(Some 0.55)</v>
       </c>
       <c r="L77" s="5"/>
       <c r="M77" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_012.defaultValue</v>
       </c>
       <c r="N77">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4012</v>
       </c>
       <c r="O77" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4012 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13</v>
       </c>
       <c r="B78">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>60</v>
       </c>
       <c r="C78">
@@ -4015,37 +4015,37 @@
         <v>25</v>
       </c>
       <c r="G78" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_013</v>
       </c>
       <c r="I78" t="s">
         <v>17</v>
       </c>
       <c r="J78" s="5" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>(Some 0.60)</v>
       </c>
       <c r="L78" s="5"/>
       <c r="M78" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_013.defaultValue</v>
       </c>
       <c r="N78">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4013</v>
       </c>
       <c r="O78" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4013 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>14</v>
       </c>
       <c r="B79">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>65</v>
       </c>
       <c r="C79">
@@ -4061,37 +4061,37 @@
         <v>25</v>
       </c>
       <c r="G79" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_014</v>
       </c>
       <c r="I79" t="s">
         <v>17</v>
       </c>
       <c r="J79" s="5" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>(Some 0.65)</v>
       </c>
       <c r="L79" s="5"/>
       <c r="M79" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_014.defaultValue</v>
       </c>
       <c r="N79">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4014</v>
       </c>
       <c r="O79" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4014 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>15</v>
       </c>
       <c r="B80">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>70</v>
       </c>
       <c r="C80">
@@ -4107,37 +4107,37 @@
         <v>25</v>
       </c>
       <c r="G80" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_015</v>
       </c>
       <c r="I80" t="s">
         <v>17</v>
       </c>
       <c r="J80" s="5" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>(Some 0.70)</v>
       </c>
       <c r="L80" s="5"/>
       <c r="M80" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_015.defaultValue</v>
       </c>
       <c r="N80">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4015</v>
       </c>
       <c r="O80" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4015 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>16</v>
       </c>
       <c r="B81">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>75</v>
       </c>
       <c r="C81">
@@ -4153,37 +4153,37 @@
         <v>25</v>
       </c>
       <c r="G81" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_016</v>
       </c>
       <c r="I81" t="s">
         <v>17</v>
       </c>
       <c r="J81" s="5" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>(Some 0.75)</v>
       </c>
       <c r="L81" s="5"/>
       <c r="M81" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_016.defaultValue</v>
       </c>
       <c r="N81">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4016</v>
       </c>
       <c r="O81" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4016 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>17</v>
       </c>
       <c r="B82">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>80</v>
       </c>
       <c r="C82">
@@ -4199,37 +4199,37 @@
         <v>25</v>
       </c>
       <c r="G82" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_017</v>
       </c>
       <c r="I82" t="s">
         <v>17</v>
       </c>
       <c r="J82" s="5" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>(Some 0.80)</v>
       </c>
       <c r="L82" s="5"/>
       <c r="M82" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_017.defaultValue</v>
       </c>
       <c r="N82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4017</v>
       </c>
       <c r="O82" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4017 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>18</v>
       </c>
       <c r="B83">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>85</v>
       </c>
       <c r="C83">
@@ -4245,37 +4245,37 @@
         <v>25</v>
       </c>
       <c r="G83" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_018</v>
       </c>
       <c r="I83" t="s">
         <v>17</v>
       </c>
       <c r="J83" s="5" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>(Some 0.85)</v>
       </c>
       <c r="L83" s="5"/>
       <c r="M83" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_018.defaultValue</v>
       </c>
       <c r="N83">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4018</v>
       </c>
       <c r="O83" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4018 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>19</v>
       </c>
       <c r="B84">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>90</v>
       </c>
       <c r="C84">
@@ -4291,37 +4291,37 @@
         <v>25</v>
       </c>
       <c r="G84" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_019</v>
       </c>
       <c r="I84" t="s">
         <v>17</v>
       </c>
       <c r="J84" s="5" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>(Some 0.90)</v>
       </c>
       <c r="L84" s="5"/>
       <c r="M84" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_019.defaultValue</v>
       </c>
       <c r="N84">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4019</v>
       </c>
       <c r="O84" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4019 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>20</v>
       </c>
       <c r="B85">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>95</v>
       </c>
       <c r="C85">
@@ -4337,27 +4337,27 @@
         <v>25</v>
       </c>
       <c r="G85" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>004_020</v>
       </c>
       <c r="I85" t="s">
         <v>17</v>
       </c>
       <c r="J85" s="5" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>(Some 0.95)</v>
       </c>
       <c r="L85" s="5"/>
       <c r="M85" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>Defaults_004_020.defaultValue</v>
       </c>
       <c r="N85">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>4020</v>
       </c>
       <c r="O85" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4020 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
@@ -4388,11 +4388,11 @@
         <v>40</v>
       </c>
       <c r="J88" s="5" t="str">
-        <f t="shared" ref="J88" si="43">"(Some 0." &amp; RIGHT("00" &amp; B88, 2) &amp; ")"</f>
+        <f t="shared" ref="J88" si="44">"(Some 0." &amp; RIGHT("00" &amp; B88, 2) &amp; ")"</f>
         <v>(Some 0.20)</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" ref="M88" si="44">"Defaults_" &amp; G88 &amp; ".defaultValue"</f>
+        <f t="shared" ref="M88" si="45">"Defaults_" &amp; G88 &amp; ".defaultValue"</f>
         <v>Defaults_005_000.defaultValue</v>
       </c>
       <c r="N88">
@@ -4400,7 +4400,7 @@
         <v>5000</v>
       </c>
       <c r="O88" t="str">
-        <f t="shared" ref="O88" si="45">"ContGenAdm.exe add -i " &amp; N88 &amp; " -n " &amp; C88 &amp; " -m 3 -y " &amp; E88 &amp; " -t " &amp; D88 &amp; " -r " &amp; F88</f>
+        <f t="shared" ref="O88" si="46">"ContGenAdm.exe add -i " &amp; N88 &amp; " -n " &amp; C88 &amp; " -m 3 -y " &amp; E88 &amp; " -t " &amp; D88 &amp; " -r " &amp; F88</f>
         <v>ContGenAdm.exe add -i 5000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
@@ -4414,7 +4414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CCFDC-E723-428F-8C43-820106604DAB}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A4AE76-4AAD-49D6-9F00-03D48192C516}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53954BE9-E783-4A54-8E4A-7A830A69B4B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="53">
   <si>
     <t>Base ?</t>
   </si>
@@ -157,6 +157,42 @@
   <si>
     <t>(Some 0.000_010), 100_000.0</t>
   </si>
+  <si>
+    <t>(Some 0.000_200), 10_000.0</t>
+  </si>
+  <si>
+    <t>(Some 0.000_100), 10_000.0</t>
+  </si>
+  <si>
+    <t>ligParam</t>
+  </si>
+  <si>
+    <t>(1.0, 1.0)</t>
+  </si>
+  <si>
+    <t>(10.0, 10.0)</t>
+  </si>
+  <si>
+    <t>sedDirRndParam</t>
+  </si>
+  <si>
+    <t>sedDirParam</t>
+  </si>
+  <si>
+    <t>(Some 0.000_100, 100.0)</t>
+  </si>
+  <si>
+    <t>(30.0, 30.0)</t>
+  </si>
+  <si>
+    <t>(Some 0.000_100, 300.0)</t>
+  </si>
+  <si>
+    <t>(Some 0.000_200, 100.0)</t>
+  </si>
+  <si>
+    <t>(Some 0.000_200, 300.0)</t>
+  </si>
 </sst>
 </file>
 
@@ -208,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,6 +259,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -295,7 +334,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Defaults!$S$1</c:f>
+              <c:f>Defaults!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -358,7 +397,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Defaults!$S$2:$S$8</c:f>
+              <c:f>Defaults!$V$2:$V$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -395,7 +434,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Defaults!$V$1</c:f>
+              <c:f>Defaults!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -458,7 +497,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Defaults!$V$2:$V$8</c:f>
+              <c:f>Defaults!$Y$2:$Y$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -495,7 +534,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Defaults!$W$1</c:f>
+              <c:f>Defaults!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -558,7 +597,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Defaults!$W$2:$W$8</c:f>
+              <c:f>Defaults!$Z$2:$Z$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1694,10 +1733,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
-  <dimension ref="A1:W88"/>
+  <dimension ref="A1:Z88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J14" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25:O33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6864" ySplit="486" topLeftCell="H52" activePane="bottomRight"/>
+      <selection activeCell="G1" sqref="A1:G2"/>
+      <selection pane="topRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+      <selection pane="bottomRight" activeCell="P77" sqref="P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1710,28 +1753,33 @@
     <col min="10" max="10" width="10.734375" style="1" customWidth="1"/>
     <col min="11" max="11" width="26.83984375" customWidth="1"/>
     <col min="12" max="12" width="11.20703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.68359375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32" customWidth="1"/>
-    <col min="16" max="16" width="8.89453125" customWidth="1"/>
-    <col min="19" max="19" width="8.83984375" style="3"/>
-    <col min="20" max="20" width="1.62890625" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="8.83984375" style="3"/>
+    <col min="13" max="13" width="17.578125" customWidth="1"/>
+    <col min="14" max="14" width="20.62890625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.578125" customWidth="1"/>
+    <col min="16" max="16" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32" customWidth="1"/>
+    <col min="19" max="19" width="8.89453125" customWidth="1"/>
+    <col min="22" max="22" width="8.83984375" style="3"/>
+    <col min="23" max="23" width="1.62890625" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="8.83984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1749,36 +1797,45 @@
       <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P1"/>
-      <c r="Q1" t="s">
+      <c r="S1"/>
+      <c r="T1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C2">
         <v>20</v>
       </c>
@@ -1794,36 +1851,36 @@
       <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <f>VALUE(SUBSTITUTE(G2, "_", ""))</f>
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>52</v>
       </c>
-      <c r="R2">
+      <c r="U2">
         <v>16</v>
       </c>
-      <c r="S2" s="3">
+      <c r="V2" s="3">
         <v>0.30769230769230799</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="3">
-        <f>SQRT(S2*(1-S2)/Q2)</f>
+      <c r="X2" s="3">
+        <f>SQRT(V2*(1-V2)/T2)</f>
         <v>6.4003868795218757E-2</v>
       </c>
-      <c r="V2" s="3">
-        <f>S2-U2</f>
+      <c r="Y2" s="3">
+        <f>V2-X2</f>
         <v>0.24368843889708924</v>
       </c>
-      <c r="W2" s="3">
-        <f>S2+U2</f>
+      <c r="Z2" s="3">
+        <f>V2+X2</f>
         <v>0.37169617648752673</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C3">
         <v>20</v>
       </c>
@@ -1836,36 +1893,36 @@
       <c r="L3" t="s">
         <v>18</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N22" si="0">VALUE(SUBSTITUTE(G3, "_", ""))</f>
+      <c r="Q3">
+        <f>VALUE(SUBSTITUTE(G3, "_", ""))</f>
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <v>20</v>
       </c>
-      <c r="R3">
+      <c r="U3">
         <v>8</v>
       </c>
-      <c r="S3" s="3">
+      <c r="V3" s="3">
         <v>0.4</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="3">
-        <f>SQRT(S3*(1-S3)/Q3)</f>
+      <c r="X3" s="3">
+        <f>SQRT(V3*(1-V3)/T3)</f>
         <v>0.10954451150103323</v>
       </c>
-      <c r="V3" s="3">
-        <f>S3-U3</f>
+      <c r="Y3" s="3">
+        <f>V3-X3</f>
         <v>0.2904554884989668</v>
       </c>
-      <c r="W3" s="3">
-        <f>S3+U3</f>
+      <c r="Z3" s="3">
+        <f>V3+X3</f>
         <v>0.5095445115010333</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C4">
         <v>20</v>
       </c>
@@ -1878,36 +1935,36 @@
       <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
+      <c r="Q4">
+        <f>VALUE(SUBSTITUTE(G4, "_", ""))</f>
         <v>2</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>19</v>
       </c>
-      <c r="R4">
+      <c r="U4">
         <v>8</v>
       </c>
-      <c r="S4" s="3">
+      <c r="V4" s="3">
         <v>0.42105263157894701</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="3">
-        <f t="shared" ref="U4" si="1">SQRT(S4*(1-S4)/Q4)</f>
+      <c r="X4" s="3">
+        <f t="shared" ref="X4" si="0">SQRT(V4*(1-V4)/T4)</f>
         <v>0.11326896565241479</v>
       </c>
-      <c r="V4" s="3">
-        <f t="shared" ref="V4" si="2">S4-U4</f>
+      <c r="Y4" s="3">
+        <f t="shared" ref="Y4" si="1">V4-X4</f>
         <v>0.30778366592653222</v>
       </c>
-      <c r="W4" s="3">
-        <f t="shared" ref="W4" si="3">S4+U4</f>
+      <c r="Z4" s="3">
+        <f t="shared" ref="Z4" si="2">V4+X4</f>
         <v>0.53432159723136174</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C5">
         <v>20</v>
       </c>
@@ -1920,36 +1977,36 @@
       <c r="L5" t="s">
         <v>16</v>
       </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
+      <c r="Q5">
+        <f>VALUE(SUBSTITUTE(G5, "_", ""))</f>
         <v>3</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>19</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>3</v>
       </c>
-      <c r="S5" s="3">
+      <c r="V5" s="3">
         <v>0.157894736842105</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="3">
-        <f t="shared" ref="U5" si="4">SQRT(S5*(1-S5)/Q5)</f>
+      <c r="X5" s="3">
+        <f t="shared" ref="X5" si="3">SQRT(V5*(1-V5)/T5)</f>
         <v>8.3654675183055346E-2</v>
       </c>
-      <c r="V5" s="3">
-        <f t="shared" ref="V5" si="5">S5-U5</f>
+      <c r="Y5" s="3">
+        <f t="shared" ref="Y5" si="4">V5-X5</f>
         <v>7.4240061659049658E-2</v>
       </c>
-      <c r="W5" s="3">
-        <f t="shared" ref="W5" si="6">S5+U5</f>
+      <c r="Z5" s="3">
+        <f t="shared" ref="Z5" si="5">V5+X5</f>
         <v>0.24154941202516034</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C6">
         <v>20</v>
       </c>
@@ -1962,36 +2019,36 @@
       <c r="L6" t="s">
         <v>19</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
+      <c r="Q6">
+        <f>VALUE(SUBSTITUTE(G6, "_", ""))</f>
         <v>4</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>38</v>
       </c>
-      <c r="R6">
+      <c r="U6">
         <v>11</v>
       </c>
-      <c r="S6" s="3">
+      <c r="V6" s="3">
         <v>0.28947368421052599</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="3">
-        <f t="shared" ref="U6:U7" si="7">SQRT(S6*(1-S6)/Q6)</f>
+      <c r="X6" s="3">
+        <f t="shared" ref="X6:X7" si="6">SQRT(V6*(1-V6)/T6)</f>
         <v>7.3570351286533664E-2</v>
       </c>
-      <c r="V6" s="3">
-        <f t="shared" ref="V6:V7" si="8">S6-U6</f>
+      <c r="Y6" s="3">
+        <f t="shared" ref="Y6:Y7" si="7">V6-X6</f>
         <v>0.21590333292399233</v>
       </c>
-      <c r="W6" s="3">
-        <f t="shared" ref="W6:W7" si="9">S6+U6</f>
+      <c r="Z6" s="3">
+        <f t="shared" ref="Z6:Z7" si="8">V6+X6</f>
         <v>0.36304403549705966</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C7">
         <v>20</v>
       </c>
@@ -2004,36 +2061,36 @@
       <c r="L7" t="s">
         <v>21</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
+      <c r="Q7">
+        <f>VALUE(SUBSTITUTE(G7, "_", ""))</f>
         <v>5</v>
       </c>
-      <c r="Q7">
+      <c r="T7">
         <v>5</v>
       </c>
-      <c r="R7">
+      <c r="U7">
         <v>1</v>
       </c>
-      <c r="S7" s="3">
+      <c r="V7" s="3">
         <v>0.2</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>13</v>
       </c>
-      <c r="U7" s="3">
+      <c r="X7" s="3">
+        <f t="shared" si="6"/>
+        <v>0.1788854381999832</v>
+      </c>
+      <c r="Y7" s="3">
         <f t="shared" si="7"/>
-        <v>0.1788854381999832</v>
-      </c>
-      <c r="V7" s="3">
+        <v>2.1114561800016807E-2</v>
+      </c>
+      <c r="Z7" s="3">
         <f t="shared" si="8"/>
-        <v>2.1114561800016807E-2</v>
-      </c>
-      <c r="W7" s="3">
-        <f t="shared" si="9"/>
         <v>0.37888543819998322</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C8">
         <v>20</v>
       </c>
@@ -2055,23 +2112,23 @@
       <c r="L8" t="s">
         <v>32</v>
       </c>
-      <c r="M8" t="str">
+      <c r="P8" t="str">
         <f>"Defaults_" &amp; G8 &amp; ".defaultValue"</f>
         <v>Defaults_000_006.defaultValue</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
+      <c r="Q8">
+        <f>VALUE(SUBSTITUTE(G8, "_", ""))</f>
         <v>6</v>
       </c>
-      <c r="O8" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; N8 &amp; " -n " &amp; C8 &amp; " -m 3 -y " &amp; E8 &amp; " -t " &amp; D8 &amp; " -r " &amp; F8</f>
+      <c r="R8" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q8 &amp; " -n " &amp; C8 &amp; " -m 3 -y " &amp; E8 &amp; " -t " &amp; D8 &amp; " -r " &amp; F8</f>
         <v>ContGenAdm.exe add -i 6 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="C9">
         <v>20</v>
       </c>
@@ -2093,20 +2150,20 @@
       <c r="L9" t="s">
         <v>31</v>
       </c>
-      <c r="M9" t="str">
-        <f t="shared" ref="M9:M22" si="10">"Defaults_" &amp; G9 &amp; ".defaultValue"</f>
+      <c r="P9" t="str">
+        <f t="shared" ref="P9:P22" si="9">"Defaults_" &amp; G9 &amp; ".defaultValue"</f>
         <v>Defaults_000_007.defaultValue</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
+      <c r="Q9">
+        <f>VALUE(SUBSTITUTE(G9, "_", ""))</f>
         <v>7</v>
       </c>
-      <c r="O9" t="str">
-        <f t="shared" ref="O9:O22" si="11">"ContGenAdm.exe add -i " &amp; N9 &amp; " -n " &amp; C9 &amp; " -m 3 -y " &amp; E9 &amp; " -t " &amp; D9 &amp; " -r " &amp; F9</f>
+      <c r="R9" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q9 &amp; " -n " &amp; C9 &amp; " -m 3 -y " &amp; E9 &amp; " -t " &amp; D9 &amp; " -r " &amp; F9</f>
         <v>ContGenAdm.exe add -i 7 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2136,20 +2193,23 @@
         <f>"(Some 0." &amp; B10 &amp; ")"</f>
         <v>(Some 0.35)</v>
       </c>
-      <c r="M10" t="str">
-        <f t="shared" si="10"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" t="str">
+        <f t="shared" si="9"/>
         <v>Defaults_000_008.defaultValue</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
+      <c r="Q10">
+        <f>VALUE(SUBSTITUTE(G10, "_", ""))</f>
         <v>8</v>
       </c>
-      <c r="O10" t="str">
-        <f t="shared" si="11"/>
+      <c r="R10" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q10 &amp; " -n " &amp; C10 &amp; " -m 3 -y " &amp; E10 &amp; " -t " &amp; D10 &amp; " -r " &amp; F10</f>
         <v>ContGenAdm.exe add -i 8 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <f>1+A10</f>
         <v>9</v>
@@ -2171,36 +2231,39 @@
         <v>25</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f t="shared" ref="G11:G21" si="12">"000_0" &amp; RIGHT("0" &amp; A11, 2)</f>
+        <f t="shared" ref="G11:G21" si="10">"000_0" &amp; RIGHT("0" &amp; A11, 2)</f>
         <v>000_009</v>
       </c>
       <c r="K11" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="5" t="str">
-        <f t="shared" ref="L11:L21" si="13">"(Some 0." &amp; B11 &amp; ")"</f>
+        <f t="shared" ref="L11:L21" si="11">"(Some 0." &amp; B11 &amp; ")"</f>
         <v>(Some 0.40)</v>
       </c>
-      <c r="M11" t="str">
-        <f t="shared" si="10"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" t="str">
+        <f t="shared" si="9"/>
         <v>Defaults_000_009.defaultValue</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
+      <c r="Q11">
+        <f>VALUE(SUBSTITUTE(G11, "_", ""))</f>
         <v>9</v>
       </c>
-      <c r="O11" t="str">
-        <f t="shared" si="11"/>
+      <c r="R11" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q11 &amp; " -n " &amp; C11 &amp; " -m 3 -y " &amp; E11 &amp; " -t " &amp; D11 &amp; " -r " &amp; F11</f>
         <v>ContGenAdm.exe add -i 9 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <f t="shared" ref="A12:A21" si="14">1+A11</f>
+        <f t="shared" ref="A12:A21" si="12">1+A11</f>
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B21" si="15">+B11+5</f>
+        <f t="shared" ref="B12:B21" si="13">+B11+5</f>
         <v>45</v>
       </c>
       <c r="C12">
@@ -2216,36 +2279,39 @@
         <v>25</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>000_010</v>
       </c>
       <c r="K12" t="s">
         <v>17</v>
       </c>
       <c r="L12" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>(Some 0.45)</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" t="str">
+        <f t="shared" si="9"/>
+        <v>Defaults_000_010.defaultValue</v>
+      </c>
+      <c r="Q12">
+        <f>VALUE(SUBSTITUTE(G12, "_", ""))</f>
+        <v>10</v>
+      </c>
+      <c r="R12" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q12 &amp; " -n " &amp; C12 &amp; " -m 3 -y " &amp; E12 &amp; " -t " &amp; D12 &amp; " -r " &amp; F12</f>
+        <v>ContGenAdm.exe add -i 10 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="B13">
         <f t="shared" si="13"/>
-        <v>(Some 0.45)</v>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="10"/>
-        <v>Defaults_000_010.defaultValue</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="11"/>
-        <v>ContGenAdm.exe add -i 10 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <f t="shared" si="14"/>
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="C13">
@@ -2261,36 +2327,39 @@
         <v>25</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>000_011</v>
       </c>
       <c r="K13" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>(Some 0.50)</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" t="str">
+        <f t="shared" si="9"/>
+        <v>Defaults_000_011.defaultValue</v>
+      </c>
+      <c r="Q13">
+        <f>VALUE(SUBSTITUTE(G13, "_", ""))</f>
+        <v>11</v>
+      </c>
+      <c r="R13" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q13 &amp; " -n " &amp; C13 &amp; " -m 3 -y " &amp; E13 &amp; " -t " &amp; D13 &amp; " -r " &amp; F13</f>
+        <v>ContGenAdm.exe add -i 11 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
         <f t="shared" si="13"/>
-        <v>(Some 0.50)</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="10"/>
-        <v>Defaults_000_011.defaultValue</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="11"/>
-        <v>ContGenAdm.exe add -i 11 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <f t="shared" si="14"/>
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="15"/>
         <v>55</v>
       </c>
       <c r="C14">
@@ -2306,36 +2375,39 @@
         <v>25</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>000_012</v>
       </c>
       <c r="K14" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>(Some 0.55)</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" t="str">
+        <f t="shared" si="9"/>
+        <v>Defaults_000_012.defaultValue</v>
+      </c>
+      <c r="Q14">
+        <f>VALUE(SUBSTITUTE(G14, "_", ""))</f>
+        <v>12</v>
+      </c>
+      <c r="R14" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q14 &amp; " -n " &amp; C14 &amp; " -m 3 -y " &amp; E14 &amp; " -t " &amp; D14 &amp; " -r " &amp; F14</f>
+        <v>ContGenAdm.exe add -i 12 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
         <f t="shared" si="13"/>
-        <v>(Some 0.55)</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="10"/>
-        <v>Defaults_000_012.defaultValue</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="11"/>
-        <v>ContGenAdm.exe add -i 12 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <f t="shared" si="14"/>
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="15"/>
         <v>60</v>
       </c>
       <c r="C15">
@@ -2351,36 +2423,39 @@
         <v>25</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>000_013</v>
       </c>
       <c r="K15" t="s">
         <v>17</v>
       </c>
       <c r="L15" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>(Some 0.60)</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" t="str">
+        <f t="shared" si="9"/>
+        <v>Defaults_000_013.defaultValue</v>
+      </c>
+      <c r="Q15">
+        <f>VALUE(SUBSTITUTE(G15, "_", ""))</f>
+        <v>13</v>
+      </c>
+      <c r="R15" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q15 &amp; " -n " &amp; C15 &amp; " -m 3 -y " &amp; E15 &amp; " -t " &amp; D15 &amp; " -r " &amp; F15</f>
+        <v>ContGenAdm.exe add -i 13 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
         <f t="shared" si="13"/>
-        <v>(Some 0.60)</v>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="10"/>
-        <v>Defaults_000_013.defaultValue</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="11"/>
-        <v>ContGenAdm.exe add -i 13 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <f t="shared" si="14"/>
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="15"/>
         <v>65</v>
       </c>
       <c r="C16">
@@ -2396,36 +2471,39 @@
         <v>25</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>000_014</v>
       </c>
       <c r="K16" t="s">
         <v>17</v>
       </c>
       <c r="L16" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>(Some 0.65)</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" t="str">
+        <f t="shared" si="9"/>
+        <v>Defaults_000_014.defaultValue</v>
+      </c>
+      <c r="Q16">
+        <f>VALUE(SUBSTITUTE(G16, "_", ""))</f>
+        <v>14</v>
+      </c>
+      <c r="R16" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q16 &amp; " -n " &amp; C16 &amp; " -m 3 -y " &amp; E16 &amp; " -t " &amp; D16 &amp; " -r " &amp; F16</f>
+        <v>ContGenAdm.exe add -i 14 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
         <f t="shared" si="13"/>
-        <v>(Some 0.65)</v>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="10"/>
-        <v>Defaults_000_014.defaultValue</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="11"/>
-        <v>ContGenAdm.exe add -i 14 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="15"/>
         <v>70</v>
       </c>
       <c r="C17">
@@ -2441,36 +2519,39 @@
         <v>25</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>000_015</v>
       </c>
       <c r="K17" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>(Some 0.70)</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" t="str">
+        <f t="shared" si="9"/>
+        <v>Defaults_000_015.defaultValue</v>
+      </c>
+      <c r="Q17">
+        <f>VALUE(SUBSTITUTE(G17, "_", ""))</f>
+        <v>15</v>
+      </c>
+      <c r="R17" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q17 &amp; " -n " &amp; C17 &amp; " -m 3 -y " &amp; E17 &amp; " -t " &amp; D17 &amp; " -r " &amp; F17</f>
+        <v>ContGenAdm.exe add -i 15 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="B18">
         <f t="shared" si="13"/>
-        <v>(Some 0.70)</v>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="10"/>
-        <v>Defaults_000_015.defaultValue</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="11"/>
-        <v>ContGenAdm.exe add -i 15 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <f t="shared" si="14"/>
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="15"/>
         <v>75</v>
       </c>
       <c r="C18">
@@ -2486,36 +2567,39 @@
         <v>25</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>000_016</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>(Some 0.75)</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" t="str">
+        <f t="shared" si="9"/>
+        <v>Defaults_000_016.defaultValue</v>
+      </c>
+      <c r="Q18">
+        <f>VALUE(SUBSTITUTE(G18, "_", ""))</f>
+        <v>16</v>
+      </c>
+      <c r="R18" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q18 &amp; " -n " &amp; C18 &amp; " -m 3 -y " &amp; E18 &amp; " -t " &amp; D18 &amp; " -r " &amp; F18</f>
+        <v>ContGenAdm.exe add -i 16 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="B19">
         <f t="shared" si="13"/>
-        <v>(Some 0.75)</v>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="10"/>
-        <v>Defaults_000_016.defaultValue</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="11"/>
-        <v>ContGenAdm.exe add -i 16 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <f t="shared" si="14"/>
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="C19">
@@ -2531,36 +2615,39 @@
         <v>25</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>000_017</v>
       </c>
       <c r="K19" t="s">
         <v>17</v>
       </c>
       <c r="L19" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>(Some 0.80)</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" t="str">
+        <f t="shared" si="9"/>
+        <v>Defaults_000_017.defaultValue</v>
+      </c>
+      <c r="Q19">
+        <f>VALUE(SUBSTITUTE(G19, "_", ""))</f>
+        <v>17</v>
+      </c>
+      <c r="R19" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q19 &amp; " -n " &amp; C19 &amp; " -m 3 -y " &amp; E19 &amp; " -t " &amp; D19 &amp; " -r " &amp; F19</f>
+        <v>ContGenAdm.exe add -i 17 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
         <f t="shared" si="13"/>
-        <v>(Some 0.80)</v>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="10"/>
-        <v>Defaults_000_017.defaultValue</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="11"/>
-        <v>ContGenAdm.exe add -i 17 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <f t="shared" si="14"/>
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="15"/>
         <v>85</v>
       </c>
       <c r="C20">
@@ -2576,36 +2663,39 @@
         <v>25</v>
       </c>
       <c r="G20" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>000_018</v>
       </c>
       <c r="K20" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>(Some 0.85)</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" t="str">
+        <f t="shared" si="9"/>
+        <v>Defaults_000_018.defaultValue</v>
+      </c>
+      <c r="Q20">
+        <f>VALUE(SUBSTITUTE(G20, "_", ""))</f>
+        <v>18</v>
+      </c>
+      <c r="R20" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q20 &amp; " -n " &amp; C20 &amp; " -m 3 -y " &amp; E20 &amp; " -t " &amp; D20 &amp; " -r " &amp; F20</f>
+        <v>ContGenAdm.exe add -i 18 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="B21">
         <f t="shared" si="13"/>
-        <v>(Some 0.85)</v>
-      </c>
-      <c r="M20" t="str">
-        <f t="shared" si="10"/>
-        <v>Defaults_000_018.defaultValue</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="11"/>
-        <v>ContGenAdm.exe add -i 18 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <f t="shared" si="14"/>
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="C21">
@@ -2621,36 +2711,39 @@
         <v>25</v>
       </c>
       <c r="G21" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>000_019</v>
       </c>
       <c r="K21" t="s">
         <v>17</v>
       </c>
       <c r="L21" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>(Some 0.90)</v>
       </c>
-      <c r="M21" t="str">
-        <f t="shared" si="10"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" t="str">
+        <f t="shared" si="9"/>
         <v>Defaults_000_019.defaultValue</v>
       </c>
-      <c r="N21">
-        <f t="shared" si="0"/>
+      <c r="Q21">
+        <f>VALUE(SUBSTITUTE(G21, "_", ""))</f>
         <v>19</v>
       </c>
-      <c r="O21" t="str">
-        <f t="shared" si="11"/>
+      <c r="R21" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q21 &amp; " -n " &amp; C21 &amp; " -m 3 -y " &amp; E21 &amp; " -t " &amp; D21 &amp; " -r " &amp; F21</f>
         <v>ContGenAdm.exe add -i 19 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <f t="shared" ref="A22" si="16">1+A21</f>
+        <f t="shared" ref="A22" si="14">1+A21</f>
         <v>20</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22" si="17">+B21+5</f>
+        <f t="shared" ref="B22" si="15">+B21+5</f>
         <v>95</v>
       </c>
       <c r="C22">
@@ -2666,30 +2759,33 @@
         <v>25</v>
       </c>
       <c r="G22" s="1" t="str">
-        <f t="shared" ref="G22" si="18">"000_0" &amp; RIGHT("0" &amp; A22, 2)</f>
+        <f t="shared" ref="G22" si="16">"000_0" &amp; RIGHT("0" &amp; A22, 2)</f>
         <v>000_020</v>
       </c>
       <c r="K22" t="s">
         <v>17</v>
       </c>
       <c r="L22" s="5" t="str">
-        <f t="shared" ref="L22" si="19">"(Some 0." &amp; B22 &amp; ")"</f>
+        <f t="shared" ref="L22" si="17">"(Some 0." &amp; B22 &amp; ")"</f>
         <v>(Some 0.95)</v>
       </c>
-      <c r="M22" t="str">
-        <f t="shared" si="10"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" t="str">
+        <f t="shared" si="9"/>
         <v>Defaults_000_020.defaultValue</v>
       </c>
-      <c r="N22">
-        <f t="shared" si="0"/>
+      <c r="Q22">
+        <f>VALUE(SUBSTITUTE(G22, "_", ""))</f>
         <v>20</v>
       </c>
-      <c r="O22" t="str">
-        <f t="shared" si="11"/>
+      <c r="R22" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q22 &amp; " -n " &amp; C22 &amp; " -m 3 -y " &amp; E22 &amp; " -t " &amp; D22 &amp; " -r " &amp; F22</f>
         <v>ContGenAdm.exe add -i 20 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2715,20 +2811,20 @@
       <c r="L25" t="s">
         <v>18</v>
       </c>
-      <c r="M25" t="str">
-        <f t="shared" ref="M25:M36" si="20">"Defaults_" &amp; G25 &amp; ".defaultValue"</f>
+      <c r="P25" t="str">
+        <f t="shared" ref="P25:P36" si="18">"Defaults_" &amp; G25 &amp; ".defaultValue"</f>
         <v>Defaults_002_000.defaultValue</v>
       </c>
-      <c r="N25">
-        <f t="shared" ref="N25:N36" si="21">VALUE(SUBSTITUTE(G25, "_", ""))</f>
+      <c r="Q25">
+        <f>VALUE(SUBSTITUTE(G25, "_", ""))</f>
         <v>2000</v>
       </c>
-      <c r="O25" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; N25 &amp; " -n " &amp; C25 &amp; " -m 5 -y " &amp; E25 &amp; " -t " &amp; D25 &amp; " -r " &amp; F25</f>
+      <c r="R25" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q25 &amp; " -n " &amp; C25 &amp; " -m 5 -y " &amp; E25 &amp; " -t " &amp; D25 &amp; " -r " &amp; F25</f>
         <v>ContGenAdm.exe add -i 2000 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <f>1+A25</f>
         <v>1</v>
@@ -2746,7 +2842,7 @@
         <v>25</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f t="shared" ref="G26:G29" si="22">"002_0" &amp; RIGHT("0" &amp; A26, 2)</f>
+        <f t="shared" ref="G26:G29" si="19">"002_0" &amp; RIGHT("0" &amp; A26, 2)</f>
         <v>002_001</v>
       </c>
       <c r="K26" t="s">
@@ -2755,22 +2851,22 @@
       <c r="L26" t="s">
         <v>18</v>
       </c>
-      <c r="M26" t="str">
-        <f t="shared" si="20"/>
+      <c r="P26" t="str">
+        <f t="shared" si="18"/>
         <v>Defaults_002_001.defaultValue</v>
       </c>
-      <c r="N26">
-        <f t="shared" si="21"/>
+      <c r="Q26">
+        <f>VALUE(SUBSTITUTE(G26, "_", ""))</f>
         <v>2001</v>
       </c>
-      <c r="O26" t="str">
-        <f t="shared" ref="O26:O33" si="23">"ContGenAdm.exe add -i " &amp; N26 &amp; " -n " &amp; C26 &amp; " -m 5 -y " &amp; E26 &amp; " -t " &amp; D26 &amp; " -r " &amp; F26</f>
+      <c r="R26" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q26 &amp; " -n " &amp; C26 &amp; " -m 5 -y " &amp; E26 &amp; " -t " &amp; D26 &amp; " -r " &amp; F26</f>
         <v>ContGenAdm.exe add -i 2001 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <f t="shared" ref="A27:A29" si="24">1+A26</f>
+        <f t="shared" ref="A27:A29" si="20">1+A26</f>
         <v>2</v>
       </c>
       <c r="C27">
@@ -2786,7 +2882,7 @@
         <v>25</v>
       </c>
       <c r="G27" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>002_002</v>
       </c>
       <c r="K27" t="s">
@@ -2795,22 +2891,22 @@
       <c r="L27" t="s">
         <v>18</v>
       </c>
-      <c r="M27" t="str">
+      <c r="P27" t="str">
+        <f t="shared" si="18"/>
+        <v>Defaults_002_002.defaultValue</v>
+      </c>
+      <c r="Q27">
+        <f>VALUE(SUBSTITUTE(G27, "_", ""))</f>
+        <v>2002</v>
+      </c>
+      <c r="R27" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q27 &amp; " -n " &amp; C27 &amp; " -m 5 -y " &amp; E27 &amp; " -t " &amp; D27 &amp; " -r " &amp; F27</f>
+        <v>ContGenAdm.exe add -i 2002 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
         <f t="shared" si="20"/>
-        <v>Defaults_002_002.defaultValue</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="21"/>
-        <v>2002</v>
-      </c>
-      <c r="O27" t="str">
-        <f t="shared" si="23"/>
-        <v>ContGenAdm.exe add -i 2002 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
-        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="C28">
@@ -2826,7 +2922,7 @@
         <v>25</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>002_003</v>
       </c>
       <c r="K28" t="s">
@@ -2835,22 +2931,22 @@
       <c r="L28" t="s">
         <v>31</v>
       </c>
-      <c r="M28" t="str">
+      <c r="P28" t="str">
+        <f t="shared" si="18"/>
+        <v>Defaults_002_003.defaultValue</v>
+      </c>
+      <c r="Q28">
+        <f>VALUE(SUBSTITUTE(G28, "_", ""))</f>
+        <v>2003</v>
+      </c>
+      <c r="R28" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q28 &amp; " -n " &amp; C28 &amp; " -m 5 -y " &amp; E28 &amp; " -t " &amp; D28 &amp; " -r " &amp; F28</f>
+        <v>ContGenAdm.exe add -i 2003 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
         <f t="shared" si="20"/>
-        <v>Defaults_002_003.defaultValue</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="21"/>
-        <v>2003</v>
-      </c>
-      <c r="O28" t="str">
-        <f t="shared" si="23"/>
-        <v>ContGenAdm.exe add -i 2003 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
-        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="C29">
@@ -2866,7 +2962,7 @@
         <v>25</v>
       </c>
       <c r="G29" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>002_004</v>
       </c>
       <c r="K29" t="s">
@@ -2875,22 +2971,22 @@
       <c r="L29" t="s">
         <v>31</v>
       </c>
-      <c r="M29" t="str">
-        <f t="shared" si="20"/>
+      <c r="P29" t="str">
+        <f t="shared" si="18"/>
         <v>Defaults_002_004.defaultValue</v>
       </c>
-      <c r="N29">
-        <f t="shared" si="21"/>
+      <c r="Q29">
+        <f>VALUE(SUBSTITUTE(G29, "_", ""))</f>
         <v>2004</v>
       </c>
-      <c r="O29" t="str">
-        <f t="shared" si="23"/>
+      <c r="R29" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q29 &amp; " -n " &amp; C29 &amp; " -m 5 -y " &amp; E29 &amp; " -t " &amp; D29 &amp; " -r " &amp; F29</f>
         <v>ContGenAdm.exe add -i 2004 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <f t="shared" ref="A30:A33" si="25">1+A29</f>
+        <f t="shared" ref="A30:A33" si="21">1+A29</f>
         <v>5</v>
       </c>
       <c r="C30">
@@ -2906,7 +3002,7 @@
         <v>25</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f t="shared" ref="G30:G33" si="26">"002_0" &amp; RIGHT("0" &amp; A30, 2)</f>
+        <f t="shared" ref="G30:G33" si="22">"002_0" &amp; RIGHT("0" &amp; A30, 2)</f>
         <v>002_005</v>
       </c>
       <c r="K30" t="s">
@@ -2915,22 +3011,22 @@
       <c r="L30" t="s">
         <v>31</v>
       </c>
-      <c r="M30" t="str">
-        <f t="shared" si="20"/>
+      <c r="P30" t="str">
+        <f t="shared" si="18"/>
         <v>Defaults_002_005.defaultValue</v>
       </c>
-      <c r="N30">
+      <c r="Q30">
+        <f>VALUE(SUBSTITUTE(G30, "_", ""))</f>
+        <v>2005</v>
+      </c>
+      <c r="R30" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q30 &amp; " -n " &amp; C30 &amp; " -m 5 -y " &amp; E30 &amp; " -t " &amp; D30 &amp; " -r " &amp; F30</f>
+        <v>ContGenAdm.exe add -i 2005 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
         <f t="shared" si="21"/>
-        <v>2005</v>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" si="23"/>
-        <v>ContGenAdm.exe add -i 2005 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
-        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="C31">
@@ -2946,7 +3042,7 @@
         <v>25</v>
       </c>
       <c r="G31" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>002_006</v>
       </c>
       <c r="K31" t="s">
@@ -2955,22 +3051,22 @@
       <c r="L31" t="s">
         <v>16</v>
       </c>
-      <c r="M31" t="str">
-        <f t="shared" si="20"/>
+      <c r="P31" t="str">
+        <f t="shared" si="18"/>
         <v>Defaults_002_006.defaultValue</v>
       </c>
-      <c r="N31">
+      <c r="Q31">
+        <f>VALUE(SUBSTITUTE(G31, "_", ""))</f>
+        <v>2006</v>
+      </c>
+      <c r="R31" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q31 &amp; " -n " &amp; C31 &amp; " -m 5 -y " &amp; E31 &amp; " -t " &amp; D31 &amp; " -r " &amp; F31</f>
+        <v>ContGenAdm.exe add -i 2006 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
         <f t="shared" si="21"/>
-        <v>2006</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="23"/>
-        <v>ContGenAdm.exe add -i 2006 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
-        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="C32">
@@ -2986,7 +3082,7 @@
         <v>25</v>
       </c>
       <c r="G32" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>002_007</v>
       </c>
       <c r="K32" t="s">
@@ -2995,22 +3091,22 @@
       <c r="L32" t="s">
         <v>16</v>
       </c>
-      <c r="M32" t="str">
-        <f t="shared" si="20"/>
+      <c r="P32" t="str">
+        <f t="shared" si="18"/>
         <v>Defaults_002_007.defaultValue</v>
       </c>
-      <c r="N32">
+      <c r="Q32">
+        <f>VALUE(SUBSTITUTE(G32, "_", ""))</f>
+        <v>2007</v>
+      </c>
+      <c r="R32" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q32 &amp; " -n " &amp; C32 &amp; " -m 5 -y " &amp; E32 &amp; " -t " &amp; D32 &amp; " -r " &amp; F32</f>
+        <v>ContGenAdm.exe add -i 2007 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
         <f t="shared" si="21"/>
-        <v>2007</v>
-      </c>
-      <c r="O32" t="str">
-        <f t="shared" si="23"/>
-        <v>ContGenAdm.exe add -i 2007 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
-        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="C33">
@@ -3026,7 +3122,7 @@
         <v>25</v>
       </c>
       <c r="G33" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>002_008</v>
       </c>
       <c r="K33" t="s">
@@ -3035,22 +3131,22 @@
       <c r="L33" t="s">
         <v>16</v>
       </c>
-      <c r="M33" t="str">
-        <f t="shared" si="20"/>
+      <c r="P33" t="str">
+        <f t="shared" si="18"/>
         <v>Defaults_002_008.defaultValue</v>
       </c>
-      <c r="N33">
-        <f t="shared" si="21"/>
+      <c r="Q33">
+        <f>VALUE(SUBSTITUTE(G33, "_", ""))</f>
         <v>2008</v>
       </c>
-      <c r="O33" t="str">
-        <f t="shared" si="23"/>
+      <c r="R33" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q33 &amp; " -n " &amp; C33 &amp; " -m 5 -y " &amp; E33 &amp; " -t " &amp; D33 &amp; " -r " &amp; F33</f>
         <v>ContGenAdm.exe add -i 2008 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <f t="shared" ref="A34:A36" si="27">1+A33</f>
+        <f t="shared" ref="A34:A36" si="23">1+A33</f>
         <v>9</v>
       </c>
       <c r="C34">
@@ -3066,7 +3162,7 @@
         <v>25</v>
       </c>
       <c r="G34" s="1" t="str">
-        <f t="shared" ref="G34:G36" si="28">"002_0" &amp; RIGHT("0" &amp; A34, 2)</f>
+        <f t="shared" ref="G34:G36" si="24">"002_0" &amp; RIGHT("0" &amp; A34, 2)</f>
         <v>002_009</v>
       </c>
       <c r="K34" t="s">
@@ -3075,22 +3171,22 @@
       <c r="L34" t="s">
         <v>21</v>
       </c>
-      <c r="M34" t="str">
-        <f t="shared" si="20"/>
+      <c r="P34" t="str">
+        <f t="shared" si="18"/>
         <v>Defaults_002_009.defaultValue</v>
       </c>
-      <c r="N34">
-        <f t="shared" si="21"/>
+      <c r="Q34">
+        <f>VALUE(SUBSTITUTE(G34, "_", ""))</f>
         <v>2009</v>
       </c>
-      <c r="O34" t="str">
-        <f t="shared" ref="O25:O39" si="29">"ContGenAdm.exe add -i " &amp; N34 &amp; " -n " &amp; C34 &amp; " -m 3 -y " &amp; E34 &amp; " -t " &amp; D34 &amp; " -r " &amp; F34</f>
+      <c r="R34" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q34 &amp; " -n " &amp; C34 &amp; " -m 3 -y " &amp; E34 &amp; " -t " &amp; D34 &amp; " -r " &amp; F34</f>
         <v>ContGenAdm.exe add -i 2009 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="C35">
@@ -3106,7 +3202,7 @@
         <v>25</v>
       </c>
       <c r="G35" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>002_010</v>
       </c>
       <c r="K35" t="s">
@@ -3115,22 +3211,22 @@
       <c r="L35" t="s">
         <v>21</v>
       </c>
-      <c r="M35" t="str">
-        <f t="shared" si="20"/>
+      <c r="P35" t="str">
+        <f t="shared" si="18"/>
         <v>Defaults_002_010.defaultValue</v>
       </c>
-      <c r="N35">
-        <f t="shared" si="21"/>
+      <c r="Q35">
+        <f>VALUE(SUBSTITUTE(G35, "_", ""))</f>
         <v>2010</v>
       </c>
-      <c r="O35" t="str">
-        <f t="shared" si="29"/>
+      <c r="R35" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q35 &amp; " -n " &amp; C35 &amp; " -m 3 -y " &amp; E35 &amp; " -t " &amp; D35 &amp; " -r " &amp; F35</f>
         <v>ContGenAdm.exe add -i 2010 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="C36">
@@ -3146,7 +3242,7 @@
         <v>25</v>
       </c>
       <c r="G36" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="24"/>
         <v>002_011</v>
       </c>
       <c r="K36" t="s">
@@ -3155,22 +3251,22 @@
       <c r="L36" t="s">
         <v>21</v>
       </c>
-      <c r="M36" t="str">
-        <f t="shared" si="20"/>
+      <c r="P36" t="str">
+        <f t="shared" si="18"/>
         <v>Defaults_002_011.defaultValue</v>
       </c>
-      <c r="N36">
-        <f t="shared" si="21"/>
+      <c r="Q36">
+        <f>VALUE(SUBSTITUTE(G36, "_", ""))</f>
         <v>2011</v>
       </c>
-      <c r="O36" t="str">
-        <f t="shared" si="29"/>
+      <c r="R36" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q36 &amp; " -n " &amp; C36 &amp; " -m 3 -y " &amp; E36 &amp; " -t " &amp; D36 &amp; " -r " &amp; F36</f>
         <v>ContGenAdm.exe add -i 2011 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <f t="shared" ref="A37:A39" si="30">1+A36</f>
+        <f t="shared" ref="A37:A39" si="25">1+A36</f>
         <v>12</v>
       </c>
       <c r="C37">
@@ -3186,7 +3282,7 @@
         <v>25</v>
       </c>
       <c r="G37" s="1" t="str">
-        <f t="shared" ref="G37:G39" si="31">"002_0" &amp; RIGHT("0" &amp; A37, 2)</f>
+        <f t="shared" ref="G37:G39" si="26">"002_0" &amp; RIGHT("0" &amp; A37, 2)</f>
         <v>002_012</v>
       </c>
       <c r="K37" t="s">
@@ -3195,22 +3291,22 @@
       <c r="L37" t="s">
         <v>19</v>
       </c>
-      <c r="M37" t="str">
-        <f t="shared" ref="M37:M39" si="32">"Defaults_" &amp; G37 &amp; ".defaultValue"</f>
+      <c r="P37" t="str">
+        <f t="shared" ref="P37:P39" si="27">"Defaults_" &amp; G37 &amp; ".defaultValue"</f>
         <v>Defaults_002_012.defaultValue</v>
       </c>
-      <c r="N37">
-        <f t="shared" ref="N37:N39" si="33">VALUE(SUBSTITUTE(G37, "_", ""))</f>
+      <c r="Q37">
+        <f>VALUE(SUBSTITUTE(G37, "_", ""))</f>
         <v>2012</v>
       </c>
-      <c r="O37" t="str">
-        <f t="shared" si="29"/>
+      <c r="R37" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q37 &amp; " -n " &amp; C37 &amp; " -m 3 -y " &amp; E37 &amp; " -t " &amp; D37 &amp; " -r " &amp; F37</f>
         <v>ContGenAdm.exe add -i 2012 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="C38">
@@ -3226,7 +3322,7 @@
         <v>25</v>
       </c>
       <c r="G38" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>002_013</v>
       </c>
       <c r="K38" t="s">
@@ -3235,22 +3331,22 @@
       <c r="L38" t="s">
         <v>19</v>
       </c>
-      <c r="M38" t="str">
-        <f t="shared" si="32"/>
+      <c r="P38" t="str">
+        <f t="shared" si="27"/>
         <v>Defaults_002_013.defaultValue</v>
       </c>
-      <c r="N38">
-        <f t="shared" si="33"/>
+      <c r="Q38">
+        <f>VALUE(SUBSTITUTE(G38, "_", ""))</f>
         <v>2013</v>
       </c>
-      <c r="O38" t="str">
-        <f t="shared" si="29"/>
+      <c r="R38" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q38 &amp; " -n " &amp; C38 &amp; " -m 3 -y " &amp; E38 &amp; " -t " &amp; D38 &amp; " -r " &amp; F38</f>
         <v>ContGenAdm.exe add -i 2013 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="C39">
@@ -3266,7 +3362,7 @@
         <v>25</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>002_014</v>
       </c>
       <c r="K39" t="s">
@@ -3275,20 +3371,20 @@
       <c r="L39" t="s">
         <v>19</v>
       </c>
-      <c r="M39" t="str">
-        <f t="shared" si="32"/>
+      <c r="P39" t="str">
+        <f t="shared" si="27"/>
         <v>Defaults_002_014.defaultValue</v>
       </c>
-      <c r="N39">
-        <f t="shared" si="33"/>
+      <c r="Q39">
+        <f>VALUE(SUBSTITUTE(G39, "_", ""))</f>
         <v>2014</v>
       </c>
-      <c r="O39" t="str">
-        <f t="shared" si="29"/>
+      <c r="R39" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q39 &amp; " -n " &amp; C39 &amp; " -m 3 -y " &amp; E39 &amp; " -t " &amp; D39 &amp; " -r " &amp; F39</f>
         <v>ContGenAdm.exe add -i 2014 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>0</v>
       </c>
@@ -3320,105 +3416,969 @@
       <c r="L42" t="s">
         <v>18</v>
       </c>
-      <c r="M42" t="str">
-        <f t="shared" ref="M42" si="34">"Defaults_" &amp; G42 &amp; ".defaultValue"</f>
+      <c r="P42" t="str">
+        <f t="shared" ref="P42" si="28">"Defaults_" &amp; G42 &amp; ".defaultValue"</f>
         <v>Defaults_003_000.defaultValue</v>
       </c>
-      <c r="N42">
+      <c r="Q42">
         <f>VALUE(SUBSTITUTE(G42, "_", ""))</f>
         <v>3000</v>
       </c>
-      <c r="O42" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; N42 &amp; " -n " &amp; C42 &amp; " -m 3 -y " &amp; E42 &amp; " -t " &amp; D42 &amp; " -r " &amp; F42</f>
+      <c r="R42" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q42 &amp; " -n " &amp; C42 &amp; " -m 3 -y " &amp; E42 &amp; " -t " &amp; D42 &amp; " -r " &amp; F42</f>
         <v>ContGenAdm.exe add -i 3000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="I44"/>
-      <c r="J44"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="I45"/>
-      <c r="J45"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="I46"/>
-      <c r="J46"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="I47"/>
-      <c r="J47"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="I48"/>
-      <c r="J48"/>
-    </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I49"/>
-      <c r="J49"/>
-    </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I50"/>
-      <c r="J50"/>
-    </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I51"/>
-      <c r="J51"/>
-    </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I52"/>
-      <c r="J52"/>
-    </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I53"/>
-      <c r="J53"/>
-    </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I54"/>
-      <c r="J54"/>
-    </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I55"/>
-      <c r="J55"/>
-    </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I56"/>
-      <c r="J56"/>
-    </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I57"/>
-      <c r="J57"/>
-    </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I58"/>
-      <c r="J58"/>
-    </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I59"/>
-      <c r="J59"/>
-    </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I60"/>
-      <c r="J60"/>
-    </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I61"/>
-      <c r="J61"/>
-    </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="I62"/>
-      <c r="J62"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>250000</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>25</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f>"004_" &amp; RIGHT("00" &amp; A45, 3)</f>
+        <v>004_000</v>
+      </c>
+      <c r="I45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J45" s="5" t="str">
+        <f t="shared" ref="J45:J50" si="29">"(Some 0." &amp; RIGHT("00" &amp; B45, 2) &amp; ")"</f>
+        <v>(Some 0.20)</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" ref="P45" si="30">"Defaults_" &amp; G45 &amp; ".defaultValue"</f>
+        <v>Defaults_004_000.defaultValue</v>
+      </c>
+      <c r="Q45">
+        <f>VALUE(SUBSTITUTE(G45, "_", ""))</f>
+        <v>4000</v>
+      </c>
+      <c r="R45" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q45 &amp; " -n " &amp; C45 &amp; " -m 3 -y " &amp; E45 &amp; " -t " &amp; D45 &amp; " -r " &amp; F45</f>
+        <v>ContGenAdm.exe add -i 4000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46">
+        <f t="shared" ref="A46:A65" si="31">1+A45</f>
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>250000</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>25</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f t="shared" ref="G46:G65" si="32">"004_" &amp; RIGHT("00" &amp; A46, 3)</f>
+        <v>004_001</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>(Some 0.20)</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" ref="P46:P65" si="33">"Defaults_" &amp; G46 &amp; ".defaultValue"</f>
+        <v>Defaults_004_001.defaultValue</v>
+      </c>
+      <c r="Q46">
+        <f>VALUE(SUBSTITUTE(G46, "_", ""))</f>
+        <v>4001</v>
+      </c>
+      <c r="R46" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q46 &amp; " -n " &amp; C46 &amp; " -m 3 -y " &amp; E46 &amp; " -t " &amp; D46 &amp; " -r " &amp; F46</f>
+        <v>ContGenAdm.exe add -i 4001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>250000</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>25</v>
+      </c>
+      <c r="G47" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>004_002</v>
+      </c>
+      <c r="I47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>(Some 0.20)</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_002.defaultValue</v>
+      </c>
+      <c r="Q47">
+        <f>VALUE(SUBSTITUTE(G47, "_", ""))</f>
+        <v>4002</v>
+      </c>
+      <c r="R47" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q47 &amp; " -n " &amp; C47 &amp; " -m 3 -y " &amp; E47 &amp; " -t " &amp; D47 &amp; " -r " &amp; F47</f>
+        <v>ContGenAdm.exe add -i 4002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48">
+        <f t="shared" si="31"/>
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>250000</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>25</v>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>004_003</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>(Some 0.15)</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_003.defaultValue</v>
+      </c>
+      <c r="Q48">
+        <f>VALUE(SUBSTITUTE(G48, "_", ""))</f>
+        <v>4003</v>
+      </c>
+      <c r="R48" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q48 &amp; " -n " &amp; C48 &amp; " -m 3 -y " &amp; E48 &amp; " -t " &amp; D48 &amp; " -r " &amp; F48</f>
+        <v>ContGenAdm.exe add -i 4003 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>30</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>250000</v>
+      </c>
+      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>25</v>
+      </c>
+      <c r="G49" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>004_004</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_004.defaultValue</v>
+      </c>
+      <c r="Q49">
+        <f>VALUE(SUBSTITUTE(G49, "_", ""))</f>
+        <v>4004</v>
+      </c>
+      <c r="R49" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q49 &amp; " -n " &amp; C49 &amp; " -m 3 -y " &amp; E49 &amp; " -t " &amp; D49 &amp; " -r " &amp; F49</f>
+        <v>ContGenAdm.exe add -i 4004 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50">
+        <v>250000</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>25</v>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>004_005</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="5" t="str">
+        <f t="shared" si="29"/>
+        <v>(Some 0.25)</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_005.defaultValue</v>
+      </c>
+      <c r="Q50">
+        <f>VALUE(SUBSTITUTE(G50, "_", ""))</f>
+        <v>4005</v>
+      </c>
+      <c r="R50" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q50 &amp; " -n " &amp; C50 &amp; " -m 3 -y " &amp; E50 &amp; " -t " &amp; D50 &amp; " -r " &amp; F50</f>
+        <v>ContGenAdm.exe add -i 4005 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>250000</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>25</v>
+      </c>
+      <c r="G51" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>004_006</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="5" t="str">
+        <f>"(Some 0." &amp; RIGHT("00" &amp; B51, 2) &amp; ")"</f>
+        <v>(Some 0.05)</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_006.defaultValue</v>
+      </c>
+      <c r="Q51">
+        <f>VALUE(SUBSTITUTE(G51, "_", ""))</f>
+        <v>4006</v>
+      </c>
+      <c r="R51" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q51 &amp; " -n " &amp; C51 &amp; " -m 3 -y " &amp; E51 &amp; " -t " &amp; D51 &amp; " -r " &amp; F51</f>
+        <v>ContGenAdm.exe add -i 4006 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52">
+        <f t="shared" si="31"/>
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>250000</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>25</v>
+      </c>
+      <c r="G52" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>004_007</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="5" t="str">
+        <f t="shared" ref="J52:J65" si="34">"(Some 0." &amp; RIGHT("00" &amp; B52, 2) &amp; ")"</f>
+        <v>(Some 0.10)</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_007.defaultValue</v>
+      </c>
+      <c r="Q52">
+        <f>VALUE(SUBSTITUTE(G52, "_", ""))</f>
+        <v>4007</v>
+      </c>
+      <c r="R52" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q52 &amp; " -n " &amp; C52 &amp; " -m 3 -y " &amp; E52 &amp; " -t " &amp; D52 &amp; " -r " &amp; F52</f>
+        <v>ContGenAdm.exe add -i 4007 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>35</v>
+      </c>
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53">
+        <v>250000</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>25</v>
+      </c>
+      <c r="G53" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>004_008</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.35)</v>
+      </c>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_008.defaultValue</v>
+      </c>
+      <c r="Q53">
+        <f>VALUE(SUBSTITUTE(G53, "_", ""))</f>
+        <v>4008</v>
+      </c>
+      <c r="R53" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q53 &amp; " -n " &amp; C53 &amp; " -m 3 -y " &amp; E53 &amp; " -t " &amp; D53 &amp; " -r " &amp; F53</f>
+        <v>ContGenAdm.exe add -i 4008 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <f>+B53+5</f>
+        <v>40</v>
+      </c>
+      <c r="C54">
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>250000</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>25</v>
+      </c>
+      <c r="G54" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>004_009</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.40)</v>
+      </c>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_009.defaultValue</v>
+      </c>
+      <c r="Q54">
+        <f>VALUE(SUBSTITUTE(G54, "_", ""))</f>
+        <v>4009</v>
+      </c>
+      <c r="R54" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q54 &amp; " -n " &amp; C54 &amp; " -m 3 -y " &amp; E54 &amp; " -t " &amp; D54 &amp; " -r " &amp; F54</f>
+        <v>ContGenAdm.exe add -i 4009 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <f t="shared" si="31"/>
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55:B65" si="35">+B54+5</f>
+        <v>45</v>
+      </c>
+      <c r="C55">
+        <v>20</v>
+      </c>
+      <c r="D55">
+        <v>250000</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>25</v>
+      </c>
+      <c r="G55" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>004_010</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.45)</v>
+      </c>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_010.defaultValue</v>
+      </c>
+      <c r="Q55">
+        <f>VALUE(SUBSTITUTE(G55, "_", ""))</f>
+        <v>4010</v>
+      </c>
+      <c r="R55" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q55 &amp; " -n " &amp; C55 &amp; " -m 3 -y " &amp; E55 &amp; " -t " &amp; D55 &amp; " -r " &amp; F55</f>
+        <v>ContGenAdm.exe add -i 4010 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56">
+        <f t="shared" si="31"/>
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="35"/>
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>250000</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>25</v>
+      </c>
+      <c r="G56" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>004_011</v>
+      </c>
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.50)</v>
+      </c>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_011.defaultValue</v>
+      </c>
+      <c r="Q56">
+        <f>VALUE(SUBSTITUTE(G56, "_", ""))</f>
+        <v>4011</v>
+      </c>
+      <c r="R56" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q56 &amp; " -n " &amp; C56 &amp; " -m 3 -y " &amp; E56 &amp; " -t " &amp; D56 &amp; " -r " &amp; F56</f>
+        <v>ContGenAdm.exe add -i 4011 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="35"/>
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>20</v>
+      </c>
+      <c r="D57">
+        <v>250000</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>25</v>
+      </c>
+      <c r="G57" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>004_012</v>
+      </c>
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.55)</v>
+      </c>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_012.defaultValue</v>
+      </c>
+      <c r="Q57">
+        <f>VALUE(SUBSTITUTE(G57, "_", ""))</f>
+        <v>4012</v>
+      </c>
+      <c r="R57" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q57 &amp; " -n " &amp; C57 &amp; " -m 3 -y " &amp; E57 &amp; " -t " &amp; D57 &amp; " -r " &amp; F57</f>
+        <v>ContGenAdm.exe add -i 4012 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58">
+        <f t="shared" si="31"/>
+        <v>13</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="35"/>
+        <v>60</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58">
+        <v>250000</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="F58">
+        <v>25</v>
+      </c>
+      <c r="G58" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>004_013</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.60)</v>
+      </c>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_013.defaultValue</v>
+      </c>
+      <c r="Q58">
+        <f>VALUE(SUBSTITUTE(G58, "_", ""))</f>
+        <v>4013</v>
+      </c>
+      <c r="R58" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q58 &amp; " -n " &amp; C58 &amp; " -m 3 -y " &amp; E58 &amp; " -t " &amp; D58 &amp; " -r " &amp; F58</f>
+        <v>ContGenAdm.exe add -i 4013 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <f t="shared" si="31"/>
+        <v>14</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="35"/>
+        <v>65</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>250000</v>
+      </c>
+      <c r="E59">
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <v>25</v>
+      </c>
+      <c r="G59" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>004_014</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.65)</v>
+      </c>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_014.defaultValue</v>
+      </c>
+      <c r="Q59">
+        <f>VALUE(SUBSTITUTE(G59, "_", ""))</f>
+        <v>4014</v>
+      </c>
+      <c r="R59" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q59 &amp; " -n " &amp; C59 &amp; " -m 3 -y " &amp; E59 &amp; " -t " &amp; D59 &amp; " -r " &amp; F59</f>
+        <v>ContGenAdm.exe add -i 4014 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <f t="shared" si="31"/>
+        <v>15</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="35"/>
+        <v>70</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>250000</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>25</v>
+      </c>
+      <c r="G60" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>004_015</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.70)</v>
+      </c>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_015.defaultValue</v>
+      </c>
+      <c r="Q60">
+        <f>VALUE(SUBSTITUTE(G60, "_", ""))</f>
+        <v>4015</v>
+      </c>
+      <c r="R60" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q60 &amp; " -n " &amp; C60 &amp; " -m 3 -y " &amp; E60 &amp; " -t " &amp; D60 &amp; " -r " &amp; F60</f>
+        <v>ContGenAdm.exe add -i 4015 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <f t="shared" si="31"/>
+        <v>16</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="35"/>
+        <v>75</v>
+      </c>
+      <c r="C61">
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <v>250000</v>
+      </c>
+      <c r="E61">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>25</v>
+      </c>
+      <c r="G61" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>004_016</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.75)</v>
+      </c>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_016.defaultValue</v>
+      </c>
+      <c r="Q61">
+        <f>VALUE(SUBSTITUTE(G61, "_", ""))</f>
+        <v>4016</v>
+      </c>
+      <c r="R61" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q61 &amp; " -n " &amp; C61 &amp; " -m 3 -y " &amp; E61 &amp; " -t " &amp; D61 &amp; " -r " &amp; F61</f>
+        <v>ContGenAdm.exe add -i 4016 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <f t="shared" si="31"/>
+        <v>17</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="35"/>
+        <v>80</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>250000</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>25</v>
+      </c>
+      <c r="G62" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>004_017</v>
+      </c>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.80)</v>
+      </c>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_017.defaultValue</v>
+      </c>
+      <c r="Q62">
+        <f>VALUE(SUBSTITUTE(G62, "_", ""))</f>
+        <v>4017</v>
+      </c>
+      <c r="R62" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q62 &amp; " -n " &amp; C62 &amp; " -m 3 -y " &amp; E62 &amp; " -t " &amp; D62 &amp; " -r " &amp; F62</f>
+        <v>ContGenAdm.exe add -i 4017 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <f t="shared" si="31"/>
+        <v>18</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="35"/>
+        <v>85</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>250000</v>
+      </c>
+      <c r="E63">
+        <v>10</v>
+      </c>
+      <c r="F63">
+        <v>25</v>
+      </c>
+      <c r="G63" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>004_018</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.85)</v>
+      </c>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_018.defaultValue</v>
+      </c>
+      <c r="Q63">
+        <f>VALUE(SUBSTITUTE(G63, "_", ""))</f>
+        <v>4018</v>
+      </c>
+      <c r="R63" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q63 &amp; " -n " &amp; C63 &amp; " -m 3 -y " &amp; E63 &amp; " -t " &amp; D63 &amp; " -r " &amp; F63</f>
+        <v>ContGenAdm.exe add -i 4018 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <f t="shared" si="31"/>
+        <v>19</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="35"/>
+        <v>90</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64">
+        <v>250000</v>
+      </c>
+      <c r="E64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>25</v>
+      </c>
+      <c r="G64" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v>004_019</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.90)</v>
+      </c>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_019.defaultValue</v>
+      </c>
+      <c r="Q64">
+        <f>VALUE(SUBSTITUTE(G64, "_", ""))</f>
+        <v>4019</v>
+      </c>
+      <c r="R64" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q64 &amp; " -n " &amp; C64 &amp; " -m 3 -y " &amp; E64 &amp; " -t " &amp; D64 &amp; " -r " &amp; F64</f>
+        <v>ContGenAdm.exe add -i 4019 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
-        <v>0</v>
+        <f t="shared" si="31"/>
+        <v>20</v>
       </c>
       <c r="B65">
-        <v>20</v>
+        <f t="shared" si="35"/>
+        <v>95</v>
       </c>
       <c r="C65">
         <v>20</v>
@@ -3433,124 +4393,39 @@
         <v>25</v>
       </c>
       <c r="G65" s="1" t="str">
-        <f>"004_" &amp; RIGHT("00" &amp; A65, 3)</f>
-        <v>004_000</v>
+        <f t="shared" si="32"/>
+        <v>004_020</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J65" s="5" t="str">
-        <f t="shared" ref="J65:J70" si="35">"(Some 0." &amp; RIGHT("00" &amp; B65, 2) &amp; ")"</f>
-        <v>(Some 0.20)</v>
-      </c>
-      <c r="M65" t="str">
-        <f t="shared" ref="M65" si="36">"Defaults_" &amp; G65 &amp; ".defaultValue"</f>
-        <v>Defaults_004_000.defaultValue</v>
-      </c>
-      <c r="N65">
+        <f t="shared" si="34"/>
+        <v>(Some 0.95)</v>
+      </c>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" t="str">
+        <f t="shared" si="33"/>
+        <v>Defaults_004_020.defaultValue</v>
+      </c>
+      <c r="Q65">
         <f>VALUE(SUBSTITUTE(G65, "_", ""))</f>
-        <v>4000</v>
-      </c>
-      <c r="O65" t="str">
-        <f t="shared" ref="O65:O85" si="37">"ContGenAdm.exe add -i " &amp; N65 &amp; " -n " &amp; C65 &amp; " -m 3 -y " &amp; E65 &amp; " -t " &amp; D65 &amp; " -r " &amp; F65</f>
-        <v>ContGenAdm.exe add -i 4000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66">
-        <f t="shared" ref="A66:A85" si="38">1+A65</f>
-        <v>1</v>
-      </c>
-      <c r="B66">
+        <v>4020</v>
+      </c>
+      <c r="R65" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q65 &amp; " -n " &amp; C65 &amp; " -m 3 -y " &amp; E65 &amp; " -t " &amp; D65 &amp; " -r " &amp; F65</f>
+        <v>ContGenAdm.exe add -i 4020 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
         <v>20</v>
-      </c>
-      <c r="C66">
-        <v>20</v>
-      </c>
-      <c r="D66">
-        <v>250000</v>
-      </c>
-      <c r="E66">
-        <v>10</v>
-      </c>
-      <c r="F66">
-        <v>25</v>
-      </c>
-      <c r="G66" s="1" t="str">
-        <f t="shared" ref="G66:G85" si="39">"004_" &amp; RIGHT("00" &amp; A66, 3)</f>
-        <v>004_001</v>
-      </c>
-      <c r="I66" t="s">
-        <v>14</v>
-      </c>
-      <c r="J66" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>(Some 0.20)</v>
-      </c>
-      <c r="M66" t="str">
-        <f t="shared" ref="M66:M85" si="40">"Defaults_" &amp; G66 &amp; ".defaultValue"</f>
-        <v>Defaults_004_001.defaultValue</v>
-      </c>
-      <c r="N66">
-        <f t="shared" ref="N66:N85" si="41">VALUE(SUBSTITUTE(G66, "_", ""))</f>
-        <v>4001</v>
-      </c>
-      <c r="O66" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="B67">
-        <v>20</v>
-      </c>
-      <c r="C67">
-        <v>20</v>
-      </c>
-      <c r="D67">
-        <v>250000</v>
-      </c>
-      <c r="E67">
-        <v>10</v>
-      </c>
-      <c r="F67">
-        <v>25</v>
-      </c>
-      <c r="G67" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_002</v>
-      </c>
-      <c r="I67" t="s">
-        <v>15</v>
-      </c>
-      <c r="J67" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>(Some 0.20)</v>
-      </c>
-      <c r="M67" t="str">
-        <f t="shared" si="40"/>
-        <v>Defaults_004_002.defaultValue</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="41"/>
-        <v>4002</v>
-      </c>
-      <c r="O67" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68">
-        <f t="shared" si="38"/>
-        <v>3</v>
-      </c>
-      <c r="B68">
-        <v>15</v>
       </c>
       <c r="C68">
         <v>20</v>
@@ -3565,844 +4440,399 @@
         <v>25</v>
       </c>
       <c r="G68" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_003</v>
+        <f>"005_" &amp; RIGHT("00" &amp; A68, 3)</f>
+        <v>005_000</v>
       </c>
       <c r="I68" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J68" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>(Some 0.15)</v>
-      </c>
-      <c r="M68" t="str">
+        <f t="shared" ref="J68" si="36">"(Some 0." &amp; RIGHT("00" &amp; B68, 2) &amp; ")"</f>
+        <v>(Some 0.20)</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" ref="P68" si="37">"Defaults_" &amp; G68 &amp; ".defaultValue"</f>
+        <v>Defaults_005_000.defaultValue</v>
+      </c>
+      <c r="Q68">
+        <f>VALUE(SUBSTITUTE(G68, "_", ""))</f>
+        <v>5000</v>
+      </c>
+      <c r="R68" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q68 &amp; " -n " &amp; C68 &amp; " -m 3 -y " &amp; E68 &amp; " -t " &amp; D68 &amp; " -r " &amp; F68</f>
+        <v>ContGenAdm.exe add -i 5000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>30</v>
+      </c>
+      <c r="C71">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>100000</v>
+      </c>
+      <c r="E71">
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <v>25</v>
+      </c>
+      <c r="G71" s="1" t="str">
+        <f>"006_" &amp; RIGHT("00" &amp; A71, 3)</f>
+        <v>006_000</v>
+      </c>
+      <c r="I71" t="s">
+        <v>41</v>
+      </c>
+      <c r="J71" s="5" t="str">
+        <f t="shared" ref="J71:J73" si="38">"(Some 0." &amp; RIGHT("00" &amp; B71, 2) &amp; ")"</f>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="M71" t="s">
+        <v>44</v>
+      </c>
+      <c r="N71" t="s">
+        <v>48</v>
+      </c>
+      <c r="O71" t="s">
+        <v>18</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" ref="P71" si="39">"Defaults_" &amp; G71 &amp; ".defaultValue"</f>
+        <v>Defaults_006_000.defaultValue</v>
+      </c>
+      <c r="Q71">
+        <f>VALUE(SUBSTITUTE(G71, "_", ""))</f>
+        <v>6000</v>
+      </c>
+      <c r="R71" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q71 &amp; " -n " &amp; C71 &amp; " -m 3 -y " &amp; E71 &amp; " -t " &amp; D71 &amp; " -r " &amp; F71</f>
+        <v>ContGenAdm.exe add -i 6000 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <f t="shared" ref="A72:A77" si="40">1+A71</f>
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>100000</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>25</v>
+      </c>
+      <c r="G72" s="1" t="str">
+        <f>"006_" &amp; RIGHT("00" &amp; A72, 3)</f>
+        <v>006_001</v>
+      </c>
+      <c r="I72" t="s">
+        <v>42</v>
+      </c>
+      <c r="J72" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>(Some 0.20)</v>
+      </c>
+      <c r="M72" t="s">
+        <v>44</v>
+      </c>
+      <c r="N72" t="s">
+        <v>48</v>
+      </c>
+      <c r="O72" t="s">
+        <v>18</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" ref="P72:P77" si="41">"Defaults_" &amp; G72 &amp; ".defaultValue"</f>
+        <v>Defaults_006_001.defaultValue</v>
+      </c>
+      <c r="Q72">
+        <f>VALUE(SUBSTITUTE(G72, "_", ""))</f>
+        <v>6001</v>
+      </c>
+      <c r="R72" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q72 &amp; " -n " &amp; C72 &amp; " -m 3 -y " &amp; E72 &amp; " -t " &amp; D72 &amp; " -r " &amp; F72</f>
+        <v>ContGenAdm.exe add -i 6001 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
         <f t="shared" si="40"/>
-        <v>Defaults_004_003.defaultValue</v>
-      </c>
-      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="B73">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>11</v>
+      </c>
+      <c r="D73">
+        <v>100000</v>
+      </c>
+      <c r="E73">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>25</v>
+      </c>
+      <c r="G73" s="1" t="str">
+        <f>"006_" &amp; RIGHT("00" &amp; A73, 3)</f>
+        <v>006_002</v>
+      </c>
+      <c r="I73" t="s">
+        <v>42</v>
+      </c>
+      <c r="J73" s="5" t="str">
+        <f t="shared" si="38"/>
+        <v>(Some 0.20)</v>
+      </c>
+      <c r="M73" t="s">
+        <v>45</v>
+      </c>
+      <c r="N73" t="s">
+        <v>48</v>
+      </c>
+      <c r="O73" t="s">
+        <v>18</v>
+      </c>
+      <c r="P73" t="str">
         <f t="shared" si="41"/>
-        <v>4003</v>
-      </c>
-      <c r="O68" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4003 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69">
-        <f t="shared" si="38"/>
+        <v>Defaults_006_002.defaultValue</v>
+      </c>
+      <c r="Q73">
+        <f>VALUE(SUBSTITUTE(G73, "_", ""))</f>
+        <v>6002</v>
+      </c>
+      <c r="R73" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q73 &amp; " -n " &amp; C73 &amp; " -m 3 -y " &amp; E73 &amp; " -t " &amp; D73 &amp; " -r " &amp; F73</f>
+        <v>ContGenAdm.exe add -i 6002 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>20</v>
+      </c>
+      <c r="C74">
+        <v>11</v>
+      </c>
+      <c r="D74">
+        <v>100000</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>25</v>
+      </c>
+      <c r="G74" s="1" t="str">
+        <f t="shared" ref="G74:G77" si="42">"006_" &amp; RIGHT("00" &amp; A74, 3)</f>
+        <v>006_003</v>
+      </c>
+      <c r="I74" t="s">
+        <v>42</v>
+      </c>
+      <c r="J74" s="5" t="str">
+        <f t="shared" ref="J74" si="43">"(Some 0." &amp; RIGHT("00" &amp; B74, 2) &amp; ")"</f>
+        <v>(Some 0.20)</v>
+      </c>
+      <c r="M74" t="s">
+        <v>49</v>
+      </c>
+      <c r="N74" t="s">
+        <v>48</v>
+      </c>
+      <c r="O74" t="s">
+        <v>18</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="41"/>
+        <v>Defaults_006_003.defaultValue</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <f t="shared" si="40"/>
         <v>4</v>
       </c>
-      <c r="B69">
-        <v>30</v>
-      </c>
-      <c r="C69">
+      <c r="B75">
         <v>20</v>
       </c>
-      <c r="D69">
-        <v>250000</v>
-      </c>
-      <c r="E69">
-        <v>10</v>
-      </c>
-      <c r="F69">
-        <v>25</v>
-      </c>
-      <c r="G69" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_004</v>
-      </c>
-      <c r="I69" t="s">
-        <v>17</v>
-      </c>
-      <c r="J69" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>(Some 0.30)</v>
-      </c>
-      <c r="M69" t="str">
+      <c r="C75">
+        <v>11</v>
+      </c>
+      <c r="D75">
+        <v>100000</v>
+      </c>
+      <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="F75">
+        <v>25</v>
+      </c>
+      <c r="G75" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>006_004</v>
+      </c>
+      <c r="I75" t="s">
+        <v>42</v>
+      </c>
+      <c r="J75" s="5" t="str">
+        <f t="shared" ref="J75:J76" si="44">"(Some 0." &amp; RIGHT("00" &amp; B75, 2) &amp; ")"</f>
+        <v>(Some 0.20)</v>
+      </c>
+      <c r="M75" t="s">
+        <v>45</v>
+      </c>
+      <c r="N75" t="s">
+        <v>50</v>
+      </c>
+      <c r="O75" t="s">
+        <v>18</v>
+      </c>
+      <c r="P75" t="str">
+        <f t="shared" si="41"/>
+        <v>Defaults_006_004.defaultValue</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
         <f t="shared" si="40"/>
-        <v>Defaults_004_004.defaultValue</v>
-      </c>
-      <c r="N69">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>20</v>
+      </c>
+      <c r="C76">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>100000</v>
+      </c>
+      <c r="E76">
+        <v>10</v>
+      </c>
+      <c r="F76">
+        <v>25</v>
+      </c>
+      <c r="G76" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>006_005</v>
+      </c>
+      <c r="I76" t="s">
+        <v>42</v>
+      </c>
+      <c r="J76" s="5" t="str">
+        <f t="shared" si="44"/>
+        <v>(Some 0.20)</v>
+      </c>
+      <c r="M76" t="s">
+        <v>45</v>
+      </c>
+      <c r="N76" t="s">
+        <v>51</v>
+      </c>
+      <c r="O76" t="s">
+        <v>18</v>
+      </c>
+      <c r="P76" t="str">
         <f t="shared" si="41"/>
-        <v>4004</v>
-      </c>
-      <c r="O69" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4004 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70">
-        <f t="shared" si="38"/>
-        <v>5</v>
-      </c>
-      <c r="B70">
-        <v>25</v>
-      </c>
-      <c r="C70">
+        <v>Defaults_006_005.defaultValue</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="B77">
         <v>20</v>
       </c>
-      <c r="D70">
-        <v>250000</v>
-      </c>
-      <c r="E70">
-        <v>10</v>
-      </c>
-      <c r="F70">
-        <v>25</v>
-      </c>
-      <c r="G70" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_005</v>
-      </c>
-      <c r="I70" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70" s="5" t="str">
-        <f t="shared" si="35"/>
-        <v>(Some 0.25)</v>
-      </c>
-      <c r="M70" t="str">
-        <f t="shared" si="40"/>
-        <v>Defaults_004_005.defaultValue</v>
-      </c>
-      <c r="N70">
+      <c r="C77">
+        <v>11</v>
+      </c>
+      <c r="D77">
+        <v>100000</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>25</v>
+      </c>
+      <c r="G77" s="1" t="str">
+        <f t="shared" si="42"/>
+        <v>006_006</v>
+      </c>
+      <c r="I77" t="s">
+        <v>41</v>
+      </c>
+      <c r="J77" s="5" t="str">
+        <f t="shared" ref="J77" si="45">"(Some 0." &amp; RIGHT("00" &amp; B77, 2) &amp; ")"</f>
+        <v>(Some 0.20)</v>
+      </c>
+      <c r="M77" t="s">
+        <v>49</v>
+      </c>
+      <c r="N77" t="s">
+        <v>52</v>
+      </c>
+      <c r="O77" t="s">
+        <v>18</v>
+      </c>
+      <c r="P77" t="str">
         <f t="shared" si="41"/>
-        <v>4005</v>
-      </c>
-      <c r="O70" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4005 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71">
-        <f t="shared" si="38"/>
-        <v>6</v>
-      </c>
-      <c r="B71">
-        <v>5</v>
-      </c>
-      <c r="C71">
-        <v>20</v>
-      </c>
-      <c r="D71">
-        <v>250000</v>
-      </c>
-      <c r="E71">
-        <v>10</v>
-      </c>
-      <c r="F71">
-        <v>25</v>
-      </c>
-      <c r="G71" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_006</v>
-      </c>
-      <c r="I71" t="s">
-        <v>17</v>
-      </c>
-      <c r="J71" s="5" t="str">
-        <f>"(Some 0." &amp; RIGHT("00" &amp; B71, 2) &amp; ")"</f>
-        <v>(Some 0.05)</v>
-      </c>
-      <c r="M71" t="str">
-        <f t="shared" si="40"/>
-        <v>Defaults_004_006.defaultValue</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="41"/>
-        <v>4006</v>
-      </c>
-      <c r="O71" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4006 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72">
-        <f t="shared" si="38"/>
-        <v>7</v>
-      </c>
-      <c r="B72">
-        <v>10</v>
-      </c>
-      <c r="C72">
-        <v>20</v>
-      </c>
-      <c r="D72">
-        <v>250000</v>
-      </c>
-      <c r="E72">
-        <v>10</v>
-      </c>
-      <c r="F72">
-        <v>25</v>
-      </c>
-      <c r="G72" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_007</v>
-      </c>
-      <c r="I72" t="s">
-        <v>17</v>
-      </c>
-      <c r="J72" s="5" t="str">
-        <f t="shared" ref="J72:J85" si="42">"(Some 0." &amp; RIGHT("00" &amp; B72, 2) &amp; ")"</f>
-        <v>(Some 0.10)</v>
-      </c>
-      <c r="M72" t="str">
-        <f t="shared" si="40"/>
-        <v>Defaults_004_007.defaultValue</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="41"/>
-        <v>4007</v>
-      </c>
-      <c r="O72" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4007 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73">
-        <f t="shared" si="38"/>
-        <v>8</v>
-      </c>
-      <c r="B73">
-        <v>35</v>
-      </c>
-      <c r="C73">
-        <v>20</v>
-      </c>
-      <c r="D73">
-        <v>250000</v>
-      </c>
-      <c r="E73">
-        <v>10</v>
-      </c>
-      <c r="F73">
-        <v>25</v>
-      </c>
-      <c r="G73" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_008</v>
-      </c>
-      <c r="I73" t="s">
-        <v>17</v>
-      </c>
-      <c r="J73" s="5" t="str">
-        <f t="shared" si="42"/>
-        <v>(Some 0.35)</v>
-      </c>
-      <c r="L73" s="5"/>
-      <c r="M73" t="str">
-        <f t="shared" si="40"/>
-        <v>Defaults_004_008.defaultValue</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="41"/>
-        <v>4008</v>
-      </c>
-      <c r="O73" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4008 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74">
-        <f t="shared" si="38"/>
-        <v>9</v>
-      </c>
-      <c r="B74">
-        <f>+B73+5</f>
-        <v>40</v>
-      </c>
-      <c r="C74">
-        <v>20</v>
-      </c>
-      <c r="D74">
-        <v>250000</v>
-      </c>
-      <c r="E74">
-        <v>10</v>
-      </c>
-      <c r="F74">
-        <v>25</v>
-      </c>
-      <c r="G74" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_009</v>
-      </c>
-      <c r="I74" t="s">
-        <v>17</v>
-      </c>
-      <c r="J74" s="5" t="str">
-        <f t="shared" si="42"/>
-        <v>(Some 0.40)</v>
-      </c>
-      <c r="L74" s="5"/>
-      <c r="M74" t="str">
-        <f t="shared" si="40"/>
-        <v>Defaults_004_009.defaultValue</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="41"/>
-        <v>4009</v>
-      </c>
-      <c r="O74" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4009 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75">
-        <f t="shared" si="38"/>
-        <v>10</v>
-      </c>
-      <c r="B75">
-        <f t="shared" ref="B75:B85" si="43">+B74+5</f>
-        <v>45</v>
-      </c>
-      <c r="C75">
-        <v>20</v>
-      </c>
-      <c r="D75">
-        <v>250000</v>
-      </c>
-      <c r="E75">
-        <v>10</v>
-      </c>
-      <c r="F75">
-        <v>25</v>
-      </c>
-      <c r="G75" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_010</v>
-      </c>
-      <c r="I75" t="s">
-        <v>17</v>
-      </c>
-      <c r="J75" s="5" t="str">
-        <f t="shared" si="42"/>
-        <v>(Some 0.45)</v>
-      </c>
-      <c r="L75" s="5"/>
-      <c r="M75" t="str">
-        <f t="shared" si="40"/>
-        <v>Defaults_004_010.defaultValue</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="41"/>
-        <v>4010</v>
-      </c>
-      <c r="O75" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4010 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76">
-        <f t="shared" si="38"/>
-        <v>11</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="43"/>
-        <v>50</v>
-      </c>
-      <c r="C76">
-        <v>20</v>
-      </c>
-      <c r="D76">
-        <v>250000</v>
-      </c>
-      <c r="E76">
-        <v>10</v>
-      </c>
-      <c r="F76">
-        <v>25</v>
-      </c>
-      <c r="G76" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_011</v>
-      </c>
-      <c r="I76" t="s">
-        <v>17</v>
-      </c>
-      <c r="J76" s="5" t="str">
-        <f t="shared" si="42"/>
-        <v>(Some 0.50)</v>
-      </c>
-      <c r="L76" s="5"/>
-      <c r="M76" t="str">
-        <f t="shared" si="40"/>
-        <v>Defaults_004_011.defaultValue</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="41"/>
-        <v>4011</v>
-      </c>
-      <c r="O76" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4011 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77">
-        <f t="shared" si="38"/>
-        <v>12</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="43"/>
-        <v>55</v>
-      </c>
-      <c r="C77">
-        <v>20</v>
-      </c>
-      <c r="D77">
-        <v>250000</v>
-      </c>
-      <c r="E77">
-        <v>10</v>
-      </c>
-      <c r="F77">
-        <v>25</v>
-      </c>
-      <c r="G77" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_012</v>
-      </c>
-      <c r="I77" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77" s="5" t="str">
-        <f t="shared" si="42"/>
-        <v>(Some 0.55)</v>
-      </c>
-      <c r="L77" s="5"/>
-      <c r="M77" t="str">
-        <f t="shared" si="40"/>
-        <v>Defaults_004_012.defaultValue</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="41"/>
-        <v>4012</v>
-      </c>
-      <c r="O77" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4012 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78">
-        <f t="shared" si="38"/>
-        <v>13</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="43"/>
-        <v>60</v>
-      </c>
-      <c r="C78">
-        <v>20</v>
-      </c>
-      <c r="D78">
-        <v>250000</v>
-      </c>
-      <c r="E78">
-        <v>10</v>
-      </c>
-      <c r="F78">
-        <v>25</v>
-      </c>
-      <c r="G78" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_013</v>
-      </c>
-      <c r="I78" t="s">
-        <v>17</v>
-      </c>
-      <c r="J78" s="5" t="str">
-        <f t="shared" si="42"/>
-        <v>(Some 0.60)</v>
-      </c>
-      <c r="L78" s="5"/>
-      <c r="M78" t="str">
-        <f t="shared" si="40"/>
-        <v>Defaults_004_013.defaultValue</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="41"/>
-        <v>4013</v>
-      </c>
-      <c r="O78" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4013 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79">
-        <f t="shared" si="38"/>
-        <v>14</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="43"/>
-        <v>65</v>
-      </c>
-      <c r="C79">
-        <v>20</v>
-      </c>
-      <c r="D79">
-        <v>250000</v>
-      </c>
-      <c r="E79">
-        <v>10</v>
-      </c>
-      <c r="F79">
-        <v>25</v>
-      </c>
-      <c r="G79" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_014</v>
-      </c>
-      <c r="I79" t="s">
-        <v>17</v>
-      </c>
-      <c r="J79" s="5" t="str">
-        <f t="shared" si="42"/>
-        <v>(Some 0.65)</v>
-      </c>
-      <c r="L79" s="5"/>
-      <c r="M79" t="str">
-        <f t="shared" si="40"/>
-        <v>Defaults_004_014.defaultValue</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="41"/>
-        <v>4014</v>
-      </c>
-      <c r="O79" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4014 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80">
-        <f t="shared" si="38"/>
-        <v>15</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="43"/>
-        <v>70</v>
-      </c>
-      <c r="C80">
-        <v>20</v>
-      </c>
-      <c r="D80">
-        <v>250000</v>
-      </c>
-      <c r="E80">
-        <v>10</v>
-      </c>
-      <c r="F80">
-        <v>25</v>
-      </c>
-      <c r="G80" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_015</v>
-      </c>
-      <c r="I80" t="s">
-        <v>17</v>
-      </c>
-      <c r="J80" s="5" t="str">
-        <f t="shared" si="42"/>
-        <v>(Some 0.70)</v>
-      </c>
-      <c r="L80" s="5"/>
-      <c r="M80" t="str">
-        <f t="shared" si="40"/>
-        <v>Defaults_004_015.defaultValue</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="41"/>
-        <v>4015</v>
-      </c>
-      <c r="O80" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4015 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81">
-        <f t="shared" si="38"/>
-        <v>16</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="43"/>
-        <v>75</v>
-      </c>
-      <c r="C81">
-        <v>20</v>
-      </c>
-      <c r="D81">
-        <v>250000</v>
-      </c>
-      <c r="E81">
-        <v>10</v>
-      </c>
-      <c r="F81">
-        <v>25</v>
-      </c>
-      <c r="G81" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_016</v>
-      </c>
-      <c r="I81" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81" s="5" t="str">
-        <f t="shared" si="42"/>
-        <v>(Some 0.75)</v>
-      </c>
-      <c r="L81" s="5"/>
-      <c r="M81" t="str">
-        <f t="shared" si="40"/>
-        <v>Defaults_004_016.defaultValue</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="41"/>
-        <v>4016</v>
-      </c>
-      <c r="O81" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4016 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82">
-        <f t="shared" si="38"/>
-        <v>17</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="43"/>
-        <v>80</v>
-      </c>
-      <c r="C82">
-        <v>20</v>
-      </c>
-      <c r="D82">
-        <v>250000</v>
-      </c>
-      <c r="E82">
-        <v>10</v>
-      </c>
-      <c r="F82">
-        <v>25</v>
-      </c>
-      <c r="G82" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_017</v>
-      </c>
-      <c r="I82" t="s">
-        <v>17</v>
-      </c>
-      <c r="J82" s="5" t="str">
-        <f t="shared" si="42"/>
-        <v>(Some 0.80)</v>
-      </c>
-      <c r="L82" s="5"/>
-      <c r="M82" t="str">
-        <f t="shared" si="40"/>
-        <v>Defaults_004_017.defaultValue</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="41"/>
-        <v>4017</v>
-      </c>
-      <c r="O82" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4017 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83">
-        <f t="shared" si="38"/>
-        <v>18</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="43"/>
-        <v>85</v>
-      </c>
-      <c r="C83">
-        <v>20</v>
-      </c>
-      <c r="D83">
-        <v>250000</v>
-      </c>
-      <c r="E83">
-        <v>10</v>
-      </c>
-      <c r="F83">
-        <v>25</v>
-      </c>
-      <c r="G83" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_018</v>
-      </c>
-      <c r="I83" t="s">
-        <v>17</v>
-      </c>
-      <c r="J83" s="5" t="str">
-        <f t="shared" si="42"/>
-        <v>(Some 0.85)</v>
-      </c>
-      <c r="L83" s="5"/>
-      <c r="M83" t="str">
-        <f t="shared" si="40"/>
-        <v>Defaults_004_018.defaultValue</v>
-      </c>
-      <c r="N83">
-        <f t="shared" si="41"/>
-        <v>4018</v>
-      </c>
-      <c r="O83" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4018 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84">
-        <f t="shared" si="38"/>
-        <v>19</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="43"/>
-        <v>90</v>
-      </c>
-      <c r="C84">
-        <v>20</v>
-      </c>
-      <c r="D84">
-        <v>250000</v>
-      </c>
-      <c r="E84">
-        <v>10</v>
-      </c>
-      <c r="F84">
-        <v>25</v>
-      </c>
-      <c r="G84" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_019</v>
-      </c>
-      <c r="I84" t="s">
-        <v>17</v>
-      </c>
-      <c r="J84" s="5" t="str">
-        <f t="shared" si="42"/>
-        <v>(Some 0.90)</v>
-      </c>
-      <c r="L84" s="5"/>
-      <c r="M84" t="str">
-        <f t="shared" si="40"/>
-        <v>Defaults_004_019.defaultValue</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="41"/>
-        <v>4019</v>
-      </c>
-      <c r="O84" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4019 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85">
-        <f t="shared" si="38"/>
-        <v>20</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="43"/>
-        <v>95</v>
-      </c>
-      <c r="C85">
-        <v>20</v>
-      </c>
-      <c r="D85">
-        <v>250000</v>
-      </c>
-      <c r="E85">
-        <v>10</v>
-      </c>
-      <c r="F85">
-        <v>25</v>
-      </c>
-      <c r="G85" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>004_020</v>
-      </c>
-      <c r="I85" t="s">
-        <v>17</v>
-      </c>
-      <c r="J85" s="5" t="str">
-        <f t="shared" si="42"/>
-        <v>(Some 0.95)</v>
-      </c>
-      <c r="L85" s="5"/>
-      <c r="M85" t="str">
-        <f t="shared" si="40"/>
-        <v>Defaults_004_020.defaultValue</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="41"/>
-        <v>4020</v>
-      </c>
-      <c r="O85" t="str">
-        <f t="shared" si="37"/>
-        <v>ContGenAdm.exe add -i 4020 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88">
-        <v>0</v>
-      </c>
-      <c r="B88">
-        <v>20</v>
-      </c>
-      <c r="C88">
-        <v>20</v>
-      </c>
-      <c r="D88">
-        <v>250000</v>
-      </c>
-      <c r="E88">
-        <v>10</v>
-      </c>
-      <c r="F88">
-        <v>25</v>
-      </c>
-      <c r="G88" s="1" t="str">
-        <f>"005_" &amp; RIGHT("00" &amp; A88, 3)</f>
-        <v>005_000</v>
-      </c>
-      <c r="I88" t="s">
-        <v>40</v>
-      </c>
-      <c r="J88" s="5" t="str">
-        <f t="shared" ref="J88" si="44">"(Some 0." &amp; RIGHT("00" &amp; B88, 2) &amp; ")"</f>
-        <v>(Some 0.20)</v>
-      </c>
-      <c r="M88" t="str">
-        <f t="shared" ref="M88" si="45">"Defaults_" &amp; G88 &amp; ".defaultValue"</f>
-        <v>Defaults_005_000.defaultValue</v>
-      </c>
-      <c r="N88">
-        <f>VALUE(SUBSTITUTE(G88, "_", ""))</f>
-        <v>5000</v>
-      </c>
-      <c r="O88" t="str">
-        <f t="shared" ref="O88" si="46">"ContGenAdm.exe add -i " &amp; N88 &amp; " -n " &amp; C88 &amp; " -m 3 -y " &amp; E88 &amp; " -t " &amp; D88 &amp; " -r " &amp; F88</f>
-        <v>ContGenAdm.exe add -i 5000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
+        <v>Defaults_006_006.defaultValue</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I78"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I79"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I86"/>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I87"/>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4415,7 +4845,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53954BE9-E783-4A54-8E4A-7A830A69B4B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158E9E23-1F9C-4D2E-A834-DF902E3EB1A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -1736,11 +1736,11 @@
   <dimension ref="A1:Z88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6864" ySplit="486" topLeftCell="H52" activePane="bottomRight"/>
+      <pane xSplit="6864" ySplit="486" topLeftCell="L52" activePane="bottomRight"/>
       <selection activeCell="G1" sqref="A1:G2"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
-      <selection pane="bottomRight" activeCell="P77" sqref="P77"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74:XFD74"/>
+      <selection pane="bottomRight" activeCell="R71" sqref="R71:R77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4665,6 +4665,14 @@
         <f t="shared" si="41"/>
         <v>Defaults_006_003.defaultValue</v>
       </c>
+      <c r="Q74">
+        <f>VALUE(SUBSTITUTE(G74, "_", ""))</f>
+        <v>6003</v>
+      </c>
+      <c r="R74" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q74 &amp; " -n " &amp; C74 &amp; " -m 3 -y " &amp; E74 &amp; " -t " &amp; D74 &amp; " -r " &amp; F74</f>
+        <v>ContGenAdm.exe add -i 6003 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
+      </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
@@ -4710,6 +4718,14 @@
         <f t="shared" si="41"/>
         <v>Defaults_006_004.defaultValue</v>
       </c>
+      <c r="Q75">
+        <f>VALUE(SUBSTITUTE(G75, "_", ""))</f>
+        <v>6004</v>
+      </c>
+      <c r="R75" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q75 &amp; " -n " &amp; C75 &amp; " -m 3 -y " &amp; E75 &amp; " -t " &amp; D75 &amp; " -r " &amp; F75</f>
+        <v>ContGenAdm.exe add -i 6004 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
+      </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
@@ -4755,6 +4771,14 @@
         <f t="shared" si="41"/>
         <v>Defaults_006_005.defaultValue</v>
       </c>
+      <c r="Q76">
+        <f>VALUE(SUBSTITUTE(G76, "_", ""))</f>
+        <v>6005</v>
+      </c>
+      <c r="R76" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q76 &amp; " -n " &amp; C76 &amp; " -m 3 -y " &amp; E76 &amp; " -t " &amp; D76 &amp; " -r " &amp; F76</f>
+        <v>ContGenAdm.exe add -i 6005 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
+      </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
@@ -4799,6 +4823,14 @@
       <c r="P77" t="str">
         <f t="shared" si="41"/>
         <v>Defaults_006_006.defaultValue</v>
+      </c>
+      <c r="Q77">
+        <f>VALUE(SUBSTITUTE(G77, "_", ""))</f>
+        <v>6006</v>
+      </c>
+      <c r="R77" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; Q77 &amp; " -n " &amp; C77 &amp; " -m 3 -y " &amp; E77 &amp; " -t " &amp; D77 &amp; " -r " &amp; F77</f>
+        <v>ContGenAdm.exe add -i 6006 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.55000000000000004">

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158E9E23-1F9C-4D2E-A834-DF902E3EB1A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81A52A9-1A34-4986-9972-648242F86097}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="53">
   <si>
     <t>Base ?</t>
   </si>
@@ -218,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,6 +266,11 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -334,7 +345,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Defaults!$V$1</c:f>
+              <c:f>Defaults!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -367,7 +378,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Defaults!$C$2:$C$8</c:f>
+              <c:f>Defaults!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -397,7 +408,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Defaults!$V$2:$V$8</c:f>
+              <c:f>Defaults!$W$2:$W$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -434,7 +445,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Defaults!$Y$1</c:f>
+              <c:f>Defaults!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -467,7 +478,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Defaults!$C$2:$C$8</c:f>
+              <c:f>Defaults!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -497,7 +508,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Defaults!$Y$2:$Y$8</c:f>
+              <c:f>Defaults!$Z$2:$Z$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -534,7 +545,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Defaults!$Z$1</c:f>
+              <c:f>Defaults!$AA$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -567,7 +578,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Defaults!$C$2:$C$8</c:f>
+              <c:f>Defaults!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -597,7 +608,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Defaults!$Z$2:$Z$8</c:f>
+              <c:f>Defaults!$AA$2:$AA$8</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1733,3138 +1744,3458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
-  <dimension ref="A1:Z88"/>
+  <dimension ref="B1:AA89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6864" ySplit="486" topLeftCell="L52" activePane="bottomRight"/>
-      <selection activeCell="G1" sqref="A1:G2"/>
+      <pane xSplit="6864" ySplit="486" topLeftCell="J72" activePane="bottomRight"/>
+      <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74:XFD74"/>
-      <selection pane="bottomRight" activeCell="R71" sqref="R71:R77"/>
+      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
+      <selection pane="bottomRight" activeCell="J80" sqref="J80:P87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="9.1015625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.1015625" customWidth="1"/>
-    <col min="7" max="7" width="13.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83984375" style="1"/>
-    <col min="9" max="9" width="24.62890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.83984375" customWidth="1"/>
-    <col min="12" max="12" width="11.20703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.578125" customWidth="1"/>
-    <col min="14" max="14" width="20.62890625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.578125" customWidth="1"/>
-    <col min="16" max="16" width="25.68359375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32" customWidth="1"/>
-    <col min="19" max="19" width="8.89453125" customWidth="1"/>
-    <col min="22" max="22" width="8.83984375" style="3"/>
-    <col min="23" max="23" width="1.62890625" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="8.83984375" style="3"/>
+    <col min="1" max="1" width="3.89453125" customWidth="1"/>
+    <col min="4" max="4" width="9.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.1015625" customWidth="1"/>
+    <col min="8" max="8" width="13.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83984375" style="1"/>
+    <col min="10" max="10" width="24.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.83984375" customWidth="1"/>
+    <col min="13" max="13" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.578125" customWidth="1"/>
+    <col min="15" max="15" width="20.62890625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.578125" customWidth="1"/>
+    <col min="17" max="17" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32" customWidth="1"/>
+    <col min="20" max="20" width="8.89453125" customWidth="1"/>
+    <col min="23" max="23" width="8.83984375" style="3"/>
+    <col min="24" max="24" width="1.62890625" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="8.83984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10"/>
+    <row r="1" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="10"/>
-      <c r="C1" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="C1" s="10"/>
       <c r="D1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S1"/>
-      <c r="T1" t="s">
+      <c r="T1"/>
+      <c r="U1" t="s">
         <v>2</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="Q2">
-        <f>VALUE(SUBSTITUTE(G2, "_", ""))</f>
+      <c r="R2">
+        <f t="shared" ref="R2:R22" si="0">VALUE(SUBSTITUTE(H2, "_", ""))</f>
         <v>0</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>52</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>16</v>
       </c>
-      <c r="V2" s="3">
+      <c r="W2" s="3">
         <v>0.30769230769230799</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="3">
-        <f>SQRT(V2*(1-V2)/T2)</f>
+      <c r="Y2" s="3">
+        <f>SQRT(W2*(1-W2)/U2)</f>
         <v>6.4003868795218757E-2</v>
       </c>
-      <c r="Y2" s="3">
-        <f>V2-X2</f>
+      <c r="Z2" s="3">
+        <f>W2-Y2</f>
         <v>0.24368843889708924</v>
       </c>
-      <c r="Z2" s="3">
-        <f>V2+X2</f>
+      <c r="AA2" s="3">
+        <f>W2+Y2</f>
         <v>0.37169617648752673</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="G3" s="1" t="s">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3">
-        <f>VALUE(SUBSTITUTE(G3, "_", ""))</f>
+      <c r="R3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T3">
-        <v>20</v>
-      </c>
       <c r="U3">
+        <v>20</v>
+      </c>
+      <c r="V3">
         <v>8</v>
       </c>
-      <c r="V3" s="3">
+      <c r="W3" s="3">
         <v>0.4</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="3">
-        <f>SQRT(V3*(1-V3)/T3)</f>
+      <c r="Y3" s="3">
+        <f>SQRT(W3*(1-W3)/U3)</f>
         <v>0.10954451150103323</v>
       </c>
-      <c r="Y3" s="3">
-        <f>V3-X3</f>
+      <c r="Z3" s="3">
+        <f>W3-Y3</f>
         <v>0.2904554884989668</v>
       </c>
-      <c r="Z3" s="3">
-        <f>V3+X3</f>
+      <c r="AA3" s="3">
+        <f>W3+Y3</f>
         <v>0.5095445115010333</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>15</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>18</v>
       </c>
-      <c r="Q4">
-        <f>VALUE(SUBSTITUTE(G4, "_", ""))</f>
+      <c r="R4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>19</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>8</v>
       </c>
-      <c r="V4" s="3">
+      <c r="W4" s="3">
         <v>0.42105263157894701</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="3">
-        <f t="shared" ref="X4" si="0">SQRT(V4*(1-V4)/T4)</f>
+      <c r="Y4" s="3">
+        <f t="shared" ref="Y4" si="1">SQRT(W4*(1-W4)/U4)</f>
         <v>0.11326896565241479</v>
       </c>
-      <c r="Y4" s="3">
-        <f t="shared" ref="Y4" si="1">V4-X4</f>
+      <c r="Z4" s="3">
+        <f t="shared" ref="Z4" si="2">W4-Y4</f>
         <v>0.30778366592653222</v>
       </c>
-      <c r="Z4" s="3">
-        <f t="shared" ref="Z4" si="2">V4+X4</f>
+      <c r="AA4" s="3">
+        <f t="shared" ref="AA4" si="3">W4+Y4</f>
         <v>0.53432159723136174</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>16</v>
       </c>
-      <c r="Q5">
-        <f>VALUE(SUBSTITUTE(G5, "_", ""))</f>
+      <c r="R5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>19</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>3</v>
       </c>
-      <c r="V5" s="3">
+      <c r="W5" s="3">
         <v>0.157894736842105</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="3">
-        <f t="shared" ref="X5" si="3">SQRT(V5*(1-V5)/T5)</f>
+      <c r="Y5" s="3">
+        <f t="shared" ref="Y5" si="4">SQRT(W5*(1-W5)/U5)</f>
         <v>8.3654675183055346E-2</v>
       </c>
-      <c r="Y5" s="3">
-        <f t="shared" ref="Y5" si="4">V5-X5</f>
+      <c r="Z5" s="3">
+        <f t="shared" ref="Z5" si="5">W5-Y5</f>
         <v>7.4240061659049658E-2</v>
       </c>
-      <c r="Z5" s="3">
-        <f t="shared" ref="Z5" si="5">V5+X5</f>
+      <c r="AA5" s="3">
+        <f t="shared" ref="AA5" si="6">W5+Y5</f>
         <v>0.24154941202516034</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1" t="s">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>19</v>
       </c>
-      <c r="Q6">
-        <f>VALUE(SUBSTITUTE(G6, "_", ""))</f>
+      <c r="R6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>38</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>11</v>
       </c>
-      <c r="V6" s="3">
+      <c r="W6" s="3">
         <v>0.28947368421052599</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>13</v>
       </c>
-      <c r="X6" s="3">
-        <f t="shared" ref="X6:X7" si="6">SQRT(V6*(1-V6)/T6)</f>
+      <c r="Y6" s="3">
+        <f t="shared" ref="Y6:Y7" si="7">SQRT(W6*(1-W6)/U6)</f>
         <v>7.3570351286533664E-2</v>
       </c>
-      <c r="Y6" s="3">
-        <f t="shared" ref="Y6:Y7" si="7">V6-X6</f>
+      <c r="Z6" s="3">
+        <f t="shared" ref="Z6:Z7" si="8">W6-Y6</f>
         <v>0.21590333292399233</v>
       </c>
-      <c r="Z6" s="3">
-        <f t="shared" ref="Z6:Z7" si="8">V6+X6</f>
+      <c r="AA6" s="3">
+        <f t="shared" ref="AA6:AA7" si="9">W6+Y6</f>
         <v>0.36304403549705966</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1" t="s">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>21</v>
       </c>
-      <c r="Q7">
-        <f>VALUE(SUBSTITUTE(G7, "_", ""))</f>
+      <c r="R7">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>5</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>1</v>
       </c>
-      <c r="V7" s="3">
+      <c r="W7" s="3">
         <v>0.2</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>13</v>
-      </c>
-      <c r="X7" s="3">
-        <f t="shared" si="6"/>
-        <v>0.1788854381999832</v>
       </c>
       <c r="Y7" s="3">
         <f t="shared" si="7"/>
-        <v>2.1114561800016807E-2</v>
+        <v>0.1788854381999832</v>
       </c>
       <c r="Z7" s="3">
         <f t="shared" si="8"/>
+        <v>2.1114561800016807E-2</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="9"/>
         <v>0.37888543819998322</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8">
-        <v>20</v>
-      </c>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.55000000000000004">
       <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
         <v>250000</v>
       </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
       <c r="F8">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>17</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>32</v>
       </c>
-      <c r="P8" t="str">
-        <f>"Defaults_" &amp; G8 &amp; ".defaultValue"</f>
+      <c r="Q8" t="str">
+        <f>"Defaults_" &amp; H8 &amp; ".defaultValue"</f>
         <v>Defaults_000_006.defaultValue</v>
       </c>
-      <c r="Q8">
-        <f>VALUE(SUBSTITUTE(G8, "_", ""))</f>
+      <c r="R8">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="R8" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q8 &amp; " -n " &amp; C8 &amp; " -m 3 -y " &amp; E8 &amp; " -t " &amp; D8 &amp; " -r " &amp; F8</f>
+      <c r="S8" t="str">
+        <f t="shared" ref="S8:S22" si="10">"ContGenAdm.exe add -i " &amp; R8 &amp; " -n " &amp; D8 &amp; " -m 3 -y " &amp; F8 &amp; " -t " &amp; E8 &amp; " -r " &amp; G8</f>
         <v>ContGenAdm.exe add -i 6 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9">
-        <v>20</v>
-      </c>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.55000000000000004">
       <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
         <v>250000</v>
       </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
       <c r="F9">
-        <v>25</v>
-      </c>
-      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>17</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>31</v>
       </c>
-      <c r="P9" t="str">
-        <f t="shared" ref="P9:P22" si="9">"Defaults_" &amp; G9 &amp; ".defaultValue"</f>
+      <c r="Q9" t="str">
+        <f t="shared" ref="Q9:Q22" si="11">"Defaults_" &amp; H9 &amp; ".defaultValue"</f>
         <v>Defaults_000_007.defaultValue</v>
       </c>
-      <c r="Q9">
-        <f>VALUE(SUBSTITUTE(G9, "_", ""))</f>
+      <c r="R9">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="R9" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q9 &amp; " -n " &amp; C9 &amp; " -m 3 -y " &amp; E9 &amp; " -t " &amp; D9 &amp; " -r " &amp; F9</f>
+      <c r="S9" t="str">
+        <f t="shared" si="10"/>
         <v>ContGenAdm.exe add -i 7 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>35</v>
       </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
       <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
         <v>250000</v>
       </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
       <c r="F10">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f>"000_0" &amp; RIGHT("0" &amp; A10, 2)</f>
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>"000_0" &amp; RIGHT("0" &amp; B10, 2)</f>
         <v>000_008</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="5" t="str">
-        <f>"(Some 0." &amp; B10 &amp; ")"</f>
+      <c r="M10" s="5" t="str">
+        <f>"(Some 0." &amp; C10 &amp; ")"</f>
         <v>(Some 0.35)</v>
       </c>
-      <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" t="str">
-        <f t="shared" si="9"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" t="str">
+        <f t="shared" si="11"/>
         <v>Defaults_000_008.defaultValue</v>
       </c>
-      <c r="Q10">
-        <f>VALUE(SUBSTITUTE(G10, "_", ""))</f>
+      <c r="R10">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="R10" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q10 &amp; " -n " &amp; C10 &amp; " -m 3 -y " &amp; E10 &amp; " -t " &amp; D10 &amp; " -r " &amp; F10</f>
+      <c r="S10" t="str">
+        <f t="shared" si="10"/>
         <v>ContGenAdm.exe add -i 8 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <f>1+A10</f>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11">
+        <f>1+B10</f>
         <v>9</v>
       </c>
-      <c r="B11">
-        <f>+B10+5</f>
+      <c r="C11">
+        <f>+C10+5</f>
         <v>40</v>
       </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
       <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
         <v>250000</v>
       </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
       <c r="F11">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f t="shared" ref="G11:G21" si="10">"000_0" &amp; RIGHT("0" &amp; A11, 2)</f>
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" ref="H11:H21" si="12">"000_0" &amp; RIGHT("0" &amp; B11, 2)</f>
         <v>000_009</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="5" t="str">
-        <f t="shared" ref="L11:L21" si="11">"(Some 0." &amp; B11 &amp; ")"</f>
+      <c r="M11" s="5" t="str">
+        <f t="shared" ref="M11:M21" si="13">"(Some 0." &amp; C11 &amp; ")"</f>
         <v>(Some 0.40)</v>
       </c>
-      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" t="str">
-        <f t="shared" si="9"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" t="str">
+        <f t="shared" si="11"/>
         <v>Defaults_000_009.defaultValue</v>
       </c>
-      <c r="Q11">
-        <f>VALUE(SUBSTITUTE(G11, "_", ""))</f>
+      <c r="R11">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="R11" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q11 &amp; " -n " &amp; C11 &amp; " -m 3 -y " &amp; E11 &amp; " -t " &amp; D11 &amp; " -r " &amp; F11</f>
+      <c r="S11" t="str">
+        <f t="shared" si="10"/>
         <v>ContGenAdm.exe add -i 9 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <f t="shared" ref="A12:A21" si="12">1+A11</f>
-        <v>10</v>
-      </c>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
-        <f t="shared" ref="B12:B21" si="13">+B11+5</f>
+        <f t="shared" ref="B12:B21" si="14">1+B11</f>
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:C21" si="15">+C11+5</f>
         <v>45</v>
       </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
       <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
         <v>250000</v>
       </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
       <c r="F12">
-        <v>25</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="12"/>
         <v>000_010</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M12" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>(Some 0.45)</v>
       </c>
-      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" t="str">
-        <f t="shared" si="9"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" t="str">
+        <f t="shared" si="11"/>
         <v>Defaults_000_010.defaultValue</v>
       </c>
-      <c r="Q12">
-        <f>VALUE(SUBSTITUTE(G12, "_", ""))</f>
-        <v>10</v>
-      </c>
-      <c r="R12" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q12 &amp; " -n " &amp; C12 &amp; " -m 3 -y " &amp; E12 &amp; " -t " &amp; D12 &amp; " -r " &amp; F12</f>
+      <c r="R12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="10"/>
         <v>ContGenAdm.exe add -i 10 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>250000</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="B13">
+        <v>000_011</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>250000</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>25</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>000_011</v>
-      </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="5" t="str">
-        <f t="shared" si="11"/>
         <v>(Some 0.50)</v>
       </c>
-      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" t="str">
-        <f t="shared" si="9"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" t="str">
+        <f t="shared" si="11"/>
         <v>Defaults_000_011.defaultValue</v>
       </c>
-      <c r="Q13">
-        <f>VALUE(SUBSTITUTE(G13, "_", ""))</f>
+      <c r="R13">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="R13" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q13 &amp; " -n " &amp; C13 &amp; " -m 3 -y " &amp; E13 &amp; " -t " &amp; D13 &amp; " -r " &amp; F13</f>
+      <c r="S13" t="str">
+        <f t="shared" si="10"/>
         <v>ContGenAdm.exe add -i 11 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="15"/>
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>250000</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="B14">
+        <v>000_012</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>55</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14">
-        <v>250000</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>25</v>
-      </c>
-      <c r="G14" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>000_012</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="5" t="str">
-        <f t="shared" si="11"/>
         <v>(Some 0.55)</v>
       </c>
-      <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" t="str">
-        <f t="shared" si="9"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" t="str">
+        <f t="shared" si="11"/>
         <v>Defaults_000_012.defaultValue</v>
       </c>
-      <c r="Q14">
-        <f>VALUE(SUBSTITUTE(G14, "_", ""))</f>
+      <c r="R14">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="R14" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q14 &amp; " -n " &amp; C14 &amp; " -m 3 -y " &amp; E14 &amp; " -t " &amp; D14 &amp; " -r " &amp; F14</f>
+      <c r="S14" t="str">
+        <f t="shared" si="10"/>
         <v>ContGenAdm.exe add -i 12 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>250000</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="B15">
+        <v>000_013</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>60</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>250000</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>000_013</v>
-      </c>
-      <c r="K15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="5" t="str">
-        <f t="shared" si="11"/>
         <v>(Some 0.60)</v>
       </c>
-      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" t="str">
-        <f t="shared" si="9"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" t="str">
+        <f t="shared" si="11"/>
         <v>Defaults_000_013.defaultValue</v>
       </c>
-      <c r="Q15">
-        <f>VALUE(SUBSTITUTE(G15, "_", ""))</f>
+      <c r="R15">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="R15" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q15 &amp; " -n " &amp; C15 &amp; " -m 3 -y " &amp; E15 &amp; " -t " &amp; D15 &amp; " -r " &amp; F15</f>
+      <c r="S15" t="str">
+        <f t="shared" si="10"/>
         <v>ContGenAdm.exe add -i 13 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>250000</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="B16">
+        <v>000_014</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>65</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>250000</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>25</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>000_014</v>
-      </c>
-      <c r="K16" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="5" t="str">
-        <f t="shared" si="11"/>
         <v>(Some 0.65)</v>
       </c>
-      <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" t="str">
-        <f t="shared" si="9"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" t="str">
+        <f t="shared" si="11"/>
         <v>Defaults_000_014.defaultValue</v>
       </c>
-      <c r="Q16">
-        <f>VALUE(SUBSTITUTE(G16, "_", ""))</f>
+      <c r="R16">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="R16" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q16 &amp; " -n " &amp; C16 &amp; " -m 3 -y " &amp; E16 &amp; " -t " &amp; D16 &amp; " -r " &amp; F16</f>
+      <c r="S16" t="str">
+        <f t="shared" si="10"/>
         <v>ContGenAdm.exe add -i 14 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="15"/>
+        <v>70</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>250000</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="B17">
+        <v>000_015</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>70</v>
-      </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>250000</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>25</v>
-      </c>
-      <c r="G17" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>000_015</v>
-      </c>
-      <c r="K17" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="5" t="str">
-        <f t="shared" si="11"/>
         <v>(Some 0.70)</v>
       </c>
-      <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" t="str">
-        <f t="shared" si="9"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" t="str">
+        <f t="shared" si="11"/>
         <v>Defaults_000_015.defaultValue</v>
       </c>
-      <c r="Q17">
-        <f>VALUE(SUBSTITUTE(G17, "_", ""))</f>
+      <c r="R17">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R17" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q17 &amp; " -n " &amp; C17 &amp; " -m 3 -y " &amp; E17 &amp; " -t " &amp; D17 &amp; " -r " &amp; F17</f>
+      <c r="S17" t="str">
+        <f t="shared" si="10"/>
         <v>ContGenAdm.exe add -i 15 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="15"/>
+        <v>75</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>250000</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="B18">
+        <v>000_016</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>75</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>250000</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>25</v>
-      </c>
-      <c r="G18" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>000_016</v>
-      </c>
-      <c r="K18" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="5" t="str">
-        <f t="shared" si="11"/>
         <v>(Some 0.75)</v>
       </c>
-      <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" t="str">
-        <f t="shared" si="9"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" t="str">
+        <f t="shared" si="11"/>
         <v>Defaults_000_016.defaultValue</v>
       </c>
-      <c r="Q18">
-        <f>VALUE(SUBSTITUTE(G18, "_", ""))</f>
+      <c r="R18">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="R18" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q18 &amp; " -n " &amp; C18 &amp; " -m 3 -y " &amp; E18 &amp; " -t " &amp; D18 &amp; " -r " &amp; F18</f>
+      <c r="S18" t="str">
+        <f t="shared" si="10"/>
         <v>ContGenAdm.exe add -i 16 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="15"/>
+        <v>80</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>250000</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19" s="1" t="str">
         <f t="shared" si="12"/>
+        <v>000_017</v>
+      </c>
+      <c r="L19" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="M19" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>80</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>250000</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>25</v>
-      </c>
-      <c r="G19" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>000_017</v>
-      </c>
-      <c r="K19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="5" t="str">
-        <f t="shared" si="11"/>
         <v>(Some 0.80)</v>
       </c>
-      <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" t="str">
-        <f t="shared" si="9"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" t="str">
+        <f t="shared" si="11"/>
         <v>Defaults_000_017.defaultValue</v>
       </c>
-      <c r="Q19">
-        <f>VALUE(SUBSTITUTE(G19, "_", ""))</f>
+      <c r="R19">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="R19" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q19 &amp; " -n " &amp; C19 &amp; " -m 3 -y " &amp; E19 &amp; " -t " &amp; D19 &amp; " -r " &amp; F19</f>
+      <c r="S19" t="str">
+        <f t="shared" si="10"/>
         <v>ContGenAdm.exe add -i 17 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="15"/>
+        <v>85</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>250000</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>25</v>
+      </c>
+      <c r="H20" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="B20">
+        <v>000_018</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>85</v>
-      </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>250000</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>25</v>
-      </c>
-      <c r="G20" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>000_018</v>
-      </c>
-      <c r="K20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="5" t="str">
-        <f t="shared" si="11"/>
         <v>(Some 0.85)</v>
       </c>
-      <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" t="str">
-        <f t="shared" si="9"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" t="str">
+        <f t="shared" si="11"/>
         <v>Defaults_000_018.defaultValue</v>
       </c>
-      <c r="Q20">
-        <f>VALUE(SUBSTITUTE(G20, "_", ""))</f>
+      <c r="R20">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="R20" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q20 &amp; " -n " &amp; C20 &amp; " -m 3 -y " &amp; E20 &amp; " -t " &amp; D20 &amp; " -r " &amp; F20</f>
+      <c r="S20" t="str">
+        <f t="shared" si="10"/>
         <v>ContGenAdm.exe add -i 18 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>250000</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>25</v>
+      </c>
+      <c r="H21" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="B21">
+        <v>000_019</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>90</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>250000</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>25</v>
-      </c>
-      <c r="G21" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>000_019</v>
-      </c>
-      <c r="K21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="5" t="str">
-        <f t="shared" si="11"/>
         <v>(Some 0.90)</v>
       </c>
-      <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" t="str">
-        <f t="shared" si="9"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" t="str">
+        <f t="shared" si="11"/>
         <v>Defaults_000_019.defaultValue</v>
       </c>
-      <c r="Q21">
-        <f>VALUE(SUBSTITUTE(G21, "_", ""))</f>
+      <c r="R21">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="R21" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q21 &amp; " -n " &amp; C21 &amp; " -m 3 -y " &amp; E21 &amp; " -t " &amp; D21 &amp; " -r " &amp; F21</f>
+      <c r="S21" t="str">
+        <f t="shared" si="10"/>
         <v>ContGenAdm.exe add -i 19 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <f t="shared" ref="A22" si="14">1+A21</f>
-        <v>20</v>
-      </c>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B22">
-        <f t="shared" ref="B22" si="15">+B21+5</f>
+        <f t="shared" ref="B22" si="16">1+B21</f>
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22" si="17">+C21+5</f>
         <v>95</v>
       </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
       <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
         <v>250000</v>
       </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
       <c r="F22">
-        <v>25</v>
-      </c>
-      <c r="G22" s="1" t="str">
-        <f t="shared" ref="G22" si="16">"000_0" &amp; RIGHT("0" &amp; A22, 2)</f>
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>25</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" ref="H22" si="18">"000_0" &amp; RIGHT("0" &amp; B22, 2)</f>
         <v>000_020</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="5" t="str">
-        <f t="shared" ref="L22" si="17">"(Some 0." &amp; B22 &amp; ")"</f>
+      <c r="M22" s="5" t="str">
+        <f t="shared" ref="M22" si="19">"(Some 0." &amp; C22 &amp; ")"</f>
         <v>(Some 0.95)</v>
       </c>
-      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" t="str">
-        <f t="shared" si="9"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" t="str">
+        <f t="shared" si="11"/>
         <v>Defaults_000_020.defaultValue</v>
       </c>
-      <c r="Q22">
-        <f>VALUE(SUBSTITUTE(G22, "_", ""))</f>
-        <v>20</v>
-      </c>
-      <c r="R22" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q22 &amp; " -n " &amp; C22 &amp; " -m 3 -y " &amp; E22 &amp; " -t " &amp; D22 &amp; " -r " &amp; F22</f>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="10"/>
         <v>ContGenAdm.exe add -i 20 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>5</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>250000</v>
       </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
       <c r="F25">
-        <v>25</v>
-      </c>
-      <c r="G25" s="1" t="str">
-        <f>"002_0" &amp; RIGHT("0" &amp; A25, 2)</f>
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>25</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f>"002_0" &amp; RIGHT("0" &amp; B25, 2)</f>
         <v>002_000</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>37</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>18</v>
       </c>
-      <c r="P25" t="str">
-        <f t="shared" ref="P25:P36" si="18">"Defaults_" &amp; G25 &amp; ".defaultValue"</f>
+      <c r="Q25" t="str">
+        <f t="shared" ref="Q25:Q36" si="20">"Defaults_" &amp; H25 &amp; ".defaultValue"</f>
         <v>Defaults_002_000.defaultValue</v>
       </c>
-      <c r="Q25">
-        <f>VALUE(SUBSTITUTE(G25, "_", ""))</f>
+      <c r="R25">
+        <f t="shared" ref="R25:R39" si="21">VALUE(SUBSTITUTE(H25, "_", ""))</f>
         <v>2000</v>
       </c>
-      <c r="R25" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q25 &amp; " -n " &amp; C25 &amp; " -m 5 -y " &amp; E25 &amp; " -t " &amp; D25 &amp; " -r " &amp; F25</f>
+      <c r="S25" t="str">
+        <f t="shared" ref="S25:S33" si="22">"ContGenAdm.exe add -i " &amp; R25 &amp; " -n " &amp; D25 &amp; " -m 5 -y " &amp; F25 &amp; " -t " &amp; E25 &amp; " -r " &amp; G25</f>
         <v>ContGenAdm.exe add -i 2000 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
-        <f>1+A25</f>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26">
+        <f>1+B25</f>
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>250000</v>
       </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
       <c r="F26">
-        <v>25</v>
-      </c>
-      <c r="G26" s="1" t="str">
-        <f t="shared" ref="G26:G29" si="19">"002_0" &amp; RIGHT("0" &amp; A26, 2)</f>
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f t="shared" ref="H26:H29" si="23">"002_0" &amp; RIGHT("0" &amp; B26, 2)</f>
         <v>002_001</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>38</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>18</v>
       </c>
-      <c r="P26" t="str">
-        <f t="shared" si="18"/>
+      <c r="Q26" t="str">
+        <f t="shared" si="20"/>
         <v>Defaults_002_001.defaultValue</v>
       </c>
-      <c r="Q26">
-        <f>VALUE(SUBSTITUTE(G26, "_", ""))</f>
+      <c r="R26">
+        <f t="shared" si="21"/>
         <v>2001</v>
       </c>
-      <c r="R26" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q26 &amp; " -n " &amp; C26 &amp; " -m 5 -y " &amp; E26 &amp; " -t " &amp; D26 &amp; " -r " &amp; F26</f>
+      <c r="S26" t="str">
+        <f t="shared" si="22"/>
         <v>ContGenAdm.exe add -i 2001 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
-        <f t="shared" ref="A27:A29" si="20">1+A26</f>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27">
+        <f t="shared" ref="B27:B29" si="24">1+B26</f>
         <v>2</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>5</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>250000</v>
       </c>
-      <c r="E27">
-        <v>10</v>
-      </c>
       <c r="F27">
-        <v>25</v>
-      </c>
-      <c r="G27" s="1" t="str">
-        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f t="shared" si="23"/>
         <v>002_002</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>14</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>18</v>
       </c>
-      <c r="P27" t="str">
-        <f t="shared" si="18"/>
+      <c r="Q27" t="str">
+        <f t="shared" si="20"/>
         <v>Defaults_002_002.defaultValue</v>
       </c>
-      <c r="Q27">
-        <f>VALUE(SUBSTITUTE(G27, "_", ""))</f>
+      <c r="R27">
+        <f t="shared" si="21"/>
         <v>2002</v>
       </c>
-      <c r="R27" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q27 &amp; " -n " &amp; C27 &amp; " -m 5 -y " &amp; E27 &amp; " -t " &amp; D27 &amp; " -r " &amp; F27</f>
+      <c r="S27" t="str">
+        <f t="shared" si="22"/>
         <v>ContGenAdm.exe add -i 2002 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>250000</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>25</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>002_003</v>
+      </c>
+      <c r="L28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" t="str">
         <f t="shared" si="20"/>
+        <v>Defaults_002_003.defaultValue</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="21"/>
+        <v>2003</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGenAdm.exe add -i 2003 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>250000</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>25</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>002_004</v>
+      </c>
+      <c r="L29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_004.defaultValue</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="21"/>
+        <v>2004</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGenAdm.exe add -i 2004 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30">
+        <f t="shared" ref="B30:B33" si="25">1+B29</f>
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>250000</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>25</v>
+      </c>
+      <c r="H30" s="1" t="str">
+        <f t="shared" ref="H30:H33" si="26">"002_0" &amp; RIGHT("0" &amp; B30, 2)</f>
+        <v>002_005</v>
+      </c>
+      <c r="L30" t="s">
+        <v>14</v>
+      </c>
+      <c r="M30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_005.defaultValue</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="21"/>
+        <v>2005</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGenAdm.exe add -i 2005 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>250000</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>25</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="26"/>
+        <v>002_006</v>
+      </c>
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_006.defaultValue</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="21"/>
+        <v>2006</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGenAdm.exe add -i 2006 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>250000</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>25</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="26"/>
+        <v>002_007</v>
+      </c>
+      <c r="L32" t="s">
+        <v>38</v>
+      </c>
+      <c r="M32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_007.defaultValue</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="21"/>
+        <v>2007</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGenAdm.exe add -i 2007 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>250000</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>25</v>
+      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="26"/>
+        <v>002_008</v>
+      </c>
+      <c r="L33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_008.defaultValue</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="21"/>
+        <v>2008</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" si="22"/>
+        <v>ContGenAdm.exe add -i 2008 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34">
+        <f t="shared" ref="B34:B36" si="27">1+B33</f>
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>25</v>
+      </c>
+      <c r="E34">
+        <v>250000</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>25</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" ref="H34:H36" si="28">"002_0" &amp; RIGHT("0" &amp; B34, 2)</f>
+        <v>002_009</v>
+      </c>
+      <c r="L34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_009.defaultValue</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="21"/>
+        <v>2009</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" ref="S34:S39" si="29">"ContGenAdm.exe add -i " &amp; R34 &amp; " -n " &amp; D34 &amp; " -m 3 -y " &amp; F34 &amp; " -t " &amp; E34 &amp; " -r " &amp; G34</f>
+        <v>ContGenAdm.exe add -i 2009 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>250000</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>25</v>
+      </c>
+      <c r="H35" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>002_010</v>
+      </c>
+      <c r="L35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M35" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_010.defaultValue</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="21"/>
+        <v>2010</v>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" si="29"/>
+        <v>ContGenAdm.exe add -i 2010 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36">
+        <f t="shared" si="27"/>
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <v>250000</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>25</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>002_011</v>
+      </c>
+      <c r="L36" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="20"/>
+        <v>Defaults_002_011.defaultValue</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="21"/>
+        <v>2011</v>
+      </c>
+      <c r="S36" t="str">
+        <f t="shared" si="29"/>
+        <v>ContGenAdm.exe add -i 2011 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37">
+        <f t="shared" ref="B37:B39" si="30">1+B36</f>
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>250000</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>25</v>
+      </c>
+      <c r="H37" s="1" t="str">
+        <f t="shared" ref="H37:H39" si="31">"002_0" &amp; RIGHT("0" &amp; B37, 2)</f>
+        <v>002_012</v>
+      </c>
+      <c r="L37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" ref="Q37:Q39" si="32">"Defaults_" &amp; H37 &amp; ".defaultValue"</f>
+        <v>Defaults_002_012.defaultValue</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="21"/>
+        <v>2012</v>
+      </c>
+      <c r="S37" t="str">
+        <f t="shared" si="29"/>
+        <v>ContGenAdm.exe add -i 2012 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38">
+        <f t="shared" si="30"/>
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>25</v>
+      </c>
+      <c r="E38">
+        <v>250000</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>25</v>
+      </c>
+      <c r="H38" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>002_013</v>
+      </c>
+      <c r="L38" t="s">
+        <v>38</v>
+      </c>
+      <c r="M38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="32"/>
+        <v>Defaults_002_013.defaultValue</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="21"/>
+        <v>2013</v>
+      </c>
+      <c r="S38" t="str">
+        <f t="shared" si="29"/>
+        <v>ContGenAdm.exe add -i 2013 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39">
+        <f t="shared" si="30"/>
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>25</v>
+      </c>
+      <c r="E39">
+        <v>250000</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>25</v>
+      </c>
+      <c r="H39" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>002_014</v>
+      </c>
+      <c r="L39" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="32"/>
+        <v>Defaults_002_014.defaultValue</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="21"/>
+        <v>2014</v>
+      </c>
+      <c r="S39" t="str">
+        <f t="shared" si="29"/>
+        <v>ContGenAdm.exe add -i 2014 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>250000</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>25</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f>"003_" &amp; RIGHT("00" &amp; B42, 3)</f>
+        <v>003_000</v>
+      </c>
+      <c r="J42" t="s">
+        <v>40</v>
+      </c>
+      <c r="K42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" t="s">
+        <v>40</v>
+      </c>
+      <c r="M42" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" ref="Q42" si="33">"Defaults_" &amp; H42 &amp; ".defaultValue"</f>
+        <v>Defaults_003_000.defaultValue</v>
+      </c>
+      <c r="R42">
+        <f>VALUE(SUBSTITUTE(H42, "_", ""))</f>
+        <v>3000</v>
+      </c>
+      <c r="S42" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; R42 &amp; " -n " &amp; D42 &amp; " -m 3 -y " &amp; F42 &amp; " -t " &amp; E42 &amp; " -r " &amp; G42</f>
+        <v>ContGenAdm.exe add -i 3000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J43"/>
+      <c r="K43"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>250000</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>25</v>
+      </c>
+      <c r="H45" s="1" t="str">
+        <f>"004_" &amp; RIGHT("00" &amp; B45, 3)</f>
+        <v>004_000</v>
+      </c>
+      <c r="J45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K45" s="5" t="str">
+        <f t="shared" ref="K45:K50" si="34">"(Some 0." &amp; RIGHT("00" &amp; C45, 2) &amp; ")"</f>
+        <v>(Some 0.20)</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" ref="Q45" si="35">"Defaults_" &amp; H45 &amp; ".defaultValue"</f>
+        <v>Defaults_004_000.defaultValue</v>
+      </c>
+      <c r="R45">
+        <f t="shared" ref="R45:R65" si="36">VALUE(SUBSTITUTE(H45, "_", ""))</f>
+        <v>4000</v>
+      </c>
+      <c r="S45" t="str">
+        <f t="shared" ref="S45:S65" si="37">"ContGenAdm.exe add -i " &amp; R45 &amp; " -n " &amp; D45 &amp; " -m 3 -y " &amp; F45 &amp; " -t " &amp; E45 &amp; " -r " &amp; G45</f>
+        <v>ContGenAdm.exe add -i 4000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46">
+        <f t="shared" ref="B46:B65" si="38">1+B45</f>
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>250000</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>25</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f t="shared" ref="H46:H65" si="39">"004_" &amp; RIGHT("00" &amp; B46, 3)</f>
+        <v>004_001</v>
+      </c>
+      <c r="J46" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.20)</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" ref="Q46:Q65" si="40">"Defaults_" &amp; H46 &amp; ".defaultValue"</f>
+        <v>Defaults_004_001.defaultValue</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="36"/>
+        <v>4001</v>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" si="37"/>
+        <v>ContGenAdm.exe add -i 4001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47">
+        <v>250000</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>25</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>004_002</v>
+      </c>
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.20)</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="40"/>
+        <v>Defaults_004_002.defaultValue</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="36"/>
+        <v>4002</v>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" si="37"/>
+        <v>ContGenAdm.exe add -i 4002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48">
+        <f t="shared" si="38"/>
         <v>3</v>
       </c>
-      <c r="C28">
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>250000</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <v>25</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>004_003</v>
+      </c>
+      <c r="J48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.15)</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="40"/>
+        <v>Defaults_004_003.defaultValue</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="36"/>
+        <v>4003</v>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" si="37"/>
+        <v>ContGenAdm.exe add -i 4003 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49">
+        <f t="shared" si="38"/>
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>30</v>
+      </c>
+      <c r="D49">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>250000</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="G49">
+        <v>25</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>004_004</v>
+      </c>
+      <c r="J49" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="40"/>
+        <v>Defaults_004_004.defaultValue</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="36"/>
+        <v>4004</v>
+      </c>
+      <c r="S49" t="str">
+        <f t="shared" si="37"/>
+        <v>ContGenAdm.exe add -i 4004 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50">
+        <f t="shared" si="38"/>
         <v>5</v>
       </c>
-      <c r="D28">
+      <c r="C50">
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
+      </c>
+      <c r="E50">
         <v>250000</v>
       </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>25</v>
-      </c>
-      <c r="G28" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>002_003</v>
-      </c>
-      <c r="K28" t="s">
-        <v>37</v>
-      </c>
-      <c r="L28" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" t="str">
-        <f t="shared" si="18"/>
-        <v>Defaults_002_003.defaultValue</v>
-      </c>
-      <c r="Q28">
-        <f>VALUE(SUBSTITUTE(G28, "_", ""))</f>
-        <v>2003</v>
-      </c>
-      <c r="R28" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q28 &amp; " -n " &amp; C28 &amp; " -m 5 -y " &amp; E28 &amp; " -t " &amp; D28 &amp; " -r " &amp; F28</f>
-        <v>ContGenAdm.exe add -i 2003 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="C29">
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>25</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>004_005</v>
+      </c>
+      <c r="J50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="5" t="str">
+        <f t="shared" si="34"/>
+        <v>(Some 0.25)</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="40"/>
+        <v>Defaults_004_005.defaultValue</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="36"/>
+        <v>4005</v>
+      </c>
+      <c r="S50" t="str">
+        <f t="shared" si="37"/>
+        <v>ContGenAdm.exe add -i 4005 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51">
+        <f t="shared" si="38"/>
+        <v>6</v>
+      </c>
+      <c r="C51">
         <v>5</v>
       </c>
-      <c r="D29">
+      <c r="D51">
+        <v>20</v>
+      </c>
+      <c r="E51">
         <v>250000</v>
       </c>
-      <c r="E29">
-        <v>10</v>
-      </c>
-      <c r="F29">
-        <v>25</v>
-      </c>
-      <c r="G29" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>002_004</v>
-      </c>
-      <c r="K29" t="s">
-        <v>38</v>
-      </c>
-      <c r="L29" t="s">
-        <v>31</v>
-      </c>
-      <c r="P29" t="str">
-        <f t="shared" si="18"/>
-        <v>Defaults_002_004.defaultValue</v>
-      </c>
-      <c r="Q29">
-        <f>VALUE(SUBSTITUTE(G29, "_", ""))</f>
-        <v>2004</v>
-      </c>
-      <c r="R29" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q29 &amp; " -n " &amp; C29 &amp; " -m 5 -y " &amp; E29 &amp; " -t " &amp; D29 &amp; " -r " &amp; F29</f>
-        <v>ContGenAdm.exe add -i 2004 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
-        <f t="shared" ref="A30:A33" si="21">1+A29</f>
-        <v>5</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30">
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>25</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>004_006</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="5" t="str">
+        <f>"(Some 0." &amp; RIGHT("00" &amp; C51, 2) &amp; ")"</f>
+        <v>(Some 0.05)</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="40"/>
+        <v>Defaults_004_006.defaultValue</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="36"/>
+        <v>4006</v>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" si="37"/>
+        <v>ContGenAdm.exe add -i 4006 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52">
+        <f t="shared" si="38"/>
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52">
         <v>250000</v>
       </c>
-      <c r="E30">
-        <v>10</v>
-      </c>
-      <c r="F30">
-        <v>25</v>
-      </c>
-      <c r="G30" s="1" t="str">
-        <f t="shared" ref="G30:G33" si="22">"002_0" &amp; RIGHT("0" &amp; A30, 2)</f>
-        <v>002_005</v>
-      </c>
-      <c r="K30" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" t="s">
-        <v>31</v>
-      </c>
-      <c r="P30" t="str">
-        <f t="shared" si="18"/>
-        <v>Defaults_002_005.defaultValue</v>
-      </c>
-      <c r="Q30">
-        <f>VALUE(SUBSTITUTE(G30, "_", ""))</f>
-        <v>2005</v>
-      </c>
-      <c r="R30" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q30 &amp; " -n " &amp; C30 &amp; " -m 5 -y " &amp; E30 &amp; " -t " &amp; D30 &amp; " -r " &amp; F30</f>
-        <v>ContGenAdm.exe add -i 2005 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
-        <f t="shared" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>25</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>004_007</v>
+      </c>
+      <c r="J52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="5" t="str">
+        <f t="shared" ref="K52:K65" si="41">"(Some 0." &amp; RIGHT("00" &amp; C52, 2) &amp; ")"</f>
+        <v>(Some 0.10)</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="40"/>
+        <v>Defaults_004_007.defaultValue</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="36"/>
+        <v>4007</v>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="37"/>
+        <v>ContGenAdm.exe add -i 4007 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53">
+        <f t="shared" si="38"/>
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>35</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
+      </c>
+      <c r="E53">
         <v>250000</v>
       </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>25</v>
-      </c>
-      <c r="G31" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>002_006</v>
-      </c>
-      <c r="K31" t="s">
-        <v>37</v>
-      </c>
-      <c r="L31" t="s">
-        <v>16</v>
-      </c>
-      <c r="P31" t="str">
-        <f t="shared" si="18"/>
-        <v>Defaults_002_006.defaultValue</v>
-      </c>
-      <c r="Q31">
-        <f>VALUE(SUBSTITUTE(G31, "_", ""))</f>
-        <v>2006</v>
-      </c>
-      <c r="R31" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q31 &amp; " -n " &amp; C31 &amp; " -m 5 -y " &amp; E31 &amp; " -t " &amp; D31 &amp; " -r " &amp; F31</f>
-        <v>ContGenAdm.exe add -i 2006 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
-        <f t="shared" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <v>250000</v>
-      </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
-      <c r="F32">
-        <v>25</v>
-      </c>
-      <c r="G32" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>002_007</v>
-      </c>
-      <c r="K32" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" t="s">
-        <v>16</v>
-      </c>
-      <c r="P32" t="str">
-        <f t="shared" si="18"/>
-        <v>Defaults_002_007.defaultValue</v>
-      </c>
-      <c r="Q32">
-        <f>VALUE(SUBSTITUTE(G32, "_", ""))</f>
-        <v>2007</v>
-      </c>
-      <c r="R32" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q32 &amp; " -n " &amp; C32 &amp; " -m 5 -y " &amp; E32 &amp; " -t " &amp; D32 &amp; " -r " &amp; F32</f>
-        <v>ContGenAdm.exe add -i 2007 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="D33">
-        <v>250000</v>
-      </c>
-      <c r="E33">
-        <v>10</v>
-      </c>
-      <c r="F33">
-        <v>25</v>
-      </c>
-      <c r="G33" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v>002_008</v>
-      </c>
-      <c r="K33" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" t="s">
-        <v>16</v>
-      </c>
-      <c r="P33" t="str">
-        <f t="shared" si="18"/>
-        <v>Defaults_002_008.defaultValue</v>
-      </c>
-      <c r="Q33">
-        <f>VALUE(SUBSTITUTE(G33, "_", ""))</f>
-        <v>2008</v>
-      </c>
-      <c r="R33" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q33 &amp; " -n " &amp; C33 &amp; " -m 5 -y " &amp; E33 &amp; " -t " &amp; D33 &amp; " -r " &amp; F33</f>
-        <v>ContGenAdm.exe add -i 2008 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
-        <f t="shared" ref="A34:A36" si="23">1+A33</f>
-        <v>9</v>
-      </c>
-      <c r="C34">
-        <v>25</v>
-      </c>
-      <c r="D34">
-        <v>250000</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-      <c r="F34">
-        <v>25</v>
-      </c>
-      <c r="G34" s="1" t="str">
-        <f t="shared" ref="G34:G36" si="24">"002_0" &amp; RIGHT("0" &amp; A34, 2)</f>
-        <v>002_009</v>
-      </c>
-      <c r="K34" t="s">
-        <v>37</v>
-      </c>
-      <c r="L34" t="s">
-        <v>21</v>
-      </c>
-      <c r="P34" t="str">
-        <f t="shared" si="18"/>
-        <v>Defaults_002_009.defaultValue</v>
-      </c>
-      <c r="Q34">
-        <f>VALUE(SUBSTITUTE(G34, "_", ""))</f>
-        <v>2009</v>
-      </c>
-      <c r="R34" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q34 &amp; " -n " &amp; C34 &amp; " -m 3 -y " &amp; E34 &amp; " -t " &amp; D34 &amp; " -r " &amp; F34</f>
-        <v>ContGenAdm.exe add -i 2009 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35">
-        <f t="shared" si="23"/>
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <v>25</v>
-      </c>
-      <c r="D35">
-        <v>250000</v>
-      </c>
-      <c r="E35">
-        <v>10</v>
-      </c>
-      <c r="F35">
-        <v>25</v>
-      </c>
-      <c r="G35" s="1" t="str">
-        <f t="shared" si="24"/>
-        <v>002_010</v>
-      </c>
-      <c r="K35" t="s">
-        <v>38</v>
-      </c>
-      <c r="L35" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" t="str">
-        <f t="shared" si="18"/>
-        <v>Defaults_002_010.defaultValue</v>
-      </c>
-      <c r="Q35">
-        <f>VALUE(SUBSTITUTE(G35, "_", ""))</f>
-        <v>2010</v>
-      </c>
-      <c r="R35" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q35 &amp; " -n " &amp; C35 &amp; " -m 3 -y " &amp; E35 &amp; " -t " &amp; D35 &amp; " -r " &amp; F35</f>
-        <v>ContGenAdm.exe add -i 2010 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
-        <f t="shared" si="23"/>
-        <v>11</v>
-      </c>
-      <c r="C36">
-        <v>25</v>
-      </c>
-      <c r="D36">
-        <v>250000</v>
-      </c>
-      <c r="E36">
-        <v>10</v>
-      </c>
-      <c r="F36">
-        <v>25</v>
-      </c>
-      <c r="G36" s="1" t="str">
-        <f t="shared" si="24"/>
-        <v>002_011</v>
-      </c>
-      <c r="K36" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" t="s">
-        <v>21</v>
-      </c>
-      <c r="P36" t="str">
-        <f t="shared" si="18"/>
-        <v>Defaults_002_011.defaultValue</v>
-      </c>
-      <c r="Q36">
-        <f>VALUE(SUBSTITUTE(G36, "_", ""))</f>
-        <v>2011</v>
-      </c>
-      <c r="R36" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q36 &amp; " -n " &amp; C36 &amp; " -m 3 -y " &amp; E36 &amp; " -t " &amp; D36 &amp; " -r " &amp; F36</f>
-        <v>ContGenAdm.exe add -i 2011 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
-        <f t="shared" ref="A37:A39" si="25">1+A36</f>
-        <v>12</v>
-      </c>
-      <c r="C37">
-        <v>25</v>
-      </c>
-      <c r="D37">
-        <v>250000</v>
-      </c>
-      <c r="E37">
-        <v>10</v>
-      </c>
-      <c r="F37">
-        <v>25</v>
-      </c>
-      <c r="G37" s="1" t="str">
-        <f t="shared" ref="G37:G39" si="26">"002_0" &amp; RIGHT("0" &amp; A37, 2)</f>
-        <v>002_012</v>
-      </c>
-      <c r="K37" t="s">
-        <v>37</v>
-      </c>
-      <c r="L37" t="s">
-        <v>19</v>
-      </c>
-      <c r="P37" t="str">
-        <f t="shared" ref="P37:P39" si="27">"Defaults_" &amp; G37 &amp; ".defaultValue"</f>
-        <v>Defaults_002_012.defaultValue</v>
-      </c>
-      <c r="Q37">
-        <f>VALUE(SUBSTITUTE(G37, "_", ""))</f>
-        <v>2012</v>
-      </c>
-      <c r="R37" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q37 &amp; " -n " &amp; C37 &amp; " -m 3 -y " &amp; E37 &amp; " -t " &amp; D37 &amp; " -r " &amp; F37</f>
-        <v>ContGenAdm.exe add -i 2012 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
-        <f t="shared" si="25"/>
-        <v>13</v>
-      </c>
-      <c r="C38">
-        <v>25</v>
-      </c>
-      <c r="D38">
-        <v>250000</v>
-      </c>
-      <c r="E38">
-        <v>10</v>
-      </c>
-      <c r="F38">
-        <v>25</v>
-      </c>
-      <c r="G38" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>002_013</v>
-      </c>
-      <c r="K38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L38" t="s">
-        <v>19</v>
-      </c>
-      <c r="P38" t="str">
-        <f t="shared" si="27"/>
-        <v>Defaults_002_013.defaultValue</v>
-      </c>
-      <c r="Q38">
-        <f>VALUE(SUBSTITUTE(G38, "_", ""))</f>
-        <v>2013</v>
-      </c>
-      <c r="R38" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q38 &amp; " -n " &amp; C38 &amp; " -m 3 -y " &amp; E38 &amp; " -t " &amp; D38 &amp; " -r " &amp; F38</f>
-        <v>ContGenAdm.exe add -i 2013 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
-        <f t="shared" si="25"/>
-        <v>14</v>
-      </c>
-      <c r="C39">
-        <v>25</v>
-      </c>
-      <c r="D39">
-        <v>250000</v>
-      </c>
-      <c r="E39">
-        <v>10</v>
-      </c>
-      <c r="F39">
-        <v>25</v>
-      </c>
-      <c r="G39" s="1" t="str">
-        <f t="shared" si="26"/>
-        <v>002_014</v>
-      </c>
-      <c r="K39" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" t="s">
-        <v>19</v>
-      </c>
-      <c r="P39" t="str">
-        <f t="shared" si="27"/>
-        <v>Defaults_002_014.defaultValue</v>
-      </c>
-      <c r="Q39">
-        <f>VALUE(SUBSTITUTE(G39, "_", ""))</f>
-        <v>2014</v>
-      </c>
-      <c r="R39" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q39 &amp; " -n " &amp; C39 &amp; " -m 3 -y " &amp; E39 &amp; " -t " &amp; D39 &amp; " -r " &amp; F39</f>
-        <v>ContGenAdm.exe add -i 2014 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>20</v>
-      </c>
-      <c r="D42">
-        <v>250000</v>
-      </c>
-      <c r="E42">
-        <v>10</v>
-      </c>
-      <c r="F42">
-        <v>25</v>
-      </c>
-      <c r="G42" s="1" t="str">
-        <f>"003_" &amp; RIGHT("00" &amp; A42, 3)</f>
-        <v>003_000</v>
-      </c>
-      <c r="I42" t="s">
-        <v>40</v>
-      </c>
-      <c r="J42" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" t="s">
-        <v>40</v>
-      </c>
-      <c r="L42" t="s">
-        <v>18</v>
-      </c>
-      <c r="P42" t="str">
-        <f t="shared" ref="P42" si="28">"Defaults_" &amp; G42 &amp; ".defaultValue"</f>
-        <v>Defaults_003_000.defaultValue</v>
-      </c>
-      <c r="Q42">
-        <f>VALUE(SUBSTITUTE(G42, "_", ""))</f>
-        <v>3000</v>
-      </c>
-      <c r="R42" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q42 &amp; " -n " &amp; C42 &amp; " -m 3 -y " &amp; E42 &amp; " -t " &amp; D42 &amp; " -r " &amp; F42</f>
-        <v>ContGenAdm.exe add -i 3000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I43"/>
-      <c r="J43"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
-        <v>0</v>
-      </c>
-      <c r="B45">
-        <v>20</v>
-      </c>
-      <c r="C45">
-        <v>20</v>
-      </c>
-      <c r="D45">
-        <v>250000</v>
-      </c>
-      <c r="E45">
-        <v>10</v>
-      </c>
-      <c r="F45">
-        <v>25</v>
-      </c>
-      <c r="G45" s="1" t="str">
-        <f>"004_" &amp; RIGHT("00" &amp; A45, 3)</f>
-        <v>004_000</v>
-      </c>
-      <c r="I45" t="s">
-        <v>40</v>
-      </c>
-      <c r="J45" s="5" t="str">
-        <f t="shared" ref="J45:J50" si="29">"(Some 0." &amp; RIGHT("00" &amp; B45, 2) &amp; ")"</f>
-        <v>(Some 0.20)</v>
-      </c>
-      <c r="P45" t="str">
-        <f t="shared" ref="P45" si="30">"Defaults_" &amp; G45 &amp; ".defaultValue"</f>
-        <v>Defaults_004_000.defaultValue</v>
-      </c>
-      <c r="Q45">
-        <f>VALUE(SUBSTITUTE(G45, "_", ""))</f>
-        <v>4000</v>
-      </c>
-      <c r="R45" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q45 &amp; " -n " &amp; C45 &amp; " -m 3 -y " &amp; E45 &amp; " -t " &amp; D45 &amp; " -r " &amp; F45</f>
-        <v>ContGenAdm.exe add -i 4000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46">
-        <f t="shared" ref="A46:A65" si="31">1+A45</f>
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>20</v>
-      </c>
-      <c r="C46">
-        <v>20</v>
-      </c>
-      <c r="D46">
-        <v>250000</v>
-      </c>
-      <c r="E46">
-        <v>10</v>
-      </c>
-      <c r="F46">
-        <v>25</v>
-      </c>
-      <c r="G46" s="1" t="str">
-        <f t="shared" ref="G46:G65" si="32">"004_" &amp; RIGHT("00" &amp; A46, 3)</f>
-        <v>004_001</v>
-      </c>
-      <c r="I46" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>(Some 0.20)</v>
-      </c>
-      <c r="P46" t="str">
-        <f t="shared" ref="P46:P65" si="33">"Defaults_" &amp; G46 &amp; ".defaultValue"</f>
-        <v>Defaults_004_001.defaultValue</v>
-      </c>
-      <c r="Q46">
-        <f>VALUE(SUBSTITUTE(G46, "_", ""))</f>
-        <v>4001</v>
-      </c>
-      <c r="R46" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q46 &amp; " -n " &amp; C46 &amp; " -m 3 -y " &amp; E46 &amp; " -t " &amp; D46 &amp; " -r " &amp; F46</f>
-        <v>ContGenAdm.exe add -i 4001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
-      <c r="B47">
-        <v>20</v>
-      </c>
-      <c r="C47">
-        <v>20</v>
-      </c>
-      <c r="D47">
-        <v>250000</v>
-      </c>
-      <c r="E47">
-        <v>10</v>
-      </c>
-      <c r="F47">
-        <v>25</v>
-      </c>
-      <c r="G47" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>004_002</v>
-      </c>
-      <c r="I47" t="s">
-        <v>15</v>
-      </c>
-      <c r="J47" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>(Some 0.20)</v>
-      </c>
-      <c r="P47" t="str">
-        <f t="shared" si="33"/>
-        <v>Defaults_004_002.defaultValue</v>
-      </c>
-      <c r="Q47">
-        <f>VALUE(SUBSTITUTE(G47, "_", ""))</f>
-        <v>4002</v>
-      </c>
-      <c r="R47" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q47 &amp; " -n " &amp; C47 &amp; " -m 3 -y " &amp; E47 &amp; " -t " &amp; D47 &amp; " -r " &amp; F47</f>
-        <v>ContGenAdm.exe add -i 4002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
-        <f t="shared" si="31"/>
-        <v>3</v>
-      </c>
-      <c r="B48">
-        <v>15</v>
-      </c>
-      <c r="C48">
-        <v>20</v>
-      </c>
-      <c r="D48">
-        <v>250000</v>
-      </c>
-      <c r="E48">
-        <v>10</v>
-      </c>
-      <c r="F48">
-        <v>25</v>
-      </c>
-      <c r="G48" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>004_003</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>25</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f t="shared" si="39"/>
+        <v>004_008</v>
+      </c>
+      <c r="J53" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>(Some 0.15)</v>
-      </c>
-      <c r="P48" t="str">
-        <f t="shared" si="33"/>
-        <v>Defaults_004_003.defaultValue</v>
-      </c>
-      <c r="Q48">
-        <f>VALUE(SUBSTITUTE(G48, "_", ""))</f>
-        <v>4003</v>
-      </c>
-      <c r="R48" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q48 &amp; " -n " &amp; C48 &amp; " -m 3 -y " &amp; E48 &amp; " -t " &amp; D48 &amp; " -r " &amp; F48</f>
-        <v>ContGenAdm.exe add -i 4003 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
-        <f t="shared" si="31"/>
-        <v>4</v>
-      </c>
-      <c r="B49">
-        <v>30</v>
-      </c>
-      <c r="C49">
-        <v>20</v>
-      </c>
-      <c r="D49">
-        <v>250000</v>
-      </c>
-      <c r="E49">
-        <v>10</v>
-      </c>
-      <c r="F49">
-        <v>25</v>
-      </c>
-      <c r="G49" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>004_004</v>
-      </c>
-      <c r="I49" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>(Some 0.30)</v>
-      </c>
-      <c r="P49" t="str">
-        <f t="shared" si="33"/>
-        <v>Defaults_004_004.defaultValue</v>
-      </c>
-      <c r="Q49">
-        <f>VALUE(SUBSTITUTE(G49, "_", ""))</f>
-        <v>4004</v>
-      </c>
-      <c r="R49" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q49 &amp; " -n " &amp; C49 &amp; " -m 3 -y " &amp; E49 &amp; " -t " &amp; D49 &amp; " -r " &amp; F49</f>
-        <v>ContGenAdm.exe add -i 4004 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="B50">
-        <v>25</v>
-      </c>
-      <c r="C50">
-        <v>20</v>
-      </c>
-      <c r="D50">
-        <v>250000</v>
-      </c>
-      <c r="E50">
-        <v>10</v>
-      </c>
-      <c r="F50">
-        <v>25</v>
-      </c>
-      <c r="G50" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>004_005</v>
-      </c>
-      <c r="I50" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="5" t="str">
-        <f t="shared" si="29"/>
-        <v>(Some 0.25)</v>
-      </c>
-      <c r="P50" t="str">
-        <f t="shared" si="33"/>
-        <v>Defaults_004_005.defaultValue</v>
-      </c>
-      <c r="Q50">
-        <f>VALUE(SUBSTITUTE(G50, "_", ""))</f>
-        <v>4005</v>
-      </c>
-      <c r="R50" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q50 &amp; " -n " &amp; C50 &amp; " -m 3 -y " &amp; E50 &amp; " -t " &amp; D50 &amp; " -r " &amp; F50</f>
-        <v>ContGenAdm.exe add -i 4005 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51">
-        <f t="shared" si="31"/>
-        <v>6</v>
-      </c>
-      <c r="B51">
-        <v>5</v>
-      </c>
-      <c r="C51">
-        <v>20</v>
-      </c>
-      <c r="D51">
-        <v>250000</v>
-      </c>
-      <c r="E51">
-        <v>10</v>
-      </c>
-      <c r="F51">
-        <v>25</v>
-      </c>
-      <c r="G51" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>004_006</v>
-      </c>
-      <c r="I51" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="5" t="str">
-        <f>"(Some 0." &amp; RIGHT("00" &amp; B51, 2) &amp; ")"</f>
-        <v>(Some 0.05)</v>
-      </c>
-      <c r="P51" t="str">
-        <f t="shared" si="33"/>
-        <v>Defaults_004_006.defaultValue</v>
-      </c>
-      <c r="Q51">
-        <f>VALUE(SUBSTITUTE(G51, "_", ""))</f>
-        <v>4006</v>
-      </c>
-      <c r="R51" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q51 &amp; " -n " &amp; C51 &amp; " -m 3 -y " &amp; E51 &amp; " -t " &amp; D51 &amp; " -r " &amp; F51</f>
-        <v>ContGenAdm.exe add -i 4006 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52">
-        <f t="shared" si="31"/>
-        <v>7</v>
-      </c>
-      <c r="B52">
-        <v>10</v>
-      </c>
-      <c r="C52">
-        <v>20</v>
-      </c>
-      <c r="D52">
-        <v>250000</v>
-      </c>
-      <c r="E52">
-        <v>10</v>
-      </c>
-      <c r="F52">
-        <v>25</v>
-      </c>
-      <c r="G52" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>004_007</v>
-      </c>
-      <c r="I52" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" s="5" t="str">
-        <f t="shared" ref="J52:J65" si="34">"(Some 0." &amp; RIGHT("00" &amp; B52, 2) &amp; ")"</f>
-        <v>(Some 0.10)</v>
-      </c>
-      <c r="P52" t="str">
-        <f t="shared" si="33"/>
-        <v>Defaults_004_007.defaultValue</v>
-      </c>
-      <c r="Q52">
-        <f>VALUE(SUBSTITUTE(G52, "_", ""))</f>
-        <v>4007</v>
-      </c>
-      <c r="R52" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q52 &amp; " -n " &amp; C52 &amp; " -m 3 -y " &amp; E52 &amp; " -t " &amp; D52 &amp; " -r " &amp; F52</f>
-        <v>ContGenAdm.exe add -i 4007 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53">
-        <f t="shared" si="31"/>
-        <v>8</v>
-      </c>
-      <c r="B53">
-        <v>35</v>
-      </c>
-      <c r="C53">
-        <v>20</v>
-      </c>
-      <c r="D53">
-        <v>250000</v>
-      </c>
-      <c r="E53">
-        <v>10</v>
-      </c>
-      <c r="F53">
-        <v>25</v>
-      </c>
-      <c r="G53" s="1" t="str">
-        <f t="shared" si="32"/>
-        <v>004_008</v>
-      </c>
-      <c r="I53" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="5" t="str">
-        <f t="shared" si="34"/>
+      <c r="K53" s="5" t="str">
+        <f t="shared" si="41"/>
         <v>(Some 0.35)</v>
       </c>
-      <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
-      <c r="P53" t="str">
-        <f t="shared" si="33"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" t="str">
+        <f t="shared" si="40"/>
         <v>Defaults_004_008.defaultValue</v>
       </c>
-      <c r="Q53">
-        <f>VALUE(SUBSTITUTE(G53, "_", ""))</f>
+      <c r="R53">
+        <f t="shared" si="36"/>
         <v>4008</v>
       </c>
-      <c r="R53" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q53 &amp; " -n " &amp; C53 &amp; " -m 3 -y " &amp; E53 &amp; " -t " &amp; D53 &amp; " -r " &amp; F53</f>
+      <c r="S53" t="str">
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4008 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54">
-        <f t="shared" si="31"/>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54">
+        <f t="shared" si="38"/>
         <v>9</v>
       </c>
-      <c r="B54">
-        <f>+B53+5</f>
+      <c r="C54">
+        <f>+C53+5</f>
         <v>40</v>
       </c>
-      <c r="C54">
-        <v>20</v>
-      </c>
       <c r="D54">
+        <v>20</v>
+      </c>
+      <c r="E54">
         <v>250000</v>
       </c>
-      <c r="E54">
-        <v>10</v>
-      </c>
       <c r="F54">
-        <v>25</v>
-      </c>
-      <c r="G54" s="1" t="str">
-        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>25</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>004_009</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>17</v>
       </c>
-      <c r="J54" s="5" t="str">
-        <f t="shared" si="34"/>
+      <c r="K54" s="5" t="str">
+        <f t="shared" si="41"/>
         <v>(Some 0.40)</v>
       </c>
-      <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
-      <c r="P54" t="str">
-        <f t="shared" si="33"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" t="str">
+        <f t="shared" si="40"/>
         <v>Defaults_004_009.defaultValue</v>
       </c>
-      <c r="Q54">
-        <f>VALUE(SUBSTITUTE(G54, "_", ""))</f>
+      <c r="R54">
+        <f t="shared" si="36"/>
         <v>4009</v>
       </c>
-      <c r="R54" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q54 &amp; " -n " &amp; C54 &amp; " -m 3 -y " &amp; E54 &amp; " -t " &amp; D54 &amp; " -r " &amp; F54</f>
+      <c r="S54" t="str">
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4009 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55">
-        <f t="shared" si="31"/>
-        <v>10</v>
-      </c>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B55">
-        <f t="shared" ref="B55:B65" si="35">+B54+5</f>
+        <f t="shared" si="38"/>
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:C65" si="42">+C54+5</f>
         <v>45</v>
       </c>
-      <c r="C55">
-        <v>20</v>
-      </c>
       <c r="D55">
+        <v>20</v>
+      </c>
+      <c r="E55">
         <v>250000</v>
       </c>
-      <c r="E55">
-        <v>10</v>
-      </c>
       <c r="F55">
-        <v>25</v>
-      </c>
-      <c r="G55" s="1" t="str">
-        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>25</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>004_010</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="5" t="str">
-        <f t="shared" si="34"/>
+      <c r="K55" s="5" t="str">
+        <f t="shared" si="41"/>
         <v>(Some 0.45)</v>
       </c>
-      <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
-      <c r="P55" t="str">
-        <f t="shared" si="33"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" t="str">
+        <f t="shared" si="40"/>
         <v>Defaults_004_010.defaultValue</v>
       </c>
-      <c r="Q55">
-        <f>VALUE(SUBSTITUTE(G55, "_", ""))</f>
+      <c r="R55">
+        <f t="shared" si="36"/>
         <v>4010</v>
       </c>
-      <c r="R55" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q55 &amp; " -n " &amp; C55 &amp; " -m 3 -y " &amp; E55 &amp; " -t " &amp; D55 &amp; " -r " &amp; F55</f>
+      <c r="S55" t="str">
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4010 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56">
-        <f t="shared" si="31"/>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56">
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
-      <c r="B56">
-        <f t="shared" si="35"/>
+      <c r="C56">
+        <f t="shared" si="42"/>
         <v>50</v>
       </c>
-      <c r="C56">
-        <v>20</v>
-      </c>
       <c r="D56">
+        <v>20</v>
+      </c>
+      <c r="E56">
         <v>250000</v>
       </c>
-      <c r="E56">
-        <v>10</v>
-      </c>
       <c r="F56">
-        <v>25</v>
-      </c>
-      <c r="G56" s="1" t="str">
-        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>25</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>004_011</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>17</v>
       </c>
-      <c r="J56" s="5" t="str">
-        <f t="shared" si="34"/>
+      <c r="K56" s="5" t="str">
+        <f t="shared" si="41"/>
         <v>(Some 0.50)</v>
       </c>
-      <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
-      <c r="P56" t="str">
-        <f t="shared" si="33"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" t="str">
+        <f t="shared" si="40"/>
         <v>Defaults_004_011.defaultValue</v>
       </c>
-      <c r="Q56">
-        <f>VALUE(SUBSTITUTE(G56, "_", ""))</f>
+      <c r="R56">
+        <f t="shared" si="36"/>
         <v>4011</v>
       </c>
-      <c r="R56" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q56 &amp; " -n " &amp; C56 &amp; " -m 3 -y " &amp; E56 &amp; " -t " &amp; D56 &amp; " -r " &amp; F56</f>
+      <c r="S56" t="str">
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4011 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57">
-        <f t="shared" si="31"/>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57">
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
-      <c r="B57">
-        <f t="shared" si="35"/>
+      <c r="C57">
+        <f t="shared" si="42"/>
         <v>55</v>
       </c>
-      <c r="C57">
-        <v>20</v>
-      </c>
       <c r="D57">
+        <v>20</v>
+      </c>
+      <c r="E57">
         <v>250000</v>
       </c>
-      <c r="E57">
-        <v>10</v>
-      </c>
       <c r="F57">
-        <v>25</v>
-      </c>
-      <c r="G57" s="1" t="str">
-        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>25</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>004_012</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="5" t="str">
-        <f t="shared" si="34"/>
+      <c r="K57" s="5" t="str">
+        <f t="shared" si="41"/>
         <v>(Some 0.55)</v>
       </c>
-      <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
-      <c r="P57" t="str">
-        <f t="shared" si="33"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" t="str">
+        <f t="shared" si="40"/>
         <v>Defaults_004_012.defaultValue</v>
       </c>
-      <c r="Q57">
-        <f>VALUE(SUBSTITUTE(G57, "_", ""))</f>
+      <c r="R57">
+        <f t="shared" si="36"/>
         <v>4012</v>
       </c>
-      <c r="R57" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q57 &amp; " -n " &amp; C57 &amp; " -m 3 -y " &amp; E57 &amp; " -t " &amp; D57 &amp; " -r " &amp; F57</f>
+      <c r="S57" t="str">
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4012 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58">
-        <f t="shared" si="31"/>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58">
+        <f t="shared" si="38"/>
         <v>13</v>
       </c>
-      <c r="B58">
-        <f t="shared" si="35"/>
+      <c r="C58">
+        <f t="shared" si="42"/>
         <v>60</v>
       </c>
-      <c r="C58">
-        <v>20</v>
-      </c>
       <c r="D58">
+        <v>20</v>
+      </c>
+      <c r="E58">
         <v>250000</v>
       </c>
-      <c r="E58">
-        <v>10</v>
-      </c>
       <c r="F58">
-        <v>25</v>
-      </c>
-      <c r="G58" s="1" t="str">
-        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>25</v>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>004_013</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>17</v>
       </c>
-      <c r="J58" s="5" t="str">
-        <f t="shared" si="34"/>
+      <c r="K58" s="5" t="str">
+        <f t="shared" si="41"/>
         <v>(Some 0.60)</v>
       </c>
-      <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
-      <c r="P58" t="str">
-        <f t="shared" si="33"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" t="str">
+        <f t="shared" si="40"/>
         <v>Defaults_004_013.defaultValue</v>
       </c>
-      <c r="Q58">
-        <f>VALUE(SUBSTITUTE(G58, "_", ""))</f>
+      <c r="R58">
+        <f t="shared" si="36"/>
         <v>4013</v>
       </c>
-      <c r="R58" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q58 &amp; " -n " &amp; C58 &amp; " -m 3 -y " &amp; E58 &amp; " -t " &amp; D58 &amp; " -r " &amp; F58</f>
+      <c r="S58" t="str">
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4013 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59">
-        <f t="shared" si="31"/>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59">
+        <f t="shared" si="38"/>
         <v>14</v>
       </c>
-      <c r="B59">
-        <f t="shared" si="35"/>
+      <c r="C59">
+        <f t="shared" si="42"/>
         <v>65</v>
       </c>
-      <c r="C59">
-        <v>20</v>
-      </c>
       <c r="D59">
+        <v>20</v>
+      </c>
+      <c r="E59">
         <v>250000</v>
       </c>
-      <c r="E59">
-        <v>10</v>
-      </c>
       <c r="F59">
-        <v>25</v>
-      </c>
-      <c r="G59" s="1" t="str">
-        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>25</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>004_014</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>17</v>
       </c>
-      <c r="J59" s="5" t="str">
-        <f t="shared" si="34"/>
+      <c r="K59" s="5" t="str">
+        <f t="shared" si="41"/>
         <v>(Some 0.65)</v>
       </c>
-      <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
-      <c r="P59" t="str">
-        <f t="shared" si="33"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" t="str">
+        <f t="shared" si="40"/>
         <v>Defaults_004_014.defaultValue</v>
       </c>
-      <c r="Q59">
-        <f>VALUE(SUBSTITUTE(G59, "_", ""))</f>
+      <c r="R59">
+        <f t="shared" si="36"/>
         <v>4014</v>
       </c>
-      <c r="R59" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q59 &amp; " -n " &amp; C59 &amp; " -m 3 -y " &amp; E59 &amp; " -t " &amp; D59 &amp; " -r " &amp; F59</f>
+      <c r="S59" t="str">
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4014 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60">
-        <f t="shared" si="31"/>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60">
+        <f t="shared" si="38"/>
         <v>15</v>
       </c>
-      <c r="B60">
-        <f t="shared" si="35"/>
+      <c r="C60">
+        <f t="shared" si="42"/>
         <v>70</v>
       </c>
-      <c r="C60">
-        <v>20</v>
-      </c>
       <c r="D60">
+        <v>20</v>
+      </c>
+      <c r="E60">
         <v>250000</v>
       </c>
-      <c r="E60">
-        <v>10</v>
-      </c>
       <c r="F60">
-        <v>25</v>
-      </c>
-      <c r="G60" s="1" t="str">
-        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>25</v>
+      </c>
+      <c r="H60" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>004_015</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>17</v>
       </c>
-      <c r="J60" s="5" t="str">
-        <f t="shared" si="34"/>
+      <c r="K60" s="5" t="str">
+        <f t="shared" si="41"/>
         <v>(Some 0.70)</v>
       </c>
-      <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
-      <c r="P60" t="str">
-        <f t="shared" si="33"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" t="str">
+        <f t="shared" si="40"/>
         <v>Defaults_004_015.defaultValue</v>
       </c>
-      <c r="Q60">
-        <f>VALUE(SUBSTITUTE(G60, "_", ""))</f>
+      <c r="R60">
+        <f t="shared" si="36"/>
         <v>4015</v>
       </c>
-      <c r="R60" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q60 &amp; " -n " &amp; C60 &amp; " -m 3 -y " &amp; E60 &amp; " -t " &amp; D60 &amp; " -r " &amp; F60</f>
+      <c r="S60" t="str">
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4015 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61">
-        <f t="shared" si="31"/>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61">
+        <f t="shared" si="38"/>
         <v>16</v>
       </c>
-      <c r="B61">
-        <f t="shared" si="35"/>
+      <c r="C61">
+        <f t="shared" si="42"/>
         <v>75</v>
       </c>
-      <c r="C61">
-        <v>20</v>
-      </c>
       <c r="D61">
+        <v>20</v>
+      </c>
+      <c r="E61">
         <v>250000</v>
       </c>
-      <c r="E61">
-        <v>10</v>
-      </c>
       <c r="F61">
-        <v>25</v>
-      </c>
-      <c r="G61" s="1" t="str">
-        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>25</v>
+      </c>
+      <c r="H61" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>004_016</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>17</v>
       </c>
-      <c r="J61" s="5" t="str">
-        <f t="shared" si="34"/>
+      <c r="K61" s="5" t="str">
+        <f t="shared" si="41"/>
         <v>(Some 0.75)</v>
       </c>
-      <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
-      <c r="P61" t="str">
-        <f t="shared" si="33"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" t="str">
+        <f t="shared" si="40"/>
         <v>Defaults_004_016.defaultValue</v>
       </c>
-      <c r="Q61">
-        <f>VALUE(SUBSTITUTE(G61, "_", ""))</f>
+      <c r="R61">
+        <f t="shared" si="36"/>
         <v>4016</v>
       </c>
-      <c r="R61" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q61 &amp; " -n " &amp; C61 &amp; " -m 3 -y " &amp; E61 &amp; " -t " &amp; D61 &amp; " -r " &amp; F61</f>
+      <c r="S61" t="str">
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4016 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62">
-        <f t="shared" si="31"/>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62">
+        <f t="shared" si="38"/>
         <v>17</v>
       </c>
-      <c r="B62">
-        <f t="shared" si="35"/>
+      <c r="C62">
+        <f t="shared" si="42"/>
         <v>80</v>
       </c>
-      <c r="C62">
-        <v>20</v>
-      </c>
       <c r="D62">
+        <v>20</v>
+      </c>
+      <c r="E62">
         <v>250000</v>
       </c>
-      <c r="E62">
-        <v>10</v>
-      </c>
       <c r="F62">
-        <v>25</v>
-      </c>
-      <c r="G62" s="1" t="str">
-        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>25</v>
+      </c>
+      <c r="H62" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>004_017</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>17</v>
       </c>
-      <c r="J62" s="5" t="str">
-        <f t="shared" si="34"/>
+      <c r="K62" s="5" t="str">
+        <f t="shared" si="41"/>
         <v>(Some 0.80)</v>
       </c>
-      <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
-      <c r="P62" t="str">
-        <f t="shared" si="33"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" t="str">
+        <f t="shared" si="40"/>
         <v>Defaults_004_017.defaultValue</v>
       </c>
-      <c r="Q62">
-        <f>VALUE(SUBSTITUTE(G62, "_", ""))</f>
+      <c r="R62">
+        <f t="shared" si="36"/>
         <v>4017</v>
       </c>
-      <c r="R62" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q62 &amp; " -n " &amp; C62 &amp; " -m 3 -y " &amp; E62 &amp; " -t " &amp; D62 &amp; " -r " &amp; F62</f>
+      <c r="S62" t="str">
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4017 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63">
-        <f t="shared" si="31"/>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63">
+        <f t="shared" si="38"/>
         <v>18</v>
       </c>
-      <c r="B63">
-        <f t="shared" si="35"/>
+      <c r="C63">
+        <f t="shared" si="42"/>
         <v>85</v>
       </c>
-      <c r="C63">
-        <v>20</v>
-      </c>
       <c r="D63">
+        <v>20</v>
+      </c>
+      <c r="E63">
         <v>250000</v>
       </c>
-      <c r="E63">
-        <v>10</v>
-      </c>
       <c r="F63">
-        <v>25</v>
-      </c>
-      <c r="G63" s="1" t="str">
-        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>25</v>
+      </c>
+      <c r="H63" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>004_018</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>17</v>
       </c>
-      <c r="J63" s="5" t="str">
-        <f t="shared" si="34"/>
+      <c r="K63" s="5" t="str">
+        <f t="shared" si="41"/>
         <v>(Some 0.85)</v>
       </c>
-      <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
-      <c r="P63" t="str">
-        <f t="shared" si="33"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" t="str">
+        <f t="shared" si="40"/>
         <v>Defaults_004_018.defaultValue</v>
       </c>
-      <c r="Q63">
-        <f>VALUE(SUBSTITUTE(G63, "_", ""))</f>
+      <c r="R63">
+        <f t="shared" si="36"/>
         <v>4018</v>
       </c>
-      <c r="R63" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q63 &amp; " -n " &amp; C63 &amp; " -m 3 -y " &amp; E63 &amp; " -t " &amp; D63 &amp; " -r " &amp; F63</f>
+      <c r="S63" t="str">
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4018 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64">
-        <f t="shared" si="31"/>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64">
+        <f t="shared" si="38"/>
         <v>19</v>
       </c>
-      <c r="B64">
-        <f t="shared" si="35"/>
+      <c r="C64">
+        <f t="shared" si="42"/>
         <v>90</v>
       </c>
-      <c r="C64">
-        <v>20</v>
-      </c>
       <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64">
         <v>250000</v>
       </c>
-      <c r="E64">
-        <v>10</v>
-      </c>
       <c r="F64">
-        <v>25</v>
-      </c>
-      <c r="G64" s="1" t="str">
-        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>25</v>
+      </c>
+      <c r="H64" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>004_019</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="5" t="str">
-        <f t="shared" si="34"/>
+      <c r="K64" s="5" t="str">
+        <f t="shared" si="41"/>
         <v>(Some 0.90)</v>
       </c>
-      <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
-      <c r="P64" t="str">
-        <f t="shared" si="33"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" t="str">
+        <f t="shared" si="40"/>
         <v>Defaults_004_019.defaultValue</v>
       </c>
-      <c r="Q64">
-        <f>VALUE(SUBSTITUTE(G64, "_", ""))</f>
+      <c r="R64">
+        <f t="shared" si="36"/>
         <v>4019</v>
       </c>
-      <c r="R64" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q64 &amp; " -n " &amp; C64 &amp; " -m 3 -y " &amp; E64 &amp; " -t " &amp; D64 &amp; " -r " &amp; F64</f>
+      <c r="S64" t="str">
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4019 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65">
-        <f t="shared" si="31"/>
-        <v>20</v>
-      </c>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B65">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
+        <v>20</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="42"/>
         <v>95</v>
       </c>
-      <c r="C65">
-        <v>20</v>
-      </c>
       <c r="D65">
+        <v>20</v>
+      </c>
+      <c r="E65">
         <v>250000</v>
       </c>
-      <c r="E65">
-        <v>10</v>
-      </c>
       <c r="F65">
-        <v>25</v>
-      </c>
-      <c r="G65" s="1" t="str">
-        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>25</v>
+      </c>
+      <c r="H65" s="1" t="str">
+        <f t="shared" si="39"/>
         <v>004_020</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>17</v>
       </c>
-      <c r="J65" s="5" t="str">
-        <f t="shared" si="34"/>
+      <c r="K65" s="5" t="str">
+        <f t="shared" si="41"/>
         <v>(Some 0.95)</v>
       </c>
-      <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
-      <c r="P65" t="str">
-        <f t="shared" si="33"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" t="str">
+        <f t="shared" si="40"/>
         <v>Defaults_004_020.defaultValue</v>
       </c>
-      <c r="Q65">
-        <f>VALUE(SUBSTITUTE(G65, "_", ""))</f>
+      <c r="R65">
+        <f t="shared" si="36"/>
         <v>4020</v>
       </c>
-      <c r="R65" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q65 &amp; " -n " &amp; C65 &amp; " -m 3 -y " &amp; E65 &amp; " -t " &amp; D65 &amp; " -r " &amp; F65</f>
+      <c r="S65" t="str">
+        <f t="shared" si="37"/>
         <v>ContGenAdm.exe add -i 4020 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68">
         <v>0</v>
       </c>
-      <c r="B68">
-        <v>20</v>
-      </c>
       <c r="C68">
         <v>20</v>
       </c>
       <c r="D68">
+        <v>20</v>
+      </c>
+      <c r="E68">
         <v>250000</v>
       </c>
-      <c r="E68">
-        <v>10</v>
-      </c>
       <c r="F68">
-        <v>25</v>
-      </c>
-      <c r="G68" s="1" t="str">
-        <f>"005_" &amp; RIGHT("00" &amp; A68, 3)</f>
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <v>25</v>
+      </c>
+      <c r="H68" s="1" t="str">
+        <f>"005_" &amp; RIGHT("00" &amp; B68, 3)</f>
         <v>005_000</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>40</v>
       </c>
-      <c r="J68" s="5" t="str">
-        <f t="shared" ref="J68" si="36">"(Some 0." &amp; RIGHT("00" &amp; B68, 2) &amp; ")"</f>
+      <c r="K68" s="5" t="str">
+        <f t="shared" ref="K68" si="43">"(Some 0." &amp; RIGHT("00" &amp; C68, 2) &amp; ")"</f>
         <v>(Some 0.20)</v>
       </c>
-      <c r="P68" t="str">
-        <f t="shared" ref="P68" si="37">"Defaults_" &amp; G68 &amp; ".defaultValue"</f>
+      <c r="Q68" t="str">
+        <f t="shared" ref="Q68" si="44">"Defaults_" &amp; H68 &amp; ".defaultValue"</f>
         <v>Defaults_005_000.defaultValue</v>
       </c>
-      <c r="Q68">
-        <f>VALUE(SUBSTITUTE(G68, "_", ""))</f>
+      <c r="R68">
+        <f>VALUE(SUBSTITUTE(H68, "_", ""))</f>
         <v>5000</v>
       </c>
-      <c r="R68" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q68 &amp; " -n " &amp; C68 &amp; " -m 3 -y " &amp; E68 &amp; " -t " &amp; D68 &amp; " -r " &amp; F68</f>
+      <c r="S68" t="str">
+        <f>"ContGenAdm.exe add -i " &amp; R68 &amp; " -n " &amp; D68 &amp; " -m 3 -y " &amp; F68 &amp; " -t " &amp; E68 &amp; " -r " &amp; G68</f>
         <v>ContGenAdm.exe add -i 5000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71">
         <v>0</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>30</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>11</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>100000</v>
       </c>
-      <c r="E71">
-        <v>10</v>
-      </c>
       <c r="F71">
-        <v>25</v>
-      </c>
-      <c r="G71" s="1" t="str">
-        <f>"006_" &amp; RIGHT("00" &amp; A71, 3)</f>
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>25</v>
+      </c>
+      <c r="H71" s="1" t="str">
+        <f>"006_" &amp; RIGHT("00" &amp; B71, 3)</f>
         <v>006_000</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>41</v>
       </c>
-      <c r="J71" s="5" t="str">
-        <f t="shared" ref="J71:J73" si="38">"(Some 0." &amp; RIGHT("00" &amp; B71, 2) &amp; ")"</f>
+      <c r="K71" s="5" t="str">
+        <f t="shared" ref="K71:K73" si="45">"(Some 0." &amp; RIGHT("00" &amp; C71, 2) &amp; ")"</f>
         <v>(Some 0.30)</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>44</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>48</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>18</v>
       </c>
-      <c r="P71" t="str">
-        <f t="shared" ref="P71" si="39">"Defaults_" &amp; G71 &amp; ".defaultValue"</f>
+      <c r="Q71" t="str">
+        <f t="shared" ref="Q71" si="46">"Defaults_" &amp; H71 &amp; ".defaultValue"</f>
         <v>Defaults_006_000.defaultValue</v>
       </c>
-      <c r="Q71">
-        <f>VALUE(SUBSTITUTE(G71, "_", ""))</f>
+      <c r="R71">
+        <f t="shared" ref="R71:R77" si="47">VALUE(SUBSTITUTE(H71, "_", ""))</f>
         <v>6000</v>
       </c>
-      <c r="R71" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q71 &amp; " -n " &amp; C71 &amp; " -m 3 -y " &amp; E71 &amp; " -t " &amp; D71 &amp; " -r " &amp; F71</f>
+      <c r="S71" t="str">
+        <f t="shared" ref="S71:S77" si="48">"ContGenAdm.exe add -i " &amp; R71 &amp; " -n " &amp; D71 &amp; " -m 3 -y " &amp; F71 &amp; " -t " &amp; E71 &amp; " -r " &amp; G71</f>
         <v>ContGenAdm.exe add -i 6000 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72">
-        <f t="shared" ref="A72:A77" si="40">1+A71</f>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72">
+        <f t="shared" ref="B72:B77" si="49">1+B71</f>
         <v>1</v>
       </c>
-      <c r="B72">
-        <v>20</v>
-      </c>
       <c r="C72">
+        <v>20</v>
+      </c>
+      <c r="D72">
         <v>11</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>100000</v>
       </c>
-      <c r="E72">
-        <v>10</v>
-      </c>
       <c r="F72">
-        <v>25</v>
-      </c>
-      <c r="G72" s="1" t="str">
-        <f>"006_" &amp; RIGHT("00" &amp; A72, 3)</f>
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <v>25</v>
+      </c>
+      <c r="H72" s="1" t="str">
+        <f>"006_" &amp; RIGHT("00" &amp; B72, 3)</f>
         <v>006_001</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>42</v>
       </c>
-      <c r="J72" s="5" t="str">
-        <f t="shared" si="38"/>
+      <c r="K72" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>(Some 0.20)</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>44</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>48</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>18</v>
       </c>
-      <c r="P72" t="str">
-        <f t="shared" ref="P72:P77" si="41">"Defaults_" &amp; G72 &amp; ".defaultValue"</f>
+      <c r="Q72" t="str">
+        <f t="shared" ref="Q72:Q77" si="50">"Defaults_" &amp; H72 &amp; ".defaultValue"</f>
         <v>Defaults_006_001.defaultValue</v>
       </c>
-      <c r="Q72">
-        <f>VALUE(SUBSTITUTE(G72, "_", ""))</f>
+      <c r="R72">
+        <f t="shared" si="47"/>
         <v>6001</v>
       </c>
-      <c r="R72" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q72 &amp; " -n " &amp; C72 &amp; " -m 3 -y " &amp; E72 &amp; " -t " &amp; D72 &amp; " -r " &amp; F72</f>
+      <c r="S72" t="str">
+        <f t="shared" si="48"/>
         <v>ContGenAdm.exe add -i 6001 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73">
-        <f t="shared" si="40"/>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73">
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
-      <c r="B73">
-        <v>20</v>
-      </c>
       <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="D73">
         <v>11</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>100000</v>
       </c>
-      <c r="E73">
-        <v>10</v>
-      </c>
       <c r="F73">
-        <v>25</v>
-      </c>
-      <c r="G73" s="1" t="str">
-        <f>"006_" &amp; RIGHT("00" &amp; A73, 3)</f>
+        <v>10</v>
+      </c>
+      <c r="G73">
+        <v>25</v>
+      </c>
+      <c r="H73" s="1" t="str">
+        <f>"006_" &amp; RIGHT("00" &amp; B73, 3)</f>
         <v>006_002</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>42</v>
       </c>
-      <c r="J73" s="5" t="str">
-        <f t="shared" si="38"/>
+      <c r="K73" s="5" t="str">
+        <f t="shared" si="45"/>
         <v>(Some 0.20)</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>45</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>48</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>18</v>
       </c>
-      <c r="P73" t="str">
-        <f t="shared" si="41"/>
+      <c r="Q73" t="str">
+        <f t="shared" si="50"/>
         <v>Defaults_006_002.defaultValue</v>
       </c>
-      <c r="Q73">
-        <f>VALUE(SUBSTITUTE(G73, "_", ""))</f>
+      <c r="R73">
+        <f t="shared" si="47"/>
         <v>6002</v>
       </c>
-      <c r="R73" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q73 &amp; " -n " &amp; C73 &amp; " -m 3 -y " &amp; E73 &amp; " -t " &amp; D73 &amp; " -r " &amp; F73</f>
+      <c r="S73" t="str">
+        <f t="shared" si="48"/>
         <v>ContGenAdm.exe add -i 6002 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74">
-        <f t="shared" si="40"/>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74">
+        <f t="shared" si="49"/>
         <v>3</v>
       </c>
-      <c r="B74">
-        <v>20</v>
-      </c>
       <c r="C74">
+        <v>20</v>
+      </c>
+      <c r="D74">
         <v>11</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>100000</v>
       </c>
-      <c r="E74">
-        <v>10</v>
-      </c>
       <c r="F74">
-        <v>25</v>
-      </c>
-      <c r="G74" s="1" t="str">
-        <f t="shared" ref="G74:G77" si="42">"006_" &amp; RIGHT("00" &amp; A74, 3)</f>
+        <v>10</v>
+      </c>
+      <c r="G74">
+        <v>25</v>
+      </c>
+      <c r="H74" s="1" t="str">
+        <f t="shared" ref="H74:H77" si="51">"006_" &amp; RIGHT("00" &amp; B74, 3)</f>
         <v>006_003</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>42</v>
       </c>
-      <c r="J74" s="5" t="str">
-        <f t="shared" ref="J74" si="43">"(Some 0." &amp; RIGHT("00" &amp; B74, 2) &amp; ")"</f>
+      <c r="K74" s="5" t="str">
+        <f t="shared" ref="K74" si="52">"(Some 0." &amp; RIGHT("00" &amp; C74, 2) &amp; ")"</f>
         <v>(Some 0.20)</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>49</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>48</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>18</v>
       </c>
-      <c r="P74" t="str">
-        <f t="shared" si="41"/>
+      <c r="Q74" t="str">
+        <f t="shared" si="50"/>
         <v>Defaults_006_003.defaultValue</v>
       </c>
-      <c r="Q74">
-        <f>VALUE(SUBSTITUTE(G74, "_", ""))</f>
+      <c r="R74">
+        <f t="shared" si="47"/>
         <v>6003</v>
       </c>
-      <c r="R74" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q74 &amp; " -n " &amp; C74 &amp; " -m 3 -y " &amp; E74 &amp; " -t " &amp; D74 &amp; " -r " &amp; F74</f>
+      <c r="S74" t="str">
+        <f t="shared" si="48"/>
         <v>ContGenAdm.exe add -i 6003 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75">
-        <f t="shared" si="40"/>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75">
+        <f t="shared" si="49"/>
         <v>4</v>
       </c>
-      <c r="B75">
-        <v>20</v>
-      </c>
       <c r="C75">
+        <v>20</v>
+      </c>
+      <c r="D75">
         <v>11</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>100000</v>
       </c>
-      <c r="E75">
-        <v>10</v>
-      </c>
       <c r="F75">
-        <v>25</v>
-      </c>
-      <c r="G75" s="1" t="str">
-        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="G75">
+        <v>25</v>
+      </c>
+      <c r="H75" s="1" t="str">
+        <f t="shared" si="51"/>
         <v>006_004</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>42</v>
       </c>
-      <c r="J75" s="5" t="str">
-        <f t="shared" ref="J75:J76" si="44">"(Some 0." &amp; RIGHT("00" &amp; B75, 2) &amp; ")"</f>
+      <c r="K75" s="5" t="str">
+        <f t="shared" ref="K75:K76" si="53">"(Some 0." &amp; RIGHT("00" &amp; C75, 2) &amp; ")"</f>
         <v>(Some 0.20)</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>45</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>50</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>18</v>
       </c>
-      <c r="P75" t="str">
-        <f t="shared" si="41"/>
+      <c r="Q75" t="str">
+        <f t="shared" si="50"/>
         <v>Defaults_006_004.defaultValue</v>
       </c>
-      <c r="Q75">
-        <f>VALUE(SUBSTITUTE(G75, "_", ""))</f>
+      <c r="R75">
+        <f t="shared" si="47"/>
         <v>6004</v>
       </c>
-      <c r="R75" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q75 &amp; " -n " &amp; C75 &amp; " -m 3 -y " &amp; E75 &amp; " -t " &amp; D75 &amp; " -r " &amp; F75</f>
+      <c r="S75" t="str">
+        <f t="shared" si="48"/>
         <v>ContGenAdm.exe add -i 6004 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76">
-        <f t="shared" si="40"/>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76">
+        <f t="shared" si="49"/>
         <v>5</v>
       </c>
-      <c r="B76">
-        <v>20</v>
-      </c>
       <c r="C76">
+        <v>20</v>
+      </c>
+      <c r="D76">
         <v>11</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>100000</v>
       </c>
-      <c r="E76">
-        <v>10</v>
-      </c>
       <c r="F76">
-        <v>25</v>
-      </c>
-      <c r="G76" s="1" t="str">
-        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="G76">
+        <v>25</v>
+      </c>
+      <c r="H76" s="1" t="str">
+        <f t="shared" si="51"/>
         <v>006_005</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>42</v>
       </c>
-      <c r="J76" s="5" t="str">
-        <f t="shared" si="44"/>
+      <c r="K76" s="5" t="str">
+        <f t="shared" si="53"/>
         <v>(Some 0.20)</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>45</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>51</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>18</v>
       </c>
-      <c r="P76" t="str">
-        <f t="shared" si="41"/>
+      <c r="Q76" t="str">
+        <f t="shared" si="50"/>
         <v>Defaults_006_005.defaultValue</v>
       </c>
-      <c r="Q76">
-        <f>VALUE(SUBSTITUTE(G76, "_", ""))</f>
+      <c r="R76">
+        <f t="shared" si="47"/>
         <v>6005</v>
       </c>
-      <c r="R76" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q76 &amp; " -n " &amp; C76 &amp; " -m 3 -y " &amp; E76 &amp; " -t " &amp; D76 &amp; " -r " &amp; F76</f>
+      <c r="S76" t="str">
+        <f t="shared" si="48"/>
         <v>ContGenAdm.exe add -i 6005 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77">
-        <f t="shared" si="40"/>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77">
+        <f t="shared" si="49"/>
         <v>6</v>
       </c>
-      <c r="B77">
-        <v>20</v>
-      </c>
       <c r="C77">
+        <v>20</v>
+      </c>
+      <c r="D77">
         <v>11</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>100000</v>
       </c>
-      <c r="E77">
-        <v>10</v>
-      </c>
       <c r="F77">
-        <v>25</v>
-      </c>
-      <c r="G77" s="1" t="str">
-        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <v>25</v>
+      </c>
+      <c r="H77" s="1" t="str">
+        <f t="shared" si="51"/>
         <v>006_006</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>41</v>
       </c>
-      <c r="J77" s="5" t="str">
-        <f t="shared" ref="J77" si="45">"(Some 0." &amp; RIGHT("00" &amp; B77, 2) &amp; ")"</f>
+      <c r="K77" s="5" t="str">
+        <f t="shared" ref="K77" si="54">"(Some 0." &amp; RIGHT("00" &amp; C77, 2) &amp; ")"</f>
         <v>(Some 0.20)</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N77" t="s">
         <v>49</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>52</v>
       </c>
-      <c r="O77" t="s">
+      <c r="P77" t="s">
         <v>18</v>
       </c>
-      <c r="P77" t="str">
-        <f t="shared" si="41"/>
+      <c r="Q77" t="str">
+        <f t="shared" si="50"/>
         <v>Defaults_006_006.defaultValue</v>
       </c>
-      <c r="Q77">
-        <f>VALUE(SUBSTITUTE(G77, "_", ""))</f>
+      <c r="R77">
+        <f t="shared" si="47"/>
         <v>6006</v>
       </c>
-      <c r="R77" t="str">
-        <f>"ContGenAdm.exe add -i " &amp; Q77 &amp; " -n " &amp; C77 &amp; " -m 3 -y " &amp; E77 &amp; " -t " &amp; D77 &amp; " -r " &amp; F77</f>
+      <c r="S77" t="str">
+        <f t="shared" si="48"/>
         <v>ContGenAdm.exe add -i 6006 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I78"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I79"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="I80"/>
-    </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I81"/>
-    </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I82"/>
-    </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I83"/>
-    </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I84"/>
-    </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I85"/>
-    </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I86"/>
-    </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I87"/>
-    </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I88"/>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J78"/>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J79"/>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>30</v>
+      </c>
+      <c r="D80">
+        <v>20</v>
+      </c>
+      <c r="E80">
+        <v>250000</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80">
+        <v>25</v>
+      </c>
+      <c r="H80" s="1" t="str">
+        <f>"007_" &amp; RIGHT("00" &amp; B80, 3)</f>
+        <v>007_000</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K80" s="12" t="str">
+        <f t="shared" ref="K80" si="55">"(Some 0." &amp; RIGHT("00" &amp; C80, 2) &amp; ")"</f>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M80" s="12" t="str">
+        <f t="shared" ref="M80" si="56">"(Some 0." &amp; C80 &amp; ")"</f>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" t="str">
+        <f t="shared" ref="Q80" si="57">"Defaults_" &amp; H80 &amp; ".defaultValue"</f>
+        <v>Defaults_007_000.defaultValue</v>
+      </c>
+      <c r="R80">
+        <f t="shared" ref="R80" si="58">VALUE(SUBSTITUTE(H80, "_", ""))</f>
+        <v>7000</v>
+      </c>
+      <c r="S80" t="str">
+        <f t="shared" ref="S80" si="59">"ContGenAdm.exe add -i " &amp; R80 &amp; " -n " &amp; D80 &amp; " -m 3 -y " &amp; F80 &amp; " -t " &amp; E80 &amp; " -r " &amp; G80</f>
+        <v>ContGenAdm.exe add -i 7000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81">
+        <f t="shared" ref="B81" si="60">1+B80</f>
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>30</v>
+      </c>
+      <c r="D81">
+        <v>20</v>
+      </c>
+      <c r="E81">
+        <v>250000</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81">
+        <v>25</v>
+      </c>
+      <c r="H81" s="1" t="str">
+        <f>"007_" &amp; RIGHT("00" &amp; B81, 3)</f>
+        <v>007_001</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K81" s="12" t="str">
+        <f t="shared" ref="K81" si="61">"(Some 0." &amp; RIGHT("00" &amp; C81, 2) &amp; ")"</f>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M81" s="12" t="str">
+        <f t="shared" ref="M81" si="62">"(Some 0." &amp; C81 &amp; ")"</f>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="11"/>
+      <c r="Q81" t="str">
+        <f t="shared" ref="Q81" si="63">"Defaults_" &amp; H81 &amp; ".defaultValue"</f>
+        <v>Defaults_007_001.defaultValue</v>
+      </c>
+      <c r="R81">
+        <f t="shared" ref="R81" si="64">VALUE(SUBSTITUTE(H81, "_", ""))</f>
+        <v>7001</v>
+      </c>
+      <c r="S81" t="str">
+        <f t="shared" ref="S81" si="65">"ContGenAdm.exe add -i " &amp; R81 &amp; " -n " &amp; D81 &amp; " -m 3 -y " &amp; F81 &amp; " -t " &amp; E81 &amp; " -r " &amp; G81</f>
+        <v>ContGenAdm.exe add -i 7001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J82" s="11"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J83" s="11"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+      <c r="D84">
+        <v>20</v>
+      </c>
+      <c r="E84">
+        <v>250000</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84">
+        <v>25</v>
+      </c>
+      <c r="H84" s="1" t="str">
+        <f>"008_" &amp; RIGHT("00" &amp; B84, 3)</f>
+        <v>008_000</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K84" s="12" t="str">
+        <f t="shared" ref="K84" si="66">"(Some 0." &amp; RIGHT("00" &amp; C84, 2) &amp; ")"</f>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M84" s="12" t="str">
+        <f t="shared" ref="M84" si="67">"(Some 0." &amp; C84 &amp; ")"</f>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" t="str">
+        <f t="shared" ref="Q84" si="68">"Defaults_" &amp; H84 &amp; ".defaultValue"</f>
+        <v>Defaults_008_000.defaultValue</v>
+      </c>
+      <c r="R84">
+        <f t="shared" ref="R84" si="69">VALUE(SUBSTITUTE(H84, "_", ""))</f>
+        <v>8000</v>
+      </c>
+      <c r="S84" t="str">
+        <f t="shared" ref="S84" si="70">"ContGenAdm.exe add -i " &amp; R84 &amp; " -n " &amp; D84 &amp; " -m 3 -y " &amp; F84 &amp; " -t " &amp; E84 &amp; " -r " &amp; G84</f>
+        <v>ContGenAdm.exe add -i 8000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85">
+        <f t="shared" ref="B85:B87" si="71">1+B84</f>
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>30</v>
+      </c>
+      <c r="D85">
+        <v>20</v>
+      </c>
+      <c r="E85">
+        <v>250000</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85">
+        <v>25</v>
+      </c>
+      <c r="H85" s="1" t="str">
+        <f>"008_" &amp; RIGHT("00" &amp; B85, 3)</f>
+        <v>008_001</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K85" s="12" t="str">
+        <f t="shared" ref="K85" si="72">"(Some 0." &amp; RIGHT("00" &amp; C85, 2) &amp; ")"</f>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M85" s="12" t="str">
+        <f t="shared" ref="M85" si="73">"(Some 0." &amp; C85 &amp; ")"</f>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" t="str">
+        <f t="shared" ref="Q85" si="74">"Defaults_" &amp; H85 &amp; ".defaultValue"</f>
+        <v>Defaults_008_001.defaultValue</v>
+      </c>
+      <c r="R85">
+        <f t="shared" ref="R85" si="75">VALUE(SUBSTITUTE(H85, "_", ""))</f>
+        <v>8001</v>
+      </c>
+      <c r="S85" t="str">
+        <f t="shared" ref="S85" si="76">"ContGenAdm.exe add -i " &amp; R85 &amp; " -n " &amp; D85 &amp; " -m 3 -y " &amp; F85 &amp; " -t " &amp; E85 &amp; " -r " &amp; G85</f>
+        <v>ContGenAdm.exe add -i 8001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86">
+        <f t="shared" si="71"/>
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>30</v>
+      </c>
+      <c r="D86">
+        <v>20</v>
+      </c>
+      <c r="E86">
+        <v>250000</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86">
+        <v>25</v>
+      </c>
+      <c r="H86" s="1" t="str">
+        <f t="shared" ref="H86:H87" si="77">"008_" &amp; RIGHT("00" &amp; B86, 3)</f>
+        <v>008_002</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K86" s="12" t="str">
+        <f t="shared" ref="K86:K87" si="78">"(Some 0." &amp; RIGHT("00" &amp; C86, 2) &amp; ")"</f>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M86" s="12" t="str">
+        <f t="shared" ref="M86:M87" si="79">"(Some 0." &amp; C86 &amp; ")"</f>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" t="str">
+        <f t="shared" ref="Q86:Q87" si="80">"Defaults_" &amp; H86 &amp; ".defaultValue"</f>
+        <v>Defaults_008_002.defaultValue</v>
+      </c>
+      <c r="R86">
+        <f t="shared" ref="R86:R87" si="81">VALUE(SUBSTITUTE(H86, "_", ""))</f>
+        <v>8002</v>
+      </c>
+      <c r="S86" t="str">
+        <f t="shared" ref="S86:S87" si="82">"ContGenAdm.exe add -i " &amp; R86 &amp; " -n " &amp; D86 &amp; " -m 3 -y " &amp; F86 &amp; " -t " &amp; E86 &amp; " -r " &amp; G86</f>
+        <v>ContGenAdm.exe add -i 8002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87">
+        <f t="shared" si="71"/>
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>30</v>
+      </c>
+      <c r="D87">
+        <v>20</v>
+      </c>
+      <c r="E87">
+        <v>250000</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87">
+        <v>25</v>
+      </c>
+      <c r="H87" s="1" t="str">
+        <f t="shared" si="77"/>
+        <v>008_003</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K87" s="12" t="str">
+        <f t="shared" si="78"/>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M87" s="12" t="str">
+        <f t="shared" si="79"/>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" t="str">
+        <f t="shared" si="80"/>
+        <v>Defaults_008_003.defaultValue</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="81"/>
+        <v>8003</v>
+      </c>
+      <c r="S87" t="str">
+        <f t="shared" si="82"/>
+        <v>ContGenAdm.exe add -i 8003 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J88"/>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81A52A9-1A34-4986-9972-648242F86097}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FD178E-033F-4867-A27E-1C9D57717C3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="3" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults" sheetId="1" r:id="rId1"/>
     <sheet name="Chart1" sheetId="2" r:id="rId2"/>
     <sheet name="NumberOfSubstances" sheetId="3" r:id="rId3"/>
+    <sheet name="CLM-20190610-01" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="55">
   <si>
     <t>Base ?</t>
   </si>
@@ -192,6 +193,12 @@
   </si>
   <si>
     <t>(Some 0.000_200, 300.0)</t>
+  </si>
+  <si>
+    <t>numberOfAminoAcids</t>
+  </si>
+  <si>
+    <t>runTime</t>
   </si>
 </sst>
 </file>
@@ -1746,12 +1753,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
   <dimension ref="B1:AA89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6864" ySplit="486" topLeftCell="J72" activePane="bottomRight"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6864" ySplit="486" topLeftCell="M72" activePane="bottomRight"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
-      <selection pane="bottomRight" activeCell="J80" sqref="J80:P87"/>
+      <selection pane="bottomRight" activeCell="S80" sqref="S80:S87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6360,4 +6367,259 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296B53CE-E639-47C3-895C-8A0523FACC4E}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>6000</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>6001</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>6002</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>6003</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F6">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>6004</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>6005</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F8">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>4000</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>4002</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>4008</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FD178E-033F-4867-A27E-1C9D57717C3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E09555-9005-4BB0-B1D5-7DA36D7028D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="3" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="4" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults" sheetId="1" r:id="rId1"/>
     <sheet name="Chart1" sheetId="2" r:id="rId2"/>
     <sheet name="NumberOfSubstances" sheetId="3" r:id="rId3"/>
     <sheet name="CLM-20190610-01" sheetId="4" r:id="rId4"/>
+    <sheet name="THUNDER-20190610" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
   <si>
     <t>Base ?</t>
   </si>
@@ -6373,7 +6374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296B53CE-E639-47C3-895C-8A0523FACC4E}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -6622,4 +6623,139 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FE550C-090F-4895-978F-F30B867BB2A1}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>6000</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>6001</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>6002</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>6003</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>6005</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F6">
+        <v>2.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E09555-9005-4BB0-B1D5-7DA36D7028D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C34CBC7-1D09-40F9-8966-CD61BA99B364}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="4" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="55">
   <si>
     <t>Base ?</t>
   </si>
@@ -1752,14 +1752,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
-  <dimension ref="B1:AA89"/>
+  <dimension ref="B1:AA104"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6864" ySplit="486" topLeftCell="M72" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6864" ySplit="486" topLeftCell="M81" activePane="bottomRight"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
-      <selection pane="bottomRight" activeCell="S80" sqref="S80:S87"/>
+      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
+      <selection pane="bottomRight" activeCell="S103" sqref="S103:S104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B81">
-        <f t="shared" ref="B81" si="60">1+B80</f>
+        <f t="shared" ref="B81:B83" si="60">1+B80</f>
         <v>1</v>
       </c>
       <c r="C81">
@@ -4967,134 +4967,134 @@
       </c>
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="J82" s="11"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
+      <c r="B82">
+        <f t="shared" si="60"/>
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>30</v>
+      </c>
+      <c r="D82">
+        <v>20</v>
+      </c>
+      <c r="E82">
+        <v>250000</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
+        <v>25</v>
+      </c>
+      <c r="H82" s="1" t="str">
+        <f t="shared" ref="H82:H83" si="66">"007_" &amp; RIGHT("00" &amp; B82, 3)</f>
+        <v>007_002</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K82" s="12" t="str">
+        <f t="shared" ref="K82:K83" si="67">"(Some 0." &amp; RIGHT("00" &amp; C82, 2) &amp; ")"</f>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M82" s="12" t="str">
+        <f t="shared" ref="M82:M83" si="68">"(Some 0." &amp; C82 &amp; ")"</f>
+        <v>(Some 0.30)</v>
+      </c>
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
       <c r="P82" s="11"/>
+      <c r="Q82" t="str">
+        <f t="shared" ref="Q82:Q83" si="69">"Defaults_" &amp; H82 &amp; ".defaultValue"</f>
+        <v>Defaults_007_002.defaultValue</v>
+      </c>
+      <c r="R82">
+        <f t="shared" ref="R82:R83" si="70">VALUE(SUBSTITUTE(H82, "_", ""))</f>
+        <v>7002</v>
+      </c>
+      <c r="S82" t="str">
+        <f t="shared" ref="S82:S83" si="71">"ContGenAdm.exe add -i " &amp; R82 &amp; " -n " &amp; D82 &amp; " -m 3 -y " &amp; F82 &amp; " -t " &amp; E82 &amp; " -r " &amp; G82</f>
+        <v>ContGenAdm.exe add -i 7002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="J83" s="11"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
+      <c r="B83">
+        <f t="shared" si="60"/>
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>30</v>
+      </c>
+      <c r="D83">
+        <v>20</v>
+      </c>
+      <c r="E83">
+        <v>250000</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83">
+        <v>25</v>
+      </c>
+      <c r="H83" s="1" t="str">
+        <f t="shared" si="66"/>
+        <v>007_003</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K83" s="12" t="str">
+        <f t="shared" si="67"/>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M83" s="12" t="str">
+        <f t="shared" si="68"/>
+        <v>(Some 0.30)</v>
+      </c>
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
       <c r="P83" s="11"/>
+      <c r="Q83" t="str">
+        <f t="shared" si="69"/>
+        <v>Defaults_007_003.defaultValue</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="70"/>
+        <v>7003</v>
+      </c>
+      <c r="S83" t="str">
+        <f t="shared" si="71"/>
+        <v>ContGenAdm.exe add -i 7003 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>30</v>
-      </c>
-      <c r="D84">
-        <v>20</v>
-      </c>
-      <c r="E84">
-        <v>250000</v>
-      </c>
-      <c r="F84">
-        <v>10</v>
-      </c>
-      <c r="G84">
-        <v>25</v>
-      </c>
-      <c r="H84" s="1" t="str">
-        <f>"008_" &amp; RIGHT("00" &amp; B84, 3)</f>
-        <v>008_000</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K84" s="12" t="str">
-        <f t="shared" ref="K84" si="66">"(Some 0." &amp; RIGHT("00" &amp; C84, 2) &amp; ")"</f>
-        <v>(Some 0.30)</v>
-      </c>
-      <c r="L84" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M84" s="12" t="str">
-        <f t="shared" ref="M84" si="67">"(Some 0." &amp; C84 &amp; ")"</f>
-        <v>(Some 0.30)</v>
-      </c>
+      <c r="J84" s="11"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
       <c r="N84" s="11"/>
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
-      <c r="Q84" t="str">
-        <f t="shared" ref="Q84" si="68">"Defaults_" &amp; H84 &amp; ".defaultValue"</f>
-        <v>Defaults_008_000.defaultValue</v>
-      </c>
-      <c r="R84">
-        <f t="shared" ref="R84" si="69">VALUE(SUBSTITUTE(H84, "_", ""))</f>
-        <v>8000</v>
-      </c>
-      <c r="S84" t="str">
-        <f t="shared" ref="S84" si="70">"ContGenAdm.exe add -i " &amp; R84 &amp; " -n " &amp; D84 &amp; " -m 3 -y " &amp; F84 &amp; " -t " &amp; E84 &amp; " -r " &amp; G84</f>
-        <v>ContGenAdm.exe add -i 8000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85">
-        <f t="shared" ref="B85:B87" si="71">1+B84</f>
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>30</v>
-      </c>
-      <c r="D85">
-        <v>20</v>
-      </c>
-      <c r="E85">
-        <v>250000</v>
-      </c>
-      <c r="F85">
-        <v>10</v>
-      </c>
-      <c r="G85">
-        <v>25</v>
-      </c>
-      <c r="H85" s="1" t="str">
-        <f>"008_" &amp; RIGHT("00" &amp; B85, 3)</f>
-        <v>008_001</v>
-      </c>
-      <c r="J85" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K85" s="12" t="str">
-        <f t="shared" ref="K85" si="72">"(Some 0." &amp; RIGHT("00" &amp; C85, 2) &amp; ")"</f>
-        <v>(Some 0.30)</v>
-      </c>
-      <c r="L85" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M85" s="12" t="str">
-        <f t="shared" ref="M85" si="73">"(Some 0." &amp; C85 &amp; ")"</f>
-        <v>(Some 0.30)</v>
-      </c>
+      <c r="J85" s="11"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
-      <c r="Q85" t="str">
-        <f t="shared" ref="Q85" si="74">"Defaults_" &amp; H85 &amp; ".defaultValue"</f>
-        <v>Defaults_008_001.defaultValue</v>
-      </c>
-      <c r="R85">
-        <f t="shared" ref="R85" si="75">VALUE(SUBSTITUTE(H85, "_", ""))</f>
-        <v>8001</v>
-      </c>
-      <c r="S85" t="str">
-        <f t="shared" ref="S85" si="76">"ContGenAdm.exe add -i " &amp; R85 &amp; " -n " &amp; D85 &amp; " -m 3 -y " &amp; F85 &amp; " -t " &amp; E85 &amp; " -r " &amp; G85</f>
-        <v>ContGenAdm.exe add -i 8001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
-      </c>
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B86">
-        <f t="shared" si="71"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>30</v>
@@ -5112,43 +5112,43 @@
         <v>25</v>
       </c>
       <c r="H86" s="1" t="str">
-        <f t="shared" ref="H86:H87" si="77">"008_" &amp; RIGHT("00" &amp; B86, 3)</f>
-        <v>008_002</v>
+        <f>"008_" &amp; RIGHT("00" &amp; B86, 3)</f>
+        <v>008_000</v>
       </c>
       <c r="J86" s="11" t="s">
         <v>41</v>
       </c>
       <c r="K86" s="12" t="str">
-        <f t="shared" ref="K86:K87" si="78">"(Some 0." &amp; RIGHT("00" &amp; C86, 2) &amp; ")"</f>
+        <f t="shared" ref="K86" si="72">"(Some 0." &amp; RIGHT("00" &amp; C86, 2) &amp; ")"</f>
         <v>(Some 0.30)</v>
       </c>
       <c r="L86" s="11" t="s">
         <v>17</v>
       </c>
       <c r="M86" s="12" t="str">
-        <f t="shared" ref="M86:M87" si="79">"(Some 0." &amp; C86 &amp; ")"</f>
+        <f t="shared" ref="M86" si="73">"(Some 0." &amp; C86 &amp; ")"</f>
         <v>(Some 0.30)</v>
       </c>
       <c r="N86" s="11"/>
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
       <c r="Q86" t="str">
-        <f t="shared" ref="Q86:Q87" si="80">"Defaults_" &amp; H86 &amp; ".defaultValue"</f>
-        <v>Defaults_008_002.defaultValue</v>
+        <f t="shared" ref="Q86" si="74">"Defaults_" &amp; H86 &amp; ".defaultValue"</f>
+        <v>Defaults_008_000.defaultValue</v>
       </c>
       <c r="R86">
-        <f t="shared" ref="R86:R87" si="81">VALUE(SUBSTITUTE(H86, "_", ""))</f>
-        <v>8002</v>
+        <f t="shared" ref="R86" si="75">VALUE(SUBSTITUTE(H86, "_", ""))</f>
+        <v>8000</v>
       </c>
       <c r="S86" t="str">
-        <f t="shared" ref="S86:S87" si="82">"ContGenAdm.exe add -i " &amp; R86 &amp; " -n " &amp; D86 &amp; " -m 3 -y " &amp; F86 &amp; " -t " &amp; E86 &amp; " -r " &amp; G86</f>
-        <v>ContGenAdm.exe add -i 8002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+        <f t="shared" ref="S86" si="76">"ContGenAdm.exe add -i " &amp; R86 &amp; " -n " &amp; D86 &amp; " -m 3 -y " &amp; F86 &amp; " -t " &amp; E86 &amp; " -r " &amp; G86</f>
+        <v>ContGenAdm.exe add -i 8000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B87">
-        <f t="shared" si="71"/>
-        <v>3</v>
+        <f t="shared" ref="B87:B89" si="77">1+B86</f>
+        <v>1</v>
       </c>
       <c r="C87">
         <v>30</v>
@@ -5166,44 +5166,711 @@
         <v>25</v>
       </c>
       <c r="H87" s="1" t="str">
-        <f t="shared" si="77"/>
-        <v>008_003</v>
+        <f>"008_" &amp; RIGHT("00" &amp; B87, 3)</f>
+        <v>008_001</v>
       </c>
       <c r="J87" s="11" t="s">
         <v>41</v>
       </c>
       <c r="K87" s="12" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="K87" si="78">"(Some 0." &amp; RIGHT("00" &amp; C87, 2) &amp; ")"</f>
         <v>(Some 0.30)</v>
       </c>
       <c r="L87" s="11" t="s">
         <v>17</v>
       </c>
       <c r="M87" s="12" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="M87" si="79">"(Some 0." &amp; C87 &amp; ")"</f>
         <v>(Some 0.30)</v>
       </c>
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
       <c r="Q87" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="Q87" si="80">"Defaults_" &amp; H87 &amp; ".defaultValue"</f>
+        <v>Defaults_008_001.defaultValue</v>
+      </c>
+      <c r="R87">
+        <f t="shared" ref="R87" si="81">VALUE(SUBSTITUTE(H87, "_", ""))</f>
+        <v>8001</v>
+      </c>
+      <c r="S87" t="str">
+        <f t="shared" ref="S87" si="82">"ContGenAdm.exe add -i " &amp; R87 &amp; " -n " &amp; D87 &amp; " -m 3 -y " &amp; F87 &amp; " -t " &amp; E87 &amp; " -r " &amp; G87</f>
+        <v>ContGenAdm.exe add -i 8001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88">
+        <f t="shared" si="77"/>
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>30</v>
+      </c>
+      <c r="D88">
+        <v>20</v>
+      </c>
+      <c r="E88">
+        <v>250000</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
+        <v>25</v>
+      </c>
+      <c r="H88" s="1" t="str">
+        <f t="shared" ref="H88:H89" si="83">"008_" &amp; RIGHT("00" &amp; B88, 3)</f>
+        <v>008_002</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K88" s="12" t="str">
+        <f t="shared" ref="K88:K89" si="84">"(Some 0." &amp; RIGHT("00" &amp; C88, 2) &amp; ")"</f>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M88" s="12" t="str">
+        <f t="shared" ref="M88:M89" si="85">"(Some 0." &amp; C88 &amp; ")"</f>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="11"/>
+      <c r="Q88" t="str">
+        <f t="shared" ref="Q88:Q89" si="86">"Defaults_" &amp; H88 &amp; ".defaultValue"</f>
+        <v>Defaults_008_002.defaultValue</v>
+      </c>
+      <c r="R88">
+        <f t="shared" ref="R88:R89" si="87">VALUE(SUBSTITUTE(H88, "_", ""))</f>
+        <v>8002</v>
+      </c>
+      <c r="S88" t="str">
+        <f t="shared" ref="S88:S89" si="88">"ContGenAdm.exe add -i " &amp; R88 &amp; " -n " &amp; D88 &amp; " -m 3 -y " &amp; F88 &amp; " -t " &amp; E88 &amp; " -r " &amp; G88</f>
+        <v>ContGenAdm.exe add -i 8002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89">
+        <f t="shared" si="77"/>
+        <v>3</v>
+      </c>
+      <c r="C89">
+        <v>30</v>
+      </c>
+      <c r="D89">
+        <v>20</v>
+      </c>
+      <c r="E89">
+        <v>250000</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>25</v>
+      </c>
+      <c r="H89" s="1" t="str">
+        <f t="shared" si="83"/>
+        <v>008_003</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K89" s="12" t="str">
+        <f t="shared" si="84"/>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L89" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M89" s="12" t="str">
+        <f t="shared" si="85"/>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="11"/>
+      <c r="Q89" t="str">
+        <f t="shared" si="86"/>
         <v>Defaults_008_003.defaultValue</v>
       </c>
-      <c r="R87">
-        <f t="shared" si="81"/>
+      <c r="R89">
+        <f t="shared" si="87"/>
         <v>8003</v>
       </c>
-      <c r="S87" t="str">
-        <f t="shared" si="82"/>
+      <c r="S89" t="str">
+        <f t="shared" si="88"/>
         <v>ContGenAdm.exe add -i 8003 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="J88"/>
-    </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="J89"/>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J90"/>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J91"/>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>30</v>
+      </c>
+      <c r="D92">
+        <v>20</v>
+      </c>
+      <c r="E92">
+        <v>250000</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92">
+        <v>25</v>
+      </c>
+      <c r="H92" s="1" t="str">
+        <f>"009_" &amp; RIGHT("00" &amp; B92, 3)</f>
+        <v>009_000</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K92" s="12" t="str">
+        <f t="shared" ref="K92:K93" si="89">"(Some 0." &amp; RIGHT("00" &amp; C92, 2) &amp; ")"</f>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M92" s="12"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" t="str">
+        <f t="shared" ref="Q92:Q93" si="90">"Defaults_" &amp; H92 &amp; ".defaultValue"</f>
+        <v>Defaults_009_000.defaultValue</v>
+      </c>
+      <c r="R92">
+        <f t="shared" ref="R92:R93" si="91">VALUE(SUBSTITUTE(H92, "_", ""))</f>
+        <v>9000</v>
+      </c>
+      <c r="S92" t="str">
+        <f t="shared" ref="S92:S93" si="92">"ContGenAdm.exe add -i " &amp; R92 &amp; " -n " &amp; D92 &amp; " -m 3 -y " &amp; F92 &amp; " -t " &amp; E92 &amp; " -r " &amp; G92</f>
+        <v>ContGenAdm.exe add -i 9000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93">
+        <f t="shared" ref="B93:B100" si="93">1+B92</f>
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>30</v>
+      </c>
+      <c r="D93">
+        <v>20</v>
+      </c>
+      <c r="E93">
+        <v>250000</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93">
+        <v>25</v>
+      </c>
+      <c r="H93" s="1" t="str">
+        <f>"009_" &amp; RIGHT("00" &amp; B93, 3)</f>
+        <v>009_001</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K93" s="12" t="str">
+        <f t="shared" si="89"/>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L93" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M93" s="12"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
+      <c r="P93" s="11"/>
+      <c r="Q93" t="str">
+        <f t="shared" si="90"/>
+        <v>Defaults_009_001.defaultValue</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="91"/>
+        <v>9001</v>
+      </c>
+      <c r="S93" t="str">
+        <f t="shared" si="92"/>
+        <v>ContGenAdm.exe add -i 9001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94">
+        <f t="shared" si="93"/>
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>30</v>
+      </c>
+      <c r="D94">
+        <v>20</v>
+      </c>
+      <c r="E94">
+        <v>250000</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94">
+        <v>25</v>
+      </c>
+      <c r="H94" s="1" t="str">
+        <f t="shared" ref="H94:H100" si="94">"009_" &amp; RIGHT("00" &amp; B94, 3)</f>
+        <v>009_002</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K94" s="12" t="str">
+        <f t="shared" ref="K94:K100" si="95">"(Some 0." &amp; RIGHT("00" &amp; C94, 2) &amp; ")"</f>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M94" s="12"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
+      <c r="P94" s="11"/>
+      <c r="Q94" t="str">
+        <f t="shared" ref="Q94:Q100" si="96">"Defaults_" &amp; H94 &amp; ".defaultValue"</f>
+        <v>Defaults_009_002.defaultValue</v>
+      </c>
+      <c r="R94">
+        <f t="shared" ref="R94:R100" si="97">VALUE(SUBSTITUTE(H94, "_", ""))</f>
+        <v>9002</v>
+      </c>
+      <c r="S94" t="str">
+        <f t="shared" ref="S94:S100" si="98">"ContGenAdm.exe add -i " &amp; R94 &amp; " -n " &amp; D94 &amp; " -m 3 -y " &amp; F94 &amp; " -t " &amp; E94 &amp; " -r " &amp; G94</f>
+        <v>ContGenAdm.exe add -i 9002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95">
+        <f t="shared" si="93"/>
+        <v>3</v>
+      </c>
+      <c r="C95">
+        <v>30</v>
+      </c>
+      <c r="D95">
+        <v>20</v>
+      </c>
+      <c r="E95">
+        <v>250000</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95">
+        <v>25</v>
+      </c>
+      <c r="H95" s="1" t="str">
+        <f t="shared" si="94"/>
+        <v>009_003</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K95" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M95" s="12"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
+      <c r="P95" s="11"/>
+      <c r="Q95" t="str">
+        <f t="shared" si="96"/>
+        <v>Defaults_009_003.defaultValue</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="97"/>
+        <v>9003</v>
+      </c>
+      <c r="S95" t="str">
+        <f t="shared" si="98"/>
+        <v>ContGenAdm.exe add -i 9003 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96">
+        <f t="shared" si="93"/>
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>30</v>
+      </c>
+      <c r="D96">
+        <v>20</v>
+      </c>
+      <c r="E96">
+        <v>250000</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96">
+        <v>25</v>
+      </c>
+      <c r="H96" s="1" t="str">
+        <f t="shared" si="94"/>
+        <v>009_004</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K96" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L96" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M96" s="12"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
+      <c r="P96" s="11"/>
+      <c r="Q96" t="str">
+        <f t="shared" si="96"/>
+        <v>Defaults_009_004.defaultValue</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="97"/>
+        <v>9004</v>
+      </c>
+      <c r="S96" t="str">
+        <f t="shared" si="98"/>
+        <v>ContGenAdm.exe add -i 9004 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97">
+        <f t="shared" si="93"/>
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>30</v>
+      </c>
+      <c r="D97">
+        <v>20</v>
+      </c>
+      <c r="E97">
+        <v>250000</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97">
+        <v>25</v>
+      </c>
+      <c r="H97" s="1" t="str">
+        <f t="shared" si="94"/>
+        <v>009_005</v>
+      </c>
+      <c r="J97" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K97" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L97" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M97" s="12"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="11"/>
+      <c r="Q97" t="str">
+        <f t="shared" si="96"/>
+        <v>Defaults_009_005.defaultValue</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="97"/>
+        <v>9005</v>
+      </c>
+      <c r="S97" t="str">
+        <f t="shared" si="98"/>
+        <v>ContGenAdm.exe add -i 9005 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98">
+        <f t="shared" si="93"/>
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>30</v>
+      </c>
+      <c r="D98">
+        <v>20</v>
+      </c>
+      <c r="E98">
+        <v>250000</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98">
+        <v>25</v>
+      </c>
+      <c r="H98" s="1" t="str">
+        <f t="shared" si="94"/>
+        <v>009_006</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K98" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M98" s="12"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" t="str">
+        <f t="shared" si="96"/>
+        <v>Defaults_009_006.defaultValue</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="97"/>
+        <v>9006</v>
+      </c>
+      <c r="S98" t="str">
+        <f t="shared" si="98"/>
+        <v>ContGenAdm.exe add -i 9006 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99">
+        <f t="shared" si="93"/>
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>30</v>
+      </c>
+      <c r="D99">
+        <v>20</v>
+      </c>
+      <c r="E99">
+        <v>250000</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99">
+        <v>25</v>
+      </c>
+      <c r="H99" s="1" t="str">
+        <f t="shared" si="94"/>
+        <v>009_007</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K99" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L99" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M99" s="12"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
+      <c r="P99" s="11"/>
+      <c r="Q99" t="str">
+        <f t="shared" si="96"/>
+        <v>Defaults_009_007.defaultValue</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="97"/>
+        <v>9007</v>
+      </c>
+      <c r="S99" t="str">
+        <f t="shared" si="98"/>
+        <v>ContGenAdm.exe add -i 9007 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100">
+        <f t="shared" si="93"/>
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>30</v>
+      </c>
+      <c r="D100">
+        <v>20</v>
+      </c>
+      <c r="E100">
+        <v>250000</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100">
+        <v>25</v>
+      </c>
+      <c r="H100" s="1" t="str">
+        <f t="shared" si="94"/>
+        <v>009_008</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K100" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L100" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M100" s="12"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
+      <c r="P100" s="11"/>
+      <c r="Q100" t="str">
+        <f t="shared" si="96"/>
+        <v>Defaults_009_008.defaultValue</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="97"/>
+        <v>9008</v>
+      </c>
+      <c r="S100" t="str">
+        <f t="shared" si="98"/>
+        <v>ContGenAdm.exe add -i 9008 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>30</v>
+      </c>
+      <c r="D103">
+        <v>20</v>
+      </c>
+      <c r="E103">
+        <v>250000</v>
+      </c>
+      <c r="F103">
+        <v>10</v>
+      </c>
+      <c r="G103">
+        <v>25</v>
+      </c>
+      <c r="H103" s="1" t="str">
+        <f>"010_" &amp; RIGHT("00" &amp; B103, 3)</f>
+        <v>010_000</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K103" s="12" t="str">
+        <f t="shared" ref="K103:K104" si="99">"(Some 0." &amp; RIGHT("00" &amp; C103, 2) &amp; ")"</f>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L103" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M103" s="12"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="11"/>
+      <c r="P103" s="11"/>
+      <c r="Q103" t="str">
+        <f t="shared" ref="Q103:Q104" si="100">"Defaults_" &amp; H103 &amp; ".defaultValue"</f>
+        <v>Defaults_010_000.defaultValue</v>
+      </c>
+      <c r="R103">
+        <f t="shared" ref="R103:R104" si="101">VALUE(SUBSTITUTE(H103, "_", ""))</f>
+        <v>10000</v>
+      </c>
+      <c r="S103" t="str">
+        <f t="shared" ref="S103:S104" si="102">"ContGenAdm.exe add -i " &amp; R103 &amp; " -n " &amp; D103 &amp; " -m 3 -y " &amp; F103 &amp; " -t " &amp; E103 &amp; " -r " &amp; G103</f>
+        <v>ContGenAdm.exe add -i 10000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B104">
+        <f t="shared" ref="B104" si="103">1+B103</f>
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>30</v>
+      </c>
+      <c r="D104">
+        <v>20</v>
+      </c>
+      <c r="E104">
+        <v>250000</v>
+      </c>
+      <c r="F104">
+        <v>10</v>
+      </c>
+      <c r="G104">
+        <v>25</v>
+      </c>
+      <c r="H104" s="1" t="str">
+        <f>"010_" &amp; RIGHT("00" &amp; B104, 3)</f>
+        <v>010_001</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K104" s="12" t="str">
+        <f t="shared" si="99"/>
+        <v>(Some 0.30)</v>
+      </c>
+      <c r="L104" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M104" s="12"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="11"/>
+      <c r="Q104" t="str">
+        <f t="shared" si="100"/>
+        <v>Defaults_010_001.defaultValue</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="101"/>
+        <v>10001</v>
+      </c>
+      <c r="S104" t="str">
+        <f t="shared" si="102"/>
+        <v>ContGenAdm.exe add -i 10001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6629,7 +7296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FE550C-090F-4895-978F-F30B867BB2A1}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C34CBC7-1D09-40F9-8966-CD61BA99B364}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCC17A9-E5A6-4B88-93D1-F1EA6F0830D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="2" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults" sheetId="1" r:id="rId1"/>
@@ -1415,7 +1415,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{33B97261-6C74-4521-AF12-100C49BAA05F}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1426,7 +1426,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665308" cy="6291385"/>
+    <xdr:ext cx="8667750" cy="6291792"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1754,7 +1754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
   <dimension ref="B1:AA104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="6864" ySplit="486" topLeftCell="M81" activePane="bottomRight"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
@@ -5882,8 +5882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CCFDC-E723-428F-8C43-820106604DAB}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCC17A9-E5A6-4B88-93D1-F1EA6F0830D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE42674-DF87-4D12-9F90-189A33FEB491}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" activeTab="2" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="55">
   <si>
     <t>Base ?</t>
   </si>
@@ -1752,14 +1752,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
-  <dimension ref="B1:AA104"/>
+  <dimension ref="B1:AA140"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6864" ySplit="486" topLeftCell="M81" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6864" ySplit="486" topLeftCell="M123" activePane="bottomLeft"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
-      <selection pane="bottomRight" activeCell="S103" sqref="S103:S104"/>
+      <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
+      <selection pane="bottomRight" activeCell="S127" sqref="S127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5872,6 +5872,1243 @@
         <v>ContGenAdm.exe add -i 10001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>20</v>
+      </c>
+      <c r="E107">
+        <v>250000</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107">
+        <v>25</v>
+      </c>
+      <c r="H107" s="1" t="str">
+        <f>"011_" &amp; RIGHT("00" &amp; B107, 3)</f>
+        <v>011_000</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K107" s="12" t="str">
+        <f t="shared" ref="K107:K108" si="104">"(Some 0." &amp; RIGHT("00" &amp; C107, 2) &amp; ")"</f>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M107" s="12"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+      <c r="P107" s="11"/>
+      <c r="R107">
+        <f t="shared" ref="R107:R108" si="105">VALUE(SUBSTITUTE(H107, "_", ""))</f>
+        <v>11000</v>
+      </c>
+      <c r="S107" t="str">
+        <f t="shared" ref="S107:S108" si="106">"ContGenAdm.exe add -i " &amp; R107 &amp; " -n " &amp; D107 &amp; " -m 3 -y " &amp; F107 &amp; " -t " &amp; E107 &amp; " -r " &amp; G107</f>
+        <v>ContGenAdm.exe add -i 11000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B108">
+        <f t="shared" ref="B108:B117" si="107">1+B107</f>
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <v>250000</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="G108">
+        <v>25</v>
+      </c>
+      <c r="H108" s="1" t="str">
+        <f>"011_" &amp; RIGHT("00" &amp; B108, 3)</f>
+        <v>011_001</v>
+      </c>
+      <c r="J108" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K108" s="12" t="str">
+        <f t="shared" si="104"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L108" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M108" s="12"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
+      <c r="P108" s="11"/>
+      <c r="R108">
+        <f t="shared" si="105"/>
+        <v>11001</v>
+      </c>
+      <c r="S108" t="str">
+        <f t="shared" si="106"/>
+        <v>ContGenAdm.exe add -i 11001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B109">
+        <f t="shared" si="107"/>
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <v>250000</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="G109">
+        <v>25</v>
+      </c>
+      <c r="H109" s="1" t="str">
+        <f t="shared" ref="H109:H117" si="108">"011_" &amp; RIGHT("00" &amp; B109, 3)</f>
+        <v>011_002</v>
+      </c>
+      <c r="J109" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K109" s="12" t="str">
+        <f t="shared" ref="K109:K117" si="109">"(Some 0." &amp; RIGHT("00" &amp; C109, 2) &amp; ")"</f>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L109" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M109" s="12"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
+      <c r="P109" s="11"/>
+      <c r="R109">
+        <f t="shared" ref="R109:R117" si="110">VALUE(SUBSTITUTE(H109, "_", ""))</f>
+        <v>11002</v>
+      </c>
+      <c r="S109" t="str">
+        <f t="shared" ref="S109:S117" si="111">"ContGenAdm.exe add -i " &amp; R109 &amp; " -n " &amp; D109 &amp; " -m 3 -y " &amp; F109 &amp; " -t " &amp; E109 &amp; " -r " &amp; G109</f>
+        <v>ContGenAdm.exe add -i 11002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="110" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B110">
+        <f t="shared" si="107"/>
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>20</v>
+      </c>
+      <c r="E110">
+        <v>250000</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="G110">
+        <v>25</v>
+      </c>
+      <c r="H110" s="1" t="str">
+        <f t="shared" si="108"/>
+        <v>011_003</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K110" s="12" t="str">
+        <f t="shared" si="109"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M110" s="12"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="11"/>
+      <c r="R110">
+        <f t="shared" si="110"/>
+        <v>11003</v>
+      </c>
+      <c r="S110" t="str">
+        <f t="shared" si="111"/>
+        <v>ContGenAdm.exe add -i 11003 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="111" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111">
+        <f t="shared" si="107"/>
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>20</v>
+      </c>
+      <c r="E111">
+        <v>250000</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+      <c r="G111">
+        <v>25</v>
+      </c>
+      <c r="H111" s="1" t="str">
+        <f t="shared" si="108"/>
+        <v>011_004</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K111" s="12" t="str">
+        <f t="shared" si="109"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L111" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M111" s="12"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
+      <c r="P111" s="11"/>
+      <c r="R111">
+        <f t="shared" si="110"/>
+        <v>11004</v>
+      </c>
+      <c r="S111" t="str">
+        <f t="shared" si="111"/>
+        <v>ContGenAdm.exe add -i 11004 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="112" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112">
+        <f t="shared" si="107"/>
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>20</v>
+      </c>
+      <c r="E112">
+        <v>250000</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="G112">
+        <v>25</v>
+      </c>
+      <c r="H112" s="1" t="str">
+        <f t="shared" si="108"/>
+        <v>011_005</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K112" s="12" t="str">
+        <f t="shared" si="109"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M112" s="12"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
+      <c r="P112" s="11"/>
+      <c r="R112">
+        <f t="shared" si="110"/>
+        <v>11005</v>
+      </c>
+      <c r="S112" t="str">
+        <f t="shared" si="111"/>
+        <v>ContGenAdm.exe add -i 11005 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113">
+        <f t="shared" si="107"/>
+        <v>6</v>
+      </c>
+      <c r="D113">
+        <v>20</v>
+      </c>
+      <c r="E113">
+        <v>250000</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113">
+        <v>25</v>
+      </c>
+      <c r="H113" s="1" t="str">
+        <f t="shared" si="108"/>
+        <v>011_006</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K113" s="12" t="str">
+        <f t="shared" si="109"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L113" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M113" s="12"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11"/>
+      <c r="R113">
+        <f t="shared" si="110"/>
+        <v>11006</v>
+      </c>
+      <c r="S113" t="str">
+        <f t="shared" si="111"/>
+        <v>ContGenAdm.exe add -i 11006 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114">
+        <f t="shared" si="107"/>
+        <v>7</v>
+      </c>
+      <c r="D114">
+        <v>20</v>
+      </c>
+      <c r="E114">
+        <v>250000</v>
+      </c>
+      <c r="F114">
+        <v>10</v>
+      </c>
+      <c r="G114">
+        <v>25</v>
+      </c>
+      <c r="H114" s="1" t="str">
+        <f t="shared" si="108"/>
+        <v>011_007</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K114" s="12" t="str">
+        <f t="shared" si="109"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L114" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M114" s="12"/>
+      <c r="N114" s="11"/>
+      <c r="O114" s="11"/>
+      <c r="P114" s="11"/>
+      <c r="R114">
+        <f t="shared" si="110"/>
+        <v>11007</v>
+      </c>
+      <c r="S114" t="str">
+        <f t="shared" si="111"/>
+        <v>ContGenAdm.exe add -i 11007 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B115">
+        <f t="shared" si="107"/>
+        <v>8</v>
+      </c>
+      <c r="D115">
+        <v>20</v>
+      </c>
+      <c r="E115">
+        <v>250000</v>
+      </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
+      <c r="G115">
+        <v>25</v>
+      </c>
+      <c r="H115" s="1" t="str">
+        <f t="shared" si="108"/>
+        <v>011_008</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K115" s="12" t="str">
+        <f t="shared" si="109"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L115" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M115" s="12"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
+      <c r="P115" s="11"/>
+      <c r="R115">
+        <f t="shared" si="110"/>
+        <v>11008</v>
+      </c>
+      <c r="S115" t="str">
+        <f t="shared" si="111"/>
+        <v>ContGenAdm.exe add -i 11008 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B116">
+        <f t="shared" si="107"/>
+        <v>9</v>
+      </c>
+      <c r="D116">
+        <v>20</v>
+      </c>
+      <c r="E116">
+        <v>250000</v>
+      </c>
+      <c r="F116">
+        <v>10</v>
+      </c>
+      <c r="G116">
+        <v>25</v>
+      </c>
+      <c r="H116" s="1" t="str">
+        <f t="shared" si="108"/>
+        <v>011_009</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K116" s="12" t="str">
+        <f t="shared" si="109"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M116" s="12"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="11"/>
+      <c r="R116">
+        <f t="shared" si="110"/>
+        <v>11009</v>
+      </c>
+      <c r="S116" t="str">
+        <f t="shared" si="111"/>
+        <v>ContGenAdm.exe add -i 11009 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B117">
+        <f t="shared" si="107"/>
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>20</v>
+      </c>
+      <c r="E117">
+        <v>250000</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="G117">
+        <v>25</v>
+      </c>
+      <c r="H117" s="1" t="str">
+        <f t="shared" si="108"/>
+        <v>011_010</v>
+      </c>
+      <c r="J117" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K117" s="12" t="str">
+        <f t="shared" si="109"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L117" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M117" s="12"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
+      <c r="P117" s="11"/>
+      <c r="R117">
+        <f t="shared" si="110"/>
+        <v>11010</v>
+      </c>
+      <c r="S117" t="str">
+        <f t="shared" si="111"/>
+        <v>ContGenAdm.exe add -i 11010 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>20</v>
+      </c>
+      <c r="E120">
+        <v>250000</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
+      </c>
+      <c r="G120">
+        <v>25</v>
+      </c>
+      <c r="H120" s="1" t="str">
+        <f>"012_" &amp; RIGHT("00" &amp; B120, 3)</f>
+        <v>012_000</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K120" s="12" t="str">
+        <f t="shared" ref="K120:K121" si="112">"(Some 0." &amp; RIGHT("00" &amp; C120, 2) &amp; ")"</f>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M120" s="12"/>
+      <c r="N120" s="11"/>
+      <c r="O120" s="11"/>
+      <c r="P120" s="11"/>
+      <c r="R120">
+        <f t="shared" ref="R120:R121" si="113">VALUE(SUBSTITUTE(H120, "_", ""))</f>
+        <v>12000</v>
+      </c>
+      <c r="S120" t="str">
+        <f t="shared" ref="S120:S121" si="114">"ContGenAdm.exe add -i " &amp; R120 &amp; " -n " &amp; D120 &amp; " -m 3 -y " &amp; F120 &amp; " -t " &amp; E120 &amp; " -r " &amp; G120</f>
+        <v>ContGenAdm.exe add -i 12000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="121" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B121">
+        <f t="shared" ref="B121:B130" si="115">1+B120</f>
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>20</v>
+      </c>
+      <c r="E121">
+        <v>250000</v>
+      </c>
+      <c r="F121">
+        <v>10</v>
+      </c>
+      <c r="G121">
+        <v>25</v>
+      </c>
+      <c r="H121" s="1" t="str">
+        <f>"012_" &amp; RIGHT("00" &amp; B121, 3)</f>
+        <v>012_001</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K121" s="12" t="str">
+        <f t="shared" si="112"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L121" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M121" s="12"/>
+      <c r="N121" s="11"/>
+      <c r="O121" s="11"/>
+      <c r="P121" s="11"/>
+      <c r="R121">
+        <f t="shared" si="113"/>
+        <v>12001</v>
+      </c>
+      <c r="S121" t="str">
+        <f t="shared" si="114"/>
+        <v>ContGenAdm.exe add -i 12001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="122" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B122">
+        <f t="shared" si="115"/>
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>20</v>
+      </c>
+      <c r="E122">
+        <v>250000</v>
+      </c>
+      <c r="F122">
+        <v>10</v>
+      </c>
+      <c r="G122">
+        <v>25</v>
+      </c>
+      <c r="H122" s="1" t="str">
+        <f t="shared" ref="H122:H130" si="116">"012_" &amp; RIGHT("00" &amp; B122, 3)</f>
+        <v>012_002</v>
+      </c>
+      <c r="J122" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K122" s="12" t="str">
+        <f t="shared" ref="K122:K130" si="117">"(Some 0." &amp; RIGHT("00" &amp; C122, 2) &amp; ")"</f>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L122" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M122" s="12"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+      <c r="P122" s="11"/>
+      <c r="R122">
+        <f t="shared" ref="R122:R130" si="118">VALUE(SUBSTITUTE(H122, "_", ""))</f>
+        <v>12002</v>
+      </c>
+      <c r="S122" t="str">
+        <f t="shared" ref="S122:S130" si="119">"ContGenAdm.exe add -i " &amp; R122 &amp; " -n " &amp; D122 &amp; " -m 3 -y " &amp; F122 &amp; " -t " &amp; E122 &amp; " -r " &amp; G122</f>
+        <v>ContGenAdm.exe add -i 12002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="123" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B123">
+        <f t="shared" si="115"/>
+        <v>3</v>
+      </c>
+      <c r="D123">
+        <v>20</v>
+      </c>
+      <c r="E123">
+        <v>250000</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123">
+        <v>25</v>
+      </c>
+      <c r="H123" s="1" t="str">
+        <f t="shared" si="116"/>
+        <v>012_003</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K123" s="12" t="str">
+        <f t="shared" si="117"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M123" s="12"/>
+      <c r="N123" s="11"/>
+      <c r="O123" s="11"/>
+      <c r="P123" s="11"/>
+      <c r="R123">
+        <f t="shared" si="118"/>
+        <v>12003</v>
+      </c>
+      <c r="S123" t="str">
+        <f t="shared" si="119"/>
+        <v>ContGenAdm.exe add -i 12003 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="124" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B124">
+        <f t="shared" si="115"/>
+        <v>4</v>
+      </c>
+      <c r="D124">
+        <v>20</v>
+      </c>
+      <c r="E124">
+        <v>250000</v>
+      </c>
+      <c r="F124">
+        <v>10</v>
+      </c>
+      <c r="G124">
+        <v>25</v>
+      </c>
+      <c r="H124" s="1" t="str">
+        <f t="shared" si="116"/>
+        <v>012_004</v>
+      </c>
+      <c r="J124" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K124" s="12" t="str">
+        <f t="shared" si="117"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L124" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M124" s="12"/>
+      <c r="N124" s="11"/>
+      <c r="O124" s="11"/>
+      <c r="P124" s="11"/>
+      <c r="R124">
+        <f t="shared" si="118"/>
+        <v>12004</v>
+      </c>
+      <c r="S124" t="str">
+        <f t="shared" si="119"/>
+        <v>ContGenAdm.exe add -i 12004 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="125" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B125">
+        <f t="shared" si="115"/>
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>20</v>
+      </c>
+      <c r="E125">
+        <v>250000</v>
+      </c>
+      <c r="F125">
+        <v>10</v>
+      </c>
+      <c r="G125">
+        <v>25</v>
+      </c>
+      <c r="H125" s="1" t="str">
+        <f t="shared" si="116"/>
+        <v>012_005</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K125" s="12" t="str">
+        <f t="shared" si="117"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L125" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M125" s="12"/>
+      <c r="N125" s="11"/>
+      <c r="O125" s="11"/>
+      <c r="P125" s="11"/>
+      <c r="R125">
+        <f t="shared" si="118"/>
+        <v>12005</v>
+      </c>
+      <c r="S125" t="str">
+        <f t="shared" si="119"/>
+        <v>ContGenAdm.exe add -i 12005 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="126" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B126">
+        <f t="shared" si="115"/>
+        <v>6</v>
+      </c>
+      <c r="D126">
+        <v>20</v>
+      </c>
+      <c r="E126">
+        <v>250000</v>
+      </c>
+      <c r="F126">
+        <v>10</v>
+      </c>
+      <c r="G126">
+        <v>25</v>
+      </c>
+      <c r="H126" s="1" t="str">
+        <f t="shared" si="116"/>
+        <v>012_006</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K126" s="12" t="str">
+        <f t="shared" si="117"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L126" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M126" s="12"/>
+      <c r="N126" s="11"/>
+      <c r="O126" s="11"/>
+      <c r="P126" s="11"/>
+      <c r="R126">
+        <f t="shared" si="118"/>
+        <v>12006</v>
+      </c>
+      <c r="S126" t="str">
+        <f t="shared" si="119"/>
+        <v>ContGenAdm.exe add -i 12006 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B127">
+        <f t="shared" si="115"/>
+        <v>7</v>
+      </c>
+      <c r="D127">
+        <v>20</v>
+      </c>
+      <c r="E127">
+        <v>250000</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127">
+        <v>25</v>
+      </c>
+      <c r="H127" s="1" t="str">
+        <f t="shared" si="116"/>
+        <v>012_007</v>
+      </c>
+      <c r="J127" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K127" s="12" t="str">
+        <f t="shared" si="117"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L127" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M127" s="12"/>
+      <c r="N127" s="11"/>
+      <c r="O127" s="11"/>
+      <c r="P127" s="11"/>
+      <c r="R127">
+        <f t="shared" si="118"/>
+        <v>12007</v>
+      </c>
+      <c r="S127" t="str">
+        <f t="shared" si="119"/>
+        <v>ContGenAdm.exe add -i 12007 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="128" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B128">
+        <f t="shared" si="115"/>
+        <v>8</v>
+      </c>
+      <c r="D128">
+        <v>20</v>
+      </c>
+      <c r="E128">
+        <v>250000</v>
+      </c>
+      <c r="F128">
+        <v>10</v>
+      </c>
+      <c r="G128">
+        <v>25</v>
+      </c>
+      <c r="H128" s="1" t="str">
+        <f t="shared" si="116"/>
+        <v>012_008</v>
+      </c>
+      <c r="J128" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K128" s="12" t="str">
+        <f t="shared" si="117"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L128" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M128" s="12"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="11"/>
+      <c r="R128">
+        <f t="shared" si="118"/>
+        <v>12008</v>
+      </c>
+      <c r="S128" t="str">
+        <f t="shared" si="119"/>
+        <v>ContGenAdm.exe add -i 12008 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="129" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B129">
+        <f t="shared" si="115"/>
+        <v>9</v>
+      </c>
+      <c r="D129">
+        <v>20</v>
+      </c>
+      <c r="E129">
+        <v>250000</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+      <c r="G129">
+        <v>25</v>
+      </c>
+      <c r="H129" s="1" t="str">
+        <f t="shared" si="116"/>
+        <v>012_009</v>
+      </c>
+      <c r="J129" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K129" s="12" t="str">
+        <f t="shared" si="117"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L129" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M129" s="12"/>
+      <c r="N129" s="11"/>
+      <c r="O129" s="11"/>
+      <c r="P129" s="11"/>
+      <c r="R129">
+        <f t="shared" si="118"/>
+        <v>12009</v>
+      </c>
+      <c r="S129" t="str">
+        <f t="shared" si="119"/>
+        <v>ContGenAdm.exe add -i 12009 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="130" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B130">
+        <f t="shared" si="115"/>
+        <v>10</v>
+      </c>
+      <c r="D130">
+        <v>20</v>
+      </c>
+      <c r="E130">
+        <v>250000</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+      <c r="G130">
+        <v>25</v>
+      </c>
+      <c r="H130" s="1" t="str">
+        <f t="shared" si="116"/>
+        <v>012_010</v>
+      </c>
+      <c r="J130" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K130" s="12" t="str">
+        <f t="shared" si="117"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L130" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M130" s="12"/>
+      <c r="N130" s="11"/>
+      <c r="O130" s="11"/>
+      <c r="P130" s="11"/>
+      <c r="R130">
+        <f t="shared" si="118"/>
+        <v>12010</v>
+      </c>
+      <c r="S130" t="str">
+        <f t="shared" si="119"/>
+        <v>ContGenAdm.exe add -i 12010 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="133" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>20</v>
+      </c>
+      <c r="E133">
+        <v>250000</v>
+      </c>
+      <c r="F133">
+        <v>10</v>
+      </c>
+      <c r="G133">
+        <v>25</v>
+      </c>
+      <c r="H133" s="1" t="str">
+        <f>"013_" &amp; RIGHT("00" &amp; B133, 3)</f>
+        <v>013_000</v>
+      </c>
+      <c r="J133" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K133" s="12" t="str">
+        <f t="shared" ref="K133:K134" si="120">"(Some 0." &amp; RIGHT("00" &amp; C133, 2) &amp; ")"</f>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L133" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M133" s="12"/>
+      <c r="N133" s="11"/>
+      <c r="O133" s="11"/>
+      <c r="P133" s="11"/>
+      <c r="R133">
+        <f t="shared" ref="R133:R134" si="121">VALUE(SUBSTITUTE(H133, "_", ""))</f>
+        <v>13000</v>
+      </c>
+      <c r="S133" t="str">
+        <f t="shared" ref="S133:S134" si="122">"ContGenAdm.exe add -i " &amp; R133 &amp; " -n " &amp; D133 &amp; " -m 3 -y " &amp; F133 &amp; " -t " &amp; E133 &amp; " -r " &amp; G133</f>
+        <v>ContGenAdm.exe add -i 13000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="134" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B134">
+        <f t="shared" ref="B134:B135" si="123">1+B133</f>
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>20</v>
+      </c>
+      <c r="E134">
+        <v>250000</v>
+      </c>
+      <c r="F134">
+        <v>10</v>
+      </c>
+      <c r="G134">
+        <v>25</v>
+      </c>
+      <c r="H134" s="1" t="str">
+        <f t="shared" ref="H134:H135" si="124">"013_" &amp; RIGHT("00" &amp; B134, 3)</f>
+        <v>013_001</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K134" s="12" t="str">
+        <f t="shared" si="120"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L134" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M134" s="12"/>
+      <c r="N134" s="11"/>
+      <c r="O134" s="11"/>
+      <c r="P134" s="11"/>
+      <c r="R134">
+        <f t="shared" si="121"/>
+        <v>13001</v>
+      </c>
+      <c r="S134" t="str">
+        <f t="shared" si="122"/>
+        <v>ContGenAdm.exe add -i 13001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="135" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B135">
+        <f t="shared" si="123"/>
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>20</v>
+      </c>
+      <c r="E135">
+        <v>250000</v>
+      </c>
+      <c r="F135">
+        <v>10</v>
+      </c>
+      <c r="G135">
+        <v>25</v>
+      </c>
+      <c r="H135" s="1" t="str">
+        <f t="shared" si="124"/>
+        <v>013_002</v>
+      </c>
+      <c r="J135" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K135" s="12" t="str">
+        <f t="shared" ref="K135" si="125">"(Some 0." &amp; RIGHT("00" &amp; C135, 2) &amp; ")"</f>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L135" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M135" s="12"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11"/>
+      <c r="R135">
+        <f t="shared" ref="R135" si="126">VALUE(SUBSTITUTE(H135, "_", ""))</f>
+        <v>13002</v>
+      </c>
+      <c r="S135" t="str">
+        <f t="shared" ref="S135" si="127">"ContGenAdm.exe add -i " &amp; R135 &amp; " -n " &amp; D135 &amp; " -m 3 -y " &amp; F135 &amp; " -t " &amp; E135 &amp; " -r " &amp; G135</f>
+        <v>ContGenAdm.exe add -i 13002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="136" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J136" s="11"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="11"/>
+      <c r="O136" s="11"/>
+      <c r="P136" s="11"/>
+    </row>
+    <row r="138" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>20</v>
+      </c>
+      <c r="E138">
+        <v>250000</v>
+      </c>
+      <c r="F138">
+        <v>10</v>
+      </c>
+      <c r="G138">
+        <v>25</v>
+      </c>
+      <c r="H138" s="1" t="str">
+        <f>"014_" &amp; RIGHT("00" &amp; B138, 3)</f>
+        <v>014_000</v>
+      </c>
+      <c r="J138" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K138" s="12" t="str">
+        <f t="shared" ref="K138:K139" si="128">"(Some 0." &amp; RIGHT("00" &amp; C138, 2) &amp; ")"</f>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L138" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M138" s="12"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11"/>
+      <c r="R138">
+        <f t="shared" ref="R138:R139" si="129">VALUE(SUBSTITUTE(H138, "_", ""))</f>
+        <v>14000</v>
+      </c>
+      <c r="S138" t="str">
+        <f t="shared" ref="S138:S139" si="130">"ContGenAdm.exe add -i " &amp; R138 &amp; " -n " &amp; D138 &amp; " -m 3 -y " &amp; F138 &amp; " -t " &amp; E138 &amp; " -r " &amp; G138</f>
+        <v>ContGenAdm.exe add -i 14000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="139" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B139">
+        <f t="shared" ref="B139:B140" si="131">1+B138</f>
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>20</v>
+      </c>
+      <c r="E139">
+        <v>250000</v>
+      </c>
+      <c r="F139">
+        <v>10</v>
+      </c>
+      <c r="G139">
+        <v>25</v>
+      </c>
+      <c r="H139" s="1" t="str">
+        <f>"014_" &amp; RIGHT("00" &amp; B139, 3)</f>
+        <v>014_001</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K139" s="12" t="str">
+        <f t="shared" si="128"/>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L139" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M139" s="12"/>
+      <c r="N139" s="11"/>
+      <c r="O139" s="11"/>
+      <c r="P139" s="11"/>
+      <c r="R139">
+        <f t="shared" si="129"/>
+        <v>14001</v>
+      </c>
+      <c r="S139" t="str">
+        <f t="shared" si="130"/>
+        <v>ContGenAdm.exe add -i 14001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
+    <row r="140" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B140">
+        <f t="shared" si="131"/>
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>20</v>
+      </c>
+      <c r="E140">
+        <v>250000</v>
+      </c>
+      <c r="F140">
+        <v>10</v>
+      </c>
+      <c r="G140">
+        <v>25</v>
+      </c>
+      <c r="H140" s="1" t="str">
+        <f>"014_" &amp; RIGHT("00" &amp; B140, 3)</f>
+        <v>014_002</v>
+      </c>
+      <c r="J140" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K140" s="12" t="str">
+        <f t="shared" ref="K140" si="132">"(Some 0." &amp; RIGHT("00" &amp; C140, 2) &amp; ")"</f>
+        <v>(Some 0.00)</v>
+      </c>
+      <c r="L140" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M140" s="12"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11"/>
+      <c r="R140">
+        <f t="shared" ref="R140" si="133">VALUE(SUBSTITUTE(H140, "_", ""))</f>
+        <v>14002</v>
+      </c>
+      <c r="S140" t="str">
+        <f t="shared" ref="S140" si="134">"ContGenAdm.exe add -i " &amp; R140 &amp; " -n " &amp; D140 &amp; " -m 3 -y " &amp; F140 &amp; " -t " &amp; E140 &amp; " -r " &amp; G140</f>
+        <v>ContGenAdm.exe add -i 14002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -5882,7 +7119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CCFDC-E723-428F-8C43-820106604DAB}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE42674-DF87-4D12-9F90-189A33FEB491}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C7A932-DFC3-4423-9B5A-661E93BC6E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
   <sheets>
     <sheet name="Defaults" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,6 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1415,7 +1416,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{33B97261-6C74-4521-AF12-100C49BAA05F}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="72" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="177" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1426,7 +1427,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6291792"/>
+    <xdr:ext cx="9298983" cy="6070169"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -1754,37 +1755,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE26680E-EDB0-4366-A32F-BF762E794ADA}">
   <dimension ref="B1:AA140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6864" ySplit="486" topLeftCell="M123" activePane="bottomLeft"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6860" ySplit="490" topLeftCell="M102" activePane="bottomLeft"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
       <selection pane="bottomRight" activeCell="S127" sqref="S127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.89453125" customWidth="1"/>
-    <col min="4" max="4" width="9.1015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.1015625" customWidth="1"/>
-    <col min="8" max="8" width="13.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83984375" style="1"/>
-    <col min="10" max="10" width="24.62890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="26.83984375" customWidth="1"/>
-    <col min="13" max="13" width="11.20703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.578125" customWidth="1"/>
-    <col min="15" max="15" width="20.62890625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.578125" customWidth="1"/>
-    <col min="17" max="17" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.90625" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.08984375" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" style="1"/>
+    <col min="10" max="10" width="24.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="26.81640625" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" customWidth="1"/>
+    <col min="15" max="15" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.54296875" customWidth="1"/>
+    <col min="17" max="17" width="25.6328125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="32" customWidth="1"/>
-    <col min="20" max="20" width="8.89453125" customWidth="1"/>
-    <col min="23" max="23" width="8.83984375" style="3"/>
-    <col min="24" max="24" width="1.62890625" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="8.83984375" style="3"/>
+    <col min="20" max="20" width="8.90625" customWidth="1"/>
+    <col min="23" max="23" width="8.81640625" style="3"/>
+    <col min="24" max="24" width="1.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="10" t="s">
@@ -1855,7 +1856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.35">
       <c r="D2">
         <v>20</v>
       </c>
@@ -1900,7 +1901,7 @@
         <v>0.37169617648752673</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.35">
       <c r="D3">
         <v>20</v>
       </c>
@@ -1942,7 +1943,7 @@
         <v>0.5095445115010333</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.35">
       <c r="D4">
         <v>20</v>
       </c>
@@ -1984,7 +1985,7 @@
         <v>0.53432159723136174</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
       <c r="D5">
         <v>20</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>0.24154941202516034</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
       <c r="D6">
         <v>20</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>0.36304403549705966</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
       <c r="D7">
         <v>20</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>0.37888543819998322</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
       <c r="D8">
         <v>20</v>
       </c>
@@ -2148,7 +2149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.35">
       <c r="D9">
         <v>20</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>ContGenAdm.exe add -i 7 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>8</v>
       </c>
@@ -2229,7 +2230,7 @@
         <v>ContGenAdm.exe add -i 8 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B11">
         <f>1+B10</f>
         <v>9</v>
@@ -2277,7 +2278,7 @@
         <v>ContGenAdm.exe add -i 9 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B12">
         <f t="shared" ref="B12:B21" si="14">1+B11</f>
         <v>10</v>
@@ -2325,7 +2326,7 @@
         <v>ContGenAdm.exe add -i 10 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B13">
         <f t="shared" si="14"/>
         <v>11</v>
@@ -2373,7 +2374,7 @@
         <v>ContGenAdm.exe add -i 11 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B14">
         <f t="shared" si="14"/>
         <v>12</v>
@@ -2421,7 +2422,7 @@
         <v>ContGenAdm.exe add -i 12 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B15">
         <f t="shared" si="14"/>
         <v>13</v>
@@ -2469,7 +2470,7 @@
         <v>ContGenAdm.exe add -i 13 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B16">
         <f t="shared" si="14"/>
         <v>14</v>
@@ -2517,7 +2518,7 @@
         <v>ContGenAdm.exe add -i 14 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B17">
         <f t="shared" si="14"/>
         <v>15</v>
@@ -2565,7 +2566,7 @@
         <v>ContGenAdm.exe add -i 15 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B18">
         <f t="shared" si="14"/>
         <v>16</v>
@@ -2613,7 +2614,7 @@
         <v>ContGenAdm.exe add -i 16 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B19">
         <f t="shared" si="14"/>
         <v>17</v>
@@ -2661,7 +2662,7 @@
         <v>ContGenAdm.exe add -i 17 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B20">
         <f t="shared" si="14"/>
         <v>18</v>
@@ -2709,7 +2710,7 @@
         <v>ContGenAdm.exe add -i 18 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B21">
         <f t="shared" si="14"/>
         <v>19</v>
@@ -2757,7 +2758,7 @@
         <v>ContGenAdm.exe add -i 19 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B22">
         <f t="shared" ref="B22" si="16">1+B21</f>
         <v>20</v>
@@ -2805,7 +2806,7 @@
         <v>ContGenAdm.exe add -i 20 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>0</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>ContGenAdm.exe add -i 2000 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B26">
         <f>1+B25</f>
         <v>1</v>
@@ -2884,7 +2885,7 @@
         <v>ContGenAdm.exe add -i 2001 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B27">
         <f t="shared" ref="B27:B29" si="24">1+B26</f>
         <v>2</v>
@@ -2924,7 +2925,7 @@
         <v>ContGenAdm.exe add -i 2002 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B28">
         <f t="shared" si="24"/>
         <v>3</v>
@@ -2964,7 +2965,7 @@
         <v>ContGenAdm.exe add -i 2003 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B29">
         <f t="shared" si="24"/>
         <v>4</v>
@@ -3004,7 +3005,7 @@
         <v>ContGenAdm.exe add -i 2004 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B30">
         <f t="shared" ref="B30:B33" si="25">1+B29</f>
         <v>5</v>
@@ -3044,7 +3045,7 @@
         <v>ContGenAdm.exe add -i 2005 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B31">
         <f t="shared" si="25"/>
         <v>6</v>
@@ -3084,7 +3085,7 @@
         <v>ContGenAdm.exe add -i 2006 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B32">
         <f t="shared" si="25"/>
         <v>7</v>
@@ -3124,7 +3125,7 @@
         <v>ContGenAdm.exe add -i 2007 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B33">
         <f t="shared" si="25"/>
         <v>8</v>
@@ -3164,7 +3165,7 @@
         <v>ContGenAdm.exe add -i 2008 -n 5 -m 5 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B34">
         <f t="shared" ref="B34:B36" si="27">1+B33</f>
         <v>9</v>
@@ -3204,7 +3205,7 @@
         <v>ContGenAdm.exe add -i 2009 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B35">
         <f t="shared" si="27"/>
         <v>10</v>
@@ -3244,7 +3245,7 @@
         <v>ContGenAdm.exe add -i 2010 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B36">
         <f t="shared" si="27"/>
         <v>11</v>
@@ -3284,7 +3285,7 @@
         <v>ContGenAdm.exe add -i 2011 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B37">
         <f t="shared" ref="B37:B39" si="30">1+B36</f>
         <v>12</v>
@@ -3324,7 +3325,7 @@
         <v>ContGenAdm.exe add -i 2012 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B38">
         <f t="shared" si="30"/>
         <v>13</v>
@@ -3364,7 +3365,7 @@
         <v>ContGenAdm.exe add -i 2013 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B39">
         <f t="shared" si="30"/>
         <v>14</v>
@@ -3404,7 +3405,7 @@
         <v>ContGenAdm.exe add -i 2014 -n 25 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>0</v>
       </c>
@@ -3449,11 +3450,11 @@
         <v>ContGenAdm.exe add -i 3000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.35">
       <c r="J43"/>
       <c r="K43"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>0</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>ContGenAdm.exe add -i 4000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B46">
         <f t="shared" ref="B46:B65" si="38">1+B45</f>
         <v>1</v>
@@ -3540,7 +3541,7 @@
         <v>ContGenAdm.exe add -i 4001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B47">
         <f t="shared" si="38"/>
         <v>2</v>
@@ -3584,7 +3585,7 @@
         <v>ContGenAdm.exe add -i 4002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B48">
         <f t="shared" si="38"/>
         <v>3</v>
@@ -3628,7 +3629,7 @@
         <v>ContGenAdm.exe add -i 4003 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B49">
         <f t="shared" si="38"/>
         <v>4</v>
@@ -3672,7 +3673,7 @@
         <v>ContGenAdm.exe add -i 4004 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B50">
         <f t="shared" si="38"/>
         <v>5</v>
@@ -3716,7 +3717,7 @@
         <v>ContGenAdm.exe add -i 4005 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B51">
         <f t="shared" si="38"/>
         <v>6</v>
@@ -3760,7 +3761,7 @@
         <v>ContGenAdm.exe add -i 4006 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B52">
         <f t="shared" si="38"/>
         <v>7</v>
@@ -3804,7 +3805,7 @@
         <v>ContGenAdm.exe add -i 4007 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B53">
         <f t="shared" si="38"/>
         <v>8</v>
@@ -3852,7 +3853,7 @@
         <v>ContGenAdm.exe add -i 4008 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B54">
         <f t="shared" si="38"/>
         <v>9</v>
@@ -3901,7 +3902,7 @@
         <v>ContGenAdm.exe add -i 4009 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B55">
         <f t="shared" si="38"/>
         <v>10</v>
@@ -3950,7 +3951,7 @@
         <v>ContGenAdm.exe add -i 4010 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B56">
         <f t="shared" si="38"/>
         <v>11</v>
@@ -3999,7 +4000,7 @@
         <v>ContGenAdm.exe add -i 4011 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B57">
         <f t="shared" si="38"/>
         <v>12</v>
@@ -4048,7 +4049,7 @@
         <v>ContGenAdm.exe add -i 4012 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B58">
         <f t="shared" si="38"/>
         <v>13</v>
@@ -4097,7 +4098,7 @@
         <v>ContGenAdm.exe add -i 4013 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B59">
         <f t="shared" si="38"/>
         <v>14</v>
@@ -4146,7 +4147,7 @@
         <v>ContGenAdm.exe add -i 4014 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B60">
         <f t="shared" si="38"/>
         <v>15</v>
@@ -4195,7 +4196,7 @@
         <v>ContGenAdm.exe add -i 4015 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B61">
         <f t="shared" si="38"/>
         <v>16</v>
@@ -4244,7 +4245,7 @@
         <v>ContGenAdm.exe add -i 4016 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B62">
         <f t="shared" si="38"/>
         <v>17</v>
@@ -4293,7 +4294,7 @@
         <v>ContGenAdm.exe add -i 4017 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B63">
         <f t="shared" si="38"/>
         <v>18</v>
@@ -4342,7 +4343,7 @@
         <v>ContGenAdm.exe add -i 4018 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B64">
         <f t="shared" si="38"/>
         <v>19</v>
@@ -4391,7 +4392,7 @@
         <v>ContGenAdm.exe add -i 4019 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B65">
         <f t="shared" si="38"/>
         <v>20</v>
@@ -4440,7 +4441,7 @@
         <v>ContGenAdm.exe add -i 4020 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B68">
         <v>0</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>ContGenAdm.exe add -i 5000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B71">
         <v>0</v>
       </c>
@@ -4535,7 +4536,7 @@
         <v>ContGenAdm.exe add -i 6000 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
       </c>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B72">
         <f t="shared" ref="B72:B77" si="49">1+B71</f>
         <v>1</v>
@@ -4588,7 +4589,7 @@
         <v>ContGenAdm.exe add -i 6001 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B73">
         <f t="shared" si="49"/>
         <v>2</v>
@@ -4641,7 +4642,7 @@
         <v>ContGenAdm.exe add -i 6002 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
       </c>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B74">
         <f t="shared" si="49"/>
         <v>3</v>
@@ -4694,7 +4695,7 @@
         <v>ContGenAdm.exe add -i 6003 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
       </c>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B75">
         <f t="shared" si="49"/>
         <v>4</v>
@@ -4747,7 +4748,7 @@
         <v>ContGenAdm.exe add -i 6004 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
       </c>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B76">
         <f t="shared" si="49"/>
         <v>5</v>
@@ -4800,7 +4801,7 @@
         <v>ContGenAdm.exe add -i 6005 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B77">
         <f t="shared" si="49"/>
         <v>6</v>
@@ -4853,13 +4854,13 @@
         <v>ContGenAdm.exe add -i 6006 -n 11 -m 3 -y 10 -t 100000 -r 25</v>
       </c>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:19" x14ac:dyDescent="0.35">
       <c r="J78"/>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:19" x14ac:dyDescent="0.35">
       <c r="J79"/>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B80">
         <v>0</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>ContGenAdm.exe add -i 7000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B81">
         <f t="shared" ref="B81:B83" si="60">1+B80</f>
         <v>1</v>
@@ -4966,7 +4967,7 @@
         <v>ContGenAdm.exe add -i 7001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B82">
         <f t="shared" si="60"/>
         <v>2</v>
@@ -5020,7 +5021,7 @@
         <v>ContGenAdm.exe add -i 7002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B83">
         <f t="shared" si="60"/>
         <v>3</v>
@@ -5074,7 +5075,7 @@
         <v>ContGenAdm.exe add -i 7003 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:19" x14ac:dyDescent="0.35">
       <c r="J84" s="11"/>
       <c r="K84" s="13"/>
       <c r="L84" s="11"/>
@@ -5083,7 +5084,7 @@
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:19" x14ac:dyDescent="0.35">
       <c r="J85" s="11"/>
       <c r="K85" s="13"/>
       <c r="L85" s="11"/>
@@ -5092,7 +5093,7 @@
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
     </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B86">
         <v>0</v>
       </c>
@@ -5145,7 +5146,7 @@
         <v>ContGenAdm.exe add -i 8000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B87">
         <f t="shared" ref="B87:B89" si="77">1+B86</f>
         <v>1</v>
@@ -5199,7 +5200,7 @@
         <v>ContGenAdm.exe add -i 8001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B88">
         <f t="shared" si="77"/>
         <v>2</v>
@@ -5253,7 +5254,7 @@
         <v>ContGenAdm.exe add -i 8002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B89">
         <f t="shared" si="77"/>
         <v>3</v>
@@ -5307,13 +5308,13 @@
         <v>ContGenAdm.exe add -i 8003 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="2:19" x14ac:dyDescent="0.35">
       <c r="J90"/>
     </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="2:19" x14ac:dyDescent="0.35">
       <c r="J91"/>
     </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B92">
         <v>0</v>
       </c>
@@ -5363,7 +5364,7 @@
         <v>ContGenAdm.exe add -i 9000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B93">
         <f t="shared" ref="B93:B100" si="93">1+B92</f>
         <v>1</v>
@@ -5414,7 +5415,7 @@
         <v>ContGenAdm.exe add -i 9001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B94">
         <f t="shared" si="93"/>
         <v>2</v>
@@ -5465,7 +5466,7 @@
         <v>ContGenAdm.exe add -i 9002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B95">
         <f t="shared" si="93"/>
         <v>3</v>
@@ -5516,7 +5517,7 @@
         <v>ContGenAdm.exe add -i 9003 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B96">
         <f t="shared" si="93"/>
         <v>4</v>
@@ -5567,7 +5568,7 @@
         <v>ContGenAdm.exe add -i 9004 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B97">
         <f t="shared" si="93"/>
         <v>5</v>
@@ -5618,7 +5619,7 @@
         <v>ContGenAdm.exe add -i 9005 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B98">
         <f t="shared" si="93"/>
         <v>6</v>
@@ -5669,7 +5670,7 @@
         <v>ContGenAdm.exe add -i 9006 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B99">
         <f t="shared" si="93"/>
         <v>7</v>
@@ -5720,7 +5721,7 @@
         <v>ContGenAdm.exe add -i 9007 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B100">
         <f t="shared" si="93"/>
         <v>8</v>
@@ -5771,7 +5772,7 @@
         <v>ContGenAdm.exe add -i 9008 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B103">
         <v>0</v>
       </c>
@@ -5821,7 +5822,7 @@
         <v>ContGenAdm.exe add -i 10000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B104">
         <f t="shared" ref="B104" si="103">1+B103</f>
         <v>1</v>
@@ -5872,7 +5873,7 @@
         <v>ContGenAdm.exe add -i 10001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B107">
         <v>0</v>
       </c>
@@ -5915,7 +5916,7 @@
         <v>ContGenAdm.exe add -i 11000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B108">
         <f t="shared" ref="B108:B117" si="107">1+B107</f>
         <v>1</v>
@@ -5959,7 +5960,7 @@
         <v>ContGenAdm.exe add -i 11001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B109">
         <f t="shared" si="107"/>
         <v>2</v>
@@ -6003,7 +6004,7 @@
         <v>ContGenAdm.exe add -i 11002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="110" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B110">
         <f t="shared" si="107"/>
         <v>3</v>
@@ -6047,7 +6048,7 @@
         <v>ContGenAdm.exe add -i 11003 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="111" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B111">
         <f t="shared" si="107"/>
         <v>4</v>
@@ -6091,7 +6092,7 @@
         <v>ContGenAdm.exe add -i 11004 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="112" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B112">
         <f t="shared" si="107"/>
         <v>5</v>
@@ -6135,7 +6136,7 @@
         <v>ContGenAdm.exe add -i 11005 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="113" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B113">
         <f t="shared" si="107"/>
         <v>6</v>
@@ -6179,7 +6180,7 @@
         <v>ContGenAdm.exe add -i 11006 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="114" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B114">
         <f t="shared" si="107"/>
         <v>7</v>
@@ -6223,7 +6224,7 @@
         <v>ContGenAdm.exe add -i 11007 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="115" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B115">
         <f t="shared" si="107"/>
         <v>8</v>
@@ -6267,7 +6268,7 @@
         <v>ContGenAdm.exe add -i 11008 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="116" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B116">
         <f t="shared" si="107"/>
         <v>9</v>
@@ -6311,7 +6312,7 @@
         <v>ContGenAdm.exe add -i 11009 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="117" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B117">
         <f t="shared" si="107"/>
         <v>10</v>
@@ -6355,7 +6356,7 @@
         <v>ContGenAdm.exe add -i 11010 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="120" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B120">
         <v>0</v>
       </c>
@@ -6398,7 +6399,7 @@
         <v>ContGenAdm.exe add -i 12000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="121" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B121">
         <f t="shared" ref="B121:B130" si="115">1+B120</f>
         <v>1</v>
@@ -6442,7 +6443,7 @@
         <v>ContGenAdm.exe add -i 12001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="122" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B122">
         <f t="shared" si="115"/>
         <v>2</v>
@@ -6486,7 +6487,7 @@
         <v>ContGenAdm.exe add -i 12002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="123" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B123">
         <f t="shared" si="115"/>
         <v>3</v>
@@ -6530,7 +6531,7 @@
         <v>ContGenAdm.exe add -i 12003 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="124" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B124">
         <f t="shared" si="115"/>
         <v>4</v>
@@ -6574,7 +6575,7 @@
         <v>ContGenAdm.exe add -i 12004 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="125" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B125">
         <f t="shared" si="115"/>
         <v>5</v>
@@ -6618,7 +6619,7 @@
         <v>ContGenAdm.exe add -i 12005 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="126" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B126">
         <f t="shared" si="115"/>
         <v>6</v>
@@ -6662,7 +6663,7 @@
         <v>ContGenAdm.exe add -i 12006 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="127" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B127">
         <f t="shared" si="115"/>
         <v>7</v>
@@ -6706,7 +6707,7 @@
         <v>ContGenAdm.exe add -i 12007 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="128" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B128">
         <f t="shared" si="115"/>
         <v>8</v>
@@ -6750,7 +6751,7 @@
         <v>ContGenAdm.exe add -i 12008 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="129" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B129">
         <f t="shared" si="115"/>
         <v>9</v>
@@ -6794,7 +6795,7 @@
         <v>ContGenAdm.exe add -i 12009 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="130" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B130">
         <f t="shared" si="115"/>
         <v>10</v>
@@ -6838,7 +6839,7 @@
         <v>ContGenAdm.exe add -i 12010 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="133" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B133">
         <v>0</v>
       </c>
@@ -6881,7 +6882,7 @@
         <v>ContGenAdm.exe add -i 13000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="134" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B134">
         <f t="shared" ref="B134:B135" si="123">1+B133</f>
         <v>1</v>
@@ -6925,7 +6926,7 @@
         <v>ContGenAdm.exe add -i 13001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="135" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B135">
         <f t="shared" si="123"/>
         <v>2</v>
@@ -6969,7 +6970,7 @@
         <v>ContGenAdm.exe add -i 13002 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="136" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="2:19" x14ac:dyDescent="0.35">
       <c r="J136" s="11"/>
       <c r="K136" s="12"/>
       <c r="L136" s="11"/>
@@ -6978,7 +6979,7 @@
       <c r="O136" s="11"/>
       <c r="P136" s="11"/>
     </row>
-    <row r="138" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B138">
         <v>0</v>
       </c>
@@ -7021,7 +7022,7 @@
         <v>ContGenAdm.exe add -i 14000 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="139" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B139">
         <f t="shared" ref="B139:B140" si="131">1+B138</f>
         <v>1</v>
@@ -7065,7 +7066,7 @@
         <v>ContGenAdm.exe add -i 14001 -n 20 -m 3 -y 10 -t 250000 -r 25</v>
       </c>
     </row>
-    <row r="140" spans="2:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B140">
         <f t="shared" si="131"/>
         <v>2</v>
@@ -7117,22 +7118,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CCFDC-E723-428F-8C43-820106604DAB}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.89453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.62890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83984375" style="2"/>
-    <col min="6" max="6" width="12.1015625" customWidth="1"/>
-    <col min="7" max="7" width="13.89453125" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" style="2"/>
+    <col min="6" max="6" width="12.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -7149,7 +7150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7170,7 +7171,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>1+A2</f>
         <v>2</v>
@@ -7192,7 +7193,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" ref="A4:A51" si="4">1+A3</f>
         <v>3</v>
@@ -7214,7 +7215,7 @@
         <v>9333</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -7236,7 +7237,7 @@
         <v>37451</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -7258,7 +7259,7 @@
         <v>111113</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -7280,7 +7281,7 @@
         <v>271455</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -7302,7 +7303,7 @@
         <v>579197</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -7324,7 +7325,7 @@
         <v>1118483</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -7346,7 +7347,7 @@
         <v>2000721</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -7367,8 +7368,12 @@
         <f t="shared" si="3"/>
         <v>3368423</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="H11" s="14">
+        <f>G11/B21</f>
+        <v>51.314275703426105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -7397,7 +7402,7 @@
         <v>5399045</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -7419,7 +7424,7 @@
         <v>8308827</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -7441,7 +7446,7 @@
         <v>12356633</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -7463,7 +7468,7 @@
         <v>17847791</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -7485,7 +7490,7 @@
         <v>25137933</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -7507,7 +7512,7 @@
         <v>34636835</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -7529,7 +7534,7 @@
         <v>46812257</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -7551,7 +7556,7 @@
         <v>62193783</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -7573,7 +7578,7 @@
         <v>81376661</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -7601,8 +7606,12 @@
         <f t="shared" si="3"/>
         <v>105025643</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21" s="14">
+        <f>G21/B21</f>
+        <v>1599.9519065246866</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -7624,7 +7633,7 @@
         <v>133878825</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -7646,7 +7655,7 @@
         <v>168751487</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -7668,7 +7677,7 @@
         <v>210539933</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -7690,7 +7699,7 @@
         <v>260225331</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -7719,7 +7728,7 @@
         <v>318877553</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -7741,7 +7750,7 @@
         <v>387659015</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -7763,7 +7772,7 @@
         <v>467828517</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -7785,7 +7794,7 @@
         <v>560745083</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -7807,7 +7816,7 @@
         <v>667871801</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -7829,7 +7838,7 @@
         <v>790779663</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -7851,7 +7860,7 @@
         <v>931151405</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -7873,7 +7882,7 @@
         <v>1090785347</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -7895,7 +7904,7 @@
         <v>1271599233</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -7917,7 +7926,7 @@
         <v>1475634071</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -7939,7 +7948,7 @@
         <v>1705057973</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -7961,7 +7970,7 @@
         <v>1962169995</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="4"/>
         <v>37</v>
@@ -7983,7 +7992,7 @@
         <v>2249403977</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="4"/>
         <v>38</v>
@@ -8005,7 +8014,7 @@
         <v>2569332383</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -8027,7 +8036,7 @@
         <v>2924670141</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="4"/>
         <v>40</v>
@@ -8049,7 +8058,7 @@
         <v>3318278483</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="4"/>
         <v>41</v>
@@ -8071,7 +8080,7 @@
         <v>3753168785</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="4"/>
         <v>42</v>
@@ -8093,7 +8102,7 @@
         <v>4232506407</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="4"/>
         <v>43</v>
@@ -8115,7 +8124,7 @@
         <v>4759614533</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="4"/>
         <v>44</v>
@@ -8137,7 +8146,7 @@
         <v>5337978011</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="4"/>
         <v>45</v>
@@ -8159,7 +8168,7 @@
         <v>5971247193</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="4"/>
         <v>46</v>
@@ -8181,7 +8190,7 @@
         <v>6663241775</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="4"/>
         <v>47</v>
@@ -8203,7 +8212,7 @@
         <v>7417954637</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="4"/>
         <v>48</v>
@@ -8225,7 +8234,7 @@
         <v>8239555683</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="4"/>
         <v>49</v>
@@ -8247,7 +8256,7 @@
         <v>9132395681</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="4"/>
         <v>50</v>
@@ -8282,9 +8291,9 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -8304,7 +8313,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>5</v>
       </c>
@@ -8324,7 +8333,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>11</v>
       </c>
@@ -8344,7 +8353,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>11</v>
       </c>
@@ -8364,7 +8373,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>11</v>
       </c>
@@ -8384,7 +8393,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>11</v>
       </c>
@@ -8404,7 +8413,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>11</v>
       </c>
@@ -8424,7 +8433,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>11</v>
       </c>
@@ -8444,7 +8453,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>20</v>
       </c>
@@ -8464,7 +8473,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>20</v>
       </c>
@@ -8484,7 +8493,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>20</v>
       </c>
@@ -8504,7 +8513,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>20</v>
       </c>
@@ -8537,9 +8546,9 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -8559,7 +8568,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11</v>
       </c>
@@ -8579,7 +8588,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>11</v>
       </c>
@@ -8599,7 +8608,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>11</v>
       </c>
@@ -8619,7 +8628,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>11</v>
       </c>
@@ -8639,7 +8648,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>11</v>
       </c>

--- a/Math/ListOfDefaults.xlsx
+++ b/Math/ListOfDefaults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ClmFSharp\Math\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C7A932-DFC3-4423-9B5A-661E93BC6E23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31774980-E8BF-4063-BA10-F05E2F8EF2F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{7221B266-219D-4321-8BE8-D751E7C4076A}"/>
   </bookViews>
@@ -258,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -282,6 +282,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7118,10 +7119,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CCFDC-E723-428F-8C43-820106604DAB}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7490,7 +7491,7 @@
         <v>25137933</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -7512,7 +7513,7 @@
         <v>34636835</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -7534,7 +7535,7 @@
         <v>46812257</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -7556,7 +7557,7 @@
         <v>62193783</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -7578,7 +7579,7 @@
         <v>81376661</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -7592,11 +7593,11 @@
         <v>640000</v>
       </c>
       <c r="D21" s="7">
-        <v>1.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="E21" s="9">
         <f>C21*D21</f>
-        <v>6.4</v>
+        <v>12.8</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="2"/>
@@ -7610,8 +7611,12 @@
         <f>G21/B21</f>
         <v>1599.9519065246866</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K21" s="15">
+        <f>SQRT(C21*D21*(1-D21))</f>
+        <v>3.5776729867331363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -7633,7 +7638,7 @@
         <v>133878825</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -7655,7 +7660,7 @@
         <v>168751487</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -7677,7 +7682,7 @@
         <v>210539933</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -7699,7 +7704,7 @@
         <v>260225331</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -7728,7 +7733,7 @@
         <v>318877553</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -7750,7 +7755,7 @@
         <v>387659015</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -7772,7 +7777,7 @@
         <v>467828517</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -7794,7 +7799,7 @@
         <v>560745083</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -7816,7 +7821,7 @@
         <v>667871801</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -7838,7 +7843,7 @@
         <v>790779663</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="4"/>
         <v>31</v>
